--- a/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasin\git\tb-ttap-brivge-v2\Excel Files\Scenario 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5785D004-3BC7-450A-9148-BF055B203495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3FA8F9-BCFC-4766-A1B5-35D08BCBE0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="621" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="621" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="5" r:id="rId1"/>
@@ -4000,8 +4000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF233ECF-E9BE-4D6E-8DC6-0D5B67DB1A0A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4341,11 +4341,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Dec 2023</v>
+        <v>01 Jan 2024</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Jan 2024</v>
+        <v>01 Feb 2024</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4358,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4450,11 +4450,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4470,7 +4473,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>09 Jan 2024</v>
+        <v>11 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -4509,11 +4512,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>cEA05-2310002</v>
+        <v>cEA05-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4587,11 +4590,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sEA05-2310002</v>
+        <v>sEA05-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4630,11 +4633,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>pEAs05-2310002</v>
+        <v>pEAs05-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4673,11 +4676,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sEAs05-2310001</v>
+        <v>sEAs05-2311001</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sEAs05-2310002</v>
+        <v>sEAs05-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4788,7 +4791,7 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="str">
         <f ca="1">'TC16-Supplier SO'!B2</f>
-        <v>sEAs05-2310001</v>
+        <v>sEAs05-2311001</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>164</v>
@@ -4805,7 +4808,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
@@ -4869,7 +4872,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
@@ -4935,7 +4938,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="J4" t="s">
         <v>36</v>
@@ -4995,7 +4998,7 @@
       </c>
       <c r="I5" s="13" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
@@ -5055,7 +5058,7 @@
       </c>
       <c r="I6" s="13" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -5115,7 +5118,7 @@
       </c>
       <c r="I7" s="13" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="J7" t="s">
         <v>36</v>
@@ -5463,7 +5466,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sEAs05-2310002</v>
+        <v>sEAs05-2311002</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>164</v>
@@ -5476,7 +5479,7 @@
       </c>
       <c r="I2" s="13" t="str">
         <f ca="1">'TC15-BU PO'!C2</f>
-        <v>pEAs05-2310002</v>
+        <v>pEAs05-2311002</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
@@ -5527,7 +5530,7 @@
       </c>
       <c r="I3" s="13" t="str">
         <f ca="1">'TC15-BU PO'!C2</f>
-        <v>pEAs05-2310002</v>
+        <v>pEAs05-2311002</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
@@ -5578,7 +5581,7 @@
       </c>
       <c r="I4" s="13" t="str">
         <f ca="1">'TC15-BU PO'!C2</f>
-        <v>pEAs05-2310002</v>
+        <v>pEAs05-2311002</v>
       </c>
       <c r="J4" t="s">
         <v>36</v>
@@ -5629,7 +5632,7 @@
       </c>
       <c r="I5" s="13" t="str">
         <f ca="1">'TC15-BU PO'!C2</f>
-        <v>pEAs05-2310002</v>
+        <v>pEAs05-2311002</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
@@ -5680,7 +5683,7 @@
       </c>
       <c r="I6" s="13" t="str">
         <f ca="1">'TC15-BU PO'!C2</f>
-        <v>pEAs05-2310002</v>
+        <v>pEAs05-2311002</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -5731,7 +5734,7 @@
       </c>
       <c r="I7" s="13" t="str">
         <f ca="1">'TC15-BU PO'!C2</f>
-        <v>pEAs05-2310002</v>
+        <v>pEAs05-2311002</v>
       </c>
       <c r="J7" t="s">
         <v>36</v>
@@ -5820,7 +5823,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rcEA05-2310001-01</v>
+        <v>rcEA05-2311001-01</v>
       </c>
       <c r="E2" t="s">
         <v>374</v>
@@ -6293,7 +6296,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
@@ -6321,7 +6324,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -6349,7 +6352,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
@@ -6377,7 +6380,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -6405,7 +6408,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -6433,7 +6436,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -6506,7 +6509,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -6533,7 +6536,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -6560,7 +6563,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -6587,7 +6590,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -6614,7 +6617,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -6641,7 +6644,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -6711,7 +6714,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
@@ -6736,7 +6739,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -6761,7 +6764,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
@@ -6786,7 +6789,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -6811,7 +6814,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -6836,7 +6839,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -7033,11 +7036,11 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Dec 2023</v>
+        <v>01 Jan 2024</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Jan 2024</v>
+        <v>01 Feb 2024</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
@@ -7106,7 +7109,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-02"</f>
-        <v>rcEA05-2310001-02</v>
+        <v>rcEA05-2311001-02</v>
       </c>
       <c r="B2" t="s">
         <v>357</v>
@@ -8049,7 +8052,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
@@ -8109,7 +8112,7 @@
       </c>
       <c r="D3" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -8169,7 +8172,7 @@
       </c>
       <c r="D4" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
@@ -8229,7 +8232,7 @@
       </c>
       <c r="D5" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -8289,7 +8292,7 @@
       </c>
       <c r="D6" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -8349,7 +8352,7 @@
       </c>
       <c r="D7" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -8505,7 +8508,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -8580,7 +8583,7 @@
       </c>
       <c r="D3" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -8655,7 +8658,7 @@
       </c>
       <c r="D4" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -8730,7 +8733,7 @@
       </c>
       <c r="D5" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -8805,7 +8808,7 @@
       </c>
       <c r="D6" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -8880,7 +8883,7 @@
       </c>
       <c r="D7" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cEA05-2310001</v>
+        <v>cEA05-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -9040,7 +9043,7 @@
       <c r="C2" s="1"/>
       <c r="D2" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
@@ -9104,7 +9107,7 @@
       <c r="C3" s="1"/>
       <c r="D3" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -9168,7 +9171,7 @@
       <c r="C4" s="1"/>
       <c r="D4" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
@@ -9232,7 +9235,7 @@
       <c r="C5" s="1"/>
       <c r="D5" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -9296,7 +9299,7 @@
       <c r="C6" s="1"/>
       <c r="D6" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -9360,7 +9363,7 @@
       <c r="C7" s="1"/>
       <c r="D7" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sEA05-2310001</v>
+        <v>sEA05-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -9510,7 +9513,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>36</v>
@@ -9576,7 +9579,7 @@
       </c>
       <c r="D3" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>36</v>
@@ -9642,7 +9645,7 @@
       </c>
       <c r="D4" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>36</v>
@@ -9708,7 +9711,7 @@
       </c>
       <c r="D5" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>36</v>
@@ -9774,7 +9777,7 @@
       </c>
       <c r="D6" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>36</v>
@@ -9840,7 +9843,7 @@
       </c>
       <c r="D7" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pEAs05-2310001</v>
+        <v>pEAs05-2311001</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>36</v>
@@ -9937,15 +9940,15 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Nov 2023</v>
+        <v>01 Dec 2023</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Dec 2023</v>
+        <v>01 Jan 2024</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Jan 2024</v>
+        <v>01 Feb 2024</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
@@ -10539,7 +10542,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"rs"&amp;AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rsEAs05-2310001-01</v>
+        <v>rsEAs05-2311001-01</v>
       </c>
       <c r="B2" t="s">
         <v>356</v>
@@ -11955,26 +11958,26 @@
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-01-005</v>
+        <v>o-SG-BAFCO-2311-01-005</v>
       </c>
       <c r="B3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="C3" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="D3" s="44">
         <v>1000</v>
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" ref="E3:E8" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="F3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="6"/>
@@ -11985,7 +11988,7 @@
       <c r="M3" s="32"/>
       <c r="N3" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-01-005</v>
+        <v>OP-231101-01-005</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>241</v>
@@ -12001,7 +12004,7 @@
       </c>
       <c r="S3" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231030-01-005</v>
+        <v>IP-231101-01-005</v>
       </c>
       <c r="T3" s="33"/>
       <c r="U3" s="34">
@@ -12017,26 +12020,26 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-01-005</v>
+        <v>o-SG-BAFCO-2311-01-005</v>
       </c>
       <c r="B4" s="29" t="str">
         <f t="shared" ref="B4:B8" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="C4" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="D4" s="44">
         <v>800</v>
       </c>
       <c r="E4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="F4" s="29" t="str">
         <f t="shared" ref="F4:F8" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>259</v>
@@ -12049,7 +12052,7 @@
       <c r="M4" s="32"/>
       <c r="N4" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-01-005</v>
+        <v>OP-231101-01-005</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>242</v>
@@ -12065,7 +12068,7 @@
       </c>
       <c r="S4" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231030-02-005</v>
+        <v>IP-231101-02-005</v>
       </c>
       <c r="T4" s="33" t="s">
         <v>251</v>
@@ -12083,26 +12086,26 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-01-005</v>
+        <v>o-SG-BAFCO-2311-01-005</v>
       </c>
       <c r="B5" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="C5" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="D5" s="44">
         <v>900</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="F5" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>239</v>
@@ -12125,7 +12128,7 @@
       </c>
       <c r="N5" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-02-005</v>
+        <v>OP-231101-02-005</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>242</v>
@@ -12148,26 +12151,26 @@
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-01-005</v>
+        <v>o-SG-BAFCO-2311-01-005</v>
       </c>
       <c r="B6" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="C6" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="D6" s="44">
         <v>1200</v>
       </c>
       <c r="E6" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="F6" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>239</v>
@@ -12192,7 +12195,7 @@
       </c>
       <c r="N6" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-02-005</v>
+        <v>OP-231101-02-005</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>242</v>
@@ -12215,26 +12218,26 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-01-005</v>
+        <v>o-SG-BAFCO-2311-01-005</v>
       </c>
       <c r="B7" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="C7" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="D7" s="44">
         <v>1000</v>
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="F7" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>240</v>
@@ -12259,7 +12262,7 @@
       </c>
       <c r="N7" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-03-005</v>
+        <v>OP-231101-03-005</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>243</v>
@@ -12275,7 +12278,7 @@
       </c>
       <c r="S7" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231030-01-005</v>
+        <v>IP-231101-01-005</v>
       </c>
       <c r="T7" s="33" t="s">
         <v>251</v>
@@ -12293,26 +12296,26 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-01-005</v>
+        <v>o-SG-BAFCO-2311-01-005</v>
       </c>
       <c r="B8" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="C8" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="D8" s="44">
         <v>1100</v>
       </c>
       <c r="E8" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="F8" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>240</v>
@@ -12337,7 +12340,7 @@
       </c>
       <c r="N8" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-03-005</v>
+        <v>OP-231101-03-005</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>243</v>
@@ -12353,7 +12356,7 @@
       </c>
       <c r="S8" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231030-02-005</v>
+        <v>IP-231101-02-005</v>
       </c>
       <c r="T8" s="33" t="s">
         <v>258</v>
@@ -12656,11 +12659,11 @@
       </c>
       <c r="C3" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-02-005</v>
+        <v>o-SG-BAFCO-2311-02-005</v>
       </c>
       <c r="D3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>210</v>
@@ -12685,11 +12688,11 @@
       </c>
       <c r="N3" s="29" t="str">
         <f t="shared" ref="N3:N10" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="O3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>271</v>
@@ -12702,7 +12705,7 @@
       <c r="V3" s="36"/>
       <c r="W3" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-02-005</v>
+        <v>OP-231101-02-005</v>
       </c>
       <c r="X3" s="17" t="s">
         <v>272</v>
@@ -12712,7 +12715,7 @@
       <c r="AA3" s="36"/>
       <c r="AB3" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231030-01-005</v>
+        <v>IP-231101-01-005</v>
       </c>
       <c r="AC3" s="37" t="s">
         <v>273</v>
@@ -12722,7 +12725,7 @@
       <c r="AF3" s="36"/>
       <c r="AG3" s="29" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sEAs05-2310002</v>
+        <v>sEAs05-2311002</v>
       </c>
       <c r="AH3" s="29" t="s">
         <v>83</v>
@@ -12751,11 +12754,11 @@
       </c>
       <c r="C4" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-02-005</v>
+        <v>o-SG-BAFCO-2311-02-005</v>
       </c>
       <c r="D4" s="29" t="str">
         <f t="shared" ref="D4:D10" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>210</v>
@@ -12780,11 +12783,11 @@
       </c>
       <c r="N4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="O4" s="29" t="str">
         <f t="shared" ref="O4:O10" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>271</v>
@@ -12797,7 +12800,7 @@
       <c r="V4" s="36"/>
       <c r="W4" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-02-005</v>
+        <v>OP-231101-02-005</v>
       </c>
       <c r="X4" s="17" t="s">
         <v>272</v>
@@ -12807,7 +12810,7 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231030-02-005</v>
+        <v>IP-231101-02-005</v>
       </c>
       <c r="AC4" s="37" t="s">
         <v>274</v>
@@ -12817,7 +12820,7 @@
       <c r="AF4" s="36"/>
       <c r="AG4" s="29" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sEAs05-2310002</v>
+        <v>sEAs05-2311002</v>
       </c>
       <c r="AH4" s="29" t="s">
         <v>83</v>
@@ -12846,11 +12849,11 @@
       </c>
       <c r="C5" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-02-005</v>
+        <v>o-SG-BAFCO-2311-02-005</v>
       </c>
       <c r="D5" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>28</v>
@@ -12875,11 +12878,11 @@
       </c>
       <c r="N5" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="O5" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>271</v>
@@ -12892,7 +12895,7 @@
       <c r="V5" s="32"/>
       <c r="W5" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-01-005</v>
+        <v>OP-231101-01-005</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>275</v>
@@ -12908,7 +12911,7 @@
       </c>
       <c r="AB5" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231030-02-005</v>
+        <v>IP-231101-02-005</v>
       </c>
       <c r="AC5" s="33" t="s">
         <v>276</v>
@@ -12918,7 +12921,7 @@
       <c r="AF5" s="32"/>
       <c r="AG5" s="29" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sEAs05-2310002</v>
+        <v>sEAs05-2311002</v>
       </c>
       <c r="AH5" s="29" t="s">
         <v>83</v>
@@ -12947,11 +12950,11 @@
       </c>
       <c r="C6" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-02-005</v>
+        <v>o-SG-BAFCO-2311-02-005</v>
       </c>
       <c r="D6" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>29</v>
@@ -12976,11 +12979,11 @@
       </c>
       <c r="N6" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="O6" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>277</v>
@@ -13005,7 +13008,7 @@
       </c>
       <c r="W6" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-01-005</v>
+        <v>OP-231101-01-005</v>
       </c>
       <c r="X6" s="17" t="s">
         <v>281</v>
@@ -13015,7 +13018,7 @@
       <c r="AA6" s="36"/>
       <c r="AB6" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231030-01-005</v>
+        <v>IP-231101-01-005</v>
       </c>
       <c r="AC6" s="37"/>
       <c r="AD6" s="36"/>
@@ -13023,7 +13026,7 @@
       <c r="AF6" s="36"/>
       <c r="AG6" s="29" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sEAs05-2310002</v>
+        <v>sEAs05-2311002</v>
       </c>
       <c r="AH6" s="29" t="s">
         <v>83</v>
@@ -13052,15 +13055,15 @@
       </c>
       <c r="C7" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-03-005</v>
+        <v>o-SG-BAFCO-2311-03-005</v>
       </c>
       <c r="D7" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="F7" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2310-EA-02-005</v>
+        <v>B-2311-EA-02-005</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -13085,11 +13088,11 @@
       </c>
       <c r="N7" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="O7" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>282</v>
@@ -13106,7 +13109,7 @@
       <c r="V7" s="36"/>
       <c r="W7" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-01-005</v>
+        <v>OP-231101-01-005</v>
       </c>
       <c r="X7" s="17" t="s">
         <v>281</v>
@@ -13121,7 +13124,7 @@
       <c r="AF7" s="36"/>
       <c r="AG7" s="29" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sEAs05-2310002</v>
+        <v>sEAs05-2311002</v>
       </c>
       <c r="AH7" s="29" t="s">
         <v>83</v>
@@ -13150,15 +13153,15 @@
       </c>
       <c r="C8" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-03-005</v>
+        <v>o-SG-BAFCO-2311-03-005</v>
       </c>
       <c r="D8" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="F8" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2310-EA-02-005</v>
+        <v>B-2311-EA-02-005</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>171</v>
@@ -13183,11 +13186,11 @@
       </c>
       <c r="N8" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="O8" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>282</v>
@@ -13204,7 +13207,7 @@
       <c r="V8" s="36"/>
       <c r="W8" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-02-005</v>
+        <v>OP-231101-02-005</v>
       </c>
       <c r="X8" s="17" t="s">
         <v>275</v>
@@ -13219,7 +13222,7 @@
       <c r="AF8" s="36"/>
       <c r="AG8" s="29" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sEAs05-2310002</v>
+        <v>sEAs05-2311002</v>
       </c>
       <c r="AH8" s="29" t="s">
         <v>83</v>
@@ -13248,15 +13251,15 @@
       </c>
       <c r="C9" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-03-005</v>
+        <v>o-SG-BAFCO-2311-03-005</v>
       </c>
       <c r="D9" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="F9" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2310-EA-02-005</v>
+        <v>B-2311-EA-02-005</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>287</v>
@@ -13281,11 +13284,11 @@
       </c>
       <c r="N9" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="O9" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>284</v>
@@ -13310,7 +13313,7 @@
       </c>
       <c r="W9" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-03-005</v>
+        <v>OP-231101-03-005</v>
       </c>
       <c r="X9" s="17" t="s">
         <v>275</v>
@@ -13326,7 +13329,7 @@
       </c>
       <c r="AB9" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231030-01-005</v>
+        <v>IP-231101-01-005</v>
       </c>
       <c r="AC9" s="37" t="s">
         <v>276</v>
@@ -13342,7 +13345,7 @@
       </c>
       <c r="AG9" s="29" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sEAs05-2310002</v>
+        <v>sEAs05-2311002</v>
       </c>
       <c r="AH9" s="29" t="s">
         <v>83</v>
@@ -13371,15 +13374,15 @@
       </c>
       <c r="C10" s="30" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm") &amp; "-04-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-04-005</v>
+        <v>o-SG-BAFCO-2311-04-005</v>
       </c>
       <c r="D10" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="F10" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>B-2310-EA-03-005</v>
+        <v>B-2311-EA-03-005</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>287</v>
@@ -13404,11 +13407,11 @@
       </c>
       <c r="N10" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="O10" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09 Nov 2023</v>
+        <v>11 Nov 2023</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
@@ -13419,7 +13422,7 @@
       <c r="V10" s="36"/>
       <c r="W10" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231030-03-005</v>
+        <v>OP-231101-03-005</v>
       </c>
       <c r="X10" s="17" t="s">
         <v>275</v>
@@ -13435,7 +13438,7 @@
       </c>
       <c r="AB10" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231030-01-005</v>
+        <v>IP-231101-01-005</v>
       </c>
       <c r="AC10" s="37" t="s">
         <v>276</v>
@@ -13451,7 +13454,7 @@
       </c>
       <c r="AG10" s="29" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sEAs05-2310002</v>
+        <v>sEAs05-2311002</v>
       </c>
       <c r="AH10" s="29" t="s">
         <v>83</v>
@@ -13768,7 +13771,7 @@
     <row r="2" spans="1:26" s="41" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
@@ -13847,7 +13850,7 @@
     <row r="3" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>259</v>
@@ -13928,7 +13931,7 @@
     <row r="4" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>345</v>
@@ -14009,7 +14012,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>346</v>
@@ -14213,7 +14216,7 @@
     <row r="2" spans="1:26" s="41" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!F7</f>
-        <v>B-2310-EA-02-005</v>
+        <v>B-2311-EA-02-005</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>346</v>
@@ -14372,7 +14375,7 @@
     <row r="4" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!F8</f>
-        <v>B-2310-EA-02-005</v>
+        <v>B-2311-EA-02-005</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>345</v>
@@ -14453,7 +14456,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!F10</f>
-        <v>B-2310-EA-03-005</v>
+        <v>B-2311-EA-03-005</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>342</v>
@@ -14698,13 +14701,13 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C8</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G8</f>
@@ -14714,7 +14717,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C4</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="B4" s="42" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G4</f>
@@ -14724,7 +14727,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C6</f>
-        <v>B-2310-EA-01-005</v>
+        <v>B-2311-EA-01-005</v>
       </c>
       <c r="B5" s="42" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G6</f>
@@ -14747,7 +14750,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!F9</f>
-        <v>B-2310-EA-02-005</v>
+        <v>B-2311-EA-02-005</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>'TC44-Supplier Outbound -Spot'!P9</f>
@@ -14757,7 +14760,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!F8</f>
-        <v>B-2310-EA-02-005</v>
+        <v>B-2311-EA-02-005</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>'TC44-Supplier Outbound -Spot'!P8</f>
@@ -14767,7 +14770,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!F10</f>
-        <v>B-2310-EA-03-005</v>
+        <v>B-2311-EA-03-005</v>
       </c>
     </row>
   </sheetData>
@@ -14894,11 +14897,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C2" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -14907,11 +14910,11 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C3" s="29" t="str">
         <f t="shared" ref="C3:C15" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -14920,11 +14923,11 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -14933,11 +14936,11 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C5" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -14946,11 +14949,11 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C6" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -14959,11 +14962,11 @@
       </c>
       <c r="B7" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C7" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -14972,11 +14975,11 @@
       </c>
       <c r="B8" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C8" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -14985,11 +14988,11 @@
       </c>
       <c r="B9" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C9" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -14998,11 +15001,11 @@
       </c>
       <c r="B10" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C10" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15011,11 +15014,11 @@
       </c>
       <c r="B11" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C11" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15024,11 +15027,11 @@
       </c>
       <c r="B12" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C12" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -15037,11 +15040,11 @@
       </c>
       <c r="B13" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-01-005</v>
+        <v>i-VN-AKIRA-231101-01-005</v>
       </c>
       <c r="C13" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="D13" s="43">
         <v>1</v>
@@ -15059,11 +15062,11 @@
       </c>
       <c r="B14" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-02-005</v>
+        <v>i-VN-AKIRA-231101-02-005</v>
       </c>
       <c r="C14" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="D14" s="43">
         <v>1</v>
@@ -15081,11 +15084,11 @@
       </c>
       <c r="B15" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231030-02-005</v>
+        <v>i-VN-AKIRA-231101-02-005</v>
       </c>
       <c r="C15" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasin\git\tb-ttap-brivge-v2\Excel Files\Scenario 12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3FA8F9-BCFC-4766-A1B5-35D08BCBE0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C60E97E-9489-461A-82CB-5BA8948BC171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="621" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" firstSheet="41" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="5" r:id="rId1"/>
@@ -103,6 +103,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1637,15 +1648,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000_ "/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="0_ "/>
-    <numFmt numFmtId="171" formatCode="0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.000_ "/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="0_ "/>
+    <numFmt numFmtId="170" formatCode="0.00_ "/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1816,7 +1827,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -1852,7 +1863,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1868,19 +1879,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1891,36 +1902,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1929,11 +1940,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1949,7 +1960,7 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1964,7 +1975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -4341,11 +4352,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Jan 2024</v>
+        <v>02 Jan 2024</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Feb 2024</v>
+        <v>02 Feb 2024</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4473,7 +4484,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>11 Jan 2024</v>
+        <v>12 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -6865,7 +6876,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7036,15 +7047,15 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Jan 2024</v>
+        <v>02 Jan 2024</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Feb 2024</v>
+        <v>02 Feb 2024</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Mar 2024</v>
+        <v>02 Mar 2024</v>
       </c>
     </row>
   </sheetData>
@@ -7702,7 +7713,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8956,8 +8967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9073,6 +9084,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="27">
+        <f>'TC25-Customer Order Change'!D2</f>
         <v>500</v>
       </c>
       <c r="O2" s="27" t="s">
@@ -9137,6 +9149,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="27">
+        <f>'TC25-Customer Order Change'!D3</f>
         <v>500</v>
       </c>
       <c r="O3" s="27" t="s">
@@ -9201,6 +9214,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="27">
+        <f>'TC25-Customer Order Change'!D4</f>
         <v>500</v>
       </c>
       <c r="O4" s="27" t="s">
@@ -9265,6 +9279,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="27">
+        <f>'TC25-Customer Order Change'!D5</f>
         <v>500</v>
       </c>
       <c r="O5" s="27" t="s">
@@ -9329,6 +9344,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="27">
+        <f>'TC25-Customer Order Change'!D6</f>
         <v>1000</v>
       </c>
       <c r="O6" s="27" t="s">
@@ -9940,19 +9956,19 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Dec 2023</v>
+        <v>02 Dec 2023</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Jan 2024</v>
+        <v>02 Jan 2024</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Feb 2024</v>
+        <v>02 Feb 2024</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Mar 2024</v>
+        <v>02 Mar 2024</v>
       </c>
     </row>
   </sheetData>
@@ -11962,7 +11978,7 @@
       </c>
       <c r="B3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="C3" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -11973,11 +11989,11 @@
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" ref="E3:E8" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="F3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="6"/>
@@ -11988,7 +12004,7 @@
       <c r="M3" s="32"/>
       <c r="N3" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-01-005</v>
+        <v>OP-231102-01-005</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>241</v>
@@ -12004,7 +12020,7 @@
       </c>
       <c r="S3" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231101-01-005</v>
+        <v>IP-231102-01-005</v>
       </c>
       <c r="T3" s="33"/>
       <c r="U3" s="34">
@@ -12024,7 +12040,7 @@
       </c>
       <c r="B4" s="29" t="str">
         <f t="shared" ref="B4:B8" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="C4" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12035,11 +12051,11 @@
       </c>
       <c r="E4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="F4" s="29" t="str">
         <f t="shared" ref="F4:F8" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>259</v>
@@ -12052,7 +12068,7 @@
       <c r="M4" s="32"/>
       <c r="N4" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-01-005</v>
+        <v>OP-231102-01-005</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>242</v>
@@ -12068,7 +12084,7 @@
       </c>
       <c r="S4" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231101-02-005</v>
+        <v>IP-231102-02-005</v>
       </c>
       <c r="T4" s="33" t="s">
         <v>251</v>
@@ -12090,7 +12106,7 @@
       </c>
       <c r="B5" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="C5" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12101,11 +12117,11 @@
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="F5" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>239</v>
@@ -12128,7 +12144,7 @@
       </c>
       <c r="N5" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-02-005</v>
+        <v>OP-231102-02-005</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>242</v>
@@ -12155,7 +12171,7 @@
       </c>
       <c r="B6" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="C6" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12166,11 +12182,11 @@
       </c>
       <c r="E6" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="F6" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>239</v>
@@ -12195,7 +12211,7 @@
       </c>
       <c r="N6" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-02-005</v>
+        <v>OP-231102-02-005</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>242</v>
@@ -12222,7 +12238,7 @@
       </c>
       <c r="B7" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="C7" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12233,11 +12249,11 @@
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="F7" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>240</v>
@@ -12262,7 +12278,7 @@
       </c>
       <c r="N7" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-03-005</v>
+        <v>OP-231102-03-005</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>243</v>
@@ -12278,7 +12294,7 @@
       </c>
       <c r="S7" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231101-01-005</v>
+        <v>IP-231102-01-005</v>
       </c>
       <c r="T7" s="33" t="s">
         <v>251</v>
@@ -12300,7 +12316,7 @@
       </c>
       <c r="B8" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="C8" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12311,11 +12327,11 @@
       </c>
       <c r="E8" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="F8" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>240</v>
@@ -12340,7 +12356,7 @@
       </c>
       <c r="N8" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-03-005</v>
+        <v>OP-231102-03-005</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>243</v>
@@ -12356,7 +12372,7 @@
       </c>
       <c r="S8" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231101-02-005</v>
+        <v>IP-231102-02-005</v>
       </c>
       <c r="T8" s="33" t="s">
         <v>258</v>
@@ -12663,7 +12679,7 @@
       </c>
       <c r="D3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>210</v>
@@ -12688,11 +12704,11 @@
       </c>
       <c r="N3" s="29" t="str">
         <f t="shared" ref="N3:N10" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="O3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>271</v>
@@ -12705,7 +12721,7 @@
       <c r="V3" s="36"/>
       <c r="W3" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-02-005</v>
+        <v>OP-231102-02-005</v>
       </c>
       <c r="X3" s="17" t="s">
         <v>272</v>
@@ -12715,7 +12731,7 @@
       <c r="AA3" s="36"/>
       <c r="AB3" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231101-01-005</v>
+        <v>IP-231102-01-005</v>
       </c>
       <c r="AC3" s="37" t="s">
         <v>273</v>
@@ -12758,7 +12774,7 @@
       </c>
       <c r="D4" s="29" t="str">
         <f t="shared" ref="D4:D10" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>210</v>
@@ -12783,11 +12799,11 @@
       </c>
       <c r="N4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="O4" s="29" t="str">
         <f t="shared" ref="O4:O10" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>271</v>
@@ -12800,7 +12816,7 @@
       <c r="V4" s="36"/>
       <c r="W4" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-02-005</v>
+        <v>OP-231102-02-005</v>
       </c>
       <c r="X4" s="17" t="s">
         <v>272</v>
@@ -12810,7 +12826,7 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231101-02-005</v>
+        <v>IP-231102-02-005</v>
       </c>
       <c r="AC4" s="37" t="s">
         <v>274</v>
@@ -12853,7 +12869,7 @@
       </c>
       <c r="D5" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>28</v>
@@ -12878,11 +12894,11 @@
       </c>
       <c r="N5" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="O5" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>271</v>
@@ -12895,7 +12911,7 @@
       <c r="V5" s="32"/>
       <c r="W5" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-01-005</v>
+        <v>OP-231102-01-005</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>275</v>
@@ -12911,7 +12927,7 @@
       </c>
       <c r="AB5" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231101-02-005</v>
+        <v>IP-231102-02-005</v>
       </c>
       <c r="AC5" s="33" t="s">
         <v>276</v>
@@ -12954,7 +12970,7 @@
       </c>
       <c r="D6" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>29</v>
@@ -12979,11 +12995,11 @@
       </c>
       <c r="N6" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="O6" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>277</v>
@@ -13008,7 +13024,7 @@
       </c>
       <c r="W6" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-01-005</v>
+        <v>OP-231102-01-005</v>
       </c>
       <c r="X6" s="17" t="s">
         <v>281</v>
@@ -13018,7 +13034,7 @@
       <c r="AA6" s="36"/>
       <c r="AB6" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231101-01-005</v>
+        <v>IP-231102-01-005</v>
       </c>
       <c r="AC6" s="37"/>
       <c r="AD6" s="36"/>
@@ -13059,7 +13075,7 @@
       </c>
       <c r="D7" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="F7" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
@@ -13088,11 +13104,11 @@
       </c>
       <c r="N7" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="O7" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>282</v>
@@ -13109,7 +13125,7 @@
       <c r="V7" s="36"/>
       <c r="W7" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-01-005</v>
+        <v>OP-231102-01-005</v>
       </c>
       <c r="X7" s="17" t="s">
         <v>281</v>
@@ -13157,7 +13173,7 @@
       </c>
       <c r="D8" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="F8" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
@@ -13186,11 +13202,11 @@
       </c>
       <c r="N8" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="O8" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>282</v>
@@ -13207,7 +13223,7 @@
       <c r="V8" s="36"/>
       <c r="W8" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-02-005</v>
+        <v>OP-231102-02-005</v>
       </c>
       <c r="X8" s="17" t="s">
         <v>275</v>
@@ -13255,7 +13271,7 @@
       </c>
       <c r="D9" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="F9" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
@@ -13284,11 +13300,11 @@
       </c>
       <c r="N9" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="O9" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>284</v>
@@ -13313,7 +13329,7 @@
       </c>
       <c r="W9" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-03-005</v>
+        <v>OP-231102-03-005</v>
       </c>
       <c r="X9" s="17" t="s">
         <v>275</v>
@@ -13329,7 +13345,7 @@
       </c>
       <c r="AB9" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231101-01-005</v>
+        <v>IP-231102-01-005</v>
       </c>
       <c r="AC9" s="37" t="s">
         <v>276</v>
@@ -13378,7 +13394,7 @@
       </c>
       <c r="D10" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>31 Oct 2023</v>
+        <v>01 Nov 2023</v>
       </c>
       <c r="F10" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-03-0"&amp;AutoIncrement!A2</f>
@@ -13407,11 +13423,11 @@
       </c>
       <c r="N10" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="O10" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>11 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
@@ -13422,7 +13438,7 @@
       <c r="V10" s="36"/>
       <c r="W10" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231101-03-005</v>
+        <v>OP-231102-03-005</v>
       </c>
       <c r="X10" s="17" t="s">
         <v>275</v>
@@ -13438,7 +13454,7 @@
       </c>
       <c r="AB10" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231101-01-005</v>
+        <v>IP-231102-01-005</v>
       </c>
       <c r="AC10" s="37" t="s">
         <v>276</v>
@@ -14897,11 +14913,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C2" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -14910,11 +14926,11 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C3" s="29" t="str">
         <f t="shared" ref="C3:C15" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -14923,11 +14939,11 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -14936,11 +14952,11 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C5" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -14949,11 +14965,11 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C6" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -14962,11 +14978,11 @@
       </c>
       <c r="B7" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C7" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -14975,11 +14991,11 @@
       </c>
       <c r="B8" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C8" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -14988,11 +15004,11 @@
       </c>
       <c r="B9" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C9" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -15001,11 +15017,11 @@
       </c>
       <c r="B10" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C10" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15014,11 +15030,11 @@
       </c>
       <c r="B11" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C11" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15027,11 +15043,11 @@
       </c>
       <c r="B12" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C12" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -15040,11 +15056,11 @@
       </c>
       <c r="B13" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-01-005</v>
+        <v>i-VN-AKIRA-231102-01-005</v>
       </c>
       <c r="C13" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
       <c r="D13" s="43">
         <v>1</v>
@@ -15062,11 +15078,11 @@
       </c>
       <c r="B14" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-02-005</v>
+        <v>i-VN-AKIRA-231102-02-005</v>
       </c>
       <c r="C14" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
       <c r="D14" s="43">
         <v>1</v>
@@ -15084,11 +15100,11 @@
       </c>
       <c r="B15" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231101-02-005</v>
+        <v>i-VN-AKIRA-231102-02-005</v>
       </c>
       <c r="C15" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01 Nov 2023</v>
+        <v>02 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -15657,15 +15673,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb25f0482db5a79c3d6b5c0926ca00a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67b0f0bb964429d84d53f322277e62a8" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -15836,15 +15843,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE8E0C0-5F6A-4B9A-ADE6-103C7424D86B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99662FE2-EAA5-4D8B-B946-6554FA1D8F90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15861,4 +15869,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE8E0C0-5F6A-4B9A-ADE6-103C7424D86B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasin\git\tb-ttap-brivge-v2\Excel Files\Scenario 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C60E97E-9489-461A-82CB-5BA8948BC171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7597E00E-DA7A-4990-A1B2-AC7BA6A2F27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" firstSheet="41" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="621" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="5" r:id="rId1"/>
@@ -103,23 +103,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="494">
   <si>
     <t>No</t>
   </si>
@@ -1635,9 +1624,6 @@
   </si>
   <si>
     <t>TTAP2310016</t>
-  </si>
-  <si>
-    <t>十月 30, 2023 ~ 十一月 05, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Period Generator </t>
@@ -1648,15 +1634,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000_ "/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0_ "/>
-    <numFmt numFmtId="170" formatCode="0.00_ "/>
-    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000_ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="0_ "/>
+    <numFmt numFmtId="171" formatCode="0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1827,7 +1813,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -1863,7 +1849,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1879,19 +1865,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1902,36 +1888,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1940,11 +1926,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1960,7 +1946,7 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1975,7 +1961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -4011,7 +3997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF233ECF-E9BE-4D6E-8DC6-0D5B67DB1A0A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4022,12 +4008,13 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>493</v>
+      <c r="A2" t="str">
+        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "mmm d, yyyy")</f>
+        <v>Oct 30, 2023 ~ Nov 5, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -4352,11 +4339,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Jan 2024</v>
+        <v>05 Jan 2024</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Feb 2024</v>
+        <v>05 Feb 2024</v>
       </c>
     </row>
   </sheetData>
@@ -4484,7 +4471,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>12 Jan 2024</v>
+        <v>15 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -7047,15 +7034,15 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Jan 2024</v>
+        <v>05 Jan 2024</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Feb 2024</v>
+        <v>05 Feb 2024</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Mar 2024</v>
+        <v>05 Mar 2024</v>
       </c>
     </row>
   </sheetData>
@@ -8967,7 +8954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -9956,19 +9943,19 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>05 Dec 2023</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Jan 2024</v>
+        <v>05 Jan 2024</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Feb 2024</v>
+        <v>05 Feb 2024</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Mar 2024</v>
+        <v>05 Mar 2024</v>
       </c>
     </row>
   </sheetData>
@@ -11978,7 +11965,7 @@
       </c>
       <c r="B3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="C3" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -11989,11 +11976,11 @@
       </c>
       <c r="E3" s="29" t="str">
         <f t="shared" ref="E3:E8" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="F3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="6"/>
@@ -12004,7 +11991,7 @@
       <c r="M3" s="32"/>
       <c r="N3" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-01-005</v>
+        <v>OP-231105-01-005</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>241</v>
@@ -12020,7 +12007,7 @@
       </c>
       <c r="S3" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231102-01-005</v>
+        <v>IP-231105-01-005</v>
       </c>
       <c r="T3" s="33"/>
       <c r="U3" s="34">
@@ -12040,7 +12027,7 @@
       </c>
       <c r="B4" s="29" t="str">
         <f t="shared" ref="B4:B8" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="C4" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12051,11 +12038,11 @@
       </c>
       <c r="E4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="F4" s="29" t="str">
         <f t="shared" ref="F4:F8" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>259</v>
@@ -12068,7 +12055,7 @@
       <c r="M4" s="32"/>
       <c r="N4" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-01-005</v>
+        <v>OP-231105-01-005</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>242</v>
@@ -12084,7 +12071,7 @@
       </c>
       <c r="S4" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231102-02-005</v>
+        <v>IP-231105-02-005</v>
       </c>
       <c r="T4" s="33" t="s">
         <v>251</v>
@@ -12106,7 +12093,7 @@
       </c>
       <c r="B5" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="C5" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12117,11 +12104,11 @@
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="F5" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>239</v>
@@ -12144,7 +12131,7 @@
       </c>
       <c r="N5" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-02-005</v>
+        <v>OP-231105-02-005</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>242</v>
@@ -12171,7 +12158,7 @@
       </c>
       <c r="B6" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="C6" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12182,11 +12169,11 @@
       </c>
       <c r="E6" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="F6" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>239</v>
@@ -12211,7 +12198,7 @@
       </c>
       <c r="N6" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-02-005</v>
+        <v>OP-231105-02-005</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>242</v>
@@ -12238,7 +12225,7 @@
       </c>
       <c r="B7" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="C7" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12249,11 +12236,11 @@
       </c>
       <c r="E7" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="F7" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>240</v>
@@ -12278,7 +12265,7 @@
       </c>
       <c r="N7" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-03-005</v>
+        <v>OP-231105-03-005</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>243</v>
@@ -12294,7 +12281,7 @@
       </c>
       <c r="S7" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231102-01-005</v>
+        <v>IP-231105-01-005</v>
       </c>
       <c r="T7" s="33" t="s">
         <v>251</v>
@@ -12316,7 +12303,7 @@
       </c>
       <c r="B8" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="C8" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12327,11 +12314,11 @@
       </c>
       <c r="E8" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="F8" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>240</v>
@@ -12356,7 +12343,7 @@
       </c>
       <c r="N8" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-03-005</v>
+        <v>OP-231105-03-005</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>243</v>
@@ -12372,7 +12359,7 @@
       </c>
       <c r="S8" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231102-02-005</v>
+        <v>IP-231105-02-005</v>
       </c>
       <c r="T8" s="33" t="s">
         <v>258</v>
@@ -12679,7 +12666,7 @@
       </c>
       <c r="D3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>210</v>
@@ -12704,11 +12691,11 @@
       </c>
       <c r="N3" s="29" t="str">
         <f t="shared" ref="N3:N10" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="O3" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>271</v>
@@ -12721,7 +12708,7 @@
       <c r="V3" s="36"/>
       <c r="W3" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-02-005</v>
+        <v>OP-231105-02-005</v>
       </c>
       <c r="X3" s="17" t="s">
         <v>272</v>
@@ -12731,7 +12718,7 @@
       <c r="AA3" s="36"/>
       <c r="AB3" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231102-01-005</v>
+        <v>IP-231105-01-005</v>
       </c>
       <c r="AC3" s="37" t="s">
         <v>273</v>
@@ -12774,7 +12761,7 @@
       </c>
       <c r="D4" s="29" t="str">
         <f t="shared" ref="D4:D10" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>210</v>
@@ -12799,11 +12786,11 @@
       </c>
       <c r="N4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="O4" s="29" t="str">
         <f t="shared" ref="O4:O10" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>271</v>
@@ -12816,7 +12803,7 @@
       <c r="V4" s="36"/>
       <c r="W4" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-02-005</v>
+        <v>OP-231105-02-005</v>
       </c>
       <c r="X4" s="17" t="s">
         <v>272</v>
@@ -12826,7 +12813,7 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231102-02-005</v>
+        <v>IP-231105-02-005</v>
       </c>
       <c r="AC4" s="37" t="s">
         <v>274</v>
@@ -12869,7 +12856,7 @@
       </c>
       <c r="D5" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>28</v>
@@ -12894,11 +12881,11 @@
       </c>
       <c r="N5" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="O5" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>271</v>
@@ -12911,7 +12898,7 @@
       <c r="V5" s="32"/>
       <c r="W5" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-01-005</v>
+        <v>OP-231105-01-005</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>275</v>
@@ -12927,7 +12914,7 @@
       </c>
       <c r="AB5" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231102-02-005</v>
+        <v>IP-231105-02-005</v>
       </c>
       <c r="AC5" s="33" t="s">
         <v>276</v>
@@ -12970,7 +12957,7 @@
       </c>
       <c r="D6" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>29</v>
@@ -12995,11 +12982,11 @@
       </c>
       <c r="N6" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="O6" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>277</v>
@@ -13024,7 +13011,7 @@
       </c>
       <c r="W6" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-01-005</v>
+        <v>OP-231105-01-005</v>
       </c>
       <c r="X6" s="17" t="s">
         <v>281</v>
@@ -13034,7 +13021,7 @@
       <c r="AA6" s="36"/>
       <c r="AB6" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231102-01-005</v>
+        <v>IP-231105-01-005</v>
       </c>
       <c r="AC6" s="37"/>
       <c r="AD6" s="36"/>
@@ -13075,7 +13062,7 @@
       </c>
       <c r="D7" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="F7" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
@@ -13104,11 +13091,11 @@
       </c>
       <c r="N7" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="O7" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>282</v>
@@ -13125,7 +13112,7 @@
       <c r="V7" s="36"/>
       <c r="W7" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-01-005</v>
+        <v>OP-231105-01-005</v>
       </c>
       <c r="X7" s="17" t="s">
         <v>281</v>
@@ -13173,7 +13160,7 @@
       </c>
       <c r="D8" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="F8" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
@@ -13202,11 +13189,11 @@
       </c>
       <c r="N8" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="O8" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>282</v>
@@ -13223,7 +13210,7 @@
       <c r="V8" s="36"/>
       <c r="W8" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-02-005</v>
+        <v>OP-231105-02-005</v>
       </c>
       <c r="X8" s="17" t="s">
         <v>275</v>
@@ -13271,7 +13258,7 @@
       </c>
       <c r="D9" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="F9" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
@@ -13300,11 +13287,11 @@
       </c>
       <c r="N9" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="O9" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>284</v>
@@ -13329,7 +13316,7 @@
       </c>
       <c r="W9" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-03-005</v>
+        <v>OP-231105-03-005</v>
       </c>
       <c r="X9" s="17" t="s">
         <v>275</v>
@@ -13345,7 +13332,7 @@
       </c>
       <c r="AB9" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231102-01-005</v>
+        <v>IP-231105-01-005</v>
       </c>
       <c r="AC9" s="37" t="s">
         <v>276</v>
@@ -13394,7 +13381,7 @@
       </c>
       <c r="D10" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01 Nov 2023</v>
+        <v>04 Nov 2023</v>
       </c>
       <c r="F10" s="29" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-03-0"&amp;AutoIncrement!A2</f>
@@ -13423,11 +13410,11 @@
       </c>
       <c r="N10" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="O10" s="29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
@@ -13438,7 +13425,7 @@
       <c r="V10" s="36"/>
       <c r="W10" s="29" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231102-03-005</v>
+        <v>OP-231105-03-005</v>
       </c>
       <c r="X10" s="17" t="s">
         <v>275</v>
@@ -13454,7 +13441,7 @@
       </c>
       <c r="AB10" s="29" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231102-01-005</v>
+        <v>IP-231105-01-005</v>
       </c>
       <c r="AC10" s="37" t="s">
         <v>276</v>
@@ -13527,7 +13514,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY()-4,"yymm") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-01-005</v>
+        <v>o-SG-BAFCO-2311-01-005</v>
       </c>
       <c r="C2" t="s">
         <v>480</v>
@@ -13539,7 +13526,7 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY()-4,"yymm") &amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-02-005</v>
+        <v>o-SG-BAFCO-2311-02-005</v>
       </c>
       <c r="C3" t="s">
         <v>481</v>
@@ -13551,7 +13538,7 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY()-4,"yymm") &amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-03-005</v>
+        <v>o-SG-BAFCO-2311-03-005</v>
       </c>
       <c r="C4" t="s">
         <v>482</v>
@@ -13563,7 +13550,7 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY()-4,"yymm") &amp; "-04-0"&amp;AutoIncrement!A2</f>
-        <v>o-SG-BAFCO-2310-04-005</v>
+        <v>o-SG-BAFCO-2311-04-005</v>
       </c>
       <c r="C5" t="s">
         <v>483</v>
@@ -14913,11 +14900,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C2" s="29" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -14926,11 +14913,11 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C3" s="29" t="str">
         <f t="shared" ref="C3:C15" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -14939,11 +14926,11 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -14952,11 +14939,11 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C5" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -14965,11 +14952,11 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C6" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -14978,11 +14965,11 @@
       </c>
       <c r="B7" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C7" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -14991,11 +14978,11 @@
       </c>
       <c r="B8" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C8" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -15004,11 +14991,11 @@
       </c>
       <c r="B9" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C9" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -15017,11 +15004,11 @@
       </c>
       <c r="B10" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C10" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15030,11 +15017,11 @@
       </c>
       <c r="B11" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C11" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15043,11 +15030,11 @@
       </c>
       <c r="B12" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C12" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -15056,11 +15043,11 @@
       </c>
       <c r="B13" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-01-005</v>
+        <v>i-VN-AKIRA-231105-01-005</v>
       </c>
       <c r="C13" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="D13" s="43">
         <v>1</v>
@@ -15078,11 +15065,11 @@
       </c>
       <c r="B14" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-02-005</v>
+        <v>i-VN-AKIRA-231105-02-005</v>
       </c>
       <c r="C14" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="D14" s="43">
         <v>1</v>
@@ -15100,11 +15087,11 @@
       </c>
       <c r="B15" t="str">
         <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>i-VN-AKIRA-231102-02-005</v>
+        <v>i-VN-AKIRA-231105-02-005</v>
       </c>
       <c r="C15" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -15673,6 +15660,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb25f0482db5a79c3d6b5c0926ca00a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67b0f0bb964429d84d53f322277e62a8" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -15843,16 +15839,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE8E0C0-5F6A-4B9A-ADE6-103C7424D86B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99662FE2-EAA5-4D8B-B946-6554FA1D8F90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15869,12 +15864,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE8E0C0-5F6A-4B9A-ADE6-103C7424D86B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{815BDB98-BC5A-4B0E-BE9D-4CCB2FAE7338}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{68D7FF68-57EE-4385-950D-4F06AAE2A89A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="57" firstSheet="52" tabRatio="621" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="1" tabRatio="621" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" r:id="rId1" sheetId="82"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="517">
   <si>
     <t>No</t>
   </si>
@@ -1490,21 +1490,6 @@
     <t>Inbound_status_4</t>
   </si>
   <si>
-    <t>BAFCO2310020</t>
-  </si>
-  <si>
-    <t>TTAP2310013</t>
-  </si>
-  <si>
-    <t>TTAP2310014</t>
-  </si>
-  <si>
-    <t>TTAP2310015</t>
-  </si>
-  <si>
-    <t>TTAP2310016</t>
-  </si>
-  <si>
     <t>IterationNo</t>
   </si>
   <si>
@@ -1574,30 +1559,6 @@
     <t>Old_outbound_sup5</t>
   </si>
   <si>
-    <t>o-SG-BAFCO-231107001</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231107002</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231107003</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231107004</t>
-  </si>
-  <si>
-    <t>BAFCO2311001</t>
-  </si>
-  <si>
-    <t>BAFCO2311002</t>
-  </si>
-  <si>
-    <t>BAFCO2311003</t>
-  </si>
-  <si>
-    <t>BAFCO2311004</t>
-  </si>
-  <si>
     <t>inv1</t>
   </si>
   <si>
@@ -1655,9 +1616,6 @@
     <t>Status_OutIn_5</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>R-VN-TTVN-2311003</t>
   </si>
   <si>
@@ -1677,6 +1635,84 @@
   </si>
   <si>
     <t>o-SG-BAFCO-231108004</t>
+  </si>
+  <si>
+    <t>BAFCO2311006</t>
+  </si>
+  <si>
+    <t>BAFCO2311007</t>
+  </si>
+  <si>
+    <t>BAFCO2311008</t>
+  </si>
+  <si>
+    <t>BAFCO2311009</t>
+  </si>
+  <si>
+    <t>BAFCO2311010</t>
+  </si>
+  <si>
+    <t>TTAP2311007</t>
+  </si>
+  <si>
+    <t>TTAP2311008</t>
+  </si>
+  <si>
+    <t>TTAP2311009</t>
+  </si>
+  <si>
+    <t>TTAP2311010</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>R-VN-TTVN-2311004</t>
+  </si>
+  <si>
+    <t>CR-VN-TTVN-2311004</t>
+  </si>
+  <si>
+    <t>R-SG-TTAP-2311007</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231108005</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231108006</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231108007</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231108008</t>
+  </si>
+  <si>
+    <t>BAFCO2311011</t>
+  </si>
+  <si>
+    <t>BAFCO2311012</t>
+  </si>
+  <si>
+    <t>BAFCO2311013</t>
+  </si>
+  <si>
+    <t>BAFCO2311014</t>
+  </si>
+  <si>
+    <t>BAFCO2311015</t>
+  </si>
+  <si>
+    <t>TTAP2311011</t>
+  </si>
+  <si>
+    <t>TTAP2311012</t>
+  </si>
+  <si>
+    <t>TTAP2311013</t>
+  </si>
+  <si>
+    <t>TTAP2311014</t>
   </si>
 </sst>
 </file>
@@ -3044,49 +3080,49 @@
     <row ht="15" r="1" spans="2:4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row ht="15" r="2" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="54" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="57"/>
       <c r="C3" s="58" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="60"/>
       <c r="C4" s="61" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="63"/>
       <c r="C5" s="61" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row ht="15" r="6" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="85"/>
       <c r="C6" s="64" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -3123,7 +3159,7 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
     </row>
   </sheetData>
@@ -3182,7 +3218,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="E2" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3206,7 +3242,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="E3" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3230,7 +3266,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="E4" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3254,7 +3290,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3278,7 +3314,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="E6" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3302,7 +3338,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="E7" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3724,7 +3760,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>193</v>
@@ -3752,7 +3788,7 @@
       </c>
       <c r="D3" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>194</v>
@@ -3780,7 +3816,7 @@
       </c>
       <c r="D4" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>195</v>
@@ -3808,7 +3844,7 @@
       </c>
       <c r="D5" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>270</v>
@@ -3836,7 +3872,7 @@
       </c>
       <c r="D6" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>195</v>
@@ -3864,7 +3900,7 @@
       </c>
       <c r="D7" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>195</v>
@@ -3983,11 +4019,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C2" s="12" t="str">
         <f>"SGBAFCO-SGTTAP-"&amp;'TC7'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>37</v>
@@ -4003,11 +4039,11 @@
       </c>
       <c r="H2" s="12" t="str">
         <f>AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>TNs-03</v>
+        <v>TNs-04</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-TNs-03</v>
+        <v>CD-TNs-04</v>
       </c>
       <c r="J2" s="12" t="str">
         <f>'TC6.1'!B2&amp;"("&amp;'TC6.1'!C2&amp;")"</f>
@@ -4041,10 +4077,10 @@
       </c>
       <c r="S2" s="12" t="str">
         <f>'TC4'!N2</f>
-        <v>RD-TN-03</v>
+        <v>RD-TN-04</v>
       </c>
       <c r="T2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4105,7 +4141,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>22</v>
@@ -4131,7 +4167,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>22</v>
@@ -4157,7 +4193,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>22</v>
@@ -4183,7 +4219,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>22</v>
@@ -4209,7 +4245,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>22</v>
@@ -4235,7 +4271,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>22</v>
@@ -4286,7 +4322,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-TN-03</v>
+        <v>CS-TN-04</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4296,7 +4332,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
     </row>
   </sheetData>
@@ -4335,7 +4371,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-TNs-03</v>
+        <v>CS-TNs-04</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4345,7 +4381,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-03-003</v>
+        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
       </c>
     </row>
   </sheetData>
@@ -4360,8 +4396,8 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4373,7 +4409,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>115</v>
@@ -4382,17 +4418,17 @@
         <v>115</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="E1" s="87"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C2" s="66" t="str">
         <f>B2&amp;"s"</f>
@@ -4772,11 +4808,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>cTN03-2311002</v>
+        <v>cTN04-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4798,7 +4834,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -4839,7 +4875,7 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
     </row>
   </sheetData>
@@ -4877,11 +4913,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sTN03-2311002</v>
+        <v>sTN04-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4919,11 +4955,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>pTNs03-2311001</v>
+        <v>pTNs04-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>pTNs03-2311002</v>
+        <v>pTNs04-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4961,11 +4997,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sTNs03-2311001</v>
+        <v>sTNs04-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sTNs03-2311002</v>
+        <v>sTNs04-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -5150,16 +5186,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5170,10 +5206,10 @@
         <v>500</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5184,10 +5220,10 @@
         <v>500</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5198,7 +5234,7 @@
         <v>500</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D4" s="12"/>
     </row>
@@ -5210,7 +5246,7 @@
         <v>1000</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -5222,7 +5258,7 @@
         <v>500</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -5234,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -5259,70 +5295,70 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C7" s="12"/>
     </row>
@@ -5348,13 +5384,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5365,7 +5401,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5376,7 +5412,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5436,49 +5472,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B7" s="12"/>
     </row>
@@ -5531,7 +5567,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rcTN03-2311001-01</v>
+        <v>rcTN04-2311001-01</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6035,7 +6071,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6065,7 +6101,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6095,7 +6131,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6125,7 +6161,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6155,7 +6191,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6185,7 +6221,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -6263,7 +6299,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -6293,7 +6329,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -6323,7 +6359,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -6353,7 +6389,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -6383,7 +6419,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -6413,7 +6449,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -6698,7 +6734,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6726,7 +6762,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6754,7 +6790,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6782,7 +6818,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6810,7 +6846,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6838,7 +6874,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -7079,7 +7115,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-02"</f>
-        <v>rcTN03-2311001-02</v>
+        <v>rcTN04-2311001-02</v>
       </c>
     </row>
   </sheetData>
@@ -8194,7 +8230,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -8258,7 +8294,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -8321,7 +8357,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -8384,7 +8420,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -8447,7 +8483,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -8509,7 +8545,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -8642,16 +8678,16 @@
         <v>328</v>
       </c>
       <c r="U1" s="51" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="V1" s="51" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="W1" s="51" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="X1" s="51" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -8666,7 +8702,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -8742,7 +8778,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -8818,7 +8854,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -8894,7 +8930,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -8970,7 +9006,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -9046,7 +9082,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN03-2311001</v>
+        <v>cTN04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -9128,9 +9164,7 @@
   <cols>
     <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
     <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="20" max="20" style="2" width="8.88671875" collapsed="true"/>
-    <col min="21" max="22" style="2" width="8.88671875" collapsed="true"/>
-    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -9202,7 +9236,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -9261,7 +9295,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -9320,7 +9354,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -9379,7 +9413,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -9438,7 +9472,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -9497,7 +9531,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN03-2311001</v>
+        <v>sTN04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -9581,7 +9615,7 @@
       </c>
       <c r="B2" s="22" t="str">
         <f>"RequestPart-"&amp;'TC4'!H2</f>
-        <v>RequestPart-TN-03</v>
+        <v>RequestPart-TN-04</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -9673,10 +9707,10 @@
         <v>441</v>
       </c>
       <c r="W1" s="51" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="X1" s="51" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -9689,7 +9723,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs03-2311001</v>
+        <v>pTNs04-2311001</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>34</v>
@@ -9763,7 +9797,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs03-2311001</v>
+        <v>pTNs04-2311001</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>34</v>
@@ -9837,7 +9871,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs03-2311001</v>
+        <v>pTNs04-2311001</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>34</v>
@@ -9911,7 +9945,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs03-2311001</v>
+        <v>pTNs04-2311001</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>34</v>
@@ -9985,7 +10019,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs03-2311001</v>
+        <v>pTNs04-2311001</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>34</v>
@@ -10059,7 +10093,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs03-2311001</v>
+        <v>pTNs04-2311001</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>34</v>
@@ -10158,7 +10192,7 @@
         <v>291</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -10225,7 +10259,7 @@
         <v>291</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -10373,7 +10407,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rs"&amp;AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rsTNs03-2311001-01</v>
+        <v>rsTNs04-2311001-01</v>
       </c>
     </row>
   </sheetData>
@@ -10449,7 +10483,7 @@
         <v>337</v>
       </c>
       <c r="R1" s="51" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="S1" s="51" t="s">
         <v>338</v>
@@ -10461,7 +10495,7 @@
         <v>340</v>
       </c>
       <c r="V1" s="51" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -11303,10 +11337,10 @@
         <v>296</v>
       </c>
       <c r="Y1" s="51" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Z1" s="51" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AA1" s="51" t="s">
         <v>297</v>
@@ -11926,7 +11960,7 @@
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-001</v>
+        <v>o-SG-BAFCO-2311-TN-04-001</v>
       </c>
       <c r="B3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
@@ -11934,7 +11968,7 @@
       </c>
       <c r="C3" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="D3" s="38">
         <v>1000</v>
@@ -11956,7 +11990,7 @@
       <c r="M3" s="40"/>
       <c r="N3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-003</v>
+        <v>OP-231108-01-004</v>
       </c>
       <c r="O3" s="28" t="s">
         <v>222</v>
@@ -11972,7 +12006,7 @@
       </c>
       <c r="S3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-003</v>
+        <v>IP-231108-01-004</v>
       </c>
       <c r="T3" s="42"/>
       <c r="U3" s="41">
@@ -11988,7 +12022,7 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-001</v>
+        <v>o-SG-BAFCO-2311-TN-04-001</v>
       </c>
       <c r="B4" s="37" t="str">
         <f ca="1" ref="B4:B8" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
@@ -11996,7 +12030,7 @@
       </c>
       <c r="C4" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="D4" s="38">
         <v>800</v>
@@ -12020,7 +12054,7 @@
       <c r="M4" s="40"/>
       <c r="N4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-003</v>
+        <v>OP-231108-01-004</v>
       </c>
       <c r="O4" s="28" t="s">
         <v>223</v>
@@ -12036,7 +12070,7 @@
       </c>
       <c r="S4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-003</v>
+        <v>IP-231108-02-004</v>
       </c>
       <c r="T4" s="42" t="s">
         <v>232</v>
@@ -12054,7 +12088,7 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-001</v>
+        <v>o-SG-BAFCO-2311-TN-04-001</v>
       </c>
       <c r="B5" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
@@ -12062,7 +12096,7 @@
       </c>
       <c r="C5" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="D5" s="38">
         <v>900</v>
@@ -12096,7 +12130,7 @@
       </c>
       <c r="N5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-003</v>
+        <v>OP-231108-02-004</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>223</v>
@@ -12119,7 +12153,7 @@
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-001</v>
+        <v>o-SG-BAFCO-2311-TN-04-001</v>
       </c>
       <c r="B6" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
@@ -12127,7 +12161,7 @@
       </c>
       <c r="C6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="D6" s="38">
         <v>1200</v>
@@ -12163,7 +12197,7 @@
       </c>
       <c r="N6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-003</v>
+        <v>OP-231108-02-004</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>223</v>
@@ -12186,7 +12220,7 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-001</v>
+        <v>o-SG-BAFCO-2311-TN-04-001</v>
       </c>
       <c r="B7" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
@@ -12194,7 +12228,7 @@
       </c>
       <c r="C7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="D7" s="38">
         <v>1000</v>
@@ -12230,7 +12264,7 @@
       </c>
       <c r="N7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-003</v>
+        <v>OP-231108-03-004</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>224</v>
@@ -12246,7 +12280,7 @@
       </c>
       <c r="S7" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-003</v>
+        <v>IP-231108-01-004</v>
       </c>
       <c r="T7" s="42" t="s">
         <v>232</v>
@@ -12264,7 +12298,7 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-001</v>
+        <v>o-SG-BAFCO-2311-TN-04-001</v>
       </c>
       <c r="B8" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
@@ -12272,7 +12306,7 @@
       </c>
       <c r="C8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="D8" s="38">
         <v>1100</v>
@@ -12308,7 +12342,7 @@
       </c>
       <c r="N8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-003</v>
+        <v>OP-231108-03-004</v>
       </c>
       <c r="O8" s="28" t="s">
         <v>224</v>
@@ -12324,7 +12358,7 @@
       </c>
       <c r="S8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-003</v>
+        <v>IP-231108-02-004</v>
       </c>
       <c r="T8" s="42" t="s">
         <v>239</v>
@@ -12348,8 +12382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCEF40-2C7B-4D0B-9DC6-89273BF3A1A0}">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE4" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="AM1" sqref="AM1"/>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="AH29" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -12362,9 +12396,7 @@
     <col min="7" max="33" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
     <col min="34" max="36" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
     <col min="37" max="42" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="43" max="43" style="8" width="8.88671875" collapsed="true"/>
-    <col min="44" max="44" style="8" width="8.88671875" collapsed="true"/>
-    <col min="45" max="16384" style="8" width="8.88671875" collapsed="true"/>
+    <col min="43" max="16384" style="8" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="13.8" r="1" spans="1:39" x14ac:dyDescent="0.3">
@@ -12495,7 +12527,7 @@
       </c>
       <c r="C2" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-002</v>
+        <v>o-SG-BAFCO-2311-TN-04-002</v>
       </c>
       <c r="D2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
@@ -12542,7 +12574,7 @@
       <c r="U2" s="44"/>
       <c r="V2" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-003</v>
+        <v>OP-231108-02-004</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>253</v>
@@ -12552,7 +12584,7 @@
       <c r="Z2" s="44"/>
       <c r="AA2" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-003</v>
+        <v>IP-231108-01-004</v>
       </c>
       <c r="AB2" s="45" t="s">
         <v>254</v>
@@ -12562,7 +12594,7 @@
       <c r="AE2" s="44"/>
       <c r="AF2" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs03-2311002</v>
+        <v>sTNs04-2311002</v>
       </c>
       <c r="AG2" s="37" t="s">
         <v>81</v>
@@ -12593,7 +12625,7 @@
       </c>
       <c r="C3" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-002</v>
+        <v>o-SG-BAFCO-2311-TN-04-002</v>
       </c>
       <c r="D3" s="37" t="str">
         <f ca="1" ref="D3:D9" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
@@ -12640,7 +12672,7 @@
       <c r="U3" s="44"/>
       <c r="V3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-003</v>
+        <v>OP-231108-02-004</v>
       </c>
       <c r="W3" s="19" t="s">
         <v>253</v>
@@ -12650,7 +12682,7 @@
       <c r="Z3" s="44"/>
       <c r="AA3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-003</v>
+        <v>IP-231108-02-004</v>
       </c>
       <c r="AB3" s="45" t="s">
         <v>255</v>
@@ -12660,7 +12692,7 @@
       <c r="AE3" s="44"/>
       <c r="AF3" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs03-2311002</v>
+        <v>sTNs04-2311002</v>
       </c>
       <c r="AG3" s="37" t="s">
         <v>81</v>
@@ -12691,7 +12723,7 @@
       </c>
       <c r="C4" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-002</v>
+        <v>o-SG-BAFCO-2311-TN-04-002</v>
       </c>
       <c r="D4" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
@@ -12738,7 +12770,7 @@
       <c r="U4" s="40"/>
       <c r="V4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-003</v>
+        <v>OP-231108-01-004</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>256</v>
@@ -12754,7 +12786,7 @@
       </c>
       <c r="AA4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-003</v>
+        <v>IP-231108-02-004</v>
       </c>
       <c r="AB4" s="42" t="s">
         <v>257</v>
@@ -12764,7 +12796,7 @@
       <c r="AE4" s="40"/>
       <c r="AF4" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs03-2311002</v>
+        <v>sTNs04-2311002</v>
       </c>
       <c r="AG4" s="37" t="s">
         <v>81</v>
@@ -12795,7 +12827,7 @@
       </c>
       <c r="C5" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-002</v>
+        <v>o-SG-BAFCO-2311-TN-04-002</v>
       </c>
       <c r="D5" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
@@ -12854,7 +12886,7 @@
       </c>
       <c r="V5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-003</v>
+        <v>OP-231108-01-004</v>
       </c>
       <c r="W5" s="19" t="s">
         <v>262</v>
@@ -12864,7 +12896,7 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-003</v>
+        <v>IP-231108-01-004</v>
       </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="44"/>
@@ -12872,7 +12904,7 @@
       <c r="AE5" s="44"/>
       <c r="AF5" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs03-2311002</v>
+        <v>sTNs04-2311002</v>
       </c>
       <c r="AG5" s="37" t="s">
         <v>81</v>
@@ -12903,7 +12935,7 @@
       </c>
       <c r="C6" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-003</v>
+        <v>o-SG-BAFCO-2311-TN-04-003</v>
       </c>
       <c r="D6" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
@@ -12911,7 +12943,7 @@
       </c>
       <c r="E6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-02-003</v>
+        <v>B-2311-TN-02-004</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>29</v>
@@ -12957,7 +12989,7 @@
       <c r="U6" s="44"/>
       <c r="V6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-003</v>
+        <v>OP-231108-01-004</v>
       </c>
       <c r="W6" s="19" t="s">
         <v>262</v>
@@ -12972,7 +13004,7 @@
       <c r="AE6" s="44"/>
       <c r="AF6" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs03-2311002</v>
+        <v>sTNs04-2311002</v>
       </c>
       <c r="AG6" s="37" t="s">
         <v>81</v>
@@ -13003,7 +13035,7 @@
       </c>
       <c r="C7" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-003</v>
+        <v>o-SG-BAFCO-2311-TN-04-003</v>
       </c>
       <c r="D7" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
@@ -13011,7 +13043,7 @@
       </c>
       <c r="E7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-02-003</v>
+        <v>B-2311-TN-02-004</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>152</v>
@@ -13057,7 +13089,7 @@
       <c r="U7" s="44"/>
       <c r="V7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-003</v>
+        <v>OP-231108-02-004</v>
       </c>
       <c r="W7" s="19" t="s">
         <v>256</v>
@@ -13072,7 +13104,7 @@
       <c r="AE7" s="44"/>
       <c r="AF7" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs03-2311002</v>
+        <v>sTNs04-2311002</v>
       </c>
       <c r="AG7" s="37" t="s">
         <v>81</v>
@@ -13103,7 +13135,7 @@
       </c>
       <c r="C8" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-003</v>
+        <v>o-SG-BAFCO-2311-TN-04-003</v>
       </c>
       <c r="D8" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
@@ -13111,7 +13143,7 @@
       </c>
       <c r="E8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-02-003</v>
+        <v>B-2311-TN-02-004</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>268</v>
@@ -13165,7 +13197,7 @@
       </c>
       <c r="V8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-003</v>
+        <v>OP-231108-03-004</v>
       </c>
       <c r="W8" s="19" t="s">
         <v>256</v>
@@ -13181,7 +13213,7 @@
       </c>
       <c r="AA8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-003</v>
+        <v>IP-231108-01-004</v>
       </c>
       <c r="AB8" s="45" t="s">
         <v>257</v>
@@ -13197,7 +13229,7 @@
       </c>
       <c r="AF8" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs03-2311002</v>
+        <v>sTNs04-2311002</v>
       </c>
       <c r="AG8" s="37" t="s">
         <v>81</v>
@@ -13228,7 +13260,7 @@
       </c>
       <c r="C9" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-004"]]></f>
-        <v>o-SG-BAFCO-2311-TN-03-004</v>
+        <v>o-SG-BAFCO-2311-TN-04-004</v>
       </c>
       <c r="D9" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
@@ -13236,7 +13268,7 @@
       </c>
       <c r="E9" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-03-003</v>
+        <v>B-2311-TN-03-004</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>268</v>
@@ -13276,7 +13308,7 @@
       <c r="U9" s="44"/>
       <c r="V9" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-003</v>
+        <v>OP-231108-03-004</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>256</v>
@@ -13292,7 +13324,7 @@
       </c>
       <c r="AA9" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-003</v>
+        <v>IP-231108-01-004</v>
       </c>
       <c r="AB9" s="45" t="s">
         <v>257</v>
@@ -13308,7 +13340,7 @@
       </c>
       <c r="AF9" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs03-2311002</v>
+        <v>sTNs04-2311002</v>
       </c>
       <c r="AG9" s="37" t="s">
         <v>81</v>
@@ -13367,10 +13399,10 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!A3</f>
-        <v>o-SG-BAFCO-2311-TN-03-001</v>
+        <v>o-SG-BAFCO-2311-TN-04-001</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -13379,10 +13411,10 @@
       </c>
       <c r="B3" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C2</f>
-        <v>o-SG-BAFCO-2311-TN-03-002</v>
+        <v>o-SG-BAFCO-2311-TN-04-002</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -13391,10 +13423,10 @@
       </c>
       <c r="B4" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C6</f>
-        <v>o-SG-BAFCO-2311-TN-03-003</v>
+        <v>o-SG-BAFCO-2311-TN-04-003</v>
       </c>
       <c r="C4" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -13403,10 +13435,10 @@
       </c>
       <c r="B5" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C9</f>
-        <v>o-SG-BAFCO-2311-TN-03-004</v>
+        <v>o-SG-BAFCO-2311-TN-04-004</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -13834,13 +13866,13 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC44-Outbound No'!C2</f>
-        <v>o-SG-BAFCO-231108001</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>474</v>
+        <v>o-SG-BAFCO-231108005</v>
+      </c>
+      <c r="C2" t="s">
+        <v>508</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -13849,13 +13881,13 @@
       </c>
       <c r="B3" s="12" t="str">
         <f>'TC44-Outbound No'!C3</f>
-        <v>o-SG-BAFCO-231108002</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>475</v>
+        <v>o-SG-BAFCO-231108006</v>
+      </c>
+      <c r="C3" t="s">
+        <v>509</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13864,10 +13896,10 @@
       </c>
       <c r="B4" s="12" t="str">
         <f>'TC44-Outbound No'!C4</f>
-        <v>o-SG-BAFCO-231108003</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>476</v>
+        <v>o-SG-BAFCO-231108007</v>
+      </c>
+      <c r="C4" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13876,18 +13908,18 @@
       </c>
       <c r="B5" s="12" t="str">
         <f>'TC44-Outbound No'!C5</f>
-        <v>o-SG-BAFCO-231108004</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>477</v>
+        <v>o-SG-BAFCO-231108008</v>
+      </c>
+      <c r="C5" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
-        <v>442</v>
+      <c r="C6" t="s">
+        <v>512</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -13993,7 +14025,7 @@
     <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48" t="s">
@@ -14072,7 +14104,7 @@
     <row customFormat="1" r="3" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="B3" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G4</f>
@@ -14154,7 +14186,7 @@
     <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G5</f>
@@ -14236,7 +14268,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="B5" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G7</f>
@@ -14418,7 +14450,7 @@
     <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E6</f>
-        <v>B-2311-TN-02-003</v>
+        <v>B-2311-TN-02-004</v>
       </c>
       <c r="B2" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O8</f>
@@ -14579,7 +14611,7 @@
     <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
-        <v>B-2311-TN-02-003</v>
+        <v>B-2311-TN-02-004</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O6</f>
@@ -14661,7 +14693,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E9</f>
-        <v>B-2311-TN-03-003</v>
+        <v>B-2311-TN-03-004</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="48" t="s">
@@ -14847,14 +14879,14 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C8</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="B3" s="24" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G8</f>
@@ -14864,7 +14896,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C4</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="B4" s="49" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G4</f>
@@ -14874,7 +14906,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C6</f>
-        <v>B-2311-TN-01-003</v>
+        <v>B-2311-TN-01-004</v>
       </c>
       <c r="B5" s="49" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G6</f>
@@ -14898,7 +14930,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E8</f>
-        <v>B-2311-TN-02-003</v>
+        <v>B-2311-TN-02-004</v>
       </c>
       <c r="B8" s="24" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O8</f>
@@ -14908,7 +14940,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
-        <v>B-2311-TN-02-003</v>
+        <v>B-2311-TN-02-004</v>
       </c>
       <c r="B9" s="24" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O7</f>
@@ -14918,7 +14950,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E9</f>
-        <v>B-2311-TN-03-003</v>
+        <v>B-2311-TN-03-004</v>
       </c>
       <c r="B10" s="12"/>
     </row>
@@ -14957,10 +14989,10 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC44-Outbound No'!C2</f>
-        <v>o-SG-BAFCO-231108001</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>443</v>
+        <v>o-SG-BAFCO-231108005</v>
+      </c>
+      <c r="C2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -14969,10 +15001,10 @@
       </c>
       <c r="B3" s="12" t="str">
         <f>'TC44-Outbound No'!C3</f>
-        <v>o-SG-BAFCO-231108002</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>444</v>
+        <v>o-SG-BAFCO-231108006</v>
+      </c>
+      <c r="C3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -14981,10 +15013,10 @@
       </c>
       <c r="B4" s="12" t="str">
         <f>'TC44-Outbound No'!C4</f>
-        <v>o-SG-BAFCO-231108003</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>445</v>
+        <v>o-SG-BAFCO-231108007</v>
+      </c>
+      <c r="C4" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -14993,10 +15025,10 @@
       </c>
       <c r="B5" s="12" t="str">
         <f>'TC44-Outbound No'!C5</f>
-        <v>o-SG-BAFCO-231108004</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>446</v>
+        <v>o-SG-BAFCO-231108008</v>
+      </c>
+      <c r="C5" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -15044,7 +15076,7 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -15060,7 +15092,7 @@
       </c>
       <c r="B3" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C3" s="37" t="str">
         <f ca="1" ref="C3:C15" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -15076,7 +15108,7 @@
       </c>
       <c r="B4" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C4" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15092,7 +15124,7 @@
       </c>
       <c r="B5" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C5" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15108,7 +15140,7 @@
       </c>
       <c r="B6" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C6" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15124,7 +15156,7 @@
       </c>
       <c r="B7" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C7" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15140,7 +15172,7 @@
       </c>
       <c r="B8" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C8" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15156,7 +15188,7 @@
       </c>
       <c r="B9" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C9" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15172,7 +15204,7 @@
       </c>
       <c r="B10" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C10" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15188,7 +15220,7 @@
       </c>
       <c r="B11" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C11" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15204,7 +15236,7 @@
       </c>
       <c r="B12" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C12" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15220,7 +15252,7 @@
       </c>
       <c r="B13" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-001</v>
+        <v>i-VN-AKIRA-231108-TN-04-001</v>
       </c>
       <c r="C13" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15242,7 +15274,7 @@
       </c>
       <c r="B14" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-002</v>
+        <v>i-VN-AKIRA-231108-TN-04-002</v>
       </c>
       <c r="C14" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15264,7 +15296,7 @@
       </c>
       <c r="B15" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>i-VN-AKIRA-231108-TN-03-002</v>
+        <v>i-VN-AKIRA-231108-TN-04-002</v>
       </c>
       <c r="C15" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -15425,7 +15457,7 @@
       </c>
       <c r="E2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>411</v>
@@ -15475,7 +15507,7 @@
       </c>
       <c r="E3" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>411</v>
@@ -15525,7 +15557,7 @@
       </c>
       <c r="E4" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>412</v>
@@ -15575,7 +15607,7 @@
       </c>
       <c r="E5" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>412</v>
@@ -15624,7 +15656,7 @@
       </c>
       <c r="E6" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>413</v>
@@ -15673,7 +15705,7 @@
       </c>
       <c r="E7" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>413</v>
@@ -15806,11 +15838,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>"SGTTAP-VNTTVN-"&amp;'TC4'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>SGTTAP-VNTTVN-TN-03-003</v>
+        <v>SGTTAP-VNTTVN-TN-04-004</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>20</v>
@@ -15826,11 +15858,11 @@
       </c>
       <c r="H2" s="20" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>TN-03</v>
+        <v>TN-04</v>
       </c>
       <c r="I2" s="20" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-TN-03</v>
+        <v>CD-TN-04</v>
       </c>
       <c r="J2" s="20" t="str">
         <f>'TC3.1'!B2&amp;"("&amp;'TC3.1'!C2&amp;")"</f>
@@ -15847,7 +15879,7 @@
       </c>
       <c r="N2" s="20" t="str">
         <f>"RD-"&amp;H2</f>
-        <v>RD-TN-03</v>
+        <v>RD-TN-04</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>23</v>
@@ -15868,7 +15900,7 @@
         <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="V2" s="20" t="s">
         <v>34</v>

--- a/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
@@ -1,112 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{68D7FF68-57EE-4385-950D-4F06AAE2A89A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8E64AB-E88F-45EB-988C-5E83ED390A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="621" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicator" r:id="rId1" sheetId="82"/>
-    <sheet name="AutoIncrement" r:id="rId2" sheetId="5"/>
-    <sheet name="TC1" r:id="rId3" sheetId="71"/>
-    <sheet name="TC2" r:id="rId4" sheetId="72"/>
-    <sheet name="TC3" r:id="rId5" sheetId="1"/>
-    <sheet name="TC3-Req to Parts Master" r:id="rId6" sheetId="73"/>
-    <sheet name="TC3.1" r:id="rId7" sheetId="74"/>
-    <sheet name="TC4-Contract Parts Info" r:id="rId8" sheetId="4"/>
-    <sheet name="TC4" r:id="rId9" sheetId="3"/>
-    <sheet name="TC5" r:id="rId10" sheetId="6"/>
-    <sheet name="TC6" r:id="rId11" sheetId="7"/>
-    <sheet name="TC6.1" r:id="rId12" sheetId="75"/>
-    <sheet name="TC6.2" r:id="rId13" sheetId="9"/>
-    <sheet name="TC6.2_ETAnWeek" r:id="rId14" sheetId="10"/>
-    <sheet name="TC7-Contract Parts Info" r:id="rId15" sheetId="76"/>
-    <sheet name="TC7" r:id="rId16" sheetId="11"/>
-    <sheet name="TC8" r:id="rId17" sheetId="53"/>
-    <sheet name="TC9" r:id="rId18" sheetId="12"/>
-    <sheet name="TC10" r:id="rId19" sheetId="13"/>
-    <sheet name="TC11-Order Regular" r:id="rId20" sheetId="15"/>
-    <sheet name="TC11-Inbound Dates Regular" r:id="rId21" sheetId="16"/>
-    <sheet name="TC11-Order Spot" r:id="rId22" sheetId="17"/>
-    <sheet name="TC11-Inbound Dates Spot" r:id="rId23" sheetId="18"/>
-    <sheet name="TC11-Customer CO" r:id="rId24" sheetId="25"/>
-    <sheet name="TC11- Period Generator" r:id="rId25" sheetId="77"/>
-    <sheet name="TC12" r:id="rId26" sheetId="54"/>
-    <sheet name="TC14-BU SO" r:id="rId27" sheetId="19"/>
-    <sheet name="TC15-BU PO" r:id="rId28" sheetId="20"/>
-    <sheet name="TC16-Supplier SO" r:id="rId29" sheetId="21"/>
-    <sheet name="TC17.1-Sup SO Delivery Plan" r:id="rId30" sheetId="78"/>
-    <sheet name="TC17.1-Sup SODeliveryPlan(Date)" r:id="rId31" sheetId="79"/>
-    <sheet name="TC17.2-Sup SO Delivery Plan" r:id="rId32" sheetId="80"/>
-    <sheet name="TC17.2-Sup SODeliveryPlan(Date)" r:id="rId33" sheetId="81"/>
-    <sheet name="TC18-Forecast Change" r:id="rId34" sheetId="26"/>
-    <sheet name="TC20-BU Change Request" r:id="rId35" sheetId="28"/>
-    <sheet name="TC19-Customer Change Request" r:id="rId36" sheetId="27"/>
-    <sheet name="TC21-Supplier Approve Change " r:id="rId37" sheetId="29"/>
-    <sheet name="TC22-Customer Forecast CO " r:id="rId38" sheetId="30"/>
-    <sheet name="TC23-BU Forecast SO" r:id="rId39" sheetId="31"/>
-    <sheet name="TC24-BU Forecast PO" r:id="rId40" sheetId="32"/>
-    <sheet name="TC25-Customer Order Change" r:id="rId41" sheetId="33"/>
-    <sheet name="TC25-Change Inbound Date" r:id="rId42" sheetId="34"/>
-    <sheet name="TC25-Change Request No" r:id="rId43" sheetId="40"/>
-    <sheet name="TC26-Customer AutoGen Change" r:id="rId44" sheetId="35"/>
-    <sheet name="TC27-BU AutoGen Change" r:id="rId45" sheetId="38"/>
-    <sheet name="TC28-Supplier Approve Change" r:id="rId46" sheetId="39"/>
-    <sheet name="TC29-Customer Check CO" r:id="rId47" sheetId="43"/>
-    <sheet name="TC30-BU Check SO" r:id="rId48" sheetId="44"/>
-    <sheet name="TC31-BU Check PO" r:id="rId49" sheetId="45"/>
-    <sheet name="TC32-Supplier Check SO" r:id="rId50" sheetId="46"/>
-    <sheet name="TC33-New Outbound Date" r:id="rId51" sheetId="55"/>
-    <sheet name="TC33-New Firm Qty" r:id="rId52" sheetId="70"/>
-    <sheet name="TC33-Change Request No" r:id="rId53" sheetId="56"/>
-    <sheet name="TC34" r:id="rId54" sheetId="67"/>
-    <sheet name="TC35" r:id="rId55" sheetId="68"/>
-    <sheet name="TC36" r:id="rId56" sheetId="57"/>
-    <sheet name="TC44-Supplier Outbound -Regular" r:id="rId57" sheetId="47"/>
-    <sheet name="TC44-Supplier Outbound -Spot" r:id="rId58" sheetId="49"/>
-    <sheet name="TC44-Outbound No" r:id="rId59" sheetId="50"/>
-    <sheet name="TC45-Supplier SellerGI Invoice" r:id="rId60" sheetId="52"/>
-    <sheet name="TC50.1-Customer Cargo -Regular" r:id="rId61" sheetId="59"/>
-    <sheet name="TC50.2-Customer Cargo -Spot" r:id="rId62" sheetId="60"/>
-    <sheet name="TC53-Shipping Detail" r:id="rId63" sheetId="62"/>
-    <sheet name="TC61-BU SellerGI Invoice" r:id="rId64" sheetId="64"/>
-    <sheet name="TC68-DC Inbound" r:id="rId65" sheetId="65"/>
+    <sheet name="Indicator" sheetId="82" r:id="rId1"/>
+    <sheet name="AutoIncrement" sheetId="5" r:id="rId2"/>
+    <sheet name="TC1" sheetId="71" r:id="rId3"/>
+    <sheet name="TC2" sheetId="72" r:id="rId4"/>
+    <sheet name="TC3" sheetId="1" r:id="rId5"/>
+    <sheet name="TC3-Req to Parts Master" sheetId="73" r:id="rId6"/>
+    <sheet name="TC3.1" sheetId="74" r:id="rId7"/>
+    <sheet name="TC4-Contract Parts Info" sheetId="4" r:id="rId8"/>
+    <sheet name="TC4" sheetId="3" r:id="rId9"/>
+    <sheet name="TC5" sheetId="6" r:id="rId10"/>
+    <sheet name="TC6" sheetId="7" r:id="rId11"/>
+    <sheet name="TC6.1" sheetId="75" r:id="rId12"/>
+    <sheet name="TC6.2" sheetId="9" r:id="rId13"/>
+    <sheet name="TC6.2_ETAnWeek" sheetId="10" r:id="rId14"/>
+    <sheet name="TC7-Contract Parts Info" sheetId="76" r:id="rId15"/>
+    <sheet name="TC7" sheetId="11" r:id="rId16"/>
+    <sheet name="TC8" sheetId="53" r:id="rId17"/>
+    <sheet name="TC9" sheetId="12" r:id="rId18"/>
+    <sheet name="TC10" sheetId="13" r:id="rId19"/>
+    <sheet name="TC11-Order Regular" sheetId="15" r:id="rId20"/>
+    <sheet name="TC11-Inbound Dates Regular" sheetId="16" r:id="rId21"/>
+    <sheet name="TC11-Order Spot" sheetId="17" r:id="rId22"/>
+    <sheet name="TC11-Inbound Dates Spot" sheetId="18" r:id="rId23"/>
+    <sheet name="TC11-Customer CO" sheetId="25" r:id="rId24"/>
+    <sheet name="TC11- Period Generator" sheetId="77" r:id="rId25"/>
+    <sheet name="TC12" sheetId="54" r:id="rId26"/>
+    <sheet name="TC14-BU SO" sheetId="19" r:id="rId27"/>
+    <sheet name="TC15-BU PO" sheetId="20" r:id="rId28"/>
+    <sheet name="TC16-Supplier SO" sheetId="21" r:id="rId29"/>
+    <sheet name="TC17.1-Sup SO Delivery Plan" sheetId="78" r:id="rId30"/>
+    <sheet name="TC17.1-Sup SODeliveryPlan(Date)" sheetId="79" r:id="rId31"/>
+    <sheet name="TC17.2-Sup SO Delivery Plan" sheetId="80" r:id="rId32"/>
+    <sheet name="TC17.2-Sup SODeliveryPlan(Date)" sheetId="81" r:id="rId33"/>
+    <sheet name="TC18-Forecast Change" sheetId="26" r:id="rId34"/>
+    <sheet name="TC20-BU Change Request" sheetId="28" r:id="rId35"/>
+    <sheet name="TC19-Customer Change Request" sheetId="27" r:id="rId36"/>
+    <sheet name="TC21-Supplier Approve Change " sheetId="29" r:id="rId37"/>
+    <sheet name="TC22-Customer Forecast CO " sheetId="30" r:id="rId38"/>
+    <sheet name="TC23-BU Forecast SO" sheetId="31" r:id="rId39"/>
+    <sheet name="TC24-BU Forecast PO" sheetId="32" r:id="rId40"/>
+    <sheet name="TC25-Customer Order Change" sheetId="33" r:id="rId41"/>
+    <sheet name="TC25-Change Inbound Date" sheetId="34" r:id="rId42"/>
+    <sheet name="TC25-Change Request No" sheetId="40" r:id="rId43"/>
+    <sheet name="TC26-Customer AutoGen Change" sheetId="35" r:id="rId44"/>
+    <sheet name="TC27-BU AutoGen Change" sheetId="38" r:id="rId45"/>
+    <sheet name="TC28-Supplier Approve Change" sheetId="39" r:id="rId46"/>
+    <sheet name="TC29-Customer Check CO" sheetId="43" r:id="rId47"/>
+    <sheet name="TC30-BU Check SO" sheetId="44" r:id="rId48"/>
+    <sheet name="TC31-BU Check PO" sheetId="45" r:id="rId49"/>
+    <sheet name="TC32-Supplier Check SO" sheetId="46" r:id="rId50"/>
+    <sheet name="TC33-New Outbound Date" sheetId="55" r:id="rId51"/>
+    <sheet name="TC33-New Firm Qty" sheetId="70" r:id="rId52"/>
+    <sheet name="TC33-Change Request No" sheetId="56" r:id="rId53"/>
+    <sheet name="TC34" sheetId="67" r:id="rId54"/>
+    <sheet name="TC35" sheetId="68" r:id="rId55"/>
+    <sheet name="TC36" sheetId="57" r:id="rId56"/>
+    <sheet name="TC44-Supplier Outbound -Regular" sheetId="47" r:id="rId57"/>
+    <sheet name="TC44-Supplier Outbound -Spot" sheetId="49" r:id="rId58"/>
+    <sheet name="TC44-Outbound No" sheetId="50" r:id="rId59"/>
+    <sheet name="TC45-Supplier SellerGI Invoice" sheetId="52" r:id="rId60"/>
+    <sheet name="TC50.1-Customer Cargo -Regular" sheetId="59" r:id="rId61"/>
+    <sheet name="TC50.2-Customer Cargo -Spot" sheetId="60" r:id="rId62"/>
+    <sheet name="TC53-Shipping Detail" sheetId="62" r:id="rId63"/>
+    <sheet name="TC61-BU SellerGI Invoice" sheetId="64" r:id="rId64"/>
+    <sheet name="TC68-DC Inbound" sheetId="65" r:id="rId65"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId66"/>
   </externalReferences>
   <definedNames>
-    <definedName localSheetId="5" name="activeFlagListArr">#REF!</definedName>
+    <definedName name="activeFlagListArr" localSheetId="5">#REF!</definedName>
     <definedName name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr">#REF!</definedName>
     <definedName name="cargoStatus0">#REF!</definedName>
     <definedName name="cargoStatus1">#REF!</definedName>
     <definedName name="cargoStatus2">#REF!</definedName>
     <definedName name="CURRENCY_CODE">#REF!</definedName>
-    <definedName localSheetId="5" name="findAllUomArr">#REF!</definedName>
+    <definedName name="findAllUomArr" localSheetId="5">#REF!</definedName>
     <definedName name="findAllUomArr">[1]findAllUomArr!$A$1:$A$41</definedName>
     <definedName name="PAIRED_FLAG">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG">#REF!</definedName>
     <definedName name="pairedPartsFlagStrArr">#REF!</definedName>
-    <definedName localSheetId="5" name="partsTypeArr">#REF!</definedName>
+    <definedName name="partsTypeArr" localSheetId="5">#REF!</definedName>
     <definedName name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="REPACKING_TYPE">#REF!</definedName>
-    <definedName localSheetId="5" name="rolledPartsFlagArr">#REF!</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="5">#REF!</definedName>
     <definedName name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName localSheetId="5" name="rolledPartsUomArr">#REF!</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="5">#REF!</definedName>
     <definedName name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$41</definedName>
     <definedName name="UOM_CODE">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="501">
   <si>
     <t>No</t>
   </si>
@@ -1493,9 +1493,6 @@
     <t>IterationNo</t>
   </si>
   <si>
-    <t>TN</t>
-  </si>
-  <si>
     <t>Auto Generate Weekly Period</t>
   </si>
   <si>
@@ -1616,66 +1613,6 @@
     <t>Status_OutIn_5</t>
   </si>
   <si>
-    <t>R-VN-TTVN-2311003</t>
-  </si>
-  <si>
-    <t>CR-VN-TTVN-2311003</t>
-  </si>
-  <si>
-    <t>R-SG-TTAP-2311006</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231108001</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231108002</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231108003</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231108004</t>
-  </si>
-  <si>
-    <t>BAFCO2311006</t>
-  </si>
-  <si>
-    <t>BAFCO2311007</t>
-  </si>
-  <si>
-    <t>BAFCO2311008</t>
-  </si>
-  <si>
-    <t>BAFCO2311009</t>
-  </si>
-  <si>
-    <t>BAFCO2311010</t>
-  </si>
-  <si>
-    <t>TTAP2311007</t>
-  </si>
-  <si>
-    <t>TTAP2311008</t>
-  </si>
-  <si>
-    <t>TTAP2311009</t>
-  </si>
-  <si>
-    <t>TTAP2311010</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>R-VN-TTVN-2311004</t>
-  </si>
-  <si>
-    <t>CR-VN-TTVN-2311004</t>
-  </si>
-  <si>
-    <t>R-SG-TTAP-2311007</t>
-  </si>
-  <si>
     <t>o-SG-BAFCO-231108005</t>
   </si>
   <si>
@@ -1713,6 +1650,21 @@
   </si>
   <si>
     <t>TTAP2311014</t>
+  </si>
+  <si>
+    <t>R-VN-TTVN-2311006</t>
+  </si>
+  <si>
+    <t>CR-VN-TTVN-2311005</t>
+  </si>
+  <si>
+    <t>R-SG-TTAP-2311008</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -2059,241 +2011,241 @@
     </border>
   </borders>
   <cellStyleXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="170" xfId="0">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="4" xfId="0">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="3"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="5">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="166" xfId="4">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="168" xfId="4">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="0">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="166" xfId="4">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="0">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle builtinId="3" name="Comma" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 13" xfId="6" xr:uid="{DAC2F1B6-5F0C-4911-9B5C-B5CAE8654FF7}"/>
     <cellStyle name="Normal 2" xfId="8" xr:uid="{05CD56BC-B259-455F-8B6E-D7A790BD14E2}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{0077DFB7-1F7C-4A43-8985-01F7EAF42D54}"/>
@@ -2305,7 +2257,7 @@
     <cellStyle name="常规 2 2" xfId="10" xr:uid="{A5C60366-A437-4C5C-871D-F407967867C8}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2803,10 +2755,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2841,7 +2793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2876,7 +2828,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2970,21 +2922,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3001,7 +2953,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3053,18 +3005,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB094F-61F9-4F6B-BDA2-7BAD65AE22C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB094F-61F9-4F6B-BDA2-7BAD65AE22C0}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
@@ -3072,67 +3024,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="3.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="2:4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row ht="15" r="2" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="57"/>
       <c r="C3" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>471</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="60"/>
       <c r="C4" s="61" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>473</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="63"/>
       <c r="C5" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" s="62" t="s">
         <v>475</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row ht="15" r="6" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="85"/>
       <c r="C6" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" s="65" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="65" t="s">
-        <v>478</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77CFF02-01BA-40A3-85B4-663177661A71}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77CFF02-01BA-40A3-85B4-663177661A71}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
@@ -3140,9 +3092,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3159,17 +3111,17 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594B606-C3E2-4590-8776-D283BD7DAE77}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594B606-C3E2-4590-8776-D283BD7DAE77}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -3177,14 +3129,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="7" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>46</v>
       </c>
@@ -3218,7 +3170,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="E2" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3242,7 +3194,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="E3" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3266,7 +3218,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="E4" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3290,7 +3242,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3314,7 +3266,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="E6" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3338,7 +3290,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="E7" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3349,13 +3301,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C54E39-7FDB-4E7D-8E4A-1FECA68F69D2}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C54E39-7FDB-4E7D-8E4A-1FECA68F69D2}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -3363,10 +3315,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3416,26 +3368,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB951A2-E1E3-41BE-9E98-AE84703BC5C7}">
-  <dimension ref="A1:Y2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB951A2-E1E3-41BE-9E98-AE84703BC5C7}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="14.4" r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>52</v>
       </c>
@@ -3583,13 +3535,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12A9C-8FE9-4F99-ACBE-9965D2480768}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12A9C-8FE9-4F99-ACBE-9965D2480768}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -3597,9 +3549,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="2" max="15" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="15" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -3699,13 +3651,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1CC9B-6D5F-4684-8DC1-9ECC6B866CFC}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1CC9B-6D5F-4684-8DC1-9ECC6B866CFC}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -3713,10 +3665,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="11" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="12" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="11" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3760,7 +3712,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>193</v>
@@ -3788,7 +3740,7 @@
       </c>
       <c r="D3" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>194</v>
@@ -3816,7 +3768,7 @@
       </c>
       <c r="D4" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>195</v>
@@ -3844,7 +3796,7 @@
       </c>
       <c r="D5" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>270</v>
@@ -3872,7 +3824,7 @@
       </c>
       <c r="D6" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>195</v>
@@ -3900,7 +3852,7 @@
       </c>
       <c r="D7" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>195</v>
@@ -3927,14 +3879,14 @@
       <c r="I8" s="6"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B734894B-25AB-43FF-8158-1149F870C11B}">
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B734894B-25AB-43FF-8158-1149F870C11B}">
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -3942,14 +3894,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="9" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="15" max="20" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="21" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="20" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -4019,11 +3971,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C2" s="12" t="str">
         <f>"SGBAFCO-SGTTAP-"&amp;'TC7'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>37</v>
@@ -4039,11 +3991,11 @@
       </c>
       <c r="H2" s="12" t="str">
         <f>AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>TNs-04</v>
+        <v>ABs-01</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-TNs-04</v>
+        <v>CD-ABs-01</v>
       </c>
       <c r="J2" s="12" t="str">
         <f>'TC6.1'!B2&amp;"("&amp;'TC6.1'!C2&amp;")"</f>
@@ -4077,20 +4029,20 @@
       </c>
       <c r="S2" s="12" t="str">
         <f>'TC4'!N2</f>
-        <v>RD-TN-04</v>
+        <v>RD-AB-01</v>
       </c>
       <c r="T2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723AEF1-596F-41E1-B760-C0119527A8CE}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723AEF1-596F-41E1-B760-C0119527A8CE}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
@@ -4098,11 +4050,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4141,7 +4093,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>22</v>
@@ -4167,7 +4119,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>22</v>
@@ -4193,7 +4145,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>22</v>
@@ -4219,7 +4171,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>22</v>
@@ -4245,7 +4197,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>22</v>
@@ -4271,7 +4223,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>22</v>
@@ -4285,14 +4237,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F605A60-7548-455E-B1BD-E501B50E1D8E}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F605A60-7548-455E-B1BD-E501B50E1D8E}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4300,9 +4252,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4322,7 +4274,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-TN-04</v>
+        <v>CS-AB-01</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4332,17 +4284,17 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F67513-3B0C-412F-A466-F3B7B2A44CBB}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F67513-3B0C-412F-A466-F3B7B2A44CBB}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4350,8 +4302,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="1" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4371,7 +4323,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-TNs-04</v>
+        <v>CS-ABs-01</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4381,30 +4333,30 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-TNs-04-004</v>
+        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB0F19-6308-470D-96AC-F48FFA3E7D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB0F19-6308-470D-96AC-F48FFA3E7D98}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="39.0" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="4" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4418,7 +4370,7 @@
         <v>115</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E1" s="87"/>
       <c r="F1" s="5"/>
@@ -4428,11 +4380,11 @@
         <v>500</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="C2" s="66" t="str">
         <f>B2&amp;"s"</f>
-        <v>TNs</v>
+        <v>ABs</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>115</v>
@@ -4454,14 +4406,14 @@
       <c r="E4" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DEE1FD-F115-4FC2-A8A4-08A8E868068A}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DEE1FD-F115-4FC2-A8A4-08A8E868068A}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -4469,9 +4421,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -4594,14 +4546,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0643A5-B7E2-4DA9-B069-8F351003DB03}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0643A5-B7E2-4DA9-B069-8F351003DB03}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
@@ -4609,9 +4561,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="8.88671875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="8.88671875" style="2" collapsed="1"/>
+    <col min="2" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4639,13 +4591,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BF405A-1265-4529-9930-40B4726F6D66}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BF405A-1265-4529-9930-40B4726F6D66}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -4653,9 +4605,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4736,14 +4688,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4751,7 +4703,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -4772,13 +4724,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A8B1D-3D68-4DFF-812B-9F06D6FA029B}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A8B1D-3D68-4DFF-812B-9F06D6FA029B}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
@@ -4786,9 +4738,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4808,92 +4760,134 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>cTN04-2311002</v>
+        <v>cAB01-2311002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30E7E9-63FD-421B-ACB4-C15182195C24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30E7E9-63FD-421B-ACB4-C15182195C24}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="str">
+        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
+        <v>Nov 6, 2023 ~ Nov 12, 2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8FC041-2817-491D-9A9F-8F7D35CE41E0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="30.77734375" collapsed="true"/>
-    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="str">
-        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
-        <v>Nov 6, 2023 ~ Nov 12, 2023</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f>'TC4'!C2</f>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8FC041-2817-491D-9A9F-8F7D35CE41E0}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FCF16-D645-4ABB-87A9-49E7147946A3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="30.77734375" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="str">
-        <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
+        <v>sAB01-2311001</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
+        <v>sAB01-2311002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FCF16-D645-4ABB-87A9-49E7147946A3}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB5BAB7-019C-433A-A788-027102F936EA}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4901,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4912,30 +4906,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="str">
-        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sTN04-2311001</v>
+        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
+        <v>pABs01-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
-        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sTN04-2311002</v>
+        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
+        <v>pABs01-2311002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB5BAB7-019C-433A-A788-027102F936EA}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65D81D-C87E-4360-A071-AB53568FC756}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4943,10 +4937,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4954,76 +4948,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="str">
-        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>pTNs04-2311001</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>pTNs04-2311002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65D81D-C87E-4360-A071-AB53568FC756}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sTNs04-2311001</v>
+        <v>sABs01-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sTNs04-2311002</v>
+        <v>sABs01-2311002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BCBB-72CE-4CBB-B1D3-1C11D7C29537}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BCBB-72CE-4CBB-B1D3-1C11D7C29537}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="13" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="13" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -5166,13 +5118,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410F41C8-F416-4FB2-A3C3-2BAD30EA4977}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410F41C8-F416-4FB2-A3C3-2BAD30EA4977}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
@@ -5180,22 +5132,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="4" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>447</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5206,10 +5158,10 @@
         <v>500</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5220,10 +5172,10 @@
         <v>500</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5234,7 +5186,7 @@
         <v>500</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D4" s="12"/>
     </row>
@@ -5246,7 +5198,7 @@
         <v>1000</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -5258,7 +5210,7 @@
         <v>500</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -5270,18 +5222,18 @@
         <v>0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC0F5A-5783-4133-896F-5E82CA2762D3}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC0F5A-5783-4133-896F-5E82CA2762D3}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -5289,88 +5241,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>452</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C7" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC210D-873E-4EF1-A7F4-1304E8A4787B}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC210D-873E-4EF1-A7F4-1304E8A4787B}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -5378,19 +5330,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="10" width="20.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="10" width="8.88671875" collapsed="true"/>
+    <col min="1" max="3" width="20.77734375" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>447</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5401,7 +5353,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5412,7 +5364,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5452,13 +5404,13 @@
       <c r="C7" s="15"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC786D-476A-42DB-99D0-5D0B57E43076}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC786D-476A-42DB-99D0-5D0B57E43076}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -5466,66 +5418,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AB56FA-011D-427B-894C-D9B962F8DF72}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AB56FA-011D-427B-894C-D9B962F8DF72}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
@@ -5533,11 +5485,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5567,7 +5519,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rcTN04-2311001-01</v>
+        <v>rcAB01-2311001-01</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5632,14 +5584,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC82074-409B-4058-BBB4-4A7D9BAEB68A}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC82074-409B-4058-BBB4-4A7D9BAEB68A}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:K1"/>
@@ -5647,10 +5599,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5754,13 +5706,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942E21B-71C7-4EA8-A0BD-072074C2B2C3}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942E21B-71C7-4EA8-A0BD-072074C2B2C3}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
@@ -5768,11 +5720,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="7" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5847,9 +5799,9 @@
       <c r="K2" s="31">
         <v>1000</v>
       </c>
-      <c r="L2" s="30" t="n">
+      <c r="L2" s="30">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5886,20 +5838,20 @@
       <c r="K3" s="31">
         <v>1000</v>
       </c>
-      <c r="L3" s="30" t="n">
+      <c r="L3" s="30">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79406B4-DBD7-428C-B17D-CD86318E0FD8}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79406B4-DBD7-428C-B17D-CD86318E0FD8}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
@@ -5907,9 +5859,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="11" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="12" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="11" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -5974,9 +5926,9 @@
       <c r="J2" s="31">
         <v>1000</v>
       </c>
-      <c r="K2" s="30" t="n">
+      <c r="K2" s="30">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6006,19 +5958,19 @@
       <c r="J3" s="31">
         <v>1000</v>
       </c>
-      <c r="K3" s="30" t="n">
+      <c r="K3" s="30">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770ADA-1D66-4294-B397-0B2BF2F89F68}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770ADA-1D66-4294-B397-0B2BF2F89F68}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -6026,9 +5978,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6071,7 +6023,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6082,9 +6034,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32" t="n">
+      <c r="H2" s="32">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6101,7 +6053,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6112,9 +6064,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32" t="n">
+      <c r="H3" s="32">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6131,7 +6083,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6142,9 +6094,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32" t="n">
+      <c r="H4" s="32">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6161,7 +6113,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6172,9 +6124,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32" t="n">
+      <c r="H5" s="32">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6191,7 +6143,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6202,9 +6154,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H6" s="32">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6221,7 +6173,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -6232,21 +6184,21 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="32">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF76645B-AA5C-4D86-92F7-10E7C2805ED2}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF76645B-AA5C-4D86-92F7-10E7C2805ED2}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
@@ -6254,9 +6206,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="11" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6299,7 +6251,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -6310,9 +6262,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32" t="n">
+      <c r="H2" s="32">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6329,7 +6281,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -6340,9 +6292,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32" t="n">
+      <c r="H3" s="32">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6359,7 +6311,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -6370,9 +6322,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32" t="n">
+      <c r="H4" s="32">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6389,7 +6341,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -6400,9 +6352,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32" t="n">
+      <c r="H5" s="32">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6419,7 +6371,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -6430,9 +6382,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H6" s="32">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6449,7 +6401,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -6460,33 +6412,33 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="32">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBC8B8-8C7D-4890-B23F-D42A4760DD88}">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBC8B8-8C7D-4890-B23F-D42A4760DD88}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="9" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="11" max="16" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="17" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="9" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="16" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -6677,13 +6629,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F444C-5B70-4EF5-BD9F-454F98A7A869}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F444C-5B70-4EF5-BD9F-454F98A7A869}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
@@ -6691,9 +6643,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="11" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6734,7 +6686,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6745,9 +6697,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32" t="n">
+      <c r="H2" s="32">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6762,7 +6714,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6773,9 +6725,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32" t="n">
+      <c r="H3" s="32">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6790,7 +6742,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6801,9 +6753,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32" t="n">
+      <c r="H4" s="32">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6818,7 +6770,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6829,9 +6781,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32" t="n">
+      <c r="H5" s="32">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6846,7 +6798,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6857,9 +6809,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H6" s="32">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6874,7 +6826,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -6885,32 +6837,32 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="32">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513AACE-A996-4FC1-BA95-6FA48F0C2957}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513AACE-A996-4FC1-BA95-6FA48F0C2957}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7046,14 +6998,14 @@
       <c r="F7" s="26"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679C6DA-4A25-4D87-9555-75757A39B539}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679C6DA-4A25-4D87-9555-75757A39B539}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -7061,8 +7013,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7091,20 +7043,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFE097-22D6-4B00-9E90-9129E84E5DAC}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFE097-22D6-4B00-9E90-9129E84E5DAC}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.6640625" collapsed="true"/>
-    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="23.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -7115,29 +7067,29 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-02"</f>
-        <v>rcTN04-2311001-02</v>
+        <v>rcAB01-2311001-02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AD534-E497-4569-89C5-81CBABA793F3}">
-  <dimension ref="A1:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AD534-E497-4569-89C5-81CBABA793F3}">
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="7" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -7225,38 +7177,38 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="33">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K2" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="33" t="n">
+      <c r="O2" s="33">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="P2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P2" s="33">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="33">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="R2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R2" s="33">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="S2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="S2" s="33">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7285,34 +7237,34 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="33">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K3" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="33" t="n">
+      <c r="O3" s="33">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="P3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P3" s="33">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="33">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="R3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R3" s="33">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="S3" s="33"/>
     </row>
@@ -7344,13 +7296,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33" t="n">
+      <c r="J4" s="33">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
@@ -7358,17 +7310,17 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="33"/>
-      <c r="P4" s="33" t="n">
+      <c r="P4" s="33">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="Q4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="33">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500.0</v>
-      </c>
-      <c r="R4" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R4" s="33">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="S4" s="12"/>
     </row>
@@ -7400,30 +7352,30 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33" t="n">
+      <c r="J5" s="33">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K5" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="33" t="n">
+      <c r="O5" s="33">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500.0</v>
-      </c>
-      <c r="P5" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P5" s="33">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q5" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="33">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
@@ -7456,50 +7408,50 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="J6" s="33">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="33" t="n">
+      <c r="O6" s="33">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="33" t="n">
+      <c r="R6" s="33">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="S6" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F6C0E8-E3D6-4001-B659-6B8372626CDE}">
-  <dimension ref="A1:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F6C0E8-E3D6-4001-B659-6B8372626CDE}">
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -7582,38 +7534,38 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="33">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K2" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="33" t="n">
+      <c r="O2" s="33">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="P2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P2" s="33">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="33">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="R2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R2" s="33">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="S2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="S2" s="33">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7637,34 +7589,34 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="33">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K3" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="33" t="n">
+      <c r="O3" s="33">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="P3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P3" s="33">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="33">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="R3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R3" s="33">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="S3" s="33"/>
     </row>
@@ -7689,13 +7641,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33" t="n">
+      <c r="J4" s="33">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
@@ -7703,17 +7655,17 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="33"/>
-      <c r="P4" s="33" t="n">
+      <c r="P4" s="33">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="Q4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="33">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500.0</v>
-      </c>
-      <c r="R4" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R4" s="33">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="S4" s="12"/>
     </row>
@@ -7738,30 +7690,30 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33" t="n">
+      <c r="J5" s="33">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K5" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="33" t="n">
+      <c r="O5" s="33">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500.0</v>
-      </c>
-      <c r="P5" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P5" s="33">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q5" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="33">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
@@ -7787,49 +7739,49 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="J6" s="33">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="33" t="n">
+      <c r="O6" s="33">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="33" t="n">
+      <c r="R6" s="33">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="S6" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A7952-0ADD-46CB-BCDD-5633F7A7D19C}">
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A7952-0ADD-46CB-BCDD-5633F7A7D19C}">
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="18" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="19" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="18" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -7909,38 +7861,38 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="33">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J2" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M2" s="12"/>
-      <c r="N2" s="33" t="n">
+      <c r="N2" s="33">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="O2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="O2" s="33">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="P2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P2" s="33">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="33">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="R2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R2" s="33">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -7964,34 +7916,34 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="33">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J3" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M3" s="12"/>
-      <c r="N3" s="33" t="n">
+      <c r="N3" s="33">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="O3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="O3" s="33">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500.0</v>
-      </c>
-      <c r="P3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P3" s="33">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="33">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="R3" s="33"/>
     </row>
@@ -8016,13 +7968,13 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="33">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
@@ -8030,17 +7982,17 @@
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="33" t="n">
+      <c r="O4" s="33">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="P4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P4" s="33">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q4" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q4" s="33">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="R4" s="33"/>
     </row>
@@ -8065,30 +8017,30 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="33">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J5" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M5" s="12"/>
-      <c r="N5" s="33" t="n">
+      <c r="N5" s="33">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500.0</v>
-      </c>
-      <c r="O5" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="O5" s="33">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500.0</v>
-      </c>
-      <c r="P5" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P5" s="33">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
@@ -8114,49 +8066,49 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="33">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M6" s="12"/>
-      <c r="N6" s="33" t="n">
+      <c r="N6" s="33">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
-      <c r="Q6" s="33" t="n">
+      <c r="Q6" s="33">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="R6" s="33"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7616B-F775-4E70-AF8C-CF1D4B0931E0}">
-  <dimension ref="A1:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7616B-F775-4E70-AF8C-CF1D4B0931E0}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -8230,7 +8182,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -8241,9 +8193,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33" t="n">
+      <c r="H2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="I2" s="12">
         <v>0</v>
@@ -8260,23 +8212,23 @@
       <c r="M2" s="12">
         <v>0</v>
       </c>
-      <c r="N2" s="33" t="n">
+      <c r="N2" s="33">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="33" t="n">
+      <c r="P2" s="33">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="Q2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="R2" s="33" t="n">
+      <c r="R2" s="33">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>138</v>
@@ -8294,7 +8246,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -8305,9 +8257,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="I3" s="12">
         <v>0</v>
@@ -8324,16 +8276,16 @@
       <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="33" t="n">
+      <c r="N3" s="33">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="O3" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="33" t="n">
+      <c r="P3" s="33">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="Q3" s="33" t="s">
         <v>138</v>
@@ -8357,7 +8309,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -8368,9 +8320,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -8387,16 +8339,16 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="33" t="n">
+      <c r="N4" s="33">
         <f>'TC25-Customer Order Change'!D4</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="O4" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P4" s="33" t="n">
+      <c r="P4" s="33">
         <f>'TC25-Customer Order Change'!E4</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="33" t="s">
         <v>138</v>
@@ -8420,7 +8372,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -8431,9 +8383,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -8450,16 +8402,16 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="33" t="n">
+      <c r="N5" s="33">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="O5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="33" t="n">
+      <c r="P5" s="33">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="33" t="s">
         <v>138</v>
@@ -8483,7 +8435,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -8494,9 +8446,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -8513,9 +8465,9 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="33" t="n">
+      <c r="N6" s="33">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="O6" s="33" t="s">
         <v>138</v>
@@ -8545,7 +8497,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -8556,9 +8508,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -8581,9 +8533,9 @@
       <c r="O7" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="33" t="n">
+      <c r="P7" s="33">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="Q7" s="33" t="s">
         <v>138</v>
@@ -8597,23 +8549,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681AF69-CF1C-4F30-B068-83994D54CBFD}">
-  <dimension ref="A1:Y7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681AF69-CF1C-4F30-B068-83994D54CBFD}">
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -8678,16 +8630,16 @@
         <v>328</v>
       </c>
       <c r="U1" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="V1" s="51" t="s">
         <v>480</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="W1" s="51" t="s">
         <v>481</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="X1" s="51" t="s">
         <v>482</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -8702,7 +8654,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -8713,9 +8665,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33" t="n">
+      <c r="H2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="I2" s="12">
         <v>10.5</v>
@@ -8778,7 +8730,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -8789,9 +8741,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="I3" s="12">
         <v>10.5</v>
@@ -8854,7 +8806,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -8865,9 +8817,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="12">
         <v>10.5</v>
@@ -8930,7 +8882,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -8941,9 +8893,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="12">
         <v>10.5</v>
@@ -9006,7 +8958,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -9017,9 +8969,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="12">
         <v>10.5</v>
@@ -9082,7 +9034,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cTN04-2311001</v>
+        <v>cAB01-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -9093,9 +9045,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="12">
         <v>10.5</v>
@@ -9148,23 +9100,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
-  <dimension ref="A1:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -9236,7 +9188,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -9250,9 +9202,9 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="J2" s="12">
         <v>2</v>
@@ -9295,7 +9247,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -9309,9 +9261,9 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="J3" s="12">
         <v>2</v>
@@ -9354,7 +9306,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -9368,9 +9320,9 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="12">
         <v>2</v>
@@ -9413,7 +9365,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -9427,9 +9379,9 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="J5" s="12">
         <v>2</v>
@@ -9472,7 +9424,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -9486,9 +9438,9 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="J6" s="12">
         <v>2</v>
@@ -9531,7 +9483,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sTN04-2311001</v>
+        <v>sAB01-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -9545,9 +9497,9 @@
       <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="J7" s="12">
         <v>2</v>
@@ -9582,13 +9534,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -9596,9 +9548,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -9615,28 +9567,28 @@
       </c>
       <c r="B2" s="22" t="str">
         <f>"RequestPart-"&amp;'TC4'!H2</f>
-        <v>RequestPart-TN-04</v>
+        <v>RequestPart-AB-01</v>
       </c>
       <c r="C2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281D8027-9DBB-4FB0-90BC-C2CA75E22329}">
-  <dimension ref="A1:Y7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281D8027-9DBB-4FB0-90BC-C2CA75E22329}">
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -9707,10 +9659,10 @@
         <v>441</v>
       </c>
       <c r="W1" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="X1" s="51" t="s">
         <v>458</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -9723,7 +9675,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs04-2311001</v>
+        <v>pABs01-2311001</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>34</v>
@@ -9734,9 +9686,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33" t="n">
+      <c r="H2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="I2" s="12">
         <v>2</v>
@@ -9797,7 +9749,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs04-2311001</v>
+        <v>pABs01-2311001</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>34</v>
@@ -9808,9 +9760,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="I3" s="12">
         <v>2</v>
@@ -9871,7 +9823,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs04-2311001</v>
+        <v>pABs01-2311001</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>34</v>
@@ -9882,9 +9834,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="12">
         <v>2</v>
@@ -9945,7 +9897,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs04-2311001</v>
+        <v>pABs01-2311001</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>34</v>
@@ -9956,9 +9908,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="12">
         <v>2</v>
@@ -10019,7 +9971,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs04-2311001</v>
+        <v>pABs01-2311001</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>34</v>
@@ -10030,9 +9982,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="12">
         <v>2</v>
@@ -10093,7 +10045,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pTNs04-2311001</v>
+        <v>pABs01-2311001</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>34</v>
@@ -10104,9 +10056,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
@@ -10159,23 +10111,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="5" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -10192,7 +10144,7 @@
         <v>291</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -10216,24 +10168,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85C8B0-8ABC-42B6-BDDD-C373C0238928}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85C8B0-8ABC-42B6-BDDD-C373C0238928}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -10259,7 +10211,7 @@
         <v>291</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -10383,20 +10335,20 @@
       <c r="H7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37060D-3EB1-4D52-AF9A-FDEBDE974A12}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37060D-3EB1-4D52-AF9A-FDEBDE974A12}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -10407,27 +10359,27 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rs"&amp;AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rsTNs04-2311001-01</v>
+        <v>rsABs01-2311001-01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F7D49-70C3-401C-97E6-E9D888543863}">
-  <dimension ref="A1:W7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F7D49-70C3-401C-97E6-E9D888543863}">
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="22" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="22" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -10483,7 +10435,7 @@
         <v>337</v>
       </c>
       <c r="R1" s="51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S1" s="51" t="s">
         <v>338</v>
@@ -10495,7 +10447,7 @@
         <v>340</v>
       </c>
       <c r="V1" s="51" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -10517,13 +10469,13 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
-      </c>
-      <c r="J2" s="33" t="n">
+        <v>1100</v>
+      </c>
+      <c r="J2" s="33">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="12">
         <v>0</v>
@@ -10571,13 +10523,13 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
-      </c>
-      <c r="J3" s="33" t="n">
+        <v>900</v>
+      </c>
+      <c r="J3" s="33">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="K3" s="12">
         <v>0</v>
@@ -10621,13 +10573,13 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="33">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="K4" s="12">
         <v>0</v>
@@ -10673,13 +10625,13 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J5" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="33">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
@@ -10725,13 +10677,13 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="33">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="K6" s="12">
         <v>0</v>
@@ -10775,13 +10727,13 @@
       <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J7" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="33">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="K7" s="12">
         <v>0</v>
@@ -10810,23 +10762,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC42DFF-227A-43C8-9477-ADF9903AD82A}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC42DFF-227A-43C8-9477-ADF9903AD82A}">
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="24" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="23" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="24" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -10924,13 +10876,13 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
-      </c>
-      <c r="K2" s="33" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K2" s="33">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -10983,13 +10935,13 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
-      </c>
-      <c r="K3" s="33" t="n">
+        <v>900</v>
+      </c>
+      <c r="K3" s="33">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -11038,13 +10990,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33" t="n">
+      <c r="J4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="33">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -11095,13 +11047,13 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33" t="n">
+      <c r="J5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K5" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="33">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -11152,13 +11104,13 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="J6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="33">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -11207,13 +11159,13 @@
       <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="33" t="n">
+      <c r="J7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K7" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="33">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -11242,25 +11194,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6AD75-D8FC-4DC9-9657-3CCEA1DADDC8}">
-  <dimension ref="A1:AE7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6AD75-D8FC-4DC9-9657-3CCEA1DADDC8}">
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="7" max="30" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="31" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="30" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="31" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -11337,10 +11289,10 @@
         <v>296</v>
       </c>
       <c r="Y1" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z1" s="51" t="s">
         <v>463</v>
-      </c>
-      <c r="Z1" s="51" t="s">
-        <v>464</v>
       </c>
       <c r="AA1" s="51" t="s">
         <v>297</v>
@@ -11379,13 +11331,13 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
-      </c>
-      <c r="K2" s="33" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K2" s="33">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -11455,13 +11407,13 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
-      </c>
-      <c r="K3" s="33" t="n">
+        <v>900</v>
+      </c>
+      <c r="K3" s="33">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -11525,13 +11477,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33" t="n">
+      <c r="J4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="33">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -11599,13 +11551,13 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33" t="n">
+      <c r="J5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K5" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="33">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -11673,13 +11625,13 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="J6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="33">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -11743,13 +11695,13 @@
       <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="33" t="n">
+      <c r="J7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K7" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="33">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -11793,29 +11745,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32F6EF-C79A-4E20-806A-C9305FB64608}">
-  <dimension ref="A1:X8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32F6EF-C79A-4E20-806A-C9305FB64608}">
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
-    <col min="4" max="23" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="8" width="20.77734375" collapsed="true"/>
-    <col min="25" max="16384" style="8" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="23" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="8.88671875" style="8" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>215</v>
       </c>
@@ -11959,8 +11911,8 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
@@ -11968,13 +11920,13 @@
       </c>
       <c r="C3" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="D3" s="38">
         <v>1000</v>
       </c>
       <c r="E3" s="37" t="str">
-        <f ca="1" ref="E3:E8" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
+        <f t="shared" ref="E3:E8" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
         <v>10 Nov 2023</v>
       </c>
       <c r="F3" s="37" t="str">
@@ -11990,7 +11942,7 @@
       <c r="M3" s="40"/>
       <c r="N3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-004</v>
+        <v>OP-231108-01-001</v>
       </c>
       <c r="O3" s="28" t="s">
         <v>222</v>
@@ -12006,7 +11958,7 @@
       </c>
       <c r="S3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-004</v>
+        <v>IP-231108-01-001</v>
       </c>
       <c r="T3" s="42"/>
       <c r="U3" s="41">
@@ -12021,26 +11973,26 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B4" s="37" t="str">
-        <f ca="1" ref="B4:B8" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
+        <f t="shared" ref="B4:B8" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
         <v>07 Nov 2023</v>
       </c>
       <c r="C4" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="D4" s="38">
         <v>800</v>
       </c>
       <c r="E4" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="F4" s="37" t="str">
-        <f ca="1" ref="F4:F8" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
+        <f t="shared" ref="F4:F8" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
         <v>18 Nov 2023</v>
       </c>
       <c r="G4" s="39" t="s">
@@ -12054,7 +12006,7 @@
       <c r="M4" s="40"/>
       <c r="N4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-004</v>
+        <v>OP-231108-01-001</v>
       </c>
       <c r="O4" s="28" t="s">
         <v>223</v>
@@ -12070,7 +12022,7 @@
       </c>
       <c r="S4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-004</v>
+        <v>IP-231108-02-001</v>
       </c>
       <c r="T4" s="42" t="s">
         <v>232</v>
@@ -12087,26 +12039,26 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B5" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
+        <f t="shared" ca="1" si="1"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="C5" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="D5" s="38">
         <v>900</v>
       </c>
       <c r="E5" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="F5" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
+        <f t="shared" ca="1" si="2"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="G5" s="39" t="s">
@@ -12130,7 +12082,7 @@
       </c>
       <c r="N5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-004</v>
+        <v>OP-231108-02-001</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>223</v>
@@ -12152,26 +12104,26 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B6" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
+        <f t="shared" ca="1" si="1"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="C6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="D6" s="38">
         <v>1200</v>
       </c>
       <c r="E6" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="F6" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
+        <f t="shared" ca="1" si="2"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="G6" s="39" t="s">
@@ -12197,7 +12149,7 @@
       </c>
       <c r="N6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-004</v>
+        <v>OP-231108-02-001</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>223</v>
@@ -12219,26 +12171,26 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B7" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
+        <f t="shared" ca="1" si="1"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="C7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="D7" s="38">
         <v>1000</v>
       </c>
       <c r="E7" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="F7" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
+        <f t="shared" ca="1" si="2"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="G7" s="39" t="s">
@@ -12264,7 +12216,7 @@
       </c>
       <c r="N7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-004</v>
+        <v>OP-231108-03-001</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>224</v>
@@ -12280,7 +12232,7 @@
       </c>
       <c r="S7" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-004</v>
+        <v>IP-231108-01-001</v>
       </c>
       <c r="T7" s="42" t="s">
         <v>232</v>
@@ -12297,26 +12249,26 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B8" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
+        <f t="shared" ca="1" si="1"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="C8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="D8" s="38">
         <v>1100</v>
       </c>
       <c r="E8" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="F8" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
+        <f t="shared" ca="1" si="2"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="G8" s="39" t="s">
@@ -12342,7 +12294,7 @@
       </c>
       <c r="N8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-004</v>
+        <v>OP-231108-03-001</v>
       </c>
       <c r="O8" s="28" t="s">
         <v>224</v>
@@ -12358,7 +12310,7 @@
       </c>
       <c r="S8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-004</v>
+        <v>IP-231108-02-001</v>
       </c>
       <c r="T8" s="42" t="s">
         <v>239</v>
@@ -12374,32 +12326,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCEF40-2C7B-4D0B-9DC6-89273BF3A1A0}">
-  <dimension ref="A1:AN9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCEF40-2C7B-4D0B-9DC6-89273BF3A1A0}">
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AH29" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="8" width="5.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
-    <col min="7" max="33" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="34" max="36" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
-    <col min="37" max="42" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="43" max="16384" style="8" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="7" max="33" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="34" max="36" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="37" max="42" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="8.88671875" style="8" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -12526,8 +12478,8 @@
         <v>81</v>
       </c>
       <c r="C2" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-002</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>o-SG-BAFCO-2311-AB-01-002</v>
       </c>
       <c r="D2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
@@ -12556,7 +12508,7 @@
         <v>34</v>
       </c>
       <c r="M2" s="37" t="str">
-        <f ca="1" ref="M2:M9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
+        <f t="shared" ref="M2:M9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
         <v>10 Nov 2023</v>
       </c>
       <c r="N2" s="37" t="str">
@@ -12574,7 +12526,7 @@
       <c r="U2" s="44"/>
       <c r="V2" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-004</v>
+        <v>OP-231108-02-001</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>253</v>
@@ -12584,7 +12536,7 @@
       <c r="Z2" s="44"/>
       <c r="AA2" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-004</v>
+        <v>IP-231108-01-001</v>
       </c>
       <c r="AB2" s="45" t="s">
         <v>254</v>
@@ -12594,7 +12546,7 @@
       <c r="AE2" s="44"/>
       <c r="AF2" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs04-2311002</v>
+        <v>sABs01-2311002</v>
       </c>
       <c r="AG2" s="37" t="s">
         <v>81</v>
@@ -12624,11 +12576,11 @@
         <v>81</v>
       </c>
       <c r="C3" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-002</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>o-SG-BAFCO-2311-AB-01-002</v>
       </c>
       <c r="D3" s="37" t="str">
-        <f ca="1" ref="D3:D9" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
+        <f t="shared" ref="D3:D9" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
         <v>07 Nov 2023</v>
       </c>
       <c r="E3" s="37"/>
@@ -12654,11 +12606,11 @@
         <v>34</v>
       </c>
       <c r="M3" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N3" s="37" t="str">
-        <f ca="1" ref="N3:N9" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
+        <f t="shared" ref="N3:N9" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
         <v>18 Nov 2023</v>
       </c>
       <c r="O3" s="19" t="s">
@@ -12672,7 +12624,7 @@
       <c r="U3" s="44"/>
       <c r="V3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-004</v>
+        <v>OP-231108-02-001</v>
       </c>
       <c r="W3" s="19" t="s">
         <v>253</v>
@@ -12682,7 +12634,7 @@
       <c r="Z3" s="44"/>
       <c r="AA3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-004</v>
+        <v>IP-231108-02-001</v>
       </c>
       <c r="AB3" s="45" t="s">
         <v>255</v>
@@ -12692,7 +12644,7 @@
       <c r="AE3" s="44"/>
       <c r="AF3" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs04-2311002</v>
+        <v>sABs01-2311002</v>
       </c>
       <c r="AG3" s="37" t="s">
         <v>81</v>
@@ -12722,11 +12674,11 @@
         <v>81</v>
       </c>
       <c r="C4" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-002</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>o-SG-BAFCO-2311-AB-01-002</v>
       </c>
       <c r="D4" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
+        <f t="shared" ca="1" si="1"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E4" s="37"/>
@@ -12752,11 +12704,11 @@
         <v>34</v>
       </c>
       <c r="M4" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N4" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
+        <f t="shared" ca="1" si="2"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O4" s="39" t="s">
@@ -12770,7 +12722,7 @@
       <c r="U4" s="40"/>
       <c r="V4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-004</v>
+        <v>OP-231108-01-001</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>256</v>
@@ -12786,7 +12738,7 @@
       </c>
       <c r="AA4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-004</v>
+        <v>IP-231108-02-001</v>
       </c>
       <c r="AB4" s="42" t="s">
         <v>257</v>
@@ -12796,7 +12748,7 @@
       <c r="AE4" s="40"/>
       <c r="AF4" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs04-2311002</v>
+        <v>sABs01-2311002</v>
       </c>
       <c r="AG4" s="37" t="s">
         <v>81</v>
@@ -12826,11 +12778,11 @@
         <v>81</v>
       </c>
       <c r="C5" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-002</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>o-SG-BAFCO-2311-AB-01-002</v>
       </c>
       <c r="D5" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
+        <f t="shared" ca="1" si="1"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E5" s="37"/>
@@ -12856,11 +12808,11 @@
         <v>34</v>
       </c>
       <c r="M5" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N5" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
+        <f t="shared" ca="1" si="2"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O5" s="21" t="s">
@@ -12886,7 +12838,7 @@
       </c>
       <c r="V5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-004</v>
+        <v>OP-231108-01-001</v>
       </c>
       <c r="W5" s="19" t="s">
         <v>262</v>
@@ -12896,7 +12848,7 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-004</v>
+        <v>IP-231108-01-001</v>
       </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="44"/>
@@ -12904,7 +12856,7 @@
       <c r="AE5" s="44"/>
       <c r="AF5" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs04-2311002</v>
+        <v>sABs01-2311002</v>
       </c>
       <c r="AG5" s="37" t="s">
         <v>81</v>
@@ -12934,16 +12886,16 @@
         <v>81</v>
       </c>
       <c r="C6" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-003</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <v>o-SG-BAFCO-2311-AB-01-003</v>
       </c>
       <c r="D6" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
+        <f t="shared" ca="1" si="1"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-02-004</v>
+        <v>B-2311-AB-02-001</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>29</v>
@@ -12967,11 +12919,11 @@
         <v>34</v>
       </c>
       <c r="M6" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N6" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
+        <f t="shared" ca="1" si="2"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O6" s="21" t="s">
@@ -12989,7 +12941,7 @@
       <c r="U6" s="44"/>
       <c r="V6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-004</v>
+        <v>OP-231108-01-001</v>
       </c>
       <c r="W6" s="19" t="s">
         <v>262</v>
@@ -13004,7 +12956,7 @@
       <c r="AE6" s="44"/>
       <c r="AF6" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs04-2311002</v>
+        <v>sABs01-2311002</v>
       </c>
       <c r="AG6" s="37" t="s">
         <v>81</v>
@@ -13034,16 +12986,16 @@
         <v>81</v>
       </c>
       <c r="C7" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-003</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <v>o-SG-BAFCO-2311-AB-01-003</v>
       </c>
       <c r="D7" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
+        <f t="shared" ca="1" si="1"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-02-004</v>
+        <v>B-2311-AB-02-001</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>152</v>
@@ -13067,11 +13019,11 @@
         <v>34</v>
       </c>
       <c r="M7" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N7" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
+        <f t="shared" ca="1" si="2"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O7" s="21" t="s">
@@ -13089,7 +13041,7 @@
       <c r="U7" s="44"/>
       <c r="V7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-004</v>
+        <v>OP-231108-02-001</v>
       </c>
       <c r="W7" s="19" t="s">
         <v>256</v>
@@ -13104,7 +13056,7 @@
       <c r="AE7" s="44"/>
       <c r="AF7" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs04-2311002</v>
+        <v>sABs01-2311002</v>
       </c>
       <c r="AG7" s="37" t="s">
         <v>81</v>
@@ -13134,16 +13086,16 @@
         <v>81</v>
       </c>
       <c r="C8" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-003</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <v>o-SG-BAFCO-2311-AB-01-003</v>
       </c>
       <c r="D8" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
+        <f t="shared" ca="1" si="1"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-02-004</v>
+        <v>B-2311-AB-02-001</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>268</v>
@@ -13167,11 +13119,11 @@
         <v>34</v>
       </c>
       <c r="M8" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N8" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
+        <f t="shared" ca="1" si="2"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O8" s="21" t="s">
@@ -13197,7 +13149,7 @@
       </c>
       <c r="V8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-004</v>
+        <v>OP-231108-03-001</v>
       </c>
       <c r="W8" s="19" t="s">
         <v>256</v>
@@ -13213,7 +13165,7 @@
       </c>
       <c r="AA8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-004</v>
+        <v>IP-231108-01-001</v>
       </c>
       <c r="AB8" s="45" t="s">
         <v>257</v>
@@ -13229,7 +13181,7 @@
       </c>
       <c r="AF8" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs04-2311002</v>
+        <v>sABs01-2311002</v>
       </c>
       <c r="AG8" s="37" t="s">
         <v>81</v>
@@ -13259,16 +13211,16 @@
         <v>81</v>
       </c>
       <c r="C9" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-004"]]></f>
-        <v>o-SG-BAFCO-2311-TN-04-004</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-004"</f>
+        <v>o-SG-BAFCO-2311-AB-01-004</v>
       </c>
       <c r="D9" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
+        <f t="shared" ca="1" si="1"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E9" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-TN-03-004</v>
+        <v>B-2311-AB-03-001</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>268</v>
@@ -13292,11 +13244,11 @@
         <v>34</v>
       </c>
       <c r="M9" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N9" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
+        <f t="shared" ca="1" si="2"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O9" s="19"/>
@@ -13308,7 +13260,7 @@
       <c r="U9" s="44"/>
       <c r="V9" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-004</v>
+        <v>OP-231108-03-001</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>256</v>
@@ -13324,7 +13276,7 @@
       </c>
       <c r="AA9" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-004</v>
+        <v>IP-231108-01-001</v>
       </c>
       <c r="AB9" s="45" t="s">
         <v>257</v>
@@ -13340,7 +13292,7 @@
       </c>
       <c r="AF9" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sTNs04-2311002</v>
+        <v>sABs01-2311002</v>
       </c>
       <c r="AG9" s="37" t="s">
         <v>81</v>
@@ -13364,22 +13316,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77311BC3-E043-40F5-9D6D-99B7C2A9BBC7}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77311BC3-E043-40F5-9D6D-99B7C2A9BBC7}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -13399,10 +13351,10 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!A3</f>
-        <v>o-SG-BAFCO-2311-TN-04-001</v>
+        <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="C2" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -13411,10 +13363,10 @@
       </c>
       <c r="B3" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C2</f>
-        <v>o-SG-BAFCO-2311-TN-04-002</v>
+        <v>o-SG-BAFCO-2311-AB-01-002</v>
       </c>
       <c r="C3" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -13423,10 +13375,10 @@
       </c>
       <c r="B4" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C6</f>
-        <v>o-SG-BAFCO-2311-TN-04-003</v>
+        <v>o-SG-BAFCO-2311-AB-01-003</v>
       </c>
       <c r="C4" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -13435,36 +13387,36 @@
       </c>
       <c r="B5" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C9</f>
-        <v>o-SG-BAFCO-2311-TN-04-004</v>
+        <v>o-SG-BAFCO-2311-AB-01-004</v>
       </c>
       <c r="C5" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4C2CD-E70A-41BD-8891-E7DD5B5CEC38}">
-  <dimension ref="A1:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4C2CD-E70A-41BD-8891-E7DD5B5CEC38}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="5.77734375" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" style="4" width="25.77734375" collapsed="true"/>
-    <col min="6" max="9" customWidth="true" style="4" width="15.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="25.77734375" collapsed="true"/>
-    <col min="11" max="17" customWidth="true" style="4" width="15.77734375" collapsed="true"/>
-    <col min="18" max="16384" style="4" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="25.77734375" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="15.77734375" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.77734375" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="17" width="15.77734375" style="4" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="8.88671875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13517,7 +13469,7 @@
         <v>276</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -13566,7 +13518,7 @@
       </c>
       <c r="Q2" s="19"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -13615,7 +13567,7 @@
       </c>
       <c r="Q3" s="19"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -13668,7 +13620,7 @@
       </c>
       <c r="Q4" s="19"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -13721,7 +13673,7 @@
       </c>
       <c r="Q5" s="19"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -13770,7 +13722,7 @@
       </c>
       <c r="Q6" s="19"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -13821,32 +13773,32 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="I2:I7" type="list" xr:uid="{0E91B3D6-9299-430D-A4F2-2FD0E946DA1C}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I7" xr:uid="{0E91B3D6-9299-430D-A4F2-2FD0E946DA1C}">
       <formula1>PAIRED_FLAG</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="K2:K6" type="list" xr:uid="{C5FFB457-24FD-46EF-A22A-756CEE443DDF}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{C5FFB457-24FD-46EF-A22A-756CEE443DDF}">
       <formula1>PAIRED_ORDER_FLAG</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H7" type="list" xr:uid="{C18C6561-5DC9-4062-8CB8-5E10E79AE2DB}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{C18C6561-5DC9-4062-8CB8-5E10E79AE2DB}">
       <formula1>UOM_CODE</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D61E3-2B05-4C91-8724-D21919B54379}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D61E3-2B05-4C91-8724-D21919B54379}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -13869,10 +13821,10 @@
         <v>o-SG-BAFCO-231108005</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -13884,10 +13836,10 @@
         <v>o-SG-BAFCO-231108006</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13899,7 +13851,7 @@
         <v>o-SG-BAFCO-231108007</v>
       </c>
       <c r="C4" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13911,25 +13863,25 @@
         <v>o-SG-BAFCO-231108008</v>
       </c>
       <c r="C5" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D885ABF-3A14-4153-8AE3-9C0D9DAAE757}">
-  <dimension ref="A1:AA5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D885ABF-3A14-4153-8AE3-9C0D9DAAE757}">
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -13937,12 +13889,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="26" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>301</v>
       </c>
@@ -14022,10 +13974,10 @@
         <v>321</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48" t="s">
@@ -14101,10 +14053,10 @@
         <v>324</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="B3" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G4</f>
@@ -14183,10 +14135,10 @@
         <v>324</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G5</f>
@@ -14268,7 +14220,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="B5" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G7</f>
@@ -14348,13 +14300,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F21EE-23C3-4FCA-9C9B-9CEB31F6088E}">
-  <dimension ref="A1:AA6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F21EE-23C3-4FCA-9C9B-9CEB31F6088E}">
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -14362,12 +14314,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="26" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>301</v>
       </c>
@@ -14447,10 +14399,10 @@
         <v>321</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E6</f>
-        <v>B-2311-TN-02-004</v>
+        <v>B-2311-AB-02-001</v>
       </c>
       <c r="B2" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O8</f>
@@ -14529,7 +14481,7 @@
         <v>324</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O5</f>
@@ -14608,10 +14560,10 @@
         <v>324</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
-        <v>B-2311-TN-02-004</v>
+        <v>B-2311-AB-02-001</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O6</f>
@@ -14693,7 +14645,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E9</f>
-        <v>B-2311-TN-03-004</v>
+        <v>B-2311-AB-03-001</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="48" t="s">
@@ -14849,13 +14801,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A112FA-01A2-4B2F-8178-C7A1C83AE86A}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A112FA-01A2-4B2F-8178-C7A1C83AE86A}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
@@ -14863,9 +14815,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -14879,14 +14831,14 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C8</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="B3" s="24" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G8</f>
@@ -14896,7 +14848,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C4</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="B4" s="49" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G4</f>
@@ -14906,7 +14858,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C6</f>
-        <v>B-2311-TN-01-004</v>
+        <v>B-2311-AB-01-001</v>
       </c>
       <c r="B5" s="49" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G6</f>
@@ -14930,7 +14882,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E8</f>
-        <v>B-2311-TN-02-004</v>
+        <v>B-2311-AB-02-001</v>
       </c>
       <c r="B8" s="24" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O8</f>
@@ -14940,7 +14892,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
-        <v>B-2311-TN-02-004</v>
+        <v>B-2311-AB-02-001</v>
       </c>
       <c r="B9" s="24" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O7</f>
@@ -14950,26 +14902,26 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E9</f>
-        <v>B-2311-TN-03-004</v>
+        <v>B-2311-AB-03-001</v>
       </c>
       <c r="B10" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA3B652-996F-421B-A9AA-FD39761C01AA}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA3B652-996F-421B-A9AA-FD39761C01AA}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -14992,7 +14944,7 @@
         <v>o-SG-BAFCO-231108005</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -15004,7 +14956,7 @@
         <v>o-SG-BAFCO-231108006</v>
       </c>
       <c r="C3" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -15016,7 +14968,7 @@
         <v>o-SG-BAFCO-231108007</v>
       </c>
       <c r="C4" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -15028,26 +14980,26 @@
         <v>o-SG-BAFCO-231108008</v>
       </c>
       <c r="C5" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F256599-8CB1-4B13-A4F1-65D4DF22C5CF}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F256599-8CB1-4B13-A4F1-65D4DF22C5CF}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="7" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15075,8 +15027,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -15091,11 +15043,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C3" s="37" t="str">
-        <f ca="1" ref="C3:C15" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <f t="shared" ref="C3:C15" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
         <v>08 Nov 2023</v>
       </c>
       <c r="D3" s="12"/>
@@ -15107,11 +15059,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C4" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D4" s="12"/>
@@ -15123,11 +15075,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C5" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D5" s="12"/>
@@ -15139,11 +15091,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C6" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D6" s="12"/>
@@ -15155,11 +15107,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C7" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D7" s="12"/>
@@ -15171,11 +15123,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C8" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D8" s="12"/>
@@ -15187,11 +15139,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C9" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D9" s="12"/>
@@ -15203,11 +15155,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C10" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D10" s="12"/>
@@ -15219,11 +15171,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C11" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D11" s="12"/>
@@ -15235,11 +15187,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C12" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D12" s="12"/>
@@ -15251,11 +15203,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C13" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D13" s="50">
@@ -15273,11 +15225,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-002</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>i-VN-AKIRA-231108-AB-01-002</v>
       </c>
       <c r="C14" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D14" s="50">
@@ -15295,11 +15247,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>i-VN-AKIRA-231108-TN-04-002</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>i-VN-AKIRA-231108-AB-01-002</v>
       </c>
       <c r="C15" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
+        <f t="shared" ca="1" si="0"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D15" s="12"/>
@@ -15307,22 +15259,22 @@
       <c r="F15" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6053F06-3444-450C-B9FC-28670DC14D6B}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6053F06-3444-450C-B9FC-28670DC14D6B}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -15372,23 +15324,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE02D8D-1685-4FEA-8687-C031EDEBEDAF}">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE02D8D-1685-4FEA-8687-C031EDEBEDAF}">
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="26.77734375" collapsed="true"/>
-    <col min="6" max="18" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="19" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="18" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -15457,7 +15409,7 @@
       </c>
       <c r="E2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>411</v>
@@ -15507,7 +15459,7 @@
       </c>
       <c r="E3" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>411</v>
@@ -15557,7 +15509,7 @@
       </c>
       <c r="E4" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>412</v>
@@ -15607,7 +15559,7 @@
       </c>
       <c r="E5" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>412</v>
@@ -15656,7 +15608,7 @@
       </c>
       <c r="E6" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>413</v>
@@ -15705,7 +15657,7 @@
       </c>
       <c r="E7" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>413</v>
@@ -15740,29 +15692,29 @@
       <c r="P7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66379E1-079F-435E-B8ED-F61B35FCE9C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66379E1-079F-435E-B8ED-F61B35FCE9C4}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="4" max="9" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="11" max="20" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="20" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -15838,11 +15790,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>"SGTTAP-VNTTVN-"&amp;'TC4'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>SGTTAP-VNTTVN-TN-04-004</v>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>20</v>
@@ -15858,11 +15810,11 @@
       </c>
       <c r="H2" s="20" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>TN-04</v>
+        <v>AB-01</v>
       </c>
       <c r="I2" s="20" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-TN-04</v>
+        <v>CD-AB-01</v>
       </c>
       <c r="J2" s="20" t="str">
         <f>'TC3.1'!B2&amp;"("&amp;'TC3.1'!C2&amp;")"</f>
@@ -15879,7 +15831,7 @@
       </c>
       <c r="N2" s="20" t="str">
         <f>"RD-"&amp;H2</f>
-        <v>RD-TN-04</v>
+        <v>RD-AB-01</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>23</v>
@@ -15900,14 +15852,14 @@
         <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V2" s="20" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
@@ -1,112 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8E64AB-E88F-45EB-988C-5E83ED390A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FA8E64AB-E88F-45EB-988C-5E83ED390A5B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="621" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicator" sheetId="82" r:id="rId1"/>
-    <sheet name="AutoIncrement" sheetId="5" r:id="rId2"/>
-    <sheet name="TC1" sheetId="71" r:id="rId3"/>
-    <sheet name="TC2" sheetId="72" r:id="rId4"/>
-    <sheet name="TC3" sheetId="1" r:id="rId5"/>
-    <sheet name="TC3-Req to Parts Master" sheetId="73" r:id="rId6"/>
-    <sheet name="TC3.1" sheetId="74" r:id="rId7"/>
-    <sheet name="TC4-Contract Parts Info" sheetId="4" r:id="rId8"/>
-    <sheet name="TC4" sheetId="3" r:id="rId9"/>
-    <sheet name="TC5" sheetId="6" r:id="rId10"/>
-    <sheet name="TC6" sheetId="7" r:id="rId11"/>
-    <sheet name="TC6.1" sheetId="75" r:id="rId12"/>
-    <sheet name="TC6.2" sheetId="9" r:id="rId13"/>
-    <sheet name="TC6.2_ETAnWeek" sheetId="10" r:id="rId14"/>
-    <sheet name="TC7-Contract Parts Info" sheetId="76" r:id="rId15"/>
-    <sheet name="TC7" sheetId="11" r:id="rId16"/>
-    <sheet name="TC8" sheetId="53" r:id="rId17"/>
-    <sheet name="TC9" sheetId="12" r:id="rId18"/>
-    <sheet name="TC10" sheetId="13" r:id="rId19"/>
-    <sheet name="TC11-Order Regular" sheetId="15" r:id="rId20"/>
-    <sheet name="TC11-Inbound Dates Regular" sheetId="16" r:id="rId21"/>
-    <sheet name="TC11-Order Spot" sheetId="17" r:id="rId22"/>
-    <sheet name="TC11-Inbound Dates Spot" sheetId="18" r:id="rId23"/>
-    <sheet name="TC11-Customer CO" sheetId="25" r:id="rId24"/>
-    <sheet name="TC11- Period Generator" sheetId="77" r:id="rId25"/>
-    <sheet name="TC12" sheetId="54" r:id="rId26"/>
-    <sheet name="TC14-BU SO" sheetId="19" r:id="rId27"/>
-    <sheet name="TC15-BU PO" sheetId="20" r:id="rId28"/>
-    <sheet name="TC16-Supplier SO" sheetId="21" r:id="rId29"/>
-    <sheet name="TC17.1-Sup SO Delivery Plan" sheetId="78" r:id="rId30"/>
-    <sheet name="TC17.1-Sup SODeliveryPlan(Date)" sheetId="79" r:id="rId31"/>
-    <sheet name="TC17.2-Sup SO Delivery Plan" sheetId="80" r:id="rId32"/>
-    <sheet name="TC17.2-Sup SODeliveryPlan(Date)" sheetId="81" r:id="rId33"/>
-    <sheet name="TC18-Forecast Change" sheetId="26" r:id="rId34"/>
-    <sheet name="TC20-BU Change Request" sheetId="28" r:id="rId35"/>
-    <sheet name="TC19-Customer Change Request" sheetId="27" r:id="rId36"/>
-    <sheet name="TC21-Supplier Approve Change " sheetId="29" r:id="rId37"/>
-    <sheet name="TC22-Customer Forecast CO " sheetId="30" r:id="rId38"/>
-    <sheet name="TC23-BU Forecast SO" sheetId="31" r:id="rId39"/>
-    <sheet name="TC24-BU Forecast PO" sheetId="32" r:id="rId40"/>
-    <sheet name="TC25-Customer Order Change" sheetId="33" r:id="rId41"/>
-    <sheet name="TC25-Change Inbound Date" sheetId="34" r:id="rId42"/>
-    <sheet name="TC25-Change Request No" sheetId="40" r:id="rId43"/>
-    <sheet name="TC26-Customer AutoGen Change" sheetId="35" r:id="rId44"/>
-    <sheet name="TC27-BU AutoGen Change" sheetId="38" r:id="rId45"/>
-    <sheet name="TC28-Supplier Approve Change" sheetId="39" r:id="rId46"/>
-    <sheet name="TC29-Customer Check CO" sheetId="43" r:id="rId47"/>
-    <sheet name="TC30-BU Check SO" sheetId="44" r:id="rId48"/>
-    <sheet name="TC31-BU Check PO" sheetId="45" r:id="rId49"/>
-    <sheet name="TC32-Supplier Check SO" sheetId="46" r:id="rId50"/>
-    <sheet name="TC33-New Outbound Date" sheetId="55" r:id="rId51"/>
-    <sheet name="TC33-New Firm Qty" sheetId="70" r:id="rId52"/>
-    <sheet name="TC33-Change Request No" sheetId="56" r:id="rId53"/>
-    <sheet name="TC34" sheetId="67" r:id="rId54"/>
-    <sheet name="TC35" sheetId="68" r:id="rId55"/>
-    <sheet name="TC36" sheetId="57" r:id="rId56"/>
-    <sheet name="TC44-Supplier Outbound -Regular" sheetId="47" r:id="rId57"/>
-    <sheet name="TC44-Supplier Outbound -Spot" sheetId="49" r:id="rId58"/>
-    <sheet name="TC44-Outbound No" sheetId="50" r:id="rId59"/>
-    <sheet name="TC45-Supplier SellerGI Invoice" sheetId="52" r:id="rId60"/>
-    <sheet name="TC50.1-Customer Cargo -Regular" sheetId="59" r:id="rId61"/>
-    <sheet name="TC50.2-Customer Cargo -Spot" sheetId="60" r:id="rId62"/>
-    <sheet name="TC53-Shipping Detail" sheetId="62" r:id="rId63"/>
-    <sheet name="TC61-BU SellerGI Invoice" sheetId="64" r:id="rId64"/>
-    <sheet name="TC68-DC Inbound" sheetId="65" r:id="rId65"/>
+    <sheet name="Indicator" r:id="rId1" sheetId="82"/>
+    <sheet name="AutoIncrement" r:id="rId2" sheetId="5"/>
+    <sheet name="TC1" r:id="rId3" sheetId="71"/>
+    <sheet name="TC2" r:id="rId4" sheetId="72"/>
+    <sheet name="TC3" r:id="rId5" sheetId="1"/>
+    <sheet name="TC3-Req to Parts Master" r:id="rId6" sheetId="73"/>
+    <sheet name="TC3.1" r:id="rId7" sheetId="74"/>
+    <sheet name="TC4-Contract Parts Info" r:id="rId8" sheetId="4"/>
+    <sheet name="TC4" r:id="rId9" sheetId="3"/>
+    <sheet name="TC5" r:id="rId10" sheetId="6"/>
+    <sheet name="TC6" r:id="rId11" sheetId="7"/>
+    <sheet name="TC6.1" r:id="rId12" sheetId="75"/>
+    <sheet name="TC6.2" r:id="rId13" sheetId="9"/>
+    <sheet name="TC6.2_ETAnWeek" r:id="rId14" sheetId="10"/>
+    <sheet name="TC7-Contract Parts Info" r:id="rId15" sheetId="76"/>
+    <sheet name="TC7" r:id="rId16" sheetId="11"/>
+    <sheet name="TC8" r:id="rId17" sheetId="53"/>
+    <sheet name="TC9" r:id="rId18" sheetId="12"/>
+    <sheet name="TC10" r:id="rId19" sheetId="13"/>
+    <sheet name="TC11-Order Regular" r:id="rId20" sheetId="15"/>
+    <sheet name="TC11-Inbound Dates Regular" r:id="rId21" sheetId="16"/>
+    <sheet name="TC11-Order Spot" r:id="rId22" sheetId="17"/>
+    <sheet name="TC11-Inbound Dates Spot" r:id="rId23" sheetId="18"/>
+    <sheet name="TC11-Customer CO" r:id="rId24" sheetId="25"/>
+    <sheet name="TC11- Period Generator" r:id="rId25" sheetId="77"/>
+    <sheet name="TC12" r:id="rId26" sheetId="54"/>
+    <sheet name="TC14-BU SO" r:id="rId27" sheetId="19"/>
+    <sheet name="TC15-BU PO" r:id="rId28" sheetId="20"/>
+    <sheet name="TC16-Supplier SO" r:id="rId29" sheetId="21"/>
+    <sheet name="TC17.1-Sup SO Delivery Plan" r:id="rId30" sheetId="78"/>
+    <sheet name="TC17.1-Sup SODeliveryPlan(Date)" r:id="rId31" sheetId="79"/>
+    <sheet name="TC17.2-Sup SO Delivery Plan" r:id="rId32" sheetId="80"/>
+    <sheet name="TC17.2-Sup SODeliveryPlan(Date)" r:id="rId33" sheetId="81"/>
+    <sheet name="TC18-Forecast Change" r:id="rId34" sheetId="26"/>
+    <sheet name="TC20-BU Change Request" r:id="rId35" sheetId="28"/>
+    <sheet name="TC19-Customer Change Request" r:id="rId36" sheetId="27"/>
+    <sheet name="TC21-Supplier Approve Change " r:id="rId37" sheetId="29"/>
+    <sheet name="TC22-Customer Forecast CO " r:id="rId38" sheetId="30"/>
+    <sheet name="TC23-BU Forecast SO" r:id="rId39" sheetId="31"/>
+    <sheet name="TC24-BU Forecast PO" r:id="rId40" sheetId="32"/>
+    <sheet name="TC25-Customer Order Change" r:id="rId41" sheetId="33"/>
+    <sheet name="TC25-Change Inbound Date" r:id="rId42" sheetId="34"/>
+    <sheet name="TC25-Change Request No" r:id="rId43" sheetId="40"/>
+    <sheet name="TC26-Customer AutoGen Change" r:id="rId44" sheetId="35"/>
+    <sheet name="TC27-BU AutoGen Change" r:id="rId45" sheetId="38"/>
+    <sheet name="TC28-Supplier Approve Change" r:id="rId46" sheetId="39"/>
+    <sheet name="TC29-Customer Check CO" r:id="rId47" sheetId="43"/>
+    <sheet name="TC30-BU Check SO" r:id="rId48" sheetId="44"/>
+    <sheet name="TC31-BU Check PO" r:id="rId49" sheetId="45"/>
+    <sheet name="TC32-Supplier Check SO" r:id="rId50" sheetId="46"/>
+    <sheet name="TC33-New Outbound Date" r:id="rId51" sheetId="55"/>
+    <sheet name="TC33-New Firm Qty" r:id="rId52" sheetId="70"/>
+    <sheet name="TC33-Change Request No" r:id="rId53" sheetId="56"/>
+    <sheet name="TC34" r:id="rId54" sheetId="67"/>
+    <sheet name="TC35" r:id="rId55" sheetId="68"/>
+    <sheet name="TC36" r:id="rId56" sheetId="57"/>
+    <sheet name="TC44-Supplier Outbound -Regular" r:id="rId57" sheetId="47"/>
+    <sheet name="TC44-Supplier Outbound -Spot" r:id="rId58" sheetId="49"/>
+    <sheet name="TC44-Outbound No" r:id="rId59" sheetId="50"/>
+    <sheet name="TC45-Supplier SellerGI Invoice" r:id="rId60" sheetId="52"/>
+    <sheet name="TC50.1-Customer Cargo -Regular" r:id="rId61" sheetId="59"/>
+    <sheet name="TC50.2-Customer Cargo -Spot" r:id="rId62" sheetId="60"/>
+    <sheet name="TC53-Shipping Detail" r:id="rId63" sheetId="62"/>
+    <sheet name="TC61-BU SellerGI Invoice" r:id="rId64" sheetId="64"/>
+    <sheet name="TC68-DC Inbound" r:id="rId65" sheetId="65"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId66"/>
   </externalReferences>
   <definedNames>
-    <definedName name="activeFlagListArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="activeFlagListArr">#REF!</definedName>
     <definedName name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr">#REF!</definedName>
     <definedName name="cargoStatus0">#REF!</definedName>
     <definedName name="cargoStatus1">#REF!</definedName>
     <definedName name="cargoStatus2">#REF!</definedName>
     <definedName name="CURRENCY_CODE">#REF!</definedName>
-    <definedName name="findAllUomArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="findAllUomArr">#REF!</definedName>
     <definedName name="findAllUomArr">[1]findAllUomArr!$A$1:$A$41</definedName>
     <definedName name="PAIRED_FLAG">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG">#REF!</definedName>
     <definedName name="pairedPartsFlagStrArr">#REF!</definedName>
-    <definedName name="partsTypeArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="partsTypeArr">#REF!</definedName>
     <definedName name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="REPACKING_TYPE">#REF!</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="rolledPartsFlagArr">#REF!</definedName>
     <definedName name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="rolledPartsUomArr">#REF!</definedName>
     <definedName name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$41</definedName>
     <definedName name="UOM_CODE">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="517">
   <si>
     <t>No</t>
   </si>
@@ -1665,6 +1665,54 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>R-VN-TTVN-2311007</t>
+  </si>
+  <si>
+    <t>CR-VN-TTVN-2311006</t>
+  </si>
+  <si>
+    <t>R-SG-TTAP-2311009</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231108009</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231108010</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231108011</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231108012</t>
+  </si>
+  <si>
+    <t>BAFCO2311016</t>
+  </si>
+  <si>
+    <t>BAFCO2311017</t>
+  </si>
+  <si>
+    <t>BAFCO2311018</t>
+  </si>
+  <si>
+    <t>BAFCO2311019</t>
+  </si>
+  <si>
+    <t>BAFCO2311020</t>
+  </si>
+  <si>
+    <t>TTAP2311015</t>
+  </si>
+  <si>
+    <t>TTAP2311016</t>
+  </si>
+  <si>
+    <t>TTAP2311017</t>
+  </si>
+  <si>
+    <t>TTAP2311018</t>
   </si>
 </sst>
 </file>
@@ -2011,241 +2059,241 @@
     </border>
   </borders>
   <cellStyleXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="170" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="4" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="3"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="5">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="166" xfId="4">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="168" xfId="4">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="166" xfId="4">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 13" xfId="6" xr:uid="{DAC2F1B6-5F0C-4911-9B5C-B5CAE8654FF7}"/>
     <cellStyle name="Normal 2" xfId="8" xr:uid="{05CD56BC-B259-455F-8B6E-D7A790BD14E2}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{0077DFB7-1F7C-4A43-8985-01F7EAF42D54}"/>
@@ -2257,7 +2305,7 @@
     <cellStyle name="常规 2 2" xfId="10" xr:uid="{A5C60366-A437-4C5C-871D-F407967867C8}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2755,10 +2803,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2793,7 +2841,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2828,7 +2876,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2922,21 +2970,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2953,7 +3001,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3005,18 +3053,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB094F-61F9-4F6B-BDA2-7BAD65AE22C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB094F-61F9-4F6B-BDA2-7BAD65AE22C0}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
@@ -3024,13 +3072,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="3.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="2:4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row ht="15" r="2" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="54" t="s">
         <v>468</v>
       </c>
@@ -3068,7 +3116,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="6" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="85"/>
       <c r="C6" s="64" t="s">
         <v>476</v>
@@ -3078,13 +3126,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77CFF02-01BA-40A3-85B4-663177661A71}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77CFF02-01BA-40A3-85B4-663177661A71}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
@@ -3092,9 +3140,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3115,13 +3163,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594B606-C3E2-4590-8776-D283BD7DAE77}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594B606-C3E2-4590-8776-D283BD7DAE77}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -3129,14 +3177,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="7" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>46</v>
       </c>
@@ -3301,13 +3349,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C54E39-7FDB-4E7D-8E4A-1FECA68F69D2}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C54E39-7FDB-4E7D-8E4A-1FECA68F69D2}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -3315,10 +3363,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3368,26 +3416,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB951A2-E1E3-41BE-9E98-AE84703BC5C7}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB951A2-E1E3-41BE-9E98-AE84703BC5C7}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row ht="14.4" r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>52</v>
       </c>
@@ -3535,13 +3583,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12A9C-8FE9-4F99-ACBE-9965D2480768}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12A9C-8FE9-4F99-ACBE-9965D2480768}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -3549,9 +3597,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="15" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="2" max="15" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -3651,13 +3699,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1CC9B-6D5F-4684-8DC1-9ECC6B866CFC}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1CC9B-6D5F-4684-8DC1-9ECC6B866CFC}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -3665,10 +3713,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="11" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="11" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="12" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3879,14 +3927,14 @@
       <c r="I8" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B734894B-25AB-43FF-8158-1149F870C11B}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B734894B-25AB-43FF-8158-1149F870C11B}">
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -3894,14 +3942,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="20" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="9" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="15" max="20" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="21" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -3971,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C2" s="12" t="str">
         <f>"SGBAFCO-SGTTAP-"&amp;'TC7'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
@@ -4032,17 +4080,17 @@
         <v>RD-AB-01</v>
       </c>
       <c r="T2" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723AEF1-596F-41E1-B760-C0119527A8CE}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723AEF1-596F-41E1-B760-C0119527A8CE}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
@@ -4050,11 +4098,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4237,14 +4285,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F605A60-7548-455E-B1BD-E501B50E1D8E}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F605A60-7548-455E-B1BD-E501B50E1D8E}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4252,9 +4300,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4288,13 +4336,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F67513-3B0C-412F-A466-F3B7B2A44CBB}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F67513-3B0C-412F-A466-F3B7B2A44CBB}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4302,8 +4350,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4337,16 +4385,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB0F19-6308-470D-96AC-F48FFA3E7D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB0F19-6308-470D-96AC-F48FFA3E7D98}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -4354,9 +4402,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="39.0" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4406,14 +4454,14 @@
       <c r="E4" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DEE1FD-F115-4FC2-A8A4-08A8E868068A}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DEE1FD-F115-4FC2-A8A4-08A8E868068A}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -4421,9 +4469,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -4546,14 +4594,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0643A5-B7E2-4DA9-B069-8F351003DB03}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0643A5-B7E2-4DA9-B069-8F351003DB03}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
@@ -4561,9 +4609,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" collapsed="1"/>
-    <col min="2" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="8.88671875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4591,13 +4639,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BF405A-1265-4529-9930-40B4726F6D66}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BF405A-1265-4529-9930-40B4726F6D66}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -4605,9 +4653,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4688,14 +4736,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4703,7 +4751,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -4724,13 +4772,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A8B1D-3D68-4DFF-812B-9F06D6FA029B}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A8B1D-3D68-4DFF-812B-9F06D6FA029B}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
@@ -4738,9 +4786,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4768,84 +4816,84 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30E7E9-63FD-421B-ACB4-C15182195C24}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="str">
-        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
-        <v>Nov 6, 2023 ~ Nov 12, 2023</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8FC041-2817-491D-9A9F-8F7D35CE41E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30E7E9-63FD-421B-ACB4-C15182195C24}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="30.77734375" collapsed="true"/>
+    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="str">
+        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
+        <v>Nov 6, 2023 ~ Nov 12, 2023</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FCF16-D645-4ABB-87A9-49E7147946A3}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8FC041-2817-491D-9A9F-8F7D35CE41E0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="30.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f>'TC4'!C2</f>
+        <v>SGTTAP-VNTTVN-AB-01-001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FCF16-D645-4ABB-87A9-49E7147946A3}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4873,21 +4921,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB5BAB7-019C-433A-A788-027102F936EA}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB5BAB7-019C-433A-A788-027102F936EA}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4915,21 +4963,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65D81D-C87E-4360-A071-AB53568FC756}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65D81D-C87E-4360-A071-AB53568FC756}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4957,25 +5005,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BCBB-72CE-4CBB-B1D3-1C11D7C29537}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BCBB-72CE-4CBB-B1D3-1C11D7C29537}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -5118,13 +5166,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410F41C8-F416-4FB2-A3C3-2BAD30EA4977}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410F41C8-F416-4FB2-A3C3-2BAD30EA4977}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
@@ -5132,8 +5180,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5227,13 +5275,13 @@
       <c r="D7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC0F5A-5783-4133-896F-5E82CA2762D3}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC0F5A-5783-4133-896F-5E82CA2762D3}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -5241,8 +5289,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -5316,13 +5364,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC210D-873E-4EF1-A7F4-1304E8A4787B}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC210D-873E-4EF1-A7F4-1304E8A4787B}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -5330,8 +5378,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.77734375" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="10" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="10" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="10" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -5404,13 +5452,13 @@
       <c r="C7" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC786D-476A-42DB-99D0-5D0B57E43076}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC786D-476A-42DB-99D0-5D0B57E43076}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -5418,8 +5466,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -5471,13 +5519,13 @@
       <c r="B7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AB56FA-011D-427B-894C-D9B962F8DF72}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AB56FA-011D-427B-894C-D9B962F8DF72}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
@@ -5485,11 +5533,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,14 +5632,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC82074-409B-4058-BBB4-4A7D9BAEB68A}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC82074-409B-4058-BBB4-4A7D9BAEB68A}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:K1"/>
@@ -5599,10 +5647,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="13" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5706,13 +5754,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942E21B-71C7-4EA8-A0BD-072074C2B2C3}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942E21B-71C7-4EA8-A0BD-072074C2B2C3}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
@@ -5720,11 +5768,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="7" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="13" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5799,9 +5847,9 @@
       <c r="K2" s="31">
         <v>1000</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="30" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5838,20 +5886,20 @@
       <c r="K3" s="31">
         <v>1000</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="30" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79406B4-DBD7-428C-B17D-CD86318E0FD8}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79406B4-DBD7-428C-B17D-CD86318E0FD8}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
@@ -5859,9 +5907,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="11" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="11" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="12" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -5926,9 +5974,9 @@
       <c r="J2" s="31">
         <v>1000</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="30" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5958,19 +6006,19 @@
       <c r="J3" s="31">
         <v>1000</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="30" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770ADA-1D66-4294-B397-0B2BF2F89F68}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770ADA-1D66-4294-B397-0B2BF2F89F68}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -5978,9 +6026,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6034,9 +6082,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="32" t="n">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6064,9 +6112,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="32" t="n">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6094,9 +6142,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="32" t="n">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6124,9 +6172,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="32" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6154,9 +6202,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="32" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6184,21 +6232,21 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="32" t="n">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF76645B-AA5C-4D86-92F7-10E7C2805ED2}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF76645B-AA5C-4D86-92F7-10E7C2805ED2}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
@@ -6206,9 +6254,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="11" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6262,9 +6310,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="32" t="n">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6292,9 +6340,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="32" t="n">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6322,9 +6370,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="32" t="n">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6352,9 +6400,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="32" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6382,9 +6430,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="32" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6412,33 +6460,33 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="32" t="n">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBC8B8-8C7D-4890-B23F-D42A4760DD88}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBC8B8-8C7D-4890-B23F-D42A4760DD88}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="11" max="16" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="17" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -6629,13 +6677,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F444C-5B70-4EF5-BD9F-454F98A7A869}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F444C-5B70-4EF5-BD9F-454F98A7A869}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
@@ -6643,9 +6691,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="11" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6697,9 +6745,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="32" t="n">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6725,9 +6773,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="32" t="n">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6753,9 +6801,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="32" t="n">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6781,9 +6829,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="32" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6809,9 +6857,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="32" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6837,32 +6885,32 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="32" t="n">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513AACE-A996-4FC1-BA95-6FA48F0C2957}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513AACE-A996-4FC1-BA95-6FA48F0C2957}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6998,14 +7046,14 @@
       <c r="F7" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679C6DA-4A25-4D87-9555-75757A39B539}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679C6DA-4A25-4D87-9555-75757A39B539}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -7013,8 +7061,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7043,20 +7091,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFE097-22D6-4B00-9E90-9129E84E5DAC}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFE097-22D6-4B00-9E90-9129E84E5DAC}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="23.6640625" collapsed="true"/>
+    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -7071,25 +7119,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AD534-E497-4569-89C5-81CBABA793F3}">
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AD534-E497-4569-89C5-81CBABA793F3}">
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="7" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -7177,38 +7225,38 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="33">
+      <c r="O2" s="33" t="n">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="P2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P2" s="33" t="n">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="Q2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="R2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="S2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="S2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7237,34 +7285,34 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000</v>
-      </c>
-      <c r="K3" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="33">
+      <c r="O3" s="33" t="n">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="P3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P3" s="33" t="n">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500</v>
-      </c>
-      <c r="Q3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="R3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="S3" s="33"/>
     </row>
@@ -7296,13 +7344,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="33" t="n">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
@@ -7310,17 +7358,17 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="33"/>
-      <c r="P4" s="33">
+      <c r="P4" s="33" t="n">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000</v>
-      </c>
-      <c r="Q4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="Q4" s="33" t="n">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
-      </c>
-      <c r="R4" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R4" s="33" t="n">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="S4" s="12"/>
     </row>
@@ -7352,30 +7400,30 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="33" t="n">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="33">
+      <c r="O5" s="33" t="n">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500</v>
-      </c>
-      <c r="P5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P5" s="33" t="n">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500</v>
-      </c>
-      <c r="Q5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q5" s="33" t="n">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
@@ -7408,50 +7456,50 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="33" t="n">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="33">
+      <c r="O6" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="33">
+      <c r="R6" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="S6" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F6C0E8-E3D6-4001-B659-6B8372626CDE}">
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F6C0E8-E3D6-4001-B659-6B8372626CDE}">
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="O1" sqref="O1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -7534,38 +7582,38 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="33">
+      <c r="O2" s="33" t="n">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="P2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P2" s="33" t="n">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="Q2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="R2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="S2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="S2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7589,34 +7637,34 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000</v>
-      </c>
-      <c r="K3" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="33">
+      <c r="O3" s="33" t="n">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="P3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P3" s="33" t="n">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500</v>
-      </c>
-      <c r="Q3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="R3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="S3" s="33"/>
     </row>
@@ -7641,13 +7689,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="33" t="n">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
@@ -7655,17 +7703,17 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="33"/>
-      <c r="P4" s="33">
+      <c r="P4" s="33" t="n">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000</v>
-      </c>
-      <c r="Q4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="Q4" s="33" t="n">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
-      </c>
-      <c r="R4" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R4" s="33" t="n">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="S4" s="12"/>
     </row>
@@ -7690,30 +7738,30 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="33" t="n">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="33">
+      <c r="O5" s="33" t="n">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500</v>
-      </c>
-      <c r="P5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P5" s="33" t="n">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500</v>
-      </c>
-      <c r="Q5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q5" s="33" t="n">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
@@ -7739,49 +7787,49 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="33" t="n">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="33">
+      <c r="O6" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="33">
+      <c r="R6" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="S6" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A7952-0ADD-46CB-BCDD-5633F7A7D19C}">
-  <dimension ref="A1:R6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A7952-0ADD-46CB-BCDD-5633F7A7D19C}">
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="18" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="18" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="19" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -7861,38 +7909,38 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="33" t="n">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000</v>
-      </c>
-      <c r="J2" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M2" s="12"/>
-      <c r="N2" s="33">
+      <c r="N2" s="33" t="n">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="O2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="O2" s="33" t="n">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="P2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="Q2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="R2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -7916,34 +7964,34 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="33" t="n">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000</v>
-      </c>
-      <c r="J3" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M3" s="12"/>
-      <c r="N3" s="33">
+      <c r="N3" s="33" t="n">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="O3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="O3" s="33" t="n">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500</v>
-      </c>
-      <c r="P3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="Q3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="R3" s="33"/>
     </row>
@@ -7968,13 +8016,13 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="33" t="n">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000</v>
-      </c>
-      <c r="J4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
@@ -7982,17 +8030,17 @@
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="33">
+      <c r="O4" s="33" t="n">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000</v>
-      </c>
-      <c r="P4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="P4" s="33" t="n">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
-      </c>
-      <c r="Q4" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q4" s="33" t="n">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="R4" s="33"/>
     </row>
@@ -8017,30 +8065,30 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="33" t="n">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000</v>
-      </c>
-      <c r="J5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M5" s="12"/>
-      <c r="N5" s="33">
+      <c r="N5" s="33" t="n">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500</v>
-      </c>
-      <c r="O5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="O5" s="33" t="n">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500</v>
-      </c>
-      <c r="P5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P5" s="33" t="n">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
@@ -8066,49 +8114,49 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="33" t="n">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000</v>
-      </c>
-      <c r="J6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M6" s="12"/>
-      <c r="N6" s="33">
+      <c r="N6" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
-      <c r="Q6" s="33">
+      <c r="Q6" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="R6" s="33"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7616B-F775-4E70-AF8C-CF1D4B0931E0}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7616B-F775-4E70-AF8C-CF1D4B0931E0}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -8193,9 +8241,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="I2" s="12">
         <v>0</v>
@@ -8212,23 +8260,23 @@
       <c r="M2" s="12">
         <v>0</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="Q2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>138</v>
@@ -8257,9 +8305,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="I3" s="12">
         <v>0</v>
@@ -8276,16 +8324,16 @@
       <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O3" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="Q3" s="33" t="s">
         <v>138</v>
@@ -8320,9 +8368,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -8339,16 +8387,16 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="33" t="n">
         <f>'TC25-Customer Order Change'!D4</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O4" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="33" t="n">
         <f>'TC25-Customer Order Change'!E4</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="Q4" s="33" t="s">
         <v>138</v>
@@ -8383,9 +8431,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -8402,16 +8450,16 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="33" t="n">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="33" t="n">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="Q5" s="33" t="s">
         <v>138</v>
@@ -8446,9 +8494,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -8465,9 +8513,9 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="33" t="n">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="O6" s="33" t="s">
         <v>138</v>
@@ -8508,9 +8556,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -8533,9 +8581,9 @@
       <c r="O7" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="Q7" s="33" t="s">
         <v>138</v>
@@ -8549,23 +8597,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681AF69-CF1C-4F30-B068-83994D54CBFD}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681AF69-CF1C-4F30-B068-83994D54CBFD}">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -8665,9 +8713,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="I2" s="12">
         <v>10.5</v>
@@ -8741,9 +8789,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="I3" s="12">
         <v>10.5</v>
@@ -8817,9 +8865,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I4" s="12">
         <v>10.5</v>
@@ -8893,9 +8941,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I5" s="12">
         <v>10.5</v>
@@ -8969,9 +9017,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I6" s="12">
         <v>10.5</v>
@@ -9045,9 +9093,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I7" s="12">
         <v>10.5</v>
@@ -9100,23 +9148,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -9202,9 +9250,9 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="J2" s="12">
         <v>2</v>
@@ -9261,9 +9309,9 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="J3" s="12">
         <v>2</v>
@@ -9320,9 +9368,9 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J4" s="12">
         <v>2</v>
@@ -9379,9 +9427,9 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J5" s="12">
         <v>2</v>
@@ -9438,9 +9486,9 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J6" s="12">
         <v>2</v>
@@ -9497,9 +9545,9 @@
       <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J7" s="12">
         <v>2</v>
@@ -9534,13 +9582,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -9548,9 +9596,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -9572,23 +9620,23 @@
       <c r="C2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281D8027-9DBB-4FB0-90BC-C2CA75E22329}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281D8027-9DBB-4FB0-90BC-C2CA75E22329}">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -9686,9 +9734,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="I2" s="12">
         <v>2</v>
@@ -9760,9 +9808,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="I3" s="12">
         <v>2</v>
@@ -9834,9 +9882,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I4" s="12">
         <v>2</v>
@@ -9908,9 +9956,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I5" s="12">
         <v>2</v>
@@ -9982,9 +10030,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I6" s="12">
         <v>2</v>
@@ -10056,9 +10104,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
@@ -10111,23 +10159,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="5" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -10168,24 +10216,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85C8B0-8ABC-42B6-BDDD-C373C0238928}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85C8B0-8ABC-42B6-BDDD-C373C0238928}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -10335,20 +10383,20 @@
       <c r="H7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37060D-3EB1-4D52-AF9A-FDEBDE974A12}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37060D-3EB1-4D52-AF9A-FDEBDE974A12}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -10363,23 +10411,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F7D49-70C3-401C-97E6-E9D888543863}">
-  <dimension ref="A1:V7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F7D49-70C3-401C-97E6-E9D888543863}">
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -10469,13 +10517,13 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
-      </c>
-      <c r="J2" s="33">
+        <v>1100.0</v>
+      </c>
+      <c r="J2" s="33" t="n">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K2" s="12">
         <v>0</v>
@@ -10523,13 +10571,13 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
-      </c>
-      <c r="J3" s="33">
+        <v>900.0</v>
+      </c>
+      <c r="J3" s="33" t="n">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="K3" s="12">
         <v>0</v>
@@ -10573,13 +10621,13 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
-      </c>
-      <c r="J4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J4" s="33" t="n">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="K4" s="12">
         <v>0</v>
@@ -10625,13 +10673,13 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
-      </c>
-      <c r="J5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J5" s="33" t="n">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200</v>
+        <v>1200.0</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
@@ -10677,13 +10725,13 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
-      </c>
-      <c r="J6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J6" s="33" t="n">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K6" s="12">
         <v>0</v>
@@ -10727,13 +10775,13 @@
       <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
-      </c>
-      <c r="J7" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J7" s="33" t="n">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="K7" s="12">
         <v>0</v>
@@ -10762,23 +10810,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC42DFF-227A-43C8-9477-ADF9903AD82A}">
-  <dimension ref="A1:W7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC42DFF-227A-43C8-9477-ADF9903AD82A}">
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="23" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="24" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -10876,13 +10924,13 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1100.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -10935,13 +10983,13 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
-      </c>
-      <c r="K3" s="33">
+        <v>900.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -10990,13 +11038,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -11047,13 +11095,13 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200</v>
+        <v>1200.0</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -11104,13 +11152,13 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -11159,13 +11207,13 @@
       <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
-      </c>
-      <c r="K7" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="33" t="n">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -11194,25 +11242,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6AD75-D8FC-4DC9-9657-3CCEA1DADDC8}">
-  <dimension ref="A1:AD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6AD75-D8FC-4DC9-9657-3CCEA1DADDC8}">
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="30" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="31" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="7" max="30" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="31" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -11331,13 +11379,13 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1100.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -11407,13 +11455,13 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
-      </c>
-      <c r="K3" s="33">
+        <v>900.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -11477,13 +11525,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -11551,13 +11599,13 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200</v>
+        <v>1200.0</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -11625,13 +11673,13 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -11695,13 +11743,13 @@
       <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
-      </c>
-      <c r="K7" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="33" t="n">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -11745,29 +11793,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32F6EF-C79A-4E20-806A-C9305FB64608}">
-  <dimension ref="A1:W8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32F6EF-C79A-4E20-806A-C9305FB64608}">
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="23" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="8" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="4" max="23" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="8" width="20.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="8" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.8" r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>215</v>
       </c>
@@ -11911,7 +11959,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B3" s="37" t="str">
@@ -11926,7 +11974,7 @@
         <v>1000</v>
       </c>
       <c r="E3" s="37" t="str">
-        <f t="shared" ref="E3:E8" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
+        <f ca="1" ref="E3:E8" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
         <v>10 Nov 2023</v>
       </c>
       <c r="F3" s="37" t="str">
@@ -11973,11 +12021,11 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B4" s="37" t="str">
-        <f t="shared" ref="B4:B8" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
+        <f ca="1" ref="B4:B8" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
         <v>07 Nov 2023</v>
       </c>
       <c r="C4" s="37" t="str">
@@ -11988,11 +12036,11 @@
         <v>800</v>
       </c>
       <c r="E4" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="F4" s="37" t="str">
-        <f t="shared" ref="F4:F8" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
+        <f ca="1" ref="F4:F8" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
         <v>18 Nov 2023</v>
       </c>
       <c r="G4" s="39" t="s">
@@ -12039,11 +12087,11 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B5" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1" si="1" t="shared"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="C5" s="37" t="str">
@@ -12054,11 +12102,11 @@
         <v>900</v>
       </c>
       <c r="E5" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="F5" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1" si="2" t="shared"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="G5" s="39" t="s">
@@ -12104,11 +12152,11 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B6" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1" si="1" t="shared"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="C6" s="37" t="str">
@@ -12119,11 +12167,11 @@
         <v>1200</v>
       </c>
       <c r="E6" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="F6" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1" si="2" t="shared"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="G6" s="39" t="s">
@@ -12171,11 +12219,11 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B7" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1" si="1" t="shared"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="C7" s="37" t="str">
@@ -12186,11 +12234,11 @@
         <v>1000</v>
       </c>
       <c r="E7" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="F7" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1" si="2" t="shared"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="G7" s="39" t="s">
@@ -12249,11 +12297,11 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="B8" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1" si="1" t="shared"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="C8" s="37" t="str">
@@ -12264,11 +12312,11 @@
         <v>1100</v>
       </c>
       <c r="E8" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="F8" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1" si="2" t="shared"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="G8" s="39" t="s">
@@ -12326,32 +12374,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCEF40-2C7B-4D0B-9DC6-89273BF3A1A0}">
-  <dimension ref="A1:AM9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCEF40-2C7B-4D0B-9DC6-89273BF3A1A0}">
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="AH29" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="7" max="33" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="34" max="36" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="37" max="42" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="43" max="16384" width="8.88671875" style="8" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="7" max="33" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="34" max="36" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="37" max="42" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="43" max="16384" style="8" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.8" r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -12478,7 +12526,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-002</v>
       </c>
       <c r="D2" s="37" t="str">
@@ -12508,7 +12556,7 @@
         <v>34</v>
       </c>
       <c r="M2" s="37" t="str">
-        <f t="shared" ref="M2:M9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
+        <f ca="1" ref="M2:M9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
         <v>10 Nov 2023</v>
       </c>
       <c r="N2" s="37" t="str">
@@ -12576,11 +12624,11 @@
         <v>81</v>
       </c>
       <c r="C3" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-002</v>
       </c>
       <c r="D3" s="37" t="str">
-        <f t="shared" ref="D3:D9" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
+        <f ca="1" ref="D3:D9" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
         <v>07 Nov 2023</v>
       </c>
       <c r="E3" s="37"/>
@@ -12606,11 +12654,11 @@
         <v>34</v>
       </c>
       <c r="M3" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N3" s="37" t="str">
-        <f t="shared" ref="N3:N9" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
+        <f ca="1" ref="N3:N9" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
         <v>18 Nov 2023</v>
       </c>
       <c r="O3" s="19" t="s">
@@ -12674,11 +12722,11 @@
         <v>81</v>
       </c>
       <c r="C4" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-002</v>
       </c>
       <c r="D4" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1" si="1" t="shared"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E4" s="37"/>
@@ -12704,11 +12752,11 @@
         <v>34</v>
       </c>
       <c r="M4" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N4" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1" si="2" t="shared"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O4" s="39" t="s">
@@ -12778,11 +12826,11 @@
         <v>81</v>
       </c>
       <c r="C5" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-002</v>
       </c>
       <c r="D5" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1" si="1" t="shared"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E5" s="37"/>
@@ -12808,11 +12856,11 @@
         <v>34</v>
       </c>
       <c r="M5" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N5" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1" si="2" t="shared"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O5" s="21" t="s">
@@ -12886,11 +12934,11 @@
         <v>81</v>
       </c>
       <c r="C6" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-003</v>
       </c>
       <c r="D6" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1" si="1" t="shared"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E6" s="37" t="str">
@@ -12919,11 +12967,11 @@
         <v>34</v>
       </c>
       <c r="M6" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N6" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1" si="2" t="shared"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O6" s="21" t="s">
@@ -12986,11 +13034,11 @@
         <v>81</v>
       </c>
       <c r="C7" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-003</v>
       </c>
       <c r="D7" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1" si="1" t="shared"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E7" s="37" t="str">
@@ -13019,11 +13067,11 @@
         <v>34</v>
       </c>
       <c r="M7" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N7" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1" si="2" t="shared"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O7" s="21" t="s">
@@ -13086,11 +13134,11 @@
         <v>81</v>
       </c>
       <c r="C8" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-003</v>
       </c>
       <c r="D8" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1" si="1" t="shared"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E8" s="37" t="str">
@@ -13119,11 +13167,11 @@
         <v>34</v>
       </c>
       <c r="M8" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N8" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1" si="2" t="shared"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O8" s="21" t="s">
@@ -13211,11 +13259,11 @@
         <v>81</v>
       </c>
       <c r="C9" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-004"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-004"]]></f>
         <v>o-SG-BAFCO-2311-AB-01-004</v>
       </c>
       <c r="D9" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1" si="1" t="shared"/>
         <v>07 Nov 2023</v>
       </c>
       <c r="E9" s="37" t="str">
@@ -13244,11 +13292,11 @@
         <v>34</v>
       </c>
       <c r="M9" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>10 Nov 2023</v>
       </c>
       <c r="N9" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1" si="2" t="shared"/>
         <v>18 Nov 2023</v>
       </c>
       <c r="O9" s="19"/>
@@ -13316,22 +13364,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77311BC3-E043-40F5-9D6D-99B7C2A9BBC7}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77311BC3-E043-40F5-9D6D-99B7C2A9BBC7}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -13354,7 +13402,7 @@
         <v>o-SG-BAFCO-2311-AB-01-001</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -13366,7 +13414,7 @@
         <v>o-SG-BAFCO-2311-AB-01-002</v>
       </c>
       <c r="C3" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -13378,7 +13426,7 @@
         <v>o-SG-BAFCO-2311-AB-01-003</v>
       </c>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -13390,33 +13438,33 @@
         <v>o-SG-BAFCO-2311-AB-01-004</v>
       </c>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4C2CD-E70A-41BD-8891-E7DD5B5CEC38}">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4C2CD-E70A-41BD-8891-E7DD5B5CEC38}">
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="25.77734375" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="15.77734375" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.77734375" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="17" width="15.77734375" style="4" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.88671875" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="5.77734375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" style="4" width="25.77734375" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="4" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="25.77734375" collapsed="true"/>
+    <col min="11" max="17" customWidth="true" style="4" width="15.77734375" collapsed="true"/>
+    <col min="18" max="16384" style="4" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13469,7 +13517,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -13518,7 +13566,7 @@
       </c>
       <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -13567,7 +13615,7 @@
       </c>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -13620,7 +13668,7 @@
       </c>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -13673,7 +13721,7 @@
       </c>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="6" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -13722,7 +13770,7 @@
       </c>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="7" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -13773,32 +13821,32 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I7" xr:uid="{0E91B3D6-9299-430D-A4F2-2FD0E946DA1C}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="I2:I7" type="list" xr:uid="{0E91B3D6-9299-430D-A4F2-2FD0E946DA1C}">
       <formula1>PAIRED_FLAG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{C5FFB457-24FD-46EF-A22A-756CEE443DDF}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="K2:K6" type="list" xr:uid="{C5FFB457-24FD-46EF-A22A-756CEE443DDF}">
       <formula1>PAIRED_ORDER_FLAG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{C18C6561-5DC9-4062-8CB8-5E10E79AE2DB}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H7" type="list" xr:uid="{C18C6561-5DC9-4062-8CB8-5E10E79AE2DB}">
       <formula1>UOM_CODE</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D61E3-2B05-4C91-8724-D21919B54379}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D61E3-2B05-4C91-8724-D21919B54379}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -13818,10 +13866,10 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC44-Outbound No'!C2</f>
-        <v>o-SG-BAFCO-231108005</v>
+        <v>o-SG-BAFCO-231108009</v>
       </c>
       <c r="C2" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>464</v>
@@ -13833,10 +13881,10 @@
       </c>
       <c r="B3" s="12" t="str">
         <f>'TC44-Outbound No'!C3</f>
-        <v>o-SG-BAFCO-231108006</v>
+        <v>o-SG-BAFCO-231108010</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>465</v>
@@ -13848,10 +13896,10 @@
       </c>
       <c r="B4" s="12" t="str">
         <f>'TC44-Outbound No'!C4</f>
-        <v>o-SG-BAFCO-231108007</v>
+        <v>o-SG-BAFCO-231108011</v>
       </c>
       <c r="C4" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13860,28 +13908,28 @@
       </c>
       <c r="B5" s="12" t="str">
         <f>'TC44-Outbound No'!C5</f>
-        <v>o-SG-BAFCO-231108008</v>
+        <v>o-SG-BAFCO-231108012</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>466</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D885ABF-3A14-4153-8AE3-9C0D9DAAE757}">
-  <dimension ref="A1:Z5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D885ABF-3A14-4153-8AE3-9C0D9DAAE757}">
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -13889,12 +13937,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>301</v>
       </c>
@@ -13974,7 +14022,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
         <v>B-2311-AB-01-001</v>
@@ -14053,7 +14101,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
         <v>B-2311-AB-01-001</v>
@@ -14135,7 +14183,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
         <v>B-2311-AB-01-001</v>
@@ -14300,13 +14348,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F21EE-23C3-4FCA-9C9B-9CEB31F6088E}">
-  <dimension ref="A1:Z6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F21EE-23C3-4FCA-9C9B-9CEB31F6088E}">
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -14314,12 +14362,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>301</v>
       </c>
@@ -14399,7 +14447,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E6</f>
         <v>B-2311-AB-02-001</v>
@@ -14481,7 +14529,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O5</f>
@@ -14560,7 +14608,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
         <v>B-2311-AB-02-001</v>
@@ -14801,13 +14849,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A112FA-01A2-4B2F-8178-C7A1C83AE86A}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A112FA-01A2-4B2F-8178-C7A1C83AE86A}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
@@ -14815,9 +14863,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -14907,21 +14955,21 @@
       <c r="B10" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA3B652-996F-421B-A9AA-FD39761C01AA}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA3B652-996F-421B-A9AA-FD39761C01AA}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -14941,10 +14989,10 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC44-Outbound No'!C2</f>
-        <v>o-SG-BAFCO-231108005</v>
+        <v>o-SG-BAFCO-231108009</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -14953,10 +15001,10 @@
       </c>
       <c r="B3" s="12" t="str">
         <f>'TC44-Outbound No'!C3</f>
-        <v>o-SG-BAFCO-231108006</v>
+        <v>o-SG-BAFCO-231108010</v>
       </c>
       <c r="C3" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -14965,10 +15013,10 @@
       </c>
       <c r="B4" s="12" t="str">
         <f>'TC44-Outbound No'!C4</f>
-        <v>o-SG-BAFCO-231108007</v>
+        <v>o-SG-BAFCO-231108011</v>
       </c>
       <c r="C4" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -14977,29 +15025,29 @@
       </c>
       <c r="B5" s="12" t="str">
         <f>'TC44-Outbound No'!C5</f>
-        <v>o-SG-BAFCO-231108008</v>
+        <v>o-SG-BAFCO-231108012</v>
       </c>
       <c r="C5" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F256599-8CB1-4B13-A4F1-65D4DF22C5CF}">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F256599-8CB1-4B13-A4F1-65D4DF22C5CF}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="7" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15027,7 +15075,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C2" s="37" t="str">
@@ -15043,11 +15091,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C3" s="37" t="str">
-        <f t="shared" ref="C3:C15" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <f ca="1" ref="C3:C15" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
         <v>08 Nov 2023</v>
       </c>
       <c r="D3" s="12"/>
@@ -15059,11 +15107,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C4" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D4" s="12"/>
@@ -15075,11 +15123,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C5" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D5" s="12"/>
@@ -15091,11 +15139,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C6" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D6" s="12"/>
@@ -15107,11 +15155,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C7" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D7" s="12"/>
@@ -15123,11 +15171,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C8" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D8" s="12"/>
@@ -15139,11 +15187,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C9" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D9" s="12"/>
@@ -15155,11 +15203,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C10" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D10" s="12"/>
@@ -15171,11 +15219,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C11" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D11" s="12"/>
@@ -15187,11 +15235,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C12" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D12" s="12"/>
@@ -15203,11 +15251,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-001</v>
       </c>
       <c r="C13" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D13" s="50">
@@ -15225,11 +15273,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-002</v>
       </c>
       <c r="C14" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D14" s="50">
@@ -15247,11 +15295,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
         <v>i-VN-AKIRA-231108-AB-01-002</v>
       </c>
       <c r="C15" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>08 Nov 2023</v>
       </c>
       <c r="D15" s="12"/>
@@ -15259,22 +15307,22 @@
       <c r="F15" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6053F06-3444-450C-B9FC-28670DC14D6B}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6053F06-3444-450C-B9FC-28670DC14D6B}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -15324,23 +15372,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE02D8D-1685-4FEA-8687-C031EDEBEDAF}">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE02D8D-1685-4FEA-8687-C031EDEBEDAF}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="18" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="26.77734375" collapsed="true"/>
+    <col min="6" max="18" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="19" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -15692,29 +15740,29 @@
       <c r="P7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66379E1-079F-435E-B8ED-F61B35FCE9C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66379E1-079F-435E-B8ED-F61B35FCE9C4}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="20" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="9" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="11" max="20" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -15790,7 +15838,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>"SGTTAP-VNTTVN-"&amp;'TC4'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
@@ -15852,14 +15900,14 @@
         <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="V2" s="20" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
@@ -1,112 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FA8E64AB-E88F-45EB-988C-5E83ED390A5B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC6B75E-CBEE-4D34-9DCD-1181F6D1F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="621" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" firstSheet="40" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicator" r:id="rId1" sheetId="82"/>
-    <sheet name="AutoIncrement" r:id="rId2" sheetId="5"/>
-    <sheet name="TC1" r:id="rId3" sheetId="71"/>
-    <sheet name="TC2" r:id="rId4" sheetId="72"/>
-    <sheet name="TC3" r:id="rId5" sheetId="1"/>
-    <sheet name="TC3-Req to Parts Master" r:id="rId6" sheetId="73"/>
-    <sheet name="TC3.1" r:id="rId7" sheetId="74"/>
-    <sheet name="TC4-Contract Parts Info" r:id="rId8" sheetId="4"/>
-    <sheet name="TC4" r:id="rId9" sheetId="3"/>
-    <sheet name="TC5" r:id="rId10" sheetId="6"/>
-    <sheet name="TC6" r:id="rId11" sheetId="7"/>
-    <sheet name="TC6.1" r:id="rId12" sheetId="75"/>
-    <sheet name="TC6.2" r:id="rId13" sheetId="9"/>
-    <sheet name="TC6.2_ETAnWeek" r:id="rId14" sheetId="10"/>
-    <sheet name="TC7-Contract Parts Info" r:id="rId15" sheetId="76"/>
-    <sheet name="TC7" r:id="rId16" sheetId="11"/>
-    <sheet name="TC8" r:id="rId17" sheetId="53"/>
-    <sheet name="TC9" r:id="rId18" sheetId="12"/>
-    <sheet name="TC10" r:id="rId19" sheetId="13"/>
-    <sheet name="TC11-Order Regular" r:id="rId20" sheetId="15"/>
-    <sheet name="TC11-Inbound Dates Regular" r:id="rId21" sheetId="16"/>
-    <sheet name="TC11-Order Spot" r:id="rId22" sheetId="17"/>
-    <sheet name="TC11-Inbound Dates Spot" r:id="rId23" sheetId="18"/>
-    <sheet name="TC11-Customer CO" r:id="rId24" sheetId="25"/>
-    <sheet name="TC11- Period Generator" r:id="rId25" sheetId="77"/>
-    <sheet name="TC12" r:id="rId26" sheetId="54"/>
-    <sheet name="TC14-BU SO" r:id="rId27" sheetId="19"/>
-    <sheet name="TC15-BU PO" r:id="rId28" sheetId="20"/>
-    <sheet name="TC16-Supplier SO" r:id="rId29" sheetId="21"/>
-    <sheet name="TC17.1-Sup SO Delivery Plan" r:id="rId30" sheetId="78"/>
-    <sheet name="TC17.1-Sup SODeliveryPlan(Date)" r:id="rId31" sheetId="79"/>
-    <sheet name="TC17.2-Sup SO Delivery Plan" r:id="rId32" sheetId="80"/>
-    <sheet name="TC17.2-Sup SODeliveryPlan(Date)" r:id="rId33" sheetId="81"/>
-    <sheet name="TC18-Forecast Change" r:id="rId34" sheetId="26"/>
-    <sheet name="TC20-BU Change Request" r:id="rId35" sheetId="28"/>
-    <sheet name="TC19-Customer Change Request" r:id="rId36" sheetId="27"/>
-    <sheet name="TC21-Supplier Approve Change " r:id="rId37" sheetId="29"/>
-    <sheet name="TC22-Customer Forecast CO " r:id="rId38" sheetId="30"/>
-    <sheet name="TC23-BU Forecast SO" r:id="rId39" sheetId="31"/>
-    <sheet name="TC24-BU Forecast PO" r:id="rId40" sheetId="32"/>
-    <sheet name="TC25-Customer Order Change" r:id="rId41" sheetId="33"/>
-    <sheet name="TC25-Change Inbound Date" r:id="rId42" sheetId="34"/>
-    <sheet name="TC25-Change Request No" r:id="rId43" sheetId="40"/>
-    <sheet name="TC26-Customer AutoGen Change" r:id="rId44" sheetId="35"/>
-    <sheet name="TC27-BU AutoGen Change" r:id="rId45" sheetId="38"/>
-    <sheet name="TC28-Supplier Approve Change" r:id="rId46" sheetId="39"/>
-    <sheet name="TC29-Customer Check CO" r:id="rId47" sheetId="43"/>
-    <sheet name="TC30-BU Check SO" r:id="rId48" sheetId="44"/>
-    <sheet name="TC31-BU Check PO" r:id="rId49" sheetId="45"/>
-    <sheet name="TC32-Supplier Check SO" r:id="rId50" sheetId="46"/>
-    <sheet name="TC33-New Outbound Date" r:id="rId51" sheetId="55"/>
-    <sheet name="TC33-New Firm Qty" r:id="rId52" sheetId="70"/>
-    <sheet name="TC33-Change Request No" r:id="rId53" sheetId="56"/>
-    <sheet name="TC34" r:id="rId54" sheetId="67"/>
-    <sheet name="TC35" r:id="rId55" sheetId="68"/>
-    <sheet name="TC36" r:id="rId56" sheetId="57"/>
-    <sheet name="TC44-Supplier Outbound -Regular" r:id="rId57" sheetId="47"/>
-    <sheet name="TC44-Supplier Outbound -Spot" r:id="rId58" sheetId="49"/>
-    <sheet name="TC44-Outbound No" r:id="rId59" sheetId="50"/>
-    <sheet name="TC45-Supplier SellerGI Invoice" r:id="rId60" sheetId="52"/>
-    <sheet name="TC50.1-Customer Cargo -Regular" r:id="rId61" sheetId="59"/>
-    <sheet name="TC50.2-Customer Cargo -Spot" r:id="rId62" sheetId="60"/>
-    <sheet name="TC53-Shipping Detail" r:id="rId63" sheetId="62"/>
-    <sheet name="TC61-BU SellerGI Invoice" r:id="rId64" sheetId="64"/>
-    <sheet name="TC68-DC Inbound" r:id="rId65" sheetId="65"/>
+    <sheet name="Indicator" sheetId="82" r:id="rId1"/>
+    <sheet name="AutoIncrement" sheetId="5" r:id="rId2"/>
+    <sheet name="TC1" sheetId="71" r:id="rId3"/>
+    <sheet name="TC2" sheetId="72" r:id="rId4"/>
+    <sheet name="TC3" sheetId="1" r:id="rId5"/>
+    <sheet name="TC3-Req to Parts Master" sheetId="73" r:id="rId6"/>
+    <sheet name="TC3.1" sheetId="74" r:id="rId7"/>
+    <sheet name="TC4-Contract Parts Info" sheetId="4" r:id="rId8"/>
+    <sheet name="TC4" sheetId="3" r:id="rId9"/>
+    <sheet name="TC5" sheetId="6" r:id="rId10"/>
+    <sheet name="TC6" sheetId="7" r:id="rId11"/>
+    <sheet name="TC6.1" sheetId="75" r:id="rId12"/>
+    <sheet name="TC6.2" sheetId="9" r:id="rId13"/>
+    <sheet name="TC6.2_ETAnWeek" sheetId="10" r:id="rId14"/>
+    <sheet name="TC7-Contract Parts Info" sheetId="76" r:id="rId15"/>
+    <sheet name="TC7" sheetId="11" r:id="rId16"/>
+    <sheet name="TC8" sheetId="53" r:id="rId17"/>
+    <sheet name="TC9" sheetId="12" r:id="rId18"/>
+    <sheet name="TC10" sheetId="13" r:id="rId19"/>
+    <sheet name="TC11-Order Regular" sheetId="15" r:id="rId20"/>
+    <sheet name="TC11-Inbound Dates Regular" sheetId="16" r:id="rId21"/>
+    <sheet name="TC11-Order Spot" sheetId="17" r:id="rId22"/>
+    <sheet name="TC11-Inbound Dates Spot" sheetId="18" r:id="rId23"/>
+    <sheet name="TC11-Customer CO" sheetId="25" r:id="rId24"/>
+    <sheet name="TC11- Period Generator" sheetId="77" r:id="rId25"/>
+    <sheet name="TC12" sheetId="54" r:id="rId26"/>
+    <sheet name="TC14-BU SO" sheetId="19" r:id="rId27"/>
+    <sheet name="TC15-BU PO" sheetId="20" r:id="rId28"/>
+    <sheet name="TC16-Supplier SO" sheetId="21" r:id="rId29"/>
+    <sheet name="TC17.1-Sup SO Delivery Plan" sheetId="78" r:id="rId30"/>
+    <sheet name="TC17.1-Sup SODeliveryPlan(Date)" sheetId="79" r:id="rId31"/>
+    <sheet name="TC17.2-Sup SO Delivery Plan" sheetId="80" r:id="rId32"/>
+    <sheet name="TC17.2-Sup SODeliveryPlan(Date)" sheetId="81" r:id="rId33"/>
+    <sheet name="TC18-Forecast Change" sheetId="26" r:id="rId34"/>
+    <sheet name="TC20-BU Change Request" sheetId="28" r:id="rId35"/>
+    <sheet name="TC19-Customer Change Request" sheetId="27" r:id="rId36"/>
+    <sheet name="TC21-Supplier Approve Change " sheetId="29" r:id="rId37"/>
+    <sheet name="TC22-Customer Forecast CO " sheetId="30" r:id="rId38"/>
+    <sheet name="TC23-BU Forecast SO" sheetId="31" r:id="rId39"/>
+    <sheet name="TC24-BU Forecast PO" sheetId="32" r:id="rId40"/>
+    <sheet name="TC25-Customer Order Change" sheetId="33" r:id="rId41"/>
+    <sheet name="TC25-Change Inbound Date" sheetId="34" r:id="rId42"/>
+    <sheet name="TC25-Change Request No" sheetId="40" r:id="rId43"/>
+    <sheet name="TC26-Customer AutoGen Change" sheetId="35" r:id="rId44"/>
+    <sheet name="TC27-BU AutoGen Change" sheetId="38" r:id="rId45"/>
+    <sheet name="TC28-Supplier Approve Change" sheetId="39" r:id="rId46"/>
+    <sheet name="TC29-Customer Check CO" sheetId="43" r:id="rId47"/>
+    <sheet name="TC30-BU Check SO" sheetId="44" r:id="rId48"/>
+    <sheet name="TC31-BU Check PO" sheetId="45" r:id="rId49"/>
+    <sheet name="TC32-Supplier Check SO" sheetId="46" r:id="rId50"/>
+    <sheet name="TC33-New Outbound Date" sheetId="55" r:id="rId51"/>
+    <sheet name="TC33-New Firm Qty" sheetId="70" r:id="rId52"/>
+    <sheet name="TC33-Change Request No" sheetId="56" r:id="rId53"/>
+    <sheet name="TC34" sheetId="67" r:id="rId54"/>
+    <sheet name="TC35" sheetId="68" r:id="rId55"/>
+    <sheet name="TC36" sheetId="57" r:id="rId56"/>
+    <sheet name="TC44-Supplier Outbound -Regular" sheetId="47" r:id="rId57"/>
+    <sheet name="TC44-Supplier Outbound -Spot" sheetId="49" r:id="rId58"/>
+    <sheet name="TC44-Outbound No" sheetId="50" r:id="rId59"/>
+    <sheet name="TC45-Supplier SellerGI Invoice" sheetId="52" r:id="rId60"/>
+    <sheet name="TC50.1-Customer Cargo -Regular" sheetId="59" r:id="rId61"/>
+    <sheet name="TC50.2-Customer Cargo -Spot" sheetId="60" r:id="rId62"/>
+    <sheet name="TC53-Shipping Detail" sheetId="62" r:id="rId63"/>
+    <sheet name="TC61-BU SellerGI Invoice" sheetId="64" r:id="rId64"/>
+    <sheet name="TC68-DC Inbound" sheetId="65" r:id="rId65"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId66"/>
   </externalReferences>
   <definedNames>
-    <definedName localSheetId="5" name="activeFlagListArr">#REF!</definedName>
+    <definedName name="activeFlagListArr" localSheetId="5">#REF!</definedName>
     <definedName name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr">#REF!</definedName>
     <definedName name="cargoStatus0">#REF!</definedName>
     <definedName name="cargoStatus1">#REF!</definedName>
     <definedName name="cargoStatus2">#REF!</definedName>
     <definedName name="CURRENCY_CODE">#REF!</definedName>
-    <definedName localSheetId="5" name="findAllUomArr">#REF!</definedName>
+    <definedName name="findAllUomArr" localSheetId="5">#REF!</definedName>
     <definedName name="findAllUomArr">[1]findAllUomArr!$A$1:$A$41</definedName>
     <definedName name="PAIRED_FLAG">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG">#REF!</definedName>
     <definedName name="pairedPartsFlagStrArr">#REF!</definedName>
-    <definedName localSheetId="5" name="partsTypeArr">#REF!</definedName>
+    <definedName name="partsTypeArr" localSheetId="5">#REF!</definedName>
     <definedName name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="REPACKING_TYPE">#REF!</definedName>
-    <definedName localSheetId="5" name="rolledPartsFlagArr">#REF!</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="5">#REF!</definedName>
     <definedName name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName localSheetId="5" name="rolledPartsUomArr">#REF!</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="5">#REF!</definedName>
     <definedName name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$41</definedName>
     <definedName name="UOM_CODE">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="501">
   <si>
     <t>No</t>
   </si>
@@ -1598,9 +1598,6 @@
     <t>You may change if necessary</t>
   </si>
   <si>
-    <t>Nov 20, 2023</t>
-  </si>
-  <si>
     <t>Plan_OutIn_4</t>
   </si>
   <si>
@@ -1613,69 +1610,9 @@
     <t>Status_OutIn_5</t>
   </si>
   <si>
-    <t>o-SG-BAFCO-231108005</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231108006</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231108007</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231108008</t>
-  </si>
-  <si>
-    <t>BAFCO2311011</t>
-  </si>
-  <si>
-    <t>BAFCO2311012</t>
-  </si>
-  <si>
-    <t>BAFCO2311013</t>
-  </si>
-  <si>
-    <t>BAFCO2311014</t>
-  </si>
-  <si>
-    <t>BAFCO2311015</t>
-  </si>
-  <si>
-    <t>TTAP2311011</t>
-  </si>
-  <si>
-    <t>TTAP2311012</t>
-  </si>
-  <si>
-    <t>TTAP2311013</t>
-  </si>
-  <si>
-    <t>TTAP2311014</t>
-  </si>
-  <si>
-    <t>R-VN-TTVN-2311006</t>
-  </si>
-  <si>
-    <t>CR-VN-TTVN-2311005</t>
-  </si>
-  <si>
-    <t>R-SG-TTAP-2311008</t>
-  </si>
-  <si>
     <t>AB</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>R-VN-TTVN-2311007</t>
-  </si>
-  <si>
-    <t>CR-VN-TTVN-2311006</t>
-  </si>
-  <si>
-    <t>R-SG-TTAP-2311009</t>
-  </si>
-  <si>
     <t>o-SG-BAFCO-231108009</t>
   </si>
   <si>
@@ -1713,6 +1650,21 @@
   </si>
   <si>
     <t>TTAP2311018</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>R-VN-TTVN-2311008</t>
+  </si>
+  <si>
+    <t>CR-VN-TTVN-2311007</t>
+  </si>
+  <si>
+    <t>R-SG-TTAP-2311010</t>
+  </si>
+  <si>
+    <t>Nov 21, 2023</t>
   </si>
 </sst>
 </file>
@@ -2059,241 +2011,241 @@
     </border>
   </borders>
   <cellStyleXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="170" xfId="0">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="4" xfId="0">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="3"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="5">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="166" xfId="4">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="168" xfId="4">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="0">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="166" xfId="4">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="0">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle builtinId="3" name="Comma" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 13" xfId="6" xr:uid="{DAC2F1B6-5F0C-4911-9B5C-B5CAE8654FF7}"/>
     <cellStyle name="Normal 2" xfId="8" xr:uid="{05CD56BC-B259-455F-8B6E-D7A790BD14E2}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{0077DFB7-1F7C-4A43-8985-01F7EAF42D54}"/>
@@ -2305,7 +2257,7 @@
     <cellStyle name="常规 2 2" xfId="10" xr:uid="{A5C60366-A437-4C5C-871D-F407967867C8}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2803,10 +2755,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2841,7 +2793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2876,7 +2828,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2970,21 +2922,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3001,7 +2953,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3053,18 +3005,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB094F-61F9-4F6B-BDA2-7BAD65AE22C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB094F-61F9-4F6B-BDA2-7BAD65AE22C0}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
@@ -3072,13 +3024,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="3.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="2:4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row ht="15" r="2" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="54" t="s">
         <v>468</v>
       </c>
@@ -3116,7 +3068,7 @@
         <v>475</v>
       </c>
     </row>
-    <row ht="15" r="6" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="85"/>
       <c r="C6" s="64" t="s">
         <v>476</v>
@@ -3126,13 +3078,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77CFF02-01BA-40A3-85B4-663177661A71}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77CFF02-01BA-40A3-85B4-663177661A71}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
@@ -3140,9 +3092,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3159,17 +3111,17 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594B606-C3E2-4590-8776-D283BD7DAE77}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594B606-C3E2-4590-8776-D283BD7DAE77}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -3177,14 +3129,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="7" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>46</v>
       </c>
@@ -3218,7 +3170,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="E2" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3242,7 +3194,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="E3" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3266,7 +3218,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="E4" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3290,7 +3242,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3314,7 +3266,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="E6" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3338,7 +3290,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="E7" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3349,13 +3301,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C54E39-7FDB-4E7D-8E4A-1FECA68F69D2}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C54E39-7FDB-4E7D-8E4A-1FECA68F69D2}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -3363,10 +3315,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3416,26 +3368,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB951A2-E1E3-41BE-9E98-AE84703BC5C7}">
-  <dimension ref="A1:Y2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB951A2-E1E3-41BE-9E98-AE84703BC5C7}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="14.4" r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>52</v>
       </c>
@@ -3583,13 +3535,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12A9C-8FE9-4F99-ACBE-9965D2480768}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12A9C-8FE9-4F99-ACBE-9965D2480768}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -3597,9 +3549,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="2" max="15" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="15" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -3699,13 +3651,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1CC9B-6D5F-4684-8DC1-9ECC6B866CFC}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1CC9B-6D5F-4684-8DC1-9ECC6B866CFC}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -3713,10 +3665,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="11" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="12" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="11" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3760,7 +3712,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>193</v>
@@ -3788,7 +3740,7 @@
       </c>
       <c r="D3" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>194</v>
@@ -3816,7 +3768,7 @@
       </c>
       <c r="D4" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>195</v>
@@ -3844,7 +3796,7 @@
       </c>
       <c r="D5" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>270</v>
@@ -3872,7 +3824,7 @@
       </c>
       <c r="D6" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>195</v>
@@ -3900,7 +3852,7 @@
       </c>
       <c r="D7" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>195</v>
@@ -3927,14 +3879,14 @@
       <c r="I8" s="6"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B734894B-25AB-43FF-8158-1149F870C11B}">
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B734894B-25AB-43FF-8158-1149F870C11B}">
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -3942,14 +3894,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="9" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="15" max="20" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="21" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="20" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -4019,11 +3971,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C2" s="12" t="str">
         <f>"SGBAFCO-SGTTAP-"&amp;'TC7'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>37</v>
@@ -4039,11 +3991,11 @@
       </c>
       <c r="H2" s="12" t="str">
         <f>AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>ABs-01</v>
+        <v>ABs-02</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-ABs-01</v>
+        <v>CD-ABs-02</v>
       </c>
       <c r="J2" s="12" t="str">
         <f>'TC6.1'!B2&amp;"("&amp;'TC6.1'!C2&amp;")"</f>
@@ -4077,20 +4029,20 @@
       </c>
       <c r="S2" s="12" t="str">
         <f>'TC4'!N2</f>
-        <v>RD-AB-01</v>
+        <v>RD-AB-02</v>
       </c>
       <c r="T2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723AEF1-596F-41E1-B760-C0119527A8CE}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723AEF1-596F-41E1-B760-C0119527A8CE}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
@@ -4098,11 +4050,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4141,7 +4093,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>22</v>
@@ -4167,7 +4119,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>22</v>
@@ -4193,7 +4145,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>22</v>
@@ -4219,7 +4171,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>22</v>
@@ -4245,7 +4197,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>22</v>
@@ -4271,7 +4223,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>22</v>
@@ -4285,14 +4237,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F605A60-7548-455E-B1BD-E501B50E1D8E}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F605A60-7548-455E-B1BD-E501B50E1D8E}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4300,9 +4252,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4322,7 +4274,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-AB-01</v>
+        <v>CS-AB-02</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4332,17 +4284,17 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F67513-3B0C-412F-A466-F3B7B2A44CBB}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F67513-3B0C-412F-A466-F3B7B2A44CBB}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4350,8 +4302,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="1" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4371,7 +4323,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-ABs-01</v>
+        <v>CS-ABs-02</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4381,30 +4333,30 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB0F19-6308-470D-96AC-F48FFA3E7D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB0F19-6308-470D-96AC-F48FFA3E7D98}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="39.0" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="4" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4425,10 +4377,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="C2" s="66" t="str">
         <f>B2&amp;"s"</f>
@@ -4454,1077 +4406,13 @@
       <c r="E4" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DEE1FD-F115-4FC2-A8A4-08A8E868068A}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="26">
-        <v>500</v>
-      </c>
-      <c r="E2" s="26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="26">
-        <v>500</v>
-      </c>
-      <c r="E3" s="26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="26">
-        <v>500</v>
-      </c>
-      <c r="E4" s="26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="26">
-        <v>500</v>
-      </c>
-      <c r="E6" s="26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0643A5-B7E2-4DA9-B069-8F351003DB03}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" style="2" width="8.88671875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Jan 2024</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Feb 2024</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BF405A-1265-4529-9930-40B4726F6D66}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>100</v>
-      </c>
-      <c r="C2" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12">
-        <v>100</v>
-      </c>
-      <c r="C3" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
-        <v>100</v>
-      </c>
-      <c r="C4" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12">
-        <v>100</v>
-      </c>
-      <c r="C5" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12">
-        <v>100</v>
-      </c>
-      <c r="C6" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12">
-        <v>100</v>
-      </c>
-      <c r="C7" s="12">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>18 Jan 2024</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A8B1D-3D68-4DFF-812B-9F06D6FA029B}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>cAB01-2311001</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>cAB01-2311002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30E7E9-63FD-421B-ACB4-C15182195C24}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="30.77734375" collapsed="true"/>
-    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="str">
-        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
-        <v>Nov 6, 2023 ~ Nov 12, 2023</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8FC041-2817-491D-9A9F-8F7D35CE41E0}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="30.77734375" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FCF16-D645-4ABB-87A9-49E7147946A3}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sAB01-2311001</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sAB01-2311002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB5BAB7-019C-433A-A788-027102F936EA}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>pABs01-2311001</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>pABs01-2311002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65D81D-C87E-4360-A071-AB53568FC756}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sABs01-2311001</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sABs01-2311002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BCBB-72CE-4CBB-B1D3-1C11D7C29537}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="13" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410F41C8-F416-4FB2-A3C3-2BAD30EA4977}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>500</v>
-      </c>
-      <c r="B2" s="27">
-        <v>500</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
-        <v>500</v>
-      </c>
-      <c r="B3" s="27">
-        <v>500</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
-        <v>500</v>
-      </c>
-      <c r="B4" s="27">
-        <v>500</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>500</v>
-      </c>
-      <c r="B6" s="12">
-        <v>500</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>1000</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC0F5A-5783-4133-896F-5E82CA2762D3}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B7" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC210D-873E-4EF1-A7F4-1304E8A4787B}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" customWidth="true" style="10" width="20.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="10" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
-        <v>100</v>
-      </c>
-      <c r="B2" s="15">
-        <v>15</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
-        <v>100</v>
-      </c>
-      <c r="B3" s="15">
-        <v>15</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
-        <v>100</v>
-      </c>
-      <c r="B4" s="15">
-        <v>15</v>
-      </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
-        <v>100</v>
-      </c>
-      <c r="B5" s="15">
-        <v>15</v>
-      </c>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
-        <v>100</v>
-      </c>
-      <c r="B6" s="15">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
-        <v>100</v>
-      </c>
-      <c r="B7" s="15">
-        <v>15</v>
-      </c>
-      <c r="C7" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC786D-476A-42DB-99D0-5D0B57E43076}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>478</v>
-      </c>
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>478</v>
-      </c>
-      <c r="B7" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AB56FA-011D-427B-894C-D9B962F8DF72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DEE1FD-F115-4FC2-A8A4-08A8E868068A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5533,11 +4421,1075 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="26">
+        <v>500</v>
+      </c>
+      <c r="E2" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="26">
+        <v>500</v>
+      </c>
+      <c r="E3" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="26">
+        <v>500</v>
+      </c>
+      <c r="E4" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="26">
+        <v>500</v>
+      </c>
+      <c r="E6" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0643A5-B7E2-4DA9-B069-8F351003DB03}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2" collapsed="1"/>
+    <col min="2" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>10 Jan 2024</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>10 Feb 2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BF405A-1265-4529-9930-40B4726F6D66}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>100</v>
+      </c>
+      <c r="C2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>100</v>
+      </c>
+      <c r="C3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>100</v>
+      </c>
+      <c r="C4" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>100</v>
+      </c>
+      <c r="C5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>100</v>
+      </c>
+      <c r="C6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>100</v>
+      </c>
+      <c r="C7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+10), "dd MMM yyyy")</f>
+        <v>20 Jan 2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A8B1D-3D68-4DFF-812B-9F06D6FA029B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
+        <v>cAB02-2311001</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
+        <v>cAB02-2311002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30E7E9-63FD-421B-ACB4-C15182195C24}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="str">
+        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
+        <v>Nov 6, 2023 ~ Nov 12, 2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8FC041-2817-491D-9A9F-8F7D35CE41E0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f>'TC4'!C2</f>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FCF16-D645-4ABB-87A9-49E7147946A3}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
+        <v>sAB02-2311001</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
+        <v>sAB02-2311002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB5BAB7-019C-433A-A788-027102F936EA}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
+        <v>pABs02-2311001</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
+        <v>pABs02-2311002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65D81D-C87E-4360-A071-AB53568FC756}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
+        <v>sABs02-2311001</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
+        <v>sABs02-2311002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BCBB-72CE-4CBB-B1D3-1C11D7C29537}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="13" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410F41C8-F416-4FB2-A3C3-2BAD30EA4977}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>500</v>
+      </c>
+      <c r="B2" s="27">
+        <v>500</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
+        <v>500</v>
+      </c>
+      <c r="B3" s="27">
+        <v>500</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
+        <v>500</v>
+      </c>
+      <c r="B4" s="27">
+        <v>500</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>500</v>
+      </c>
+      <c r="B6" s="12">
+        <v>500</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC0F5A-5783-4133-896F-5E82CA2762D3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC210D-873E-4EF1-A7F4-1304E8A4787B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="20.77734375" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="10" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>100</v>
+      </c>
+      <c r="B2" s="15">
+        <v>15</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>100</v>
+      </c>
+      <c r="B3" s="15">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>100</v>
+      </c>
+      <c r="B4" s="15">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>100</v>
+      </c>
+      <c r="B5" s="15">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>100</v>
+      </c>
+      <c r="B6" s="15">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>100</v>
+      </c>
+      <c r="B7" s="15">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC786D-476A-42DB-99D0-5D0B57E43076}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AB56FA-011D-427B-894C-D9B962F8DF72}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5567,7 +5519,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rcAB01-2311001-01</v>
+        <v>rcAB02-2311001-01</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5632,14 +5584,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC82074-409B-4058-BBB4-4A7D9BAEB68A}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC82074-409B-4058-BBB4-4A7D9BAEB68A}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:K1"/>
@@ -5647,10 +5599,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5754,25 +5706,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942E21B-71C7-4EA8-A0BD-072074C2B2C3}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942E21B-71C7-4EA8-A0BD-072074C2B2C3}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="7" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5847,9 +5799,9 @@
       <c r="K2" s="31">
         <v>1000</v>
       </c>
-      <c r="L2" s="30" t="n">
+      <c r="L2" s="30">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5886,20 +5838,20 @@
       <c r="K3" s="31">
         <v>1000</v>
       </c>
-      <c r="L3" s="30" t="n">
+      <c r="L3" s="30">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79406B4-DBD7-428C-B17D-CD86318E0FD8}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79406B4-DBD7-428C-B17D-CD86318E0FD8}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
@@ -5907,9 +5859,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="11" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="12" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="11" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -5974,9 +5926,9 @@
       <c r="J2" s="31">
         <v>1000</v>
       </c>
-      <c r="K2" s="30" t="n">
+      <c r="K2" s="30">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6006,19 +5958,19 @@
       <c r="J3" s="31">
         <v>1000</v>
       </c>
-      <c r="K3" s="30" t="n">
+      <c r="K3" s="30">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770ADA-1D66-4294-B397-0B2BF2F89F68}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770ADA-1D66-4294-B397-0B2BF2F89F68}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -6026,9 +5978,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6071,7 +6023,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6082,9 +6034,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32" t="n">
+      <c r="H2" s="32">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6101,7 +6053,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6112,9 +6064,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32" t="n">
+      <c r="H3" s="32">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6131,7 +6083,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6142,9 +6094,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32" t="n">
+      <c r="H4" s="32">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6161,7 +6113,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6172,9 +6124,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32" t="n">
+      <c r="H5" s="32">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6191,7 +6143,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6202,9 +6154,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H6" s="32">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6221,7 +6173,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -6232,21 +6184,21 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="32">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF76645B-AA5C-4D86-92F7-10E7C2805ED2}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF76645B-AA5C-4D86-92F7-10E7C2805ED2}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
@@ -6254,9 +6206,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="11" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6299,7 +6251,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -6310,9 +6262,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32" t="n">
+      <c r="H2" s="32">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6329,7 +6281,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -6340,9 +6292,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32" t="n">
+      <c r="H3" s="32">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6359,7 +6311,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -6370,9 +6322,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32" t="n">
+      <c r="H4" s="32">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6389,7 +6341,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -6400,9 +6352,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32" t="n">
+      <c r="H5" s="32">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6419,7 +6371,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -6430,9 +6382,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H6" s="32">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6449,7 +6401,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -6460,33 +6412,33 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="32">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBC8B8-8C7D-4890-B23F-D42A4760DD88}">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBC8B8-8C7D-4890-B23F-D42A4760DD88}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="9" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="11" max="16" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="17" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="9" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="16" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -6677,13 +6629,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F444C-5B70-4EF5-BD9F-454F98A7A869}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F444C-5B70-4EF5-BD9F-454F98A7A869}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
@@ -6691,9 +6643,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="10" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="11" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="10" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6734,7 +6686,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6745,9 +6697,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32" t="n">
+      <c r="H2" s="32">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6762,7 +6714,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6773,9 +6725,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32" t="n">
+      <c r="H3" s="32">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6790,7 +6742,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6801,9 +6753,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32" t="n">
+      <c r="H4" s="32">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6818,7 +6770,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6829,9 +6781,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32" t="n">
+      <c r="H5" s="32">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6846,7 +6798,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6857,9 +6809,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H6" s="32">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6874,7 +6826,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -6885,32 +6837,32 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="32">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513AACE-A996-4FC1-BA95-6FA48F0C2957}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513AACE-A996-4FC1-BA95-6FA48F0C2957}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7046,23 +6998,23 @@
       <c r="F7" s="26"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679C6DA-4A25-4D87-9555-75757A39B539}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679C6DA-4A25-4D87-9555-75757A39B539}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7079,32 +7031,32 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Jan 2024</v>
+        <v>10 Jan 2024</v>
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Feb 2024</v>
+        <v>10 Feb 2024</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Mar 2024</v>
+        <v>10 Mar 2024</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFE097-22D6-4B00-9E90-9129E84E5DAC}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFE097-22D6-4B00-9E90-9129E84E5DAC}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.6640625" collapsed="true"/>
-    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="23.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -7115,29 +7067,29 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-02"</f>
-        <v>rcAB01-2311001-02</v>
+        <v>rcAB02-2311001-02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AD534-E497-4569-89C5-81CBABA793F3}">
-  <dimension ref="A1:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AD534-E497-4569-89C5-81CBABA793F3}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="7" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -7225,38 +7177,38 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="33">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K2" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="33" t="n">
+      <c r="O2" s="33">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="P2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P2" s="33">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="33">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="R2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R2" s="33">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="S2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="S2" s="33">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7285,58 +7237,56 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="33">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K3" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="33" t="n">
+      <c r="O3" s="33">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="P3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P3" s="33">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="33">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="R3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R3" s="33">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="S3" s="33"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C5</f>
-        <v>scenario1220230504004</v>
+        <f>'TC4-Contract Parts Info'!C4</f>
+        <v>scenario1220230504003</v>
       </c>
       <c r="B4" s="15" t="str">
-        <f>'TC3-Req to Parts Master'!B5</f>
-        <v>VN-TTVN-CUS:20230504-004</v>
+        <f>'TC3-Req to Parts Master'!B4</f>
+        <v>VN-TTVN-CUS:20230504-003</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="H4" s="12">
         <v>5</v>
@@ -7344,108 +7294,111 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33" t="n">
-        <f>'TC11-Order Regular'!B5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+      <c r="J4" s="33">
+        <f>'TC11-Order Regular'!B4</f>
+        <v>1000</v>
+      </c>
+      <c r="K4" s="33">
+        <f>'TC25-Customer Order Change'!C4</f>
+        <v>1000</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N4" s="12"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33" t="n">
-        <f>'TC11-Order Regular'!E5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="Q4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!D5</f>
-        <v>500.0</v>
-      </c>
-      <c r="R4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!E5</f>
-        <v>500.0</v>
-      </c>
-      <c r="S4" s="12"/>
+      <c r="O4" s="33">
+        <f>'TC11-Order Regular'!D4</f>
+        <v>500</v>
+      </c>
+      <c r="P4" s="33">
+        <f>'TC11-Order Regular'!E4</f>
+        <v>500</v>
+      </c>
+      <c r="Q4" s="33">
+        <f>'TC25-Customer Order Change'!D4</f>
+        <v>500</v>
+      </c>
+      <c r="R4" s="33">
+        <f>'TC25-Customer Order Change'!E4</f>
+        <v>500</v>
+      </c>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C6</f>
-        <v>scenario1220230504005</v>
+        <f>'TC4-Contract Parts Info'!C5</f>
+        <v>scenario1220230504004</v>
       </c>
       <c r="B5" s="15" t="str">
-        <f>'TC3-Req to Parts Master'!B6</f>
-        <v>VN-TTVN-CUS:20230504-005</v>
+        <f>'TC3-Req to Parts Master'!B5</f>
+        <v>VN-TTVN-CUS:20230504-004</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="H5" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33" t="n">
-        <f>'TC11-Order Regular'!B6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K5" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+      <c r="J5" s="33">
+        <f>'TC11-Order Regular'!B5</f>
+        <v>1000</v>
+      </c>
+      <c r="K5" s="33">
+        <f>'TC25-Customer Order Change'!C5</f>
+        <v>1000</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="33" t="n">
-        <f>'TC11-Order Regular'!D6</f>
-        <v>500.0</v>
-      </c>
-      <c r="P5" s="33" t="n">
-        <f>'TC11-Order Regular'!E6</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q5" s="33" t="n">
-        <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="R5" s="12"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33">
+        <f>'TC11-Order Regular'!E5</f>
+        <v>1000</v>
+      </c>
+      <c r="Q5" s="33">
+        <f>'TC25-Customer Order Change'!D5</f>
+        <v>500</v>
+      </c>
+      <c r="R5" s="33">
+        <f>'TC25-Customer Order Change'!E5</f>
+        <v>500</v>
+      </c>
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C7</f>
-        <v>scenario1220230504006</v>
+        <f>'TC4-Contract Parts Info'!C6</f>
+        <v>scenario1220230504005</v>
       </c>
       <c r="B6" s="15" t="str">
-        <f>'TC3-Req to Parts Master'!B7</f>
-        <v>VN-TTVN-CUS:20230504-006</v>
+        <f>'TC3-Req to Parts Master'!B6</f>
+        <v>VN-TTVN-CUS:20230504-005</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>195</v>
@@ -7456,50 +7409,107 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33" t="n">
-        <f>'TC11-Order Regular'!B7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K6" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+      <c r="J6" s="33">
+        <f>'TC11-Order Regular'!B6</f>
+        <v>1000</v>
+      </c>
+      <c r="K6" s="33">
+        <f>'TC25-Customer Order Change'!C6</f>
+        <v>1000</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="33" t="n">
+      <c r="O6" s="33">
+        <f>'TC11-Order Regular'!D6</f>
+        <v>500</v>
+      </c>
+      <c r="P6" s="33">
+        <f>'TC11-Order Regular'!E6</f>
+        <v>500</v>
+      </c>
+      <c r="Q6" s="33">
+        <f>'TC25-Customer Order Change'!D6</f>
+        <v>1000</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="str">
+        <f>'TC4-Contract Parts Info'!C7</f>
+        <v>scenario1220230504006</v>
+      </c>
+      <c r="B7" s="15" t="str">
+        <f>'TC3-Req to Parts Master'!B7</f>
+        <v>VN-TTVN-CUS:20230504-006</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="12">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12">
+        <v>10</v>
+      </c>
+      <c r="J7" s="33">
+        <f>'TC11-Order Regular'!B7</f>
+        <v>1000</v>
+      </c>
+      <c r="K7" s="33">
+        <f>'TC25-Customer Order Change'!C7</f>
+        <v>1000</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="33">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="33">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="S6" s="12"/>
+        <v>1000</v>
+      </c>
+      <c r="S7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F6C0E8-E3D6-4001-B659-6B8372626CDE}">
-  <dimension ref="A1:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F6C0E8-E3D6-4001-B659-6B8372626CDE}">
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -7582,38 +7592,38 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="33">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K2" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="33" t="n">
+      <c r="O2" s="33">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="P2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P2" s="33">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="33">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="R2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R2" s="33">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="S2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="S2" s="33">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7637,34 +7647,34 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="33">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K3" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="33" t="n">
+      <c r="O3" s="33">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="P3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P3" s="33">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="33">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="R3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R3" s="33">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="S3" s="33"/>
     </row>
@@ -7689,13 +7699,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33" t="n">
+      <c r="J4" s="33">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
@@ -7703,17 +7713,17 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="33"/>
-      <c r="P4" s="33" t="n">
+      <c r="P4" s="33">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="Q4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="33">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500.0</v>
-      </c>
-      <c r="R4" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R4" s="33">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="S4" s="12"/>
     </row>
@@ -7738,30 +7748,30 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33" t="n">
+      <c r="J5" s="33">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K5" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="33" t="n">
+      <c r="O5" s="33">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500.0</v>
-      </c>
-      <c r="P5" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P5" s="33">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q5" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="33">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
@@ -7787,49 +7797,49 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="J6" s="33">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="33" t="n">
+      <c r="O6" s="33">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="33" t="n">
+      <c r="R6" s="33">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="S6" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A7952-0ADD-46CB-BCDD-5633F7A7D19C}">
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A7952-0ADD-46CB-BCDD-5633F7A7D19C}">
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="18" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="19" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="18" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -7909,38 +7919,38 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="33">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J2" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M2" s="12"/>
-      <c r="N2" s="33" t="n">
+      <c r="N2" s="33">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="O2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="O2" s="33">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="P2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P2" s="33">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="33">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500.0</v>
-      </c>
-      <c r="R2" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="R2" s="33">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -7964,34 +7974,34 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="33">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J3" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M3" s="12"/>
-      <c r="N3" s="33" t="n">
+      <c r="N3" s="33">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="O3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="O3" s="33">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500.0</v>
-      </c>
-      <c r="P3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P3" s="33">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q3" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="33">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="R3" s="33"/>
     </row>
@@ -8016,13 +8026,13 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="33">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
@@ -8030,17 +8040,17 @@
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="33" t="n">
+      <c r="O4" s="33">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="P4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P4" s="33">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500.0</v>
-      </c>
-      <c r="Q4" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q4" s="33">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="R4" s="33"/>
     </row>
@@ -8065,30 +8075,30 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="33">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J5" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M5" s="12"/>
-      <c r="N5" s="33" t="n">
+      <c r="N5" s="33">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500.0</v>
-      </c>
-      <c r="O5" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="O5" s="33">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500.0</v>
-      </c>
-      <c r="P5" s="33" t="n">
+        <v>500</v>
+      </c>
+      <c r="P5" s="33">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
@@ -8114,49 +8124,49 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="33">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M6" s="12"/>
-      <c r="N6" s="33" t="n">
+      <c r="N6" s="33">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
-      <c r="Q6" s="33" t="n">
+      <c r="Q6" s="33">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="R6" s="33"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7616B-F775-4E70-AF8C-CF1D4B0931E0}">
-  <dimension ref="A1:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7616B-F775-4E70-AF8C-CF1D4B0931E0}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -8230,7 +8240,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -8241,9 +8251,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33" t="n">
+      <c r="H2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="I2" s="12">
         <v>0</v>
@@ -8260,23 +8270,23 @@
       <c r="M2" s="12">
         <v>0</v>
       </c>
-      <c r="N2" s="33" t="n">
+      <c r="N2" s="33">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="33" t="n">
+      <c r="P2" s="33">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="Q2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="R2" s="33" t="n">
+      <c r="R2" s="33">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>138</v>
@@ -8294,7 +8304,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -8305,9 +8315,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="I3" s="12">
         <v>0</v>
@@ -8324,16 +8334,16 @@
       <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="33" t="n">
+      <c r="N3" s="33">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="O3" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="33" t="n">
+      <c r="P3" s="33">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="Q3" s="33" t="s">
         <v>138</v>
@@ -8357,7 +8367,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -8368,9 +8378,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -8387,16 +8397,16 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="33" t="n">
+      <c r="N4" s="33">
         <f>'TC25-Customer Order Change'!D4</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="O4" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P4" s="33" t="n">
+      <c r="P4" s="33">
         <f>'TC25-Customer Order Change'!E4</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="33" t="s">
         <v>138</v>
@@ -8420,7 +8430,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -8431,9 +8441,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -8450,16 +8460,16 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="33" t="n">
+      <c r="N5" s="33">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="O5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="33" t="n">
+      <c r="P5" s="33">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="33" t="s">
         <v>138</v>
@@ -8483,7 +8493,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -8494,9 +8504,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -8513,9 +8523,9 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="33" t="n">
+      <c r="N6" s="33">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="O6" s="33" t="s">
         <v>138</v>
@@ -8545,7 +8555,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -8556,9 +8566,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -8581,9 +8591,9 @@
       <c r="O7" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="33" t="n">
+      <c r="P7" s="33">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="Q7" s="33" t="s">
         <v>138</v>
@@ -8597,23 +8607,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681AF69-CF1C-4F30-B068-83994D54CBFD}">
-  <dimension ref="A1:Y7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681AF69-CF1C-4F30-B068-83994D54CBFD}">
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -8678,16 +8688,16 @@
         <v>328</v>
       </c>
       <c r="U1" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="V1" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="W1" s="51" t="s">
         <v>480</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="X1" s="51" t="s">
         <v>481</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -8702,7 +8712,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -8713,9 +8723,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33" t="n">
+      <c r="H2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="I2" s="12">
         <v>10.5</v>
@@ -8778,7 +8788,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -8789,9 +8799,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="I3" s="12">
         <v>10.5</v>
@@ -8854,7 +8864,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -8865,9 +8875,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="12">
         <v>10.5</v>
@@ -8930,7 +8940,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -8941,9 +8951,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="12">
         <v>10.5</v>
@@ -9006,7 +9016,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -9017,9 +9027,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="12">
         <v>10.5</v>
@@ -9082,7 +9092,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB02-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -9093,9 +9103,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="12">
         <v>10.5</v>
@@ -9148,23 +9158,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
-  <dimension ref="A1:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -9236,7 +9246,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -9250,9 +9260,9 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="J2" s="12">
         <v>2</v>
@@ -9295,7 +9305,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -9309,9 +9319,9 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="J3" s="12">
         <v>2</v>
@@ -9354,7 +9364,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -9368,9 +9378,9 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="12">
         <v>2</v>
@@ -9413,7 +9423,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -9427,9 +9437,9 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="J5" s="12">
         <v>2</v>
@@ -9472,7 +9482,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -9486,9 +9496,9 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="J6" s="12">
         <v>2</v>
@@ -9531,7 +9541,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB02-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -9545,9 +9555,9 @@
       <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="J7" s="12">
         <v>2</v>
@@ -9582,13 +9592,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -9596,9 +9606,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -9615,28 +9625,28 @@
       </c>
       <c r="B2" s="22" t="str">
         <f>"RequestPart-"&amp;'TC4'!H2</f>
-        <v>RequestPart-AB-01</v>
+        <v>RequestPart-AB-02</v>
       </c>
       <c r="C2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281D8027-9DBB-4FB0-90BC-C2CA75E22329}">
-  <dimension ref="A1:Y7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281D8027-9DBB-4FB0-90BC-C2CA75E22329}">
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -9723,7 +9733,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs02-2311001</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>34</v>
@@ -9734,9 +9744,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33" t="n">
+      <c r="H2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="I2" s="12">
         <v>2</v>
@@ -9797,7 +9807,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs02-2311001</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>34</v>
@@ -9808,9 +9818,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="I3" s="12">
         <v>2</v>
@@ -9871,7 +9881,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs02-2311001</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>34</v>
@@ -9882,9 +9892,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="12">
         <v>2</v>
@@ -9945,7 +9955,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs02-2311001</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>34</v>
@@ -9956,9 +9966,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="12">
         <v>2</v>
@@ -10019,7 +10029,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs02-2311001</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>34</v>
@@ -10030,9 +10040,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="12">
         <v>2</v>
@@ -10093,7 +10103,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs02-2311001</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>34</v>
@@ -10104,9 +10114,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
@@ -10159,23 +10169,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="5" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -10198,42 +10208,42 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Dec 2023</v>
+        <v>10 Dec 2023</v>
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Jan 2024</v>
+        <v>10 Jan 2024</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Feb 2024</v>
+        <v>10 Feb 2024</v>
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Mar 2024</v>
+        <v>10 Mar 2024</v>
       </c>
       <c r="E2" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85C8B0-8ABC-42B6-BDDD-C373C0238928}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85C8B0-8ABC-42B6-BDDD-C373C0238928}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -10383,20 +10393,20 @@
       <c r="H7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37060D-3EB1-4D52-AF9A-FDEBDE974A12}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37060D-3EB1-4D52-AF9A-FDEBDE974A12}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -10407,27 +10417,27 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rs"&amp;AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rsABs01-2311001-01</v>
+        <v>rsABs02-2311001-01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F7D49-70C3-401C-97E6-E9D888543863}">
-  <dimension ref="A1:W7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F7D49-70C3-401C-97E6-E9D888543863}">
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="22" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="22" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -10517,13 +10527,13 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
-      </c>
-      <c r="J2" s="33" t="n">
+        <v>1100</v>
+      </c>
+      <c r="J2" s="33">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="12">
         <v>0</v>
@@ -10571,13 +10581,13 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
-      </c>
-      <c r="J3" s="33" t="n">
+        <v>900</v>
+      </c>
+      <c r="J3" s="33">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="K3" s="12">
         <v>0</v>
@@ -10621,13 +10631,13 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="33">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="K4" s="12">
         <v>0</v>
@@ -10673,13 +10683,13 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J5" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="33">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
@@ -10725,13 +10735,13 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="33">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="K6" s="12">
         <v>0</v>
@@ -10775,13 +10785,13 @@
       <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J7" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="33">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="K7" s="12">
         <v>0</v>
@@ -10810,23 +10820,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC42DFF-227A-43C8-9477-ADF9903AD82A}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC42DFF-227A-43C8-9477-ADF9903AD82A}">
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="24" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="23" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="24" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -10924,13 +10934,13 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
-      </c>
-      <c r="K2" s="33" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K2" s="33">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -10983,13 +10993,13 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
-      </c>
-      <c r="K3" s="33" t="n">
+        <v>900</v>
+      </c>
+      <c r="K3" s="33">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -11038,13 +11048,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33" t="n">
+      <c r="J4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="33">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -11095,13 +11105,13 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33" t="n">
+      <c r="J5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K5" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="33">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -11152,13 +11162,13 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="J6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="33">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -11207,13 +11217,13 @@
       <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="33" t="n">
+      <c r="J7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K7" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="33">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -11242,25 +11252,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6AD75-D8FC-4DC9-9657-3CCEA1DADDC8}">
-  <dimension ref="A1:AE7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6AD75-D8FC-4DC9-9657-3CCEA1DADDC8}">
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="7" max="30" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="31" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="30" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="31" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -11379,13 +11389,13 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="33">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100.0</v>
-      </c>
-      <c r="K2" s="33" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K2" s="33">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -11455,13 +11465,13 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="33">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900.0</v>
-      </c>
-      <c r="K3" s="33" t="n">
+        <v>900</v>
+      </c>
+      <c r="K3" s="33">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -11525,13 +11535,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33" t="n">
+      <c r="J4" s="33">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K4" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="33">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -11599,13 +11609,13 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33" t="n">
+      <c r="J5" s="33">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K5" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="33">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -11673,13 +11683,13 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="J6" s="33">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K6" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="33">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -11743,13 +11753,13 @@
       <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="33" t="n">
+      <c r="J7" s="33">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000.0</v>
-      </c>
-      <c r="K7" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="33">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -11793,29 +11803,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32F6EF-C79A-4E20-806A-C9305FB64608}">
-  <dimension ref="A1:X8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32F6EF-C79A-4E20-806A-C9305FB64608}">
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
-    <col min="4" max="23" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="8" width="20.77734375" collapsed="true"/>
-    <col min="25" max="16384" style="8" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="23" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="8.88671875" style="8" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>215</v>
       </c>
@@ -11959,27 +11969,27 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-02-001</v>
       </c>
       <c r="B3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>07 Nov 2023</v>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C3" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="D3" s="38">
         <v>1000</v>
       </c>
       <c r="E3" s="37" t="str">
-        <f ca="1" ref="E3:E8" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>10 Nov 2023</v>
+        <f t="shared" ref="E3:E8" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="28"/>
@@ -11990,7 +12000,7 @@
       <c r="M3" s="40"/>
       <c r="N3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-001</v>
+        <v>OP-231110-01-002</v>
       </c>
       <c r="O3" s="28" t="s">
         <v>222</v>
@@ -12006,7 +12016,7 @@
       </c>
       <c r="S3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231110-01-002</v>
       </c>
       <c r="T3" s="42"/>
       <c r="U3" s="41">
@@ -12021,27 +12031,27 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-02-001</v>
       </c>
       <c r="B4" s="37" t="str">
-        <f ca="1" ref="B4:B8" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>07 Nov 2023</v>
+        <f t="shared" ref="B4:B8" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C4" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="D4" s="38">
         <v>800</v>
       </c>
       <c r="E4" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F4" s="37" t="str">
-        <f ca="1" ref="F4:F8" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <f t="shared" ref="F4:F8" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>240</v>
@@ -12054,7 +12064,7 @@
       <c r="M4" s="40"/>
       <c r="N4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-001</v>
+        <v>OP-231110-01-002</v>
       </c>
       <c r="O4" s="28" t="s">
         <v>223</v>
@@ -12070,7 +12080,7 @@
       </c>
       <c r="S4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-001</v>
+        <v>IP-231110-02-002</v>
       </c>
       <c r="T4" s="42" t="s">
         <v>232</v>
@@ -12087,27 +12097,27 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-02-001</v>
       </c>
       <c r="B5" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C5" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="D5" s="38">
         <v>900</v>
       </c>
       <c r="E5" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F5" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>220</v>
@@ -12130,7 +12140,7 @@
       </c>
       <c r="N5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-001</v>
+        <v>OP-231110-02-002</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>223</v>
@@ -12152,27 +12162,27 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-02-001</v>
       </c>
       <c r="B6" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="D6" s="38">
         <v>1200</v>
       </c>
       <c r="E6" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F6" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>220</v>
@@ -12197,7 +12207,7 @@
       </c>
       <c r="N6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-001</v>
+        <v>OP-231110-02-002</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>223</v>
@@ -12219,27 +12229,27 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-02-001</v>
       </c>
       <c r="B7" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="D7" s="38">
         <v>1000</v>
       </c>
       <c r="E7" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F7" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>221</v>
@@ -12264,7 +12274,7 @@
       </c>
       <c r="N7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-001</v>
+        <v>OP-231110-03-002</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>224</v>
@@ -12280,7 +12290,7 @@
       </c>
       <c r="S7" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231110-01-002</v>
       </c>
       <c r="T7" s="42" t="s">
         <v>232</v>
@@ -12297,27 +12307,27 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>o-SG-BAFCO-2311-AB-02-001</v>
       </c>
       <c r="B8" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="D8" s="38">
         <v>1100</v>
       </c>
       <c r="E8" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F8" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>221</v>
@@ -12342,7 +12352,7 @@
       </c>
       <c r="N8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-001</v>
+        <v>OP-231110-03-002</v>
       </c>
       <c r="O8" s="28" t="s">
         <v>224</v>
@@ -12358,7 +12368,7 @@
       </c>
       <c r="S8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-001</v>
+        <v>IP-231110-02-002</v>
       </c>
       <c r="T8" s="42" t="s">
         <v>239</v>
@@ -12374,32 +12384,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCEF40-2C7B-4D0B-9DC6-89273BF3A1A0}">
-  <dimension ref="A1:AN9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCEF40-2C7B-4D0B-9DC6-89273BF3A1A0}">
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AH29" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="8" width="5.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
-    <col min="7" max="33" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="34" max="36" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
-    <col min="37" max="42" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
-    <col min="43" max="16384" style="8" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="7" max="33" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="34" max="36" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="37" max="42" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="8.88671875" style="8" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -12526,12 +12536,12 @@
         <v>81</v>
       </c>
       <c r="C2" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-002</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>o-SG-BAFCO-2311-AB-02-002</v>
       </c>
       <c r="D2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>07 Nov 2023</v>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="21" t="s">
@@ -12556,12 +12566,12 @@
         <v>34</v>
       </c>
       <c r="M2" s="37" t="str">
-        <f ca="1" ref="M2:M9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>10 Nov 2023</v>
+        <f t="shared" ref="M2:M9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>252</v>
@@ -12574,7 +12584,7 @@
       <c r="U2" s="44"/>
       <c r="V2" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-001</v>
+        <v>OP-231110-02-002</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>253</v>
@@ -12584,7 +12594,7 @@
       <c r="Z2" s="44"/>
       <c r="AA2" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231110-01-002</v>
       </c>
       <c r="AB2" s="45" t="s">
         <v>254</v>
@@ -12594,7 +12604,7 @@
       <c r="AE2" s="44"/>
       <c r="AF2" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs02-2311002</v>
       </c>
       <c r="AG2" s="37" t="s">
         <v>81</v>
@@ -12624,12 +12634,12 @@
         <v>81</v>
       </c>
       <c r="C3" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-002</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>o-SG-BAFCO-2311-AB-02-002</v>
       </c>
       <c r="D3" s="37" t="str">
-        <f ca="1" ref="D3:D9" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>07 Nov 2023</v>
+        <f t="shared" ref="D3:D9" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="21" t="s">
@@ -12654,12 +12664,12 @@
         <v>34</v>
       </c>
       <c r="M3" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N3" s="37" t="str">
-        <f ca="1" ref="N3:N9" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <f t="shared" ref="N3:N9" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>252</v>
@@ -12672,7 +12682,7 @@
       <c r="U3" s="44"/>
       <c r="V3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-001</v>
+        <v>OP-231110-02-002</v>
       </c>
       <c r="W3" s="19" t="s">
         <v>253</v>
@@ -12682,7 +12692,7 @@
       <c r="Z3" s="44"/>
       <c r="AA3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-001</v>
+        <v>IP-231110-02-002</v>
       </c>
       <c r="AB3" s="45" t="s">
         <v>255</v>
@@ -12692,7 +12702,7 @@
       <c r="AE3" s="44"/>
       <c r="AF3" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs02-2311002</v>
       </c>
       <c r="AG3" s="37" t="s">
         <v>81</v>
@@ -12722,12 +12732,12 @@
         <v>81</v>
       </c>
       <c r="C4" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-002</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>o-SG-BAFCO-2311-AB-02-002</v>
       </c>
       <c r="D4" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="21" t="s">
@@ -12752,12 +12762,12 @@
         <v>34</v>
       </c>
       <c r="M4" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N4" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O4" s="39" t="s">
         <v>252</v>
@@ -12770,7 +12780,7 @@
       <c r="U4" s="40"/>
       <c r="V4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-001</v>
+        <v>OP-231110-01-002</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>256</v>
@@ -12786,7 +12796,7 @@
       </c>
       <c r="AA4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-001</v>
+        <v>IP-231110-02-002</v>
       </c>
       <c r="AB4" s="42" t="s">
         <v>257</v>
@@ -12796,7 +12806,7 @@
       <c r="AE4" s="40"/>
       <c r="AF4" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs02-2311002</v>
       </c>
       <c r="AG4" s="37" t="s">
         <v>81</v>
@@ -12826,12 +12836,12 @@
         <v>81</v>
       </c>
       <c r="C5" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-002</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>o-SG-BAFCO-2311-AB-02-002</v>
       </c>
       <c r="D5" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="21" t="s">
@@ -12856,12 +12866,12 @@
         <v>34</v>
       </c>
       <c r="M5" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N5" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O5" s="21" t="s">
         <v>258</v>
@@ -12886,7 +12896,7 @@
       </c>
       <c r="V5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-001</v>
+        <v>OP-231110-01-002</v>
       </c>
       <c r="W5" s="19" t="s">
         <v>262</v>
@@ -12896,7 +12906,7 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231110-01-002</v>
       </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="44"/>
@@ -12904,7 +12914,7 @@
       <c r="AE5" s="44"/>
       <c r="AF5" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs02-2311002</v>
       </c>
       <c r="AG5" s="37" t="s">
         <v>81</v>
@@ -12934,16 +12944,16 @@
         <v>81</v>
       </c>
       <c r="C6" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-003</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <v>o-SG-BAFCO-2311-AB-02-003</v>
       </c>
       <c r="D6" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-002</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>29</v>
@@ -12967,12 +12977,12 @@
         <v>34</v>
       </c>
       <c r="M6" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N6" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O6" s="21" t="s">
         <v>263</v>
@@ -12989,7 +12999,7 @@
       <c r="U6" s="44"/>
       <c r="V6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-001</v>
+        <v>OP-231110-01-002</v>
       </c>
       <c r="W6" s="19" t="s">
         <v>262</v>
@@ -13004,7 +13014,7 @@
       <c r="AE6" s="44"/>
       <c r="AF6" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs02-2311002</v>
       </c>
       <c r="AG6" s="37" t="s">
         <v>81</v>
@@ -13034,16 +13044,16 @@
         <v>81</v>
       </c>
       <c r="C7" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-003</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <v>o-SG-BAFCO-2311-AB-02-003</v>
       </c>
       <c r="D7" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-002</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>152</v>
@@ -13067,12 +13077,12 @@
         <v>34</v>
       </c>
       <c r="M7" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N7" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>263</v>
@@ -13089,7 +13099,7 @@
       <c r="U7" s="44"/>
       <c r="V7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-001</v>
+        <v>OP-231110-02-002</v>
       </c>
       <c r="W7" s="19" t="s">
         <v>256</v>
@@ -13104,7 +13114,7 @@
       <c r="AE7" s="44"/>
       <c r="AF7" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs02-2311002</v>
       </c>
       <c r="AG7" s="37" t="s">
         <v>81</v>
@@ -13134,16 +13144,16 @@
         <v>81</v>
       </c>
       <c r="C8" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-003</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <v>o-SG-BAFCO-2311-AB-02-003</v>
       </c>
       <c r="D8" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-002</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>268</v>
@@ -13167,12 +13177,12 @@
         <v>34</v>
       </c>
       <c r="M8" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N8" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>265</v>
@@ -13197,7 +13207,7 @@
       </c>
       <c r="V8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-001</v>
+        <v>OP-231110-03-002</v>
       </c>
       <c r="W8" s="19" t="s">
         <v>256</v>
@@ -13213,7 +13223,7 @@
       </c>
       <c r="AA8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231110-01-002</v>
       </c>
       <c r="AB8" s="45" t="s">
         <v>257</v>
@@ -13229,7 +13239,7 @@
       </c>
       <c r="AF8" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs02-2311002</v>
       </c>
       <c r="AG8" s="37" t="s">
         <v>81</v>
@@ -13259,16 +13269,16 @@
         <v>81</v>
       </c>
       <c r="C9" s="36" t="str">
-        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-004"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-004</v>
+        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-004"</f>
+        <v>o-SG-BAFCO-2311-AB-02-004</v>
       </c>
       <c r="D9" s="37" t="str">
-        <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E9" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-03-001</v>
+        <v>B-2311-AB-03-002</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>268</v>
@@ -13292,12 +13302,12 @@
         <v>34</v>
       </c>
       <c r="M9" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N9" s="37" t="str">
-        <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
@@ -13308,7 +13318,7 @@
       <c r="U9" s="44"/>
       <c r="V9" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-001</v>
+        <v>OP-231110-03-002</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>256</v>
@@ -13324,7 +13334,7 @@
       </c>
       <c r="AA9" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231110-01-002</v>
       </c>
       <c r="AB9" s="45" t="s">
         <v>257</v>
@@ -13340,7 +13350,7 @@
       </c>
       <c r="AF9" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs02-2311002</v>
       </c>
       <c r="AG9" s="37" t="s">
         <v>81</v>
@@ -13364,22 +13374,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77311BC3-E043-40F5-9D6D-99B7C2A9BBC7}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77311BC3-E043-40F5-9D6D-99B7C2A9BBC7}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -13399,10 +13409,10 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!A3</f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <v>o-SG-BAFCO-2311-AB-02-001</v>
       </c>
       <c r="C2" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -13411,10 +13421,10 @@
       </c>
       <c r="B3" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C2</f>
-        <v>o-SG-BAFCO-2311-AB-01-002</v>
+        <v>o-SG-BAFCO-2311-AB-02-002</v>
       </c>
       <c r="C3" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -13423,10 +13433,10 @@
       </c>
       <c r="B4" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C6</f>
-        <v>o-SG-BAFCO-2311-AB-01-003</v>
+        <v>o-SG-BAFCO-2311-AB-02-003</v>
       </c>
       <c r="C4" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -13435,36 +13445,36 @@
       </c>
       <c r="B5" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C9</f>
-        <v>o-SG-BAFCO-2311-AB-01-004</v>
+        <v>o-SG-BAFCO-2311-AB-02-004</v>
       </c>
       <c r="C5" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4C2CD-E70A-41BD-8891-E7DD5B5CEC38}">
-  <dimension ref="A1:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4C2CD-E70A-41BD-8891-E7DD5B5CEC38}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="5.77734375" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" style="4" width="25.77734375" collapsed="true"/>
-    <col min="6" max="9" customWidth="true" style="4" width="15.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="25.77734375" collapsed="true"/>
-    <col min="11" max="17" customWidth="true" style="4" width="15.77734375" collapsed="true"/>
-    <col min="18" max="16384" style="4" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="25.77734375" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="15.77734375" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.77734375" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="17" width="15.77734375" style="4" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="8.88671875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13517,7 +13527,7 @@
         <v>276</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -13566,7 +13576,7 @@
       </c>
       <c r="Q2" s="19"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -13615,7 +13625,7 @@
       </c>
       <c r="Q3" s="19"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -13668,7 +13678,7 @@
       </c>
       <c r="Q4" s="19"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -13721,7 +13731,7 @@
       </c>
       <c r="Q5" s="19"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -13770,7 +13780,7 @@
       </c>
       <c r="Q6" s="19"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -13821,32 +13831,32 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="I2:I7" type="list" xr:uid="{0E91B3D6-9299-430D-A4F2-2FD0E946DA1C}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I7" xr:uid="{0E91B3D6-9299-430D-A4F2-2FD0E946DA1C}">
       <formula1>PAIRED_FLAG</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="K2:K6" type="list" xr:uid="{C5FFB457-24FD-46EF-A22A-756CEE443DDF}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{C5FFB457-24FD-46EF-A22A-756CEE443DDF}">
       <formula1>PAIRED_ORDER_FLAG</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H7" type="list" xr:uid="{C18C6561-5DC9-4062-8CB8-5E10E79AE2DB}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{C18C6561-5DC9-4062-8CB8-5E10E79AE2DB}">
       <formula1>UOM_CODE</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D61E3-2B05-4C91-8724-D21919B54379}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D61E3-2B05-4C91-8724-D21919B54379}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -13869,7 +13879,7 @@
         <v>o-SG-BAFCO-231108009</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>464</v>
@@ -13884,7 +13894,7 @@
         <v>o-SG-BAFCO-231108010</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>465</v>
@@ -13899,7 +13909,7 @@
         <v>o-SG-BAFCO-231108011</v>
       </c>
       <c r="C4" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13911,25 +13921,25 @@
         <v>o-SG-BAFCO-231108012</v>
       </c>
       <c r="C5" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>466</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D885ABF-3A14-4153-8AE3-9C0D9DAAE757}">
-  <dimension ref="A1:AA5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D885ABF-3A14-4153-8AE3-9C0D9DAAE757}">
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -13937,12 +13947,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="26" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>301</v>
       </c>
@@ -14022,10 +14032,10 @@
         <v>321</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48" t="s">
@@ -14101,10 +14111,10 @@
         <v>324</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="B3" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G4</f>
@@ -14183,10 +14193,10 @@
         <v>324</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G5</f>
@@ -14268,7 +14278,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="B5" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G7</f>
@@ -14348,13 +14358,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F21EE-23C3-4FCA-9C9B-9CEB31F6088E}">
-  <dimension ref="A1:AA6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F21EE-23C3-4FCA-9C9B-9CEB31F6088E}">
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -14362,12 +14372,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="26" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>301</v>
       </c>
@@ -14447,10 +14457,10 @@
         <v>321</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E6</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-002</v>
       </c>
       <c r="B2" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O8</f>
@@ -14529,7 +14539,7 @@
         <v>324</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O5</f>
@@ -14608,10 +14618,10 @@
         <v>324</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-002</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O6</f>
@@ -14693,7 +14703,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E9</f>
-        <v>B-2311-AB-03-001</v>
+        <v>B-2311-AB-03-002</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="48" t="s">
@@ -14849,13 +14859,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A112FA-01A2-4B2F-8178-C7A1C83AE86A}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A112FA-01A2-4B2F-8178-C7A1C83AE86A}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
@@ -14863,9 +14873,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -14879,14 +14889,14 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C8</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="B3" s="24" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G8</f>
@@ -14896,7 +14906,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C4</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="B4" s="49" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G4</f>
@@ -14906,7 +14916,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C6</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-002</v>
       </c>
       <c r="B5" s="49" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G6</f>
@@ -14930,7 +14940,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E8</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-002</v>
       </c>
       <c r="B8" s="24" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O8</f>
@@ -14940,7 +14950,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-002</v>
       </c>
       <c r="B9" s="24" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O7</f>
@@ -14950,26 +14960,26 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E9</f>
-        <v>B-2311-AB-03-001</v>
+        <v>B-2311-AB-03-002</v>
       </c>
       <c r="B10" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA3B652-996F-421B-A9AA-FD39761C01AA}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA3B652-996F-421B-A9AA-FD39761C01AA}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -14992,7 +15002,7 @@
         <v>o-SG-BAFCO-231108009</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -15004,7 +15014,7 @@
         <v>o-SG-BAFCO-231108010</v>
       </c>
       <c r="C3" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -15016,7 +15026,7 @@
         <v>o-SG-BAFCO-231108011</v>
       </c>
       <c r="C4" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -15028,26 +15038,26 @@
         <v>o-SG-BAFCO-231108012</v>
       </c>
       <c r="C5" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F256599-8CB1-4B13-A4F1-65D4DF22C5CF}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F256599-8CB1-4B13-A4F1-65D4DF22C5CF}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="3" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="7" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15075,12 +15085,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Nov 2023</v>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -15091,12 +15101,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C3" s="37" t="str">
-        <f ca="1" ref="C3:C15" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Nov 2023</v>
+        <f t="shared" ref="C3:C15" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -15107,12 +15117,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C4" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -15123,12 +15133,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C5" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -15139,12 +15149,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C6" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -15155,12 +15165,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C7" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -15171,12 +15181,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C8" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -15187,12 +15197,12 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C9" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -15203,12 +15213,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C10" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -15219,12 +15229,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C11" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -15235,12 +15245,12 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C12" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -15251,12 +15261,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <v>i-VN-AKIRA-231110-AB-02-001</v>
       </c>
       <c r="C13" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D13" s="50">
         <v>1</v>
@@ -15273,12 +15283,12 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-002</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>i-VN-AKIRA-231110-AB-02-002</v>
       </c>
       <c r="C14" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D14" s="50">
         <v>1</v>
@@ -15295,34 +15305,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="str">
-        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-002</v>
+        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <v>i-VN-AKIRA-231110-AB-02-002</v>
       </c>
       <c r="C15" s="37" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6053F06-3444-450C-B9FC-28670DC14D6B}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6053F06-3444-450C-B9FC-28670DC14D6B}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="4" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -15372,23 +15382,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE02D8D-1685-4FEA-8687-C031EDEBEDAF}">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE02D8D-1685-4FEA-8687-C031EDEBEDAF}">
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="26.77734375" collapsed="true"/>
-    <col min="6" max="18" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
-    <col min="19" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="18" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -15457,7 +15467,7 @@
       </c>
       <c r="E2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>411</v>
@@ -15507,7 +15517,7 @@
       </c>
       <c r="E3" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>411</v>
@@ -15557,7 +15567,7 @@
       </c>
       <c r="E4" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>412</v>
@@ -15607,7 +15617,7 @@
       </c>
       <c r="E5" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>412</v>
@@ -15656,7 +15666,7 @@
       </c>
       <c r="E6" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>413</v>
@@ -15705,7 +15715,7 @@
       </c>
       <c r="E7" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>413</v>
@@ -15740,29 +15750,29 @@
       <c r="P7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66379E1-079F-435E-B8ED-F61B35FCE9C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66379E1-079F-435E-B8ED-F61B35FCE9C4}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="4" max="9" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="11" max="20" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="20" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -15838,11 +15848,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>"SGTTAP-VNTTVN-"&amp;'TC4'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-02-002</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>20</v>
@@ -15858,11 +15868,11 @@
       </c>
       <c r="H2" s="20" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>AB-01</v>
+        <v>AB-02</v>
       </c>
       <c r="I2" s="20" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-AB-01</v>
+        <v>CD-AB-02</v>
       </c>
       <c r="J2" s="20" t="str">
         <f>'TC3.1'!B2&amp;"("&amp;'TC3.1'!C2&amp;")"</f>
@@ -15879,7 +15889,7 @@
       </c>
       <c r="N2" s="20" t="str">
         <f>"RD-"&amp;H2</f>
-        <v>RD-AB-01</v>
+        <v>RD-AB-02</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>23</v>
@@ -15900,27 +15910,18 @@
         <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="V2" s="20" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb25f0482db5a79c3d6b5c0926ca00a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67b0f0bb964429d84d53f322277e62a8" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -16091,15 +16092,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE8E0C0-5F6A-4B9A-ADE6-103C7424D86B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99662FE2-EAA5-4D8B-B946-6554FA1D8F90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16116,4 +16118,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE8E0C0-5F6A-4B9A-ADE6-103C7424D86B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
@@ -1,112 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasin\git\tb-ttap-brivge-v2\Excel Files\Scenario 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784C1B7C-D655-49D2-B07C-BF8E63AA5DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{784C1B7C-D655-49D2-B07C-BF8E63AA5DFE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="621" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicator" sheetId="82" r:id="rId1"/>
-    <sheet name="AutoIncrement" sheetId="5" r:id="rId2"/>
-    <sheet name="TC1" sheetId="71" r:id="rId3"/>
-    <sheet name="TC2" sheetId="72" r:id="rId4"/>
-    <sheet name="TC3" sheetId="1" r:id="rId5"/>
-    <sheet name="TC3-Req to Parts Master" sheetId="73" r:id="rId6"/>
-    <sheet name="TC3.1" sheetId="74" r:id="rId7"/>
-    <sheet name="TC4-Contract Parts Info" sheetId="4" r:id="rId8"/>
-    <sheet name="TC4" sheetId="3" r:id="rId9"/>
-    <sheet name="TC5" sheetId="6" r:id="rId10"/>
-    <sheet name="TC6" sheetId="7" r:id="rId11"/>
-    <sheet name="TC6.1" sheetId="75" r:id="rId12"/>
-    <sheet name="TC6.2" sheetId="9" r:id="rId13"/>
-    <sheet name="TC6.2_ETAnWeek" sheetId="10" r:id="rId14"/>
-    <sheet name="TC7-Contract Parts Info" sheetId="76" r:id="rId15"/>
-    <sheet name="TC7" sheetId="11" r:id="rId16"/>
-    <sheet name="TC8" sheetId="53" r:id="rId17"/>
-    <sheet name="TC9" sheetId="12" r:id="rId18"/>
-    <sheet name="TC10" sheetId="13" r:id="rId19"/>
-    <sheet name="TC11-Order Regular" sheetId="15" r:id="rId20"/>
-    <sheet name="TC11-Inbound Dates Regular" sheetId="16" r:id="rId21"/>
-    <sheet name="TC11-Order Spot" sheetId="17" r:id="rId22"/>
-    <sheet name="TC11-Inbound Dates Spot" sheetId="18" r:id="rId23"/>
-    <sheet name="TC11-Customer CO" sheetId="25" r:id="rId24"/>
-    <sheet name="TC11- Period Generator" sheetId="77" r:id="rId25"/>
-    <sheet name="TC12" sheetId="54" r:id="rId26"/>
-    <sheet name="TC14-BU SO" sheetId="19" r:id="rId27"/>
-    <sheet name="TC15-BU PO" sheetId="20" r:id="rId28"/>
-    <sheet name="TC16-Supplier SO" sheetId="21" r:id="rId29"/>
-    <sheet name="TC17.1-Sup SO Delivery Plan" sheetId="78" r:id="rId30"/>
-    <sheet name="TC17.1-Sup SODeliveryPlan(Date)" sheetId="79" r:id="rId31"/>
-    <sheet name="TC17.2-Sup SO Delivery Plan" sheetId="80" r:id="rId32"/>
-    <sheet name="TC17.2-Sup SODeliveryPlan(Date)" sheetId="81" r:id="rId33"/>
-    <sheet name="TC18-Forecast Change" sheetId="26" r:id="rId34"/>
-    <sheet name="TC20-BU Change Request" sheetId="28" r:id="rId35"/>
-    <sheet name="TC19-Customer Change Request" sheetId="27" r:id="rId36"/>
-    <sheet name="TC21-Supplier Approve Change " sheetId="29" r:id="rId37"/>
-    <sheet name="TC22-Customer Forecast CO " sheetId="30" r:id="rId38"/>
-    <sheet name="TC23-BU Forecast SO" sheetId="31" r:id="rId39"/>
-    <sheet name="TC24-BU Forecast PO" sheetId="32" r:id="rId40"/>
-    <sheet name="TC25-Customer Order Change" sheetId="33" r:id="rId41"/>
-    <sheet name="TC25-Change Inbound Date" sheetId="34" r:id="rId42"/>
-    <sheet name="TC25-Change Request No" sheetId="40" r:id="rId43"/>
-    <sheet name="TC26-Customer AutoGen Change" sheetId="35" r:id="rId44"/>
-    <sheet name="TC27-BU AutoGen Change" sheetId="38" r:id="rId45"/>
-    <sheet name="TC28-Supplier Approve Change" sheetId="39" r:id="rId46"/>
-    <sheet name="TC29-Customer Check CO" sheetId="43" r:id="rId47"/>
-    <sheet name="TC30-BU Check SO" sheetId="44" r:id="rId48"/>
-    <sheet name="TC31-BU Check PO" sheetId="45" r:id="rId49"/>
-    <sheet name="TC32-Supplier Check SO" sheetId="46" r:id="rId50"/>
-    <sheet name="TC33-New Outbound Date" sheetId="55" r:id="rId51"/>
-    <sheet name="TC33-New Firm Qty" sheetId="70" r:id="rId52"/>
-    <sheet name="TC33-Change Request No" sheetId="56" r:id="rId53"/>
-    <sheet name="TC34" sheetId="67" r:id="rId54"/>
-    <sheet name="TC35" sheetId="68" r:id="rId55"/>
-    <sheet name="TC36" sheetId="57" r:id="rId56"/>
-    <sheet name="TC44-Supplier Outbound -Regular" sheetId="47" r:id="rId57"/>
-    <sheet name="TC44-Supplier Outbound -Spot" sheetId="49" r:id="rId58"/>
-    <sheet name="TC44-Outbound No" sheetId="50" r:id="rId59"/>
-    <sheet name="TC45-Supplier SellerGI Invoice" sheetId="52" r:id="rId60"/>
-    <sheet name="TC50.1-Customer Cargo -Regular" sheetId="59" r:id="rId61"/>
-    <sheet name="TC50.2-Customer Cargo -Spot" sheetId="60" r:id="rId62"/>
-    <sheet name="TC53-Shipping Detail" sheetId="62" r:id="rId63"/>
-    <sheet name="TC61-BU SellerGI Invoice" sheetId="64" r:id="rId64"/>
-    <sheet name="TC68-DC Inbound" sheetId="65" r:id="rId65"/>
+    <sheet name="Indicator" r:id="rId1" sheetId="82"/>
+    <sheet name="AutoIncrement" r:id="rId2" sheetId="5"/>
+    <sheet name="TC1" r:id="rId3" sheetId="71"/>
+    <sheet name="TC2" r:id="rId4" sheetId="72"/>
+    <sheet name="TC3" r:id="rId5" sheetId="1"/>
+    <sheet name="TC3-Req to Parts Master" r:id="rId6" sheetId="73"/>
+    <sheet name="TC3.1" r:id="rId7" sheetId="74"/>
+    <sheet name="TC4-Contract Parts Info" r:id="rId8" sheetId="4"/>
+    <sheet name="TC4" r:id="rId9" sheetId="3"/>
+    <sheet name="TC5" r:id="rId10" sheetId="6"/>
+    <sheet name="TC6" r:id="rId11" sheetId="7"/>
+    <sheet name="TC6.1" r:id="rId12" sheetId="75"/>
+    <sheet name="TC6.2" r:id="rId13" sheetId="9"/>
+    <sheet name="TC6.2_ETAnWeek" r:id="rId14" sheetId="10"/>
+    <sheet name="TC7-Contract Parts Info" r:id="rId15" sheetId="76"/>
+    <sheet name="TC7" r:id="rId16" sheetId="11"/>
+    <sheet name="TC8" r:id="rId17" sheetId="53"/>
+    <sheet name="TC9" r:id="rId18" sheetId="12"/>
+    <sheet name="TC10" r:id="rId19" sheetId="13"/>
+    <sheet name="TC11-Order Regular" r:id="rId20" sheetId="15"/>
+    <sheet name="TC11-Inbound Dates Regular" r:id="rId21" sheetId="16"/>
+    <sheet name="TC11-Order Spot" r:id="rId22" sheetId="17"/>
+    <sheet name="TC11-Inbound Dates Spot" r:id="rId23" sheetId="18"/>
+    <sheet name="TC11-Customer CO" r:id="rId24" sheetId="25"/>
+    <sheet name="TC11- Period Generator" r:id="rId25" sheetId="77"/>
+    <sheet name="TC12" r:id="rId26" sheetId="54"/>
+    <sheet name="TC14-BU SO" r:id="rId27" sheetId="19"/>
+    <sheet name="TC15-BU PO" r:id="rId28" sheetId="20"/>
+    <sheet name="TC16-Supplier SO" r:id="rId29" sheetId="21"/>
+    <sheet name="TC17.1-Sup SO Delivery Plan" r:id="rId30" sheetId="78"/>
+    <sheet name="TC17.1-Sup SODeliveryPlan(Date)" r:id="rId31" sheetId="79"/>
+    <sheet name="TC17.2-Sup SO Delivery Plan" r:id="rId32" sheetId="80"/>
+    <sheet name="TC17.2-Sup SODeliveryPlan(Date)" r:id="rId33" sheetId="81"/>
+    <sheet name="TC18-Forecast Change" r:id="rId34" sheetId="26"/>
+    <sheet name="TC20-BU Change Request" r:id="rId35" sheetId="28"/>
+    <sheet name="TC19-Customer Change Request" r:id="rId36" sheetId="27"/>
+    <sheet name="TC21-Supplier Approve Change " r:id="rId37" sheetId="29"/>
+    <sheet name="TC22-Customer Forecast CO " r:id="rId38" sheetId="30"/>
+    <sheet name="TC23-BU Forecast SO" r:id="rId39" sheetId="31"/>
+    <sheet name="TC24-BU Forecast PO" r:id="rId40" sheetId="32"/>
+    <sheet name="TC25-Customer Order Change" r:id="rId41" sheetId="33"/>
+    <sheet name="TC25-Change Inbound Date" r:id="rId42" sheetId="34"/>
+    <sheet name="TC25-Change Request No" r:id="rId43" sheetId="40"/>
+    <sheet name="TC26-Customer AutoGen Change" r:id="rId44" sheetId="35"/>
+    <sheet name="TC27-BU AutoGen Change" r:id="rId45" sheetId="38"/>
+    <sheet name="TC28-Supplier Approve Change" r:id="rId46" sheetId="39"/>
+    <sheet name="TC29-Customer Check CO" r:id="rId47" sheetId="43"/>
+    <sheet name="TC30-BU Check SO" r:id="rId48" sheetId="44"/>
+    <sheet name="TC31-BU Check PO" r:id="rId49" sheetId="45"/>
+    <sheet name="TC32-Supplier Check SO" r:id="rId50" sheetId="46"/>
+    <sheet name="TC33-New Outbound Date" r:id="rId51" sheetId="55"/>
+    <sheet name="TC33-New Firm Qty" r:id="rId52" sheetId="70"/>
+    <sheet name="TC33-Change Request No" r:id="rId53" sheetId="56"/>
+    <sheet name="TC34" r:id="rId54" sheetId="67"/>
+    <sheet name="TC35" r:id="rId55" sheetId="68"/>
+    <sheet name="TC36" r:id="rId56" sheetId="57"/>
+    <sheet name="TC44-Supplier Outbound -Regular" r:id="rId57" sheetId="47"/>
+    <sheet name="TC44-Supplier Outbound -Spot" r:id="rId58" sheetId="49"/>
+    <sheet name="TC44-Outbound No" r:id="rId59" sheetId="50"/>
+    <sheet name="TC45-Supplier SellerGI Invoice" r:id="rId60" sheetId="52"/>
+    <sheet name="TC50.1-Customer Cargo -Regular" r:id="rId61" sheetId="59"/>
+    <sheet name="TC50.2-Customer Cargo -Spot" r:id="rId62" sheetId="60"/>
+    <sheet name="TC53-Shipping Detail" r:id="rId63" sheetId="62"/>
+    <sheet name="TC61-BU SellerGI Invoice" r:id="rId64" sheetId="64"/>
+    <sheet name="TC68-DC Inbound" r:id="rId65" sheetId="65"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId66"/>
   </externalReferences>
   <definedNames>
-    <definedName name="activeFlagListArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="activeFlagListArr">#REF!</definedName>
     <definedName name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr">#REF!</definedName>
     <definedName name="cargoStatus0">#REF!</definedName>
     <definedName name="cargoStatus1">#REF!</definedName>
     <definedName name="cargoStatus2">#REF!</definedName>
     <definedName name="CURRENCY_CODE">#REF!</definedName>
-    <definedName name="findAllUomArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="findAllUomArr">#REF!</definedName>
     <definedName name="findAllUomArr">[1]findAllUomArr!$A$1:$A$41</definedName>
     <definedName name="PAIRED_FLAG">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG">#REF!</definedName>
     <definedName name="pairedPartsFlagStrArr">#REF!</definedName>
-    <definedName name="partsTypeArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="partsTypeArr">#REF!</definedName>
     <definedName name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="REPACKING_TYPE">#REF!</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="rolledPartsFlagArr">#REF!</definedName>
     <definedName name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="rolledPartsUomArr">#REF!</definedName>
     <definedName name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$41</definedName>
     <definedName name="UOM_CODE">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="504">
   <si>
     <t>No</t>
   </si>
@@ -1654,6 +1654,15 @@
   </si>
   <si>
     <t>03</t>
+  </si>
+  <si>
+    <t>R-VN-TTVN-2311009</t>
+  </si>
+  <si>
+    <t>CR-VN-TTVN-2311008</t>
+  </si>
+  <si>
+    <t>R-SG-TTAP-2311012</t>
   </si>
 </sst>
 </file>
@@ -2000,241 +2009,241 @@
     </border>
   </borders>
   <cellStyleXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="171" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="4" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="3"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="170" xfId="5">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="169" xfId="4">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="168" xfId="4">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="170" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="168" xfId="4">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="170" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="168" xfId="4">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 13" xfId="6" xr:uid="{DAC2F1B6-5F0C-4911-9B5C-B5CAE8654FF7}"/>
     <cellStyle name="Normal 2" xfId="8" xr:uid="{05CD56BC-B259-455F-8B6E-D7A790BD14E2}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{0077DFB7-1F7C-4A43-8985-01F7EAF42D54}"/>
@@ -2246,7 +2255,7 @@
     <cellStyle name="常规 2 2" xfId="10" xr:uid="{A5C60366-A437-4C5C-871D-F407967867C8}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2744,10 +2753,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2782,7 +2791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2817,7 +2826,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2911,21 +2920,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2942,7 +2951,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2994,18 +3003,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB094F-61F9-4F6B-BDA2-7BAD65AE22C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB094F-61F9-4F6B-BDA2-7BAD65AE22C0}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
@@ -3013,13 +3022,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="3.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="2:4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row ht="15" r="2" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="54" t="s">
         <v>468</v>
       </c>
@@ -3057,7 +3066,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="6" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="85"/>
       <c r="C6" s="64" t="s">
         <v>476</v>
@@ -3067,13 +3076,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77CFF02-01BA-40A3-85B4-663177661A71}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77CFF02-01BA-40A3-85B4-663177661A71}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
@@ -3081,9 +3090,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3104,13 +3113,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594B606-C3E2-4590-8776-D283BD7DAE77}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594B606-C3E2-4590-8776-D283BD7DAE77}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -3118,14 +3127,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="7" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>46</v>
       </c>
@@ -3290,13 +3299,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C54E39-7FDB-4E7D-8E4A-1FECA68F69D2}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C54E39-7FDB-4E7D-8E4A-1FECA68F69D2}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -3304,10 +3313,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3357,26 +3366,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB951A2-E1E3-41BE-9E98-AE84703BC5C7}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB951A2-E1E3-41BE-9E98-AE84703BC5C7}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row ht="14.4" r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>52</v>
       </c>
@@ -3524,13 +3533,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12A9C-8FE9-4F99-ACBE-9965D2480768}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12A9C-8FE9-4F99-ACBE-9965D2480768}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -3538,9 +3547,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="15" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="2" max="15" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -3640,13 +3649,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1CC9B-6D5F-4684-8DC1-9ECC6B866CFC}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1CC9B-6D5F-4684-8DC1-9ECC6B866CFC}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -3654,10 +3663,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="11" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="11" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="12" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3868,14 +3877,14 @@
       <c r="I8" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B734894B-25AB-43FF-8158-1149F870C11B}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B734894B-25AB-43FF-8158-1149F870C11B}">
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -3883,14 +3892,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="20" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="9" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="15" max="20" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="21" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -3960,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="C2" s="12" t="str">
         <f>"SGBAFCO-SGTTAP-"&amp;'TC7'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
@@ -4021,17 +4030,17 @@
         <v>RD-AB-03</v>
       </c>
       <c r="T2" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723AEF1-596F-41E1-B760-C0119527A8CE}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723AEF1-596F-41E1-B760-C0119527A8CE}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
@@ -4039,11 +4048,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4226,14 +4235,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F605A60-7548-455E-B1BD-E501B50E1D8E}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F605A60-7548-455E-B1BD-E501B50E1D8E}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4241,9 +4250,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4277,13 +4286,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F67513-3B0C-412F-A466-F3B7B2A44CBB}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F67513-3B0C-412F-A466-F3B7B2A44CBB}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4291,8 +4300,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4326,16 +4335,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB0F19-6308-470D-96AC-F48FFA3E7D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB0F19-6308-470D-96AC-F48FFA3E7D98}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -4343,9 +4352,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="39.0" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4395,14 +4404,14 @@
       <c r="E4" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DEE1FD-F115-4FC2-A8A4-08A8E868068A}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DEE1FD-F115-4FC2-A8A4-08A8E868068A}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -4410,9 +4419,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -4535,14 +4544,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0643A5-B7E2-4DA9-B069-8F351003DB03}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0643A5-B7E2-4DA9-B069-8F351003DB03}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
@@ -4550,9 +4559,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" collapsed="1"/>
-    <col min="2" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="8.88671875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4572,21 +4581,21 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Jan 2024</v>
+        <v>10 Jan 2024</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Feb 2024</v>
+        <v>10 Feb 2024</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BF405A-1265-4529-9930-40B4726F6D66}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BF405A-1265-4529-9930-40B4726F6D66}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -4594,9 +4603,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4677,14 +4686,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4692,7 +4701,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -4709,17 +4718,17 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>19 Jan 2024</v>
+        <v>20 Jan 2024</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A8B1D-3D68-4DFF-812B-9F06D6FA029B}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A8B1D-3D68-4DFF-812B-9F06D6FA029B}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
@@ -4727,9 +4736,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4757,84 +4766,84 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30E7E9-63FD-421B-ACB4-C15182195C24}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="str">
-        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
-        <v>Nov 6, 2023 ~ Nov 12, 2023</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8FC041-2817-491D-9A9F-8F7D35CE41E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30E7E9-63FD-421B-ACB4-C15182195C24}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="30.77734375" collapsed="true"/>
+    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="str">
+        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
+        <v>Nov 6, 2023 ~ Nov 12, 2023</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FCF16-D645-4ABB-87A9-49E7147946A3}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8FC041-2817-491D-9A9F-8F7D35CE41E0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="30.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f>'TC4'!C2</f>
+        <v>SGTTAP-VNTTVN-AB-03-003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FCF16-D645-4ABB-87A9-49E7147946A3}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4862,21 +4871,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB5BAB7-019C-433A-A788-027102F936EA}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB5BAB7-019C-433A-A788-027102F936EA}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4904,21 +4913,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65D81D-C87E-4360-A071-AB53568FC756}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65D81D-C87E-4360-A071-AB53568FC756}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -4946,25 +4955,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BCBB-72CE-4CBB-B1D3-1C11D7C29537}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BCBB-72CE-4CBB-B1D3-1C11D7C29537}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -5107,13 +5116,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410F41C8-F416-4FB2-A3C3-2BAD30EA4977}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410F41C8-F416-4FB2-A3C3-2BAD30EA4977}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
@@ -5121,8 +5130,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5216,13 +5225,13 @@
       <c r="D7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC0F5A-5783-4133-896F-5E82CA2762D3}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC0F5A-5783-4133-896F-5E82CA2762D3}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -5230,8 +5239,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -5305,13 +5314,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC210D-873E-4EF1-A7F4-1304E8A4787B}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC210D-873E-4EF1-A7F4-1304E8A4787B}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -5319,8 +5328,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.77734375" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="10" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="10" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="10" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -5393,13 +5402,13 @@
       <c r="C7" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC786D-476A-42DB-99D0-5D0B57E43076}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC786D-476A-42DB-99D0-5D0B57E43076}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -5407,8 +5416,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -5460,13 +5469,13 @@
       <c r="B7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AB56FA-011D-427B-894C-D9B962F8DF72}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AB56FA-011D-427B-894C-D9B962F8DF72}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
@@ -5474,11 +5483,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5573,14 +5582,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC82074-409B-4058-BBB4-4A7D9BAEB68A}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC82074-409B-4058-BBB4-4A7D9BAEB68A}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:K1"/>
@@ -5588,10 +5597,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="13" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5695,13 +5704,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942E21B-71C7-4EA8-A0BD-072074C2B2C3}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942E21B-71C7-4EA8-A0BD-072074C2B2C3}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
@@ -5709,11 +5718,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="7" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="13" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5788,9 +5797,9 @@
       <c r="K2" s="31">
         <v>1000</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="30" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5827,20 +5836,20 @@
       <c r="K3" s="31">
         <v>1000</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="30" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79406B4-DBD7-428C-B17D-CD86318E0FD8}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79406B4-DBD7-428C-B17D-CD86318E0FD8}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
@@ -5848,9 +5857,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="11" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="11" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="12" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -5915,9 +5924,9 @@
       <c r="J2" s="31">
         <v>1000</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="30" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5947,19 +5956,19 @@
       <c r="J3" s="31">
         <v>1000</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="30" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770ADA-1D66-4294-B397-0B2BF2F89F68}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770ADA-1D66-4294-B397-0B2BF2F89F68}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -5967,9 +5976,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6023,9 +6032,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="32" t="n">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6053,9 +6062,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="32" t="n">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6083,9 +6092,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="32" t="n">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6113,9 +6122,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="32" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6143,9 +6152,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="32" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6173,21 +6182,21 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="32" t="n">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF76645B-AA5C-4D86-92F7-10E7C2805ED2}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF76645B-AA5C-4D86-92F7-10E7C2805ED2}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
@@ -6195,9 +6204,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="11" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6251,9 +6260,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="32" t="n">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6281,9 +6290,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="32" t="n">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6311,9 +6320,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="32" t="n">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6341,9 +6350,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="32" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6371,9 +6380,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="32" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6401,33 +6410,33 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="32" t="n">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBC8B8-8C7D-4890-B23F-D42A4760DD88}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBC8B8-8C7D-4890-B23F-D42A4760DD88}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="11" max="16" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="17" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -6618,13 +6627,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F444C-5B70-4EF5-BD9F-454F98A7A869}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F444C-5B70-4EF5-BD9F-454F98A7A869}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
@@ -6632,9 +6641,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="11" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6686,9 +6695,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="32" t="n">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6714,9 +6723,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="32" t="n">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6742,9 +6751,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="32" t="n">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6770,9 +6779,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="32" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6798,9 +6807,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="32" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6826,32 +6835,32 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="32" t="n">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513AACE-A996-4FC1-BA95-6FA48F0C2957}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513AACE-A996-4FC1-BA95-6FA48F0C2957}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6987,14 +6996,14 @@
       <c r="F7" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679C6DA-4A25-4D87-9555-75757A39B539}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679C6DA-4A25-4D87-9555-75757A39B539}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -7002,8 +7011,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7020,32 +7029,32 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Jan 2024</v>
+        <v>10 Jan 2024</v>
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Feb 2024</v>
+        <v>10 Feb 2024</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Mar 2024</v>
+        <v>10 Mar 2024</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFE097-22D6-4B00-9E90-9129E84E5DAC}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFE097-22D6-4B00-9E90-9129E84E5DAC}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="23.6640625" collapsed="true"/>
+    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -7060,25 +7069,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AD534-E497-4569-89C5-81CBABA793F3}">
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AD534-E497-4569-89C5-81CBABA793F3}">
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="7" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -7166,38 +7175,38 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="33">
+      <c r="O2" s="33" t="n">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="P2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P2" s="33" t="n">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="Q2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="R2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="S2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="S2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7226,34 +7235,34 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000</v>
-      </c>
-      <c r="K3" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="33">
+      <c r="O3" s="33" t="n">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="P3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P3" s="33" t="n">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500</v>
-      </c>
-      <c r="Q3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="R3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="S3" s="33"/>
     </row>
@@ -7285,13 +7294,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="33" t="n">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
@@ -7299,17 +7308,17 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="33"/>
-      <c r="P4" s="33">
+      <c r="P4" s="33" t="n">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000</v>
-      </c>
-      <c r="Q4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="Q4" s="33" t="n">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
-      </c>
-      <c r="R4" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R4" s="33" t="n">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="S4" s="12"/>
     </row>
@@ -7341,30 +7350,30 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="33" t="n">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="33">
+      <c r="O5" s="33" t="n">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500</v>
-      </c>
-      <c r="P5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P5" s="33" t="n">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500</v>
-      </c>
-      <c r="Q5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q5" s="33" t="n">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
@@ -7397,50 +7406,50 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="33" t="n">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="33">
+      <c r="O6" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="33">
+      <c r="R6" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="S6" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F6C0E8-E3D6-4001-B659-6B8372626CDE}">
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F6C0E8-E3D6-4001-B659-6B8372626CDE}">
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="O1" sqref="O1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -7523,38 +7532,38 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="33">
+      <c r="O2" s="33" t="n">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="P2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P2" s="33" t="n">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="Q2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="R2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="S2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="S2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7578,34 +7587,34 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000</v>
-      </c>
-      <c r="K3" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="33">
+      <c r="O3" s="33" t="n">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="P3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P3" s="33" t="n">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500</v>
-      </c>
-      <c r="Q3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="R3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="S3" s="33"/>
     </row>
@@ -7630,13 +7639,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="33" t="n">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
@@ -7644,17 +7653,17 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="33"/>
-      <c r="P4" s="33">
+      <c r="P4" s="33" t="n">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000</v>
-      </c>
-      <c r="Q4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="Q4" s="33" t="n">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
-      </c>
-      <c r="R4" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R4" s="33" t="n">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="S4" s="12"/>
     </row>
@@ -7679,30 +7688,30 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="33" t="n">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="33">
+      <c r="O5" s="33" t="n">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500</v>
-      </c>
-      <c r="P5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P5" s="33" t="n">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500</v>
-      </c>
-      <c r="Q5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q5" s="33" t="n">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
@@ -7728,49 +7737,49 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="33" t="n">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="33">
+      <c r="O6" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="33">
+      <c r="R6" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="S6" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A7952-0ADD-46CB-BCDD-5633F7A7D19C}">
-  <dimension ref="A1:R6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A7952-0ADD-46CB-BCDD-5633F7A7D19C}">
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="18" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="18" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="19" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -7850,38 +7859,38 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="33" t="n">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000</v>
-      </c>
-      <c r="J2" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M2" s="12"/>
-      <c r="N2" s="33">
+      <c r="N2" s="33" t="n">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="O2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="O2" s="33" t="n">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="P2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="Q2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="R2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -7905,34 +7914,34 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="33" t="n">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000</v>
-      </c>
-      <c r="J3" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M3" s="12"/>
-      <c r="N3" s="33">
+      <c r="N3" s="33" t="n">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="O3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="O3" s="33" t="n">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500</v>
-      </c>
-      <c r="P3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="Q3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="R3" s="33"/>
     </row>
@@ -7957,13 +7966,13 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="33" t="n">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000</v>
-      </c>
-      <c r="J4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
@@ -7971,17 +7980,17 @@
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="33">
+      <c r="O4" s="33" t="n">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000</v>
-      </c>
-      <c r="P4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="P4" s="33" t="n">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
-      </c>
-      <c r="Q4" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q4" s="33" t="n">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="R4" s="33"/>
     </row>
@@ -8006,30 +8015,30 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="33" t="n">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000</v>
-      </c>
-      <c r="J5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M5" s="12"/>
-      <c r="N5" s="33">
+      <c r="N5" s="33" t="n">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500</v>
-      </c>
-      <c r="O5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="O5" s="33" t="n">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500</v>
-      </c>
-      <c r="P5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P5" s="33" t="n">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
@@ -8055,49 +8064,49 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="33" t="n">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000</v>
-      </c>
-      <c r="J6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M6" s="12"/>
-      <c r="N6" s="33">
+      <c r="N6" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
-      <c r="Q6" s="33">
+      <c r="Q6" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="R6" s="33"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7616B-F775-4E70-AF8C-CF1D4B0931E0}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7616B-F775-4E70-AF8C-CF1D4B0931E0}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -8182,9 +8191,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="I2" s="12">
         <v>0</v>
@@ -8201,23 +8210,23 @@
       <c r="M2" s="12">
         <v>0</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="Q2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>138</v>
@@ -8246,9 +8255,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="I3" s="12">
         <v>0</v>
@@ -8265,16 +8274,16 @@
       <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O3" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="Q3" s="33" t="s">
         <v>138</v>
@@ -8309,9 +8318,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -8328,16 +8337,16 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="33" t="n">
         <f>'TC25-Customer Order Change'!D4</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O4" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="33" t="n">
         <f>'TC25-Customer Order Change'!E4</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="Q4" s="33" t="s">
         <v>138</v>
@@ -8372,9 +8381,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -8391,16 +8400,16 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="33" t="n">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="33" t="n">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="Q5" s="33" t="s">
         <v>138</v>
@@ -8435,9 +8444,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -8454,9 +8463,9 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="33" t="n">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="O6" s="33" t="s">
         <v>138</v>
@@ -8497,9 +8506,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -8522,9 +8531,9 @@
       <c r="O7" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="Q7" s="33" t="s">
         <v>138</v>
@@ -8538,23 +8547,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681AF69-CF1C-4F30-B068-83994D54CBFD}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681AF69-CF1C-4F30-B068-83994D54CBFD}">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -8654,9 +8663,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="I2" s="12">
         <v>10.5</v>
@@ -8730,9 +8739,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="I3" s="12">
         <v>10.5</v>
@@ -8806,9 +8815,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I4" s="12">
         <v>10.5</v>
@@ -8882,9 +8891,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I5" s="12">
         <v>10.5</v>
@@ -8958,9 +8967,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I6" s="12">
         <v>10.5</v>
@@ -9034,9 +9043,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I7" s="12">
         <v>10.5</v>
@@ -9089,23 +9098,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -9191,9 +9200,9 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="J2" s="12">
         <v>2</v>
@@ -9250,9 +9259,9 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="J3" s="12">
         <v>2</v>
@@ -9309,9 +9318,9 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J4" s="12">
         <v>2</v>
@@ -9368,9 +9377,9 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J5" s="12">
         <v>2</v>
@@ -9427,9 +9436,9 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J6" s="12">
         <v>2</v>
@@ -9486,9 +9495,9 @@
       <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J7" s="12">
         <v>2</v>
@@ -9523,13 +9532,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -9537,9 +9546,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -9561,23 +9570,23 @@
       <c r="C2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281D8027-9DBB-4FB0-90BC-C2CA75E22329}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281D8027-9DBB-4FB0-90BC-C2CA75E22329}">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -9675,9 +9684,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="I2" s="12">
         <v>2</v>
@@ -9749,9 +9758,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="I3" s="12">
         <v>2</v>
@@ -9823,9 +9832,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I4" s="12">
         <v>2</v>
@@ -9897,9 +9906,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I5" s="12">
         <v>2</v>
@@ -9971,9 +9980,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I6" s="12">
         <v>2</v>
@@ -10045,9 +10054,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
@@ -10100,23 +10109,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="5" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -10139,42 +10148,42 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Dec 2023</v>
+        <v>10 Dec 2023</v>
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Jan 2024</v>
+        <v>10 Jan 2024</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Feb 2024</v>
+        <v>10 Feb 2024</v>
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Mar 2024</v>
+        <v>10 Mar 2024</v>
       </c>
       <c r="E2" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85C8B0-8ABC-42B6-BDDD-C373C0238928}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85C8B0-8ABC-42B6-BDDD-C373C0238928}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -10324,20 +10333,20 @@
       <c r="H7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37060D-3EB1-4D52-AF9A-FDEBDE974A12}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37060D-3EB1-4D52-AF9A-FDEBDE974A12}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -10352,23 +10361,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F7D49-70C3-401C-97E6-E9D888543863}">
-  <dimension ref="A1:V7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F7D49-70C3-401C-97E6-E9D888543863}">
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -10458,13 +10467,13 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
-      </c>
-      <c r="J2" s="33">
+        <v>1100.0</v>
+      </c>
+      <c r="J2" s="33" t="n">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K2" s="12">
         <v>0</v>
@@ -10512,13 +10521,13 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
-      </c>
-      <c r="J3" s="33">
+        <v>900.0</v>
+      </c>
+      <c r="J3" s="33" t="n">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="K3" s="12">
         <v>0</v>
@@ -10562,13 +10571,13 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
-      </c>
-      <c r="J4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J4" s="33" t="n">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="K4" s="12">
         <v>0</v>
@@ -10614,13 +10623,13 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
-      </c>
-      <c r="J5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J5" s="33" t="n">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200</v>
+        <v>1200.0</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
@@ -10666,13 +10675,13 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
-      </c>
-      <c r="J6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J6" s="33" t="n">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K6" s="12">
         <v>0</v>
@@ -10716,13 +10725,13 @@
       <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
-      </c>
-      <c r="J7" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J7" s="33" t="n">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="K7" s="12">
         <v>0</v>
@@ -10751,23 +10760,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC42DFF-227A-43C8-9477-ADF9903AD82A}">
-  <dimension ref="A1:W7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC42DFF-227A-43C8-9477-ADF9903AD82A}">
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="23" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="24" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -10865,13 +10874,13 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1100.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -10924,13 +10933,13 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
-      </c>
-      <c r="K3" s="33">
+        <v>900.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -10979,13 +10988,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -11036,13 +11045,13 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200</v>
+        <v>1200.0</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -11093,13 +11102,13 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -11148,13 +11157,13 @@
       <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
-      </c>
-      <c r="K7" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="33" t="n">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -11183,25 +11192,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6AD75-D8FC-4DC9-9657-3CCEA1DADDC8}">
-  <dimension ref="A1:AD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6AD75-D8FC-4DC9-9657-3CCEA1DADDC8}">
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="30" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="31" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="7" max="30" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="31" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -11320,13 +11329,13 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1100.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -11396,13 +11405,13 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
-      </c>
-      <c r="K3" s="33">
+        <v>900.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -11466,13 +11475,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -11540,13 +11549,13 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200</v>
+        <v>1200.0</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -11614,13 +11623,13 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -11684,13 +11693,13 @@
       <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
-      </c>
-      <c r="K7" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="33" t="n">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -11734,29 +11743,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32F6EF-C79A-4E20-806A-C9305FB64608}">
-  <dimension ref="A1:W8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32F6EF-C79A-4E20-806A-C9305FB64608}">
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="23" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="8" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="4" max="23" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="8" width="20.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="8" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.8" r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>215</v>
       </c>
@@ -11900,12 +11909,12 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-001</v>
       </c>
       <c r="B3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>08 Nov 2023</v>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C3" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -11915,12 +11924,12 @@
         <v>1000</v>
       </c>
       <c r="E3" s="37" t="str">
-        <f t="shared" ref="E3:E8" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>11 Nov 2023</v>
+        <f ca="1" ref="E3:E8" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>19 Nov 2023</v>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="28"/>
@@ -11931,7 +11940,7 @@
       <c r="M3" s="40"/>
       <c r="N3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-01-003</v>
+        <v>OP-231110-01-003</v>
       </c>
       <c r="O3" s="28" t="s">
         <v>222</v>
@@ -11947,7 +11956,7 @@
       </c>
       <c r="S3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231109-01-003</v>
+        <v>IP-231110-01-003</v>
       </c>
       <c r="T3" s="42"/>
       <c r="U3" s="41">
@@ -11962,12 +11971,12 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-001</v>
       </c>
       <c r="B4" s="37" t="str">
-        <f t="shared" ref="B4:B8" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>08 Nov 2023</v>
+        <f ca="1" ref="B4:B8" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C4" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -11977,12 +11986,12 @@
         <v>800</v>
       </c>
       <c r="E4" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F4" s="37" t="str">
-        <f t="shared" ref="F4:F8" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>19 Nov 2023</v>
+        <f ca="1" ref="F4:F8" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>240</v>
@@ -11995,7 +12004,7 @@
       <c r="M4" s="40"/>
       <c r="N4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-01-003</v>
+        <v>OP-231110-01-003</v>
       </c>
       <c r="O4" s="28" t="s">
         <v>223</v>
@@ -12011,7 +12020,7 @@
       </c>
       <c r="S4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231109-02-003</v>
+        <v>IP-231110-02-003</v>
       </c>
       <c r="T4" s="42" t="s">
         <v>232</v>
@@ -12028,12 +12037,12 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-001</v>
       </c>
       <c r="B5" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>08 Nov 2023</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C5" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12043,12 +12052,12 @@
         <v>900</v>
       </c>
       <c r="E5" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F5" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19 Nov 2023</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>220</v>
@@ -12071,7 +12080,7 @@
       </c>
       <c r="N5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-02-003</v>
+        <v>OP-231110-02-003</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>223</v>
@@ -12093,12 +12102,12 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-001</v>
       </c>
       <c r="B6" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>08 Nov 2023</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12108,12 +12117,12 @@
         <v>1200</v>
       </c>
       <c r="E6" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F6" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19 Nov 2023</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>220</v>
@@ -12138,7 +12147,7 @@
       </c>
       <c r="N6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-02-003</v>
+        <v>OP-231110-02-003</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>223</v>
@@ -12160,12 +12169,12 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-001</v>
       </c>
       <c r="B7" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>08 Nov 2023</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12175,12 +12184,12 @@
         <v>1000</v>
       </c>
       <c r="E7" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F7" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19 Nov 2023</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>221</v>
@@ -12205,7 +12214,7 @@
       </c>
       <c r="N7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-03-003</v>
+        <v>OP-231110-03-003</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>224</v>
@@ -12221,7 +12230,7 @@
       </c>
       <c r="S7" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231109-01-003</v>
+        <v>IP-231110-01-003</v>
       </c>
       <c r="T7" s="42" t="s">
         <v>232</v>
@@ -12238,12 +12247,12 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-001</v>
       </c>
       <c r="B8" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>08 Nov 2023</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="C8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
@@ -12253,12 +12262,12 @@
         <v>1100</v>
       </c>
       <c r="E8" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="F8" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19 Nov 2023</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>221</v>
@@ -12283,7 +12292,7 @@
       </c>
       <c r="N8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-03-003</v>
+        <v>OP-231110-03-003</v>
       </c>
       <c r="O8" s="28" t="s">
         <v>224</v>
@@ -12299,7 +12308,7 @@
       </c>
       <c r="S8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231109-02-003</v>
+        <v>IP-231110-02-003</v>
       </c>
       <c r="T8" s="42" t="s">
         <v>239</v>
@@ -12315,32 +12324,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCEF40-2C7B-4D0B-9DC6-89273BF3A1A0}">
-  <dimension ref="A1:AM9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCEF40-2C7B-4D0B-9DC6-89273BF3A1A0}">
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="AH29" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="7" max="33" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="34" max="36" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="37" max="42" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="43" max="16384" width="8.88671875" style="8" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="7" max="33" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="34" max="36" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="37" max="42" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="43" max="16384" style="8" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.8" r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -12467,12 +12476,12 @@
         <v>81</v>
       </c>
       <c r="C2" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-002</v>
       </c>
       <c r="D2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>08 Nov 2023</v>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="21" t="s">
@@ -12497,12 +12506,12 @@
         <v>34</v>
       </c>
       <c r="M2" s="37" t="str">
-        <f t="shared" ref="M2:M9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>11 Nov 2023</v>
+        <f ca="1" ref="M2:M9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>19 Nov 2023</v>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>252</v>
@@ -12515,7 +12524,7 @@
       <c r="U2" s="44"/>
       <c r="V2" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-02-003</v>
+        <v>OP-231110-02-003</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>253</v>
@@ -12525,7 +12534,7 @@
       <c r="Z2" s="44"/>
       <c r="AA2" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231109-01-003</v>
+        <v>IP-231110-01-003</v>
       </c>
       <c r="AB2" s="45" t="s">
         <v>254</v>
@@ -12565,12 +12574,12 @@
         <v>81</v>
       </c>
       <c r="C3" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-002</v>
       </c>
       <c r="D3" s="37" t="str">
-        <f t="shared" ref="D3:D9" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>08 Nov 2023</v>
+        <f ca="1" ref="D3:D9" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="21" t="s">
@@ -12595,12 +12604,12 @@
         <v>34</v>
       </c>
       <c r="M3" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N3" s="37" t="str">
-        <f t="shared" ref="N3:N9" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>19 Nov 2023</v>
+        <f ca="1" ref="N3:N9" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>252</v>
@@ -12613,7 +12622,7 @@
       <c r="U3" s="44"/>
       <c r="V3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-02-003</v>
+        <v>OP-231110-02-003</v>
       </c>
       <c r="W3" s="19" t="s">
         <v>253</v>
@@ -12623,7 +12632,7 @@
       <c r="Z3" s="44"/>
       <c r="AA3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231109-02-003</v>
+        <v>IP-231110-02-003</v>
       </c>
       <c r="AB3" s="45" t="s">
         <v>255</v>
@@ -12663,12 +12672,12 @@
         <v>81</v>
       </c>
       <c r="C4" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-002</v>
       </c>
       <c r="D4" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>08 Nov 2023</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="21" t="s">
@@ -12693,12 +12702,12 @@
         <v>34</v>
       </c>
       <c r="M4" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N4" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19 Nov 2023</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O4" s="39" t="s">
         <v>252</v>
@@ -12711,7 +12720,7 @@
       <c r="U4" s="40"/>
       <c r="V4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-01-003</v>
+        <v>OP-231110-01-003</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>256</v>
@@ -12727,7 +12736,7 @@
       </c>
       <c r="AA4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231109-02-003</v>
+        <v>IP-231110-02-003</v>
       </c>
       <c r="AB4" s="42" t="s">
         <v>257</v>
@@ -12767,12 +12776,12 @@
         <v>81</v>
       </c>
       <c r="C5" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-002</v>
       </c>
       <c r="D5" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>08 Nov 2023</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="21" t="s">
@@ -12797,12 +12806,12 @@
         <v>34</v>
       </c>
       <c r="M5" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N5" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19 Nov 2023</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O5" s="21" t="s">
         <v>258</v>
@@ -12827,7 +12836,7 @@
       </c>
       <c r="V5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-01-003</v>
+        <v>OP-231110-01-003</v>
       </c>
       <c r="W5" s="19" t="s">
         <v>262</v>
@@ -12837,7 +12846,7 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231109-01-003</v>
+        <v>IP-231110-01-003</v>
       </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="44"/>
@@ -12875,12 +12884,12 @@
         <v>81</v>
       </c>
       <c r="C6" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-003</v>
       </c>
       <c r="D6" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>08 Nov 2023</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
@@ -12908,12 +12917,12 @@
         <v>34</v>
       </c>
       <c r="M6" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N6" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19 Nov 2023</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O6" s="21" t="s">
         <v>263</v>
@@ -12930,7 +12939,7 @@
       <c r="U6" s="44"/>
       <c r="V6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-01-003</v>
+        <v>OP-231110-01-003</v>
       </c>
       <c r="W6" s="19" t="s">
         <v>262</v>
@@ -12975,12 +12984,12 @@
         <v>81</v>
       </c>
       <c r="C7" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-003</v>
       </c>
       <c r="D7" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>08 Nov 2023</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
@@ -13008,12 +13017,12 @@
         <v>34</v>
       </c>
       <c r="M7" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N7" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19 Nov 2023</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>263</v>
@@ -13030,7 +13039,7 @@
       <c r="U7" s="44"/>
       <c r="V7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-02-003</v>
+        <v>OP-231110-02-003</v>
       </c>
       <c r="W7" s="19" t="s">
         <v>256</v>
@@ -13075,12 +13084,12 @@
         <v>81</v>
       </c>
       <c r="C8" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-003</v>
       </c>
       <c r="D8" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>08 Nov 2023</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
@@ -13108,12 +13117,12 @@
         <v>34</v>
       </c>
       <c r="M8" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N8" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19 Nov 2023</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>265</v>
@@ -13138,7 +13147,7 @@
       </c>
       <c r="V8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-03-003</v>
+        <v>OP-231110-03-003</v>
       </c>
       <c r="W8" s="19" t="s">
         <v>256</v>
@@ -13154,7 +13163,7 @@
       </c>
       <c r="AA8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231109-01-003</v>
+        <v>IP-231110-01-003</v>
       </c>
       <c r="AB8" s="45" t="s">
         <v>257</v>
@@ -13200,12 +13209,12 @@
         <v>81</v>
       </c>
       <c r="C9" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-004"</f>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-004"]]></f>
         <v>o-SG-BAFCO-2311-AB-03-004</v>
       </c>
       <c r="D9" s="37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>08 Nov 2023</v>
+        <f ca="1" si="1" t="shared"/>
+        <v>09 Nov 2023</v>
       </c>
       <c r="E9" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-03-0"&amp;AutoIncrement!A2</f>
@@ -13233,12 +13242,12 @@
         <v>34</v>
       </c>
       <c r="M9" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>11 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>12 Nov 2023</v>
       </c>
       <c r="N9" s="37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19 Nov 2023</v>
+        <f ca="1" si="2" t="shared"/>
+        <v>20 Nov 2023</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
@@ -13249,7 +13258,7 @@
       <c r="U9" s="44"/>
       <c r="V9" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231109-03-003</v>
+        <v>OP-231110-03-003</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>256</v>
@@ -13265,7 +13274,7 @@
       </c>
       <c r="AA9" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231109-01-003</v>
+        <v>IP-231110-01-003</v>
       </c>
       <c r="AB9" s="45" t="s">
         <v>257</v>
@@ -13305,22 +13314,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77311BC3-E043-40F5-9D6D-99B7C2A9BBC7}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77311BC3-E043-40F5-9D6D-99B7C2A9BBC7}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -13383,29 +13392,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4C2CD-E70A-41BD-8891-E7DD5B5CEC38}">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4C2CD-E70A-41BD-8891-E7DD5B5CEC38}">
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="25.77734375" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="15.77734375" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.77734375" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="17" width="15.77734375" style="4" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.88671875" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="5.77734375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" style="4" width="25.77734375" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="4" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="25.77734375" collapsed="true"/>
+    <col min="11" max="17" customWidth="true" style="4" width="15.77734375" collapsed="true"/>
+    <col min="18" max="16384" style="4" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13458,7 +13467,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -13507,7 +13516,7 @@
       </c>
       <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -13556,7 +13565,7 @@
       </c>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -13609,7 +13618,7 @@
       </c>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -13662,7 +13671,7 @@
       </c>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="6" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -13711,7 +13720,7 @@
       </c>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="7" s="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -13762,32 +13771,32 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I7" xr:uid="{0E91B3D6-9299-430D-A4F2-2FD0E946DA1C}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="I2:I7" type="list" xr:uid="{0E91B3D6-9299-430D-A4F2-2FD0E946DA1C}">
       <formula1>PAIRED_FLAG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{C5FFB457-24FD-46EF-A22A-756CEE443DDF}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="K2:K6" type="list" xr:uid="{C5FFB457-24FD-46EF-A22A-756CEE443DDF}">
       <formula1>PAIRED_ORDER_FLAG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{C18C6561-5DC9-4062-8CB8-5E10E79AE2DB}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H7" type="list" xr:uid="{C18C6561-5DC9-4062-8CB8-5E10E79AE2DB}">
       <formula1>UOM_CODE</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D61E3-2B05-4C91-8724-D21919B54379}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D61E3-2B05-4C91-8724-D21919B54379}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -13864,13 +13873,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D885ABF-3A14-4153-8AE3-9C0D9DAAE757}">
-  <dimension ref="A1:Z5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D885ABF-3A14-4153-8AE3-9C0D9DAAE757}">
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -13878,12 +13887,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>301</v>
       </c>
@@ -13963,7 +13972,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
         <v>B-2311-AB-01-003</v>
@@ -14042,7 +14051,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
         <v>B-2311-AB-01-003</v>
@@ -14124,7 +14133,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
         <v>B-2311-AB-01-003</v>
@@ -14289,13 +14298,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F21EE-23C3-4FCA-9C9B-9CEB31F6088E}">
-  <dimension ref="A1:Z6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F21EE-23C3-4FCA-9C9B-9CEB31F6088E}">
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -14303,12 +14312,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>301</v>
       </c>
@@ -14388,7 +14397,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E6</f>
         <v>B-2311-AB-02-003</v>
@@ -14470,7 +14479,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O5</f>
@@ -14549,7 +14558,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
         <v>B-2311-AB-02-003</v>
@@ -14790,13 +14799,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A112FA-01A2-4B2F-8178-C7A1C83AE86A}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A112FA-01A2-4B2F-8178-C7A1C83AE86A}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
@@ -14804,9 +14813,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -14896,21 +14905,21 @@
       <c r="B10" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA3B652-996F-421B-A9AA-FD39761C01AA}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA3B652-996F-421B-A9AA-FD39761C01AA}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -14973,22 +14982,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F256599-8CB1-4B13-A4F1-65D4DF22C5CF}">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F256599-8CB1-4B13-A4F1-65D4DF22C5CF}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="7" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15016,12 +15025,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Nov 2023</v>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -15032,12 +15041,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C3" s="37" t="str">
-        <f t="shared" ref="C3:C15" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Nov 2023</v>
+        <f ca="1" ref="C3:C15" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -15048,12 +15057,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C4" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -15064,12 +15073,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C5" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -15080,12 +15089,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C6" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -15096,12 +15105,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C7" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -15112,12 +15121,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C8" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -15128,12 +15137,12 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C9" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -15144,12 +15153,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C10" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -15160,12 +15169,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C11" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -15176,12 +15185,12 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C12" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -15192,12 +15201,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>i-VN-AKIRA-231109-AB-03-001</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-001</v>
       </c>
       <c r="C13" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D13" s="50">
         <v>1</v>
@@ -15214,12 +15223,12 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
-        <v>i-VN-AKIRA-231109-AB-03-002</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-002</v>
       </c>
       <c r="C14" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D14" s="50">
         <v>1</v>
@@ -15236,34 +15245,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="str">
-        <f ca="1">"i-VN-AKIRA-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
-        <v>i-VN-AKIRA-231109-AB-03-002</v>
+        <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
+        <v>i-VN-AKIRA-231110-AB-03-002</v>
       </c>
       <c r="C15" s="37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>09 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Nov 2023</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6053F06-3444-450C-B9FC-28670DC14D6B}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6053F06-3444-450C-B9FC-28670DC14D6B}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -15313,23 +15322,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE02D8D-1685-4FEA-8687-C031EDEBEDAF}">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE02D8D-1685-4FEA-8687-C031EDEBEDAF}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="18" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="26.77734375" collapsed="true"/>
+    <col min="6" max="18" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="19" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -15681,29 +15690,29 @@
       <c r="P7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66379E1-079F-435E-B8ED-F61B35FCE9C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66379E1-079F-435E-B8ED-F61B35FCE9C4}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="20" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="9" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="11" max="20" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -15779,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>"SGTTAP-VNTTVN-"&amp;'TC4'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
@@ -15841,14 +15850,14 @@
         <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="V2" s="20" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasin\git\tb-ttap-brivge-v2\Excel Files\Scenario 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{784C1B7C-D655-49D2-B07C-BF8E63AA5DFE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0B68BC91-1F57-4FB9-8685-7BC487B4293C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView activeTab="1" tabRatio="621" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="504">
   <si>
     <t>No</t>
   </si>
@@ -1605,15 +1605,6 @@
     <t>AB</t>
   </si>
   <si>
-    <t>R-VN-TTVN-2311007</t>
-  </si>
-  <si>
-    <t>CR-VN-TTVN-2311006</t>
-  </si>
-  <si>
-    <t>R-SG-TTAP-2311009</t>
-  </si>
-  <si>
     <t>o-SG-BAFCO-231108009</t>
   </si>
   <si>
@@ -1653,9 +1644,6 @@
     <t>TTAP2311018</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>R-VN-TTVN-2311009</t>
   </si>
   <si>
@@ -1663,6 +1651,18 @@
   </si>
   <si>
     <t>R-SG-TTAP-2311012</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>R-VN-TTVN-2311010</t>
+  </si>
+  <si>
+    <t>CR-VN-TTVN-2311009</t>
+  </si>
+  <si>
+    <t>R-SG-TTAP-2311013</t>
   </si>
 </sst>
 </file>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="E2" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="E3" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="E4" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="E6" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="E7" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>193</v>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="D3" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>194</v>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="D4" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>195</v>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="D5" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>270</v>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="D6" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>195</v>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="D7" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>195</v>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="C2" s="12" t="str">
         <f>"SGBAFCO-SGTTAP-"&amp;'TC7'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>37</v>
@@ -3989,11 +3989,11 @@
       </c>
       <c r="H2" s="12" t="str">
         <f>AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>ABs-03</v>
+        <v>ABs-04</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-ABs-03</v>
+        <v>CD-ABs-04</v>
       </c>
       <c r="J2" s="12" t="str">
         <f>'TC6.1'!B2&amp;"("&amp;'TC6.1'!C2&amp;")"</f>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="S2" s="12" t="str">
         <f>'TC4'!N2</f>
-        <v>RD-AB-03</v>
+        <v>RD-AB-04</v>
       </c>
       <c r="T2" t="s">
         <v>502</v>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>22</v>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>22</v>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>22</v>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>22</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>22</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>22</v>
@@ -4272,7 +4272,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-AB-03</v>
+        <v>CS-AB-04</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
     </row>
   </sheetData>
@@ -4321,7 +4321,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-ABs-03</v>
+        <v>CS-ABs-04</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-03-003</v>
+        <v>SGBAFCO-SGTTAP-ABs-04-004</v>
       </c>
     </row>
   </sheetData>
@@ -4347,7 +4347,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4581,11 +4581,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Jan 2024</v>
+        <v>13 Jan 2024</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Feb 2024</v>
+        <v>13 Feb 2024</v>
       </c>
     </row>
   </sheetData>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>20 Jan 2024</v>
+        <v>23 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -4758,11 +4758,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>cAB03-2311002</v>
+        <v>cAB04-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4790,7 +4790,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
-        <v>Nov 6, 2023 ~ Nov 12, 2023</v>
+        <v>Nov 13, 2023 ~ Nov 19, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
     </row>
   </sheetData>
@@ -4863,11 +4863,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sAB03-2311002</v>
+        <v>sAB04-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4905,11 +4905,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>pABs03-2311001</v>
+        <v>pABs04-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>pABs03-2311002</v>
+        <v>pABs04-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4947,11 +4947,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sABs03-2311001</v>
+        <v>sABs04-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sABs03-2311002</v>
+        <v>sABs04-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rcAB03-2311001-01</v>
+        <v>rcAB04-2311001-01</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -6684,7 +6684,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6712,7 +6712,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6740,7 +6740,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6768,7 +6768,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6796,7 +6796,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6824,7 +6824,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -7029,15 +7029,15 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Jan 2024</v>
+        <v>13 Jan 2024</v>
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Feb 2024</v>
+        <v>13 Feb 2024</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Mar 2024</v>
+        <v>13 Mar 2024</v>
       </c>
     </row>
   </sheetData>
@@ -7065,7 +7065,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-02"</f>
-        <v>rcAB03-2311001-02</v>
+        <v>rcAB04-2311001-02</v>
       </c>
     </row>
   </sheetData>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -8370,7 +8370,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -8956,7 +8956,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB03-2311001</v>
+        <v>cAB04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -9186,7 +9186,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -9245,7 +9245,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -9304,7 +9304,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -9363,7 +9363,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -9422,7 +9422,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -9481,7 +9481,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB03-2311001</v>
+        <v>sAB04-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="B2" s="22" t="str">
         <f>"RequestPart-"&amp;'TC4'!H2</f>
-        <v>RequestPart-AB-03</v>
+        <v>RequestPart-AB-04</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -9673,7 +9673,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs03-2311001</v>
+        <v>pABs04-2311001</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>34</v>
@@ -9747,7 +9747,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs03-2311001</v>
+        <v>pABs04-2311001</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>34</v>
@@ -9821,7 +9821,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs03-2311001</v>
+        <v>pABs04-2311001</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>34</v>
@@ -9895,7 +9895,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs03-2311001</v>
+        <v>pABs04-2311001</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>34</v>
@@ -9969,7 +9969,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs03-2311001</v>
+        <v>pABs04-2311001</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>34</v>
@@ -10043,7 +10043,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs03-2311001</v>
+        <v>pABs04-2311001</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>34</v>
@@ -10148,19 +10148,19 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Dec 2023</v>
+        <v>13 Dec 2023</v>
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Jan 2024</v>
+        <v>13 Jan 2024</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Feb 2024</v>
+        <v>13 Feb 2024</v>
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Mar 2024</v>
+        <v>13 Mar 2024</v>
       </c>
       <c r="E2" s="12"/>
     </row>
@@ -10357,7 +10357,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rs"&amp;AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rsABs03-2311001-01</v>
+        <v>rsABs04-2311001-01</v>
       </c>
     </row>
   </sheetData>
@@ -11910,26 +11910,26 @@
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-001</v>
+        <v>o-SG-BAFCO-2311-AB-04-001</v>
       </c>
       <c r="B3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="C3" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="D3" s="38">
         <v>1000</v>
       </c>
       <c r="E3" s="37" t="str">
         <f ca="1" ref="E3:E8" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="F3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="28"/>
@@ -11940,7 +11940,7 @@
       <c r="M3" s="40"/>
       <c r="N3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-01-003</v>
+        <v>OP-231113-01-004</v>
       </c>
       <c r="O3" s="28" t="s">
         <v>222</v>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="S3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231110-01-003</v>
+        <v>IP-231113-01-004</v>
       </c>
       <c r="T3" s="42"/>
       <c r="U3" s="41">
@@ -11972,26 +11972,26 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-001</v>
+        <v>o-SG-BAFCO-2311-AB-04-001</v>
       </c>
       <c r="B4" s="37" t="str">
         <f ca="1" ref="B4:B8" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="C4" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="D4" s="38">
         <v>800</v>
       </c>
       <c r="E4" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="F4" s="37" t="str">
         <f ca="1" ref="F4:F8" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>240</v>
@@ -12004,7 +12004,7 @@
       <c r="M4" s="40"/>
       <c r="N4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-01-003</v>
+        <v>OP-231113-01-004</v>
       </c>
       <c r="O4" s="28" t="s">
         <v>223</v>
@@ -12020,7 +12020,7 @@
       </c>
       <c r="S4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231110-02-003</v>
+        <v>IP-231113-02-004</v>
       </c>
       <c r="T4" s="42" t="s">
         <v>232</v>
@@ -12038,26 +12038,26 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-001</v>
+        <v>o-SG-BAFCO-2311-AB-04-001</v>
       </c>
       <c r="B5" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="C5" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="D5" s="38">
         <v>900</v>
       </c>
       <c r="E5" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="F5" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>220</v>
@@ -12080,7 +12080,7 @@
       </c>
       <c r="N5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-02-003</v>
+        <v>OP-231113-02-004</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>223</v>
@@ -12103,26 +12103,26 @@
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-001</v>
+        <v>o-SG-BAFCO-2311-AB-04-001</v>
       </c>
       <c r="B6" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="C6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="D6" s="38">
         <v>1200</v>
       </c>
       <c r="E6" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="F6" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>220</v>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="N6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-02-003</v>
+        <v>OP-231113-02-004</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>223</v>
@@ -12170,26 +12170,26 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-001</v>
+        <v>o-SG-BAFCO-2311-AB-04-001</v>
       </c>
       <c r="B7" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="C7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="D7" s="38">
         <v>1000</v>
       </c>
       <c r="E7" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="F7" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>221</v>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="N7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-03-003</v>
+        <v>OP-231113-03-004</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>224</v>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="S7" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231110-01-003</v>
+        <v>IP-231113-01-004</v>
       </c>
       <c r="T7" s="42" t="s">
         <v>232</v>
@@ -12248,26 +12248,26 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-001</v>
+        <v>o-SG-BAFCO-2311-AB-04-001</v>
       </c>
       <c r="B8" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="C8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="D8" s="38">
         <v>1100</v>
       </c>
       <c r="E8" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="F8" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>221</v>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="N8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-03-003</v>
+        <v>OP-231113-03-004</v>
       </c>
       <c r="O8" s="28" t="s">
         <v>224</v>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="S8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231110-02-003</v>
+        <v>IP-231113-02-004</v>
       </c>
       <c r="T8" s="42" t="s">
         <v>239</v>
@@ -12477,11 +12477,11 @@
       </c>
       <c r="C2" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-002</v>
+        <v>o-SG-BAFCO-2311-AB-04-002</v>
       </c>
       <c r="D2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="21" t="s">
@@ -12507,11 +12507,11 @@
       </c>
       <c r="M2" s="37" t="str">
         <f ca="1" ref="M2:M9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="N2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>252</v>
@@ -12524,7 +12524,7 @@
       <c r="U2" s="44"/>
       <c r="V2" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-02-003</v>
+        <v>OP-231113-02-004</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>253</v>
@@ -12534,7 +12534,7 @@
       <c r="Z2" s="44"/>
       <c r="AA2" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231110-01-003</v>
+        <v>IP-231113-01-004</v>
       </c>
       <c r="AB2" s="45" t="s">
         <v>254</v>
@@ -12544,7 +12544,7 @@
       <c r="AE2" s="44"/>
       <c r="AF2" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs03-2311002</v>
+        <v>sABs04-2311002</v>
       </c>
       <c r="AG2" s="37" t="s">
         <v>81</v>
@@ -12575,11 +12575,11 @@
       </c>
       <c r="C3" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-002</v>
+        <v>o-SG-BAFCO-2311-AB-04-002</v>
       </c>
       <c r="D3" s="37" t="str">
         <f ca="1" ref="D3:D9" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="21" t="s">
@@ -12605,11 +12605,11 @@
       </c>
       <c r="M3" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="N3" s="37" t="str">
         <f ca="1" ref="N3:N9" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>252</v>
@@ -12622,7 +12622,7 @@
       <c r="U3" s="44"/>
       <c r="V3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-02-003</v>
+        <v>OP-231113-02-004</v>
       </c>
       <c r="W3" s="19" t="s">
         <v>253</v>
@@ -12632,7 +12632,7 @@
       <c r="Z3" s="44"/>
       <c r="AA3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231110-02-003</v>
+        <v>IP-231113-02-004</v>
       </c>
       <c r="AB3" s="45" t="s">
         <v>255</v>
@@ -12642,7 +12642,7 @@
       <c r="AE3" s="44"/>
       <c r="AF3" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs03-2311002</v>
+        <v>sABs04-2311002</v>
       </c>
       <c r="AG3" s="37" t="s">
         <v>81</v>
@@ -12673,11 +12673,11 @@
       </c>
       <c r="C4" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-002</v>
+        <v>o-SG-BAFCO-2311-AB-04-002</v>
       </c>
       <c r="D4" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="21" t="s">
@@ -12703,11 +12703,11 @@
       </c>
       <c r="M4" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="N4" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="O4" s="39" t="s">
         <v>252</v>
@@ -12720,7 +12720,7 @@
       <c r="U4" s="40"/>
       <c r="V4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-01-003</v>
+        <v>OP-231113-01-004</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>256</v>
@@ -12736,7 +12736,7 @@
       </c>
       <c r="AA4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231110-02-003</v>
+        <v>IP-231113-02-004</v>
       </c>
       <c r="AB4" s="42" t="s">
         <v>257</v>
@@ -12746,7 +12746,7 @@
       <c r="AE4" s="40"/>
       <c r="AF4" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs03-2311002</v>
+        <v>sABs04-2311002</v>
       </c>
       <c r="AG4" s="37" t="s">
         <v>81</v>
@@ -12777,11 +12777,11 @@
       </c>
       <c r="C5" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-002</v>
+        <v>o-SG-BAFCO-2311-AB-04-002</v>
       </c>
       <c r="D5" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="21" t="s">
@@ -12807,11 +12807,11 @@
       </c>
       <c r="M5" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="N5" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="O5" s="21" t="s">
         <v>258</v>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="V5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-01-003</v>
+        <v>OP-231113-01-004</v>
       </c>
       <c r="W5" s="19" t="s">
         <v>262</v>
@@ -12846,7 +12846,7 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231110-01-003</v>
+        <v>IP-231113-01-004</v>
       </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="44"/>
@@ -12854,7 +12854,7 @@
       <c r="AE5" s="44"/>
       <c r="AF5" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs03-2311002</v>
+        <v>sABs04-2311002</v>
       </c>
       <c r="AG5" s="37" t="s">
         <v>81</v>
@@ -12885,15 +12885,15 @@
       </c>
       <c r="C6" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-003</v>
+        <v>o-SG-BAFCO-2311-AB-04-003</v>
       </c>
       <c r="D6" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="E6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-02-003</v>
+        <v>B-2311-AB-02-004</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>29</v>
@@ -12918,11 +12918,11 @@
       </c>
       <c r="M6" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="N6" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="O6" s="21" t="s">
         <v>263</v>
@@ -12939,7 +12939,7 @@
       <c r="U6" s="44"/>
       <c r="V6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-01-003</v>
+        <v>OP-231113-01-004</v>
       </c>
       <c r="W6" s="19" t="s">
         <v>262</v>
@@ -12954,7 +12954,7 @@
       <c r="AE6" s="44"/>
       <c r="AF6" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs03-2311002</v>
+        <v>sABs04-2311002</v>
       </c>
       <c r="AG6" s="37" t="s">
         <v>81</v>
@@ -12985,15 +12985,15 @@
       </c>
       <c r="C7" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-003</v>
+        <v>o-SG-BAFCO-2311-AB-04-003</v>
       </c>
       <c r="D7" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="E7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-02-003</v>
+        <v>B-2311-AB-02-004</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>152</v>
@@ -13018,11 +13018,11 @@
       </c>
       <c r="M7" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="N7" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>263</v>
@@ -13039,7 +13039,7 @@
       <c r="U7" s="44"/>
       <c r="V7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-02-003</v>
+        <v>OP-231113-02-004</v>
       </c>
       <c r="W7" s="19" t="s">
         <v>256</v>
@@ -13054,7 +13054,7 @@
       <c r="AE7" s="44"/>
       <c r="AF7" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs03-2311002</v>
+        <v>sABs04-2311002</v>
       </c>
       <c r="AG7" s="37" t="s">
         <v>81</v>
@@ -13085,15 +13085,15 @@
       </c>
       <c r="C8" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-003</v>
+        <v>o-SG-BAFCO-2311-AB-04-003</v>
       </c>
       <c r="D8" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="E8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-02-003</v>
+        <v>B-2311-AB-02-004</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>268</v>
@@ -13118,11 +13118,11 @@
       </c>
       <c r="M8" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="N8" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>265</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="V8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-03-003</v>
+        <v>OP-231113-03-004</v>
       </c>
       <c r="W8" s="19" t="s">
         <v>256</v>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="AA8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231110-01-003</v>
+        <v>IP-231113-01-004</v>
       </c>
       <c r="AB8" s="45" t="s">
         <v>257</v>
@@ -13179,7 +13179,7 @@
       </c>
       <c r="AF8" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs03-2311002</v>
+        <v>sABs04-2311002</v>
       </c>
       <c r="AG8" s="37" t="s">
         <v>81</v>
@@ -13210,15 +13210,15 @@
       </c>
       <c r="C9" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-004"]]></f>
-        <v>o-SG-BAFCO-2311-AB-03-004</v>
+        <v>o-SG-BAFCO-2311-AB-04-004</v>
       </c>
       <c r="D9" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>09 Nov 2023</v>
+        <v>12 Nov 2023</v>
       </c>
       <c r="E9" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-03-003</v>
+        <v>B-2311-AB-03-004</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>268</v>
@@ -13243,11 +13243,11 @@
       </c>
       <c r="M9" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="N9" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>20 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
@@ -13258,7 +13258,7 @@
       <c r="U9" s="44"/>
       <c r="V9" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231110-03-003</v>
+        <v>OP-231113-03-004</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>256</v>
@@ -13274,7 +13274,7 @@
       </c>
       <c r="AA9" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231110-01-003</v>
+        <v>IP-231113-01-004</v>
       </c>
       <c r="AB9" s="45" t="s">
         <v>257</v>
@@ -13290,7 +13290,7 @@
       </c>
       <c r="AF9" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs03-2311002</v>
+        <v>sABs04-2311002</v>
       </c>
       <c r="AG9" s="37" t="s">
         <v>81</v>
@@ -13349,10 +13349,10 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!A3</f>
-        <v>o-SG-BAFCO-2311-AB-03-001</v>
+        <v>o-SG-BAFCO-2311-AB-04-001</v>
       </c>
       <c r="C2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -13361,10 +13361,10 @@
       </c>
       <c r="B3" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C2</f>
-        <v>o-SG-BAFCO-2311-AB-03-002</v>
+        <v>o-SG-BAFCO-2311-AB-04-002</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -13373,10 +13373,10 @@
       </c>
       <c r="B4" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C6</f>
-        <v>o-SG-BAFCO-2311-AB-03-003</v>
+        <v>o-SG-BAFCO-2311-AB-04-003</v>
       </c>
       <c r="C4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -13385,10 +13385,10 @@
       </c>
       <c r="B5" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C9</f>
-        <v>o-SG-BAFCO-2311-AB-03-004</v>
+        <v>o-SG-BAFCO-2311-AB-04-004</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -13819,7 +13819,7 @@
         <v>o-SG-BAFCO-231108009</v>
       </c>
       <c r="C2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>464</v>
@@ -13834,7 +13834,7 @@
         <v>o-SG-BAFCO-231108010</v>
       </c>
       <c r="C3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>465</v>
@@ -13849,7 +13849,7 @@
         <v>o-SG-BAFCO-231108011</v>
       </c>
       <c r="C4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13861,12 +13861,12 @@
         <v>o-SG-BAFCO-231108012</v>
       </c>
       <c r="C5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>466</v>
@@ -13975,7 +13975,7 @@
     <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48" t="s">
@@ -14054,7 +14054,7 @@
     <row customFormat="1" r="3" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="B3" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G4</f>
@@ -14136,7 +14136,7 @@
     <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G5</f>
@@ -14218,7 +14218,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="B5" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G7</f>
@@ -14400,7 +14400,7 @@
     <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E6</f>
-        <v>B-2311-AB-02-003</v>
+        <v>B-2311-AB-02-004</v>
       </c>
       <c r="B2" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O8</f>
@@ -14561,7 +14561,7 @@
     <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
-        <v>B-2311-AB-02-003</v>
+        <v>B-2311-AB-02-004</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O6</f>
@@ -14643,7 +14643,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E9</f>
-        <v>B-2311-AB-03-003</v>
+        <v>B-2311-AB-03-004</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="48" t="s">
@@ -14829,14 +14829,14 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C8</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="B3" s="24" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G8</f>
@@ -14846,7 +14846,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C4</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="B4" s="49" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G4</f>
@@ -14856,7 +14856,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C6</f>
-        <v>B-2311-AB-01-003</v>
+        <v>B-2311-AB-01-004</v>
       </c>
       <c r="B5" s="49" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G6</f>
@@ -14880,7 +14880,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E8</f>
-        <v>B-2311-AB-02-003</v>
+        <v>B-2311-AB-02-004</v>
       </c>
       <c r="B8" s="24" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O8</f>
@@ -14890,7 +14890,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
-        <v>B-2311-AB-02-003</v>
+        <v>B-2311-AB-02-004</v>
       </c>
       <c r="B9" s="24" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O7</f>
@@ -14900,7 +14900,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E9</f>
-        <v>B-2311-AB-03-003</v>
+        <v>B-2311-AB-03-004</v>
       </c>
       <c r="B10" s="12"/>
     </row>
@@ -14942,7 +14942,7 @@
         <v>o-SG-BAFCO-231108009</v>
       </c>
       <c r="C2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -14954,7 +14954,7 @@
         <v>o-SG-BAFCO-231108010</v>
       </c>
       <c r="C3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -14966,7 +14966,7 @@
         <v>o-SG-BAFCO-231108011</v>
       </c>
       <c r="C4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -14978,7 +14978,7 @@
         <v>o-SG-BAFCO-231108012</v>
       </c>
       <c r="C5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -15026,11 +15026,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -15042,11 +15042,11 @@
       </c>
       <c r="B3" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C3" s="37" t="str">
         <f ca="1" ref="C3:C15" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -15058,11 +15058,11 @@
       </c>
       <c r="B4" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C4" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -15074,11 +15074,11 @@
       </c>
       <c r="B5" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C5" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -15090,11 +15090,11 @@
       </c>
       <c r="B6" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C6" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -15106,11 +15106,11 @@
       </c>
       <c r="B7" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C7" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -15122,11 +15122,11 @@
       </c>
       <c r="B8" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C8" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -15138,11 +15138,11 @@
       </c>
       <c r="B9" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C9" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -15154,11 +15154,11 @@
       </c>
       <c r="B10" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C10" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -15170,11 +15170,11 @@
       </c>
       <c r="B11" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C11" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -15186,11 +15186,11 @@
       </c>
       <c r="B12" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C12" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -15202,11 +15202,11 @@
       </c>
       <c r="B13" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-001</v>
+        <v>i-VN-AKIRA-231113-AB-04-001</v>
       </c>
       <c r="C13" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D13" s="50">
         <v>1</v>
@@ -15224,11 +15224,11 @@
       </c>
       <c r="B14" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-002</v>
+        <v>i-VN-AKIRA-231113-AB-04-002</v>
       </c>
       <c r="C14" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D14" s="50">
         <v>1</v>
@@ -15246,11 +15246,11 @@
       </c>
       <c r="B15" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>i-VN-AKIRA-231110-AB-03-002</v>
+        <v>i-VN-AKIRA-231113-AB-04-002</v>
       </c>
       <c r="C15" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -15407,7 +15407,7 @@
       </c>
       <c r="E2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>411</v>
@@ -15457,7 +15457,7 @@
       </c>
       <c r="E3" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>411</v>
@@ -15507,7 +15507,7 @@
       </c>
       <c r="E4" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>412</v>
@@ -15557,7 +15557,7 @@
       </c>
       <c r="E5" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>412</v>
@@ -15606,7 +15606,7 @@
       </c>
       <c r="E6" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>413</v>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="E7" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>413</v>
@@ -15792,7 +15792,7 @@
       </c>
       <c r="C2" s="20" t="str">
         <f>"SGTTAP-VNTTVN-"&amp;'TC4'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>SGTTAP-VNTTVN-AB-03-003</v>
+        <v>SGTTAP-VNTTVN-AB-04-004</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>20</v>
@@ -15808,11 +15808,11 @@
       </c>
       <c r="H2" s="20" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>AB-03</v>
+        <v>AB-04</v>
       </c>
       <c r="I2" s="20" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-AB-03</v>
+        <v>CD-AB-04</v>
       </c>
       <c r="J2" s="20" t="str">
         <f>'TC3.1'!B2&amp;"("&amp;'TC3.1'!C2&amp;")"</f>
@@ -15829,7 +15829,7 @@
       </c>
       <c r="N2" s="20" t="str">
         <f>"RD-"&amp;H2</f>
-        <v>RD-AB-03</v>
+        <v>RD-AB-04</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>23</v>

--- a/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FA8E64AB-E88F-45EB-988C-5E83ED390A5B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9BE44440-7B9D-4406-A0AE-9839D3F0BB58}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="621" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="621" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" r:id="rId1" sheetId="82"/>
@@ -63,8 +63,8 @@
     <sheet name="TC30-BU Check SO" r:id="rId48" sheetId="44"/>
     <sheet name="TC31-BU Check PO" r:id="rId49" sheetId="45"/>
     <sheet name="TC32-Supplier Check SO" r:id="rId50" sheetId="46"/>
-    <sheet name="TC33-New Outbound Date" r:id="rId51" sheetId="55"/>
-    <sheet name="TC33-New Firm Qty" r:id="rId52" sheetId="70"/>
+    <sheet name="TC33-New Firm Qty" r:id="rId51" sheetId="70"/>
+    <sheet name="TC33-New Outbound Date" r:id="rId52" sheetId="55"/>
     <sheet name="TC33-Change Request No" r:id="rId53" sheetId="56"/>
     <sheet name="TC34" r:id="rId54" sheetId="67"/>
     <sheet name="TC35" r:id="rId55" sheetId="68"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="518">
   <si>
     <t>No</t>
   </si>
@@ -1598,9 +1598,6 @@
     <t>You may change if necessary</t>
   </si>
   <si>
-    <t>Nov 20, 2023</t>
-  </si>
-  <si>
     <t>Plan_OutIn_4</t>
   </si>
   <si>
@@ -1613,69 +1610,9 @@
     <t>Status_OutIn_5</t>
   </si>
   <si>
-    <t>o-SG-BAFCO-231108005</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231108006</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231108007</t>
-  </si>
-  <si>
-    <t>o-SG-BAFCO-231108008</t>
-  </si>
-  <si>
-    <t>BAFCO2311011</t>
-  </si>
-  <si>
-    <t>BAFCO2311012</t>
-  </si>
-  <si>
-    <t>BAFCO2311013</t>
-  </si>
-  <si>
-    <t>BAFCO2311014</t>
-  </si>
-  <si>
-    <t>BAFCO2311015</t>
-  </si>
-  <si>
-    <t>TTAP2311011</t>
-  </si>
-  <si>
-    <t>TTAP2311012</t>
-  </si>
-  <si>
-    <t>TTAP2311013</t>
-  </si>
-  <si>
-    <t>TTAP2311014</t>
-  </si>
-  <si>
-    <t>R-VN-TTVN-2311006</t>
-  </si>
-  <si>
-    <t>CR-VN-TTVN-2311005</t>
-  </si>
-  <si>
-    <t>R-SG-TTAP-2311008</t>
-  </si>
-  <si>
     <t>AB</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>R-VN-TTVN-2311007</t>
-  </si>
-  <si>
-    <t>CR-VN-TTVN-2311006</t>
-  </si>
-  <si>
-    <t>R-SG-TTAP-2311009</t>
-  </si>
-  <si>
     <t>o-SG-BAFCO-231108009</t>
   </si>
   <si>
@@ -1713,6 +1650,72 @@
   </si>
   <si>
     <t>TTAP2311018</t>
+  </si>
+  <si>
+    <t>CR-VN-TTVN-2311007</t>
+  </si>
+  <si>
+    <t>R-SG-TTAP-2311010</t>
+  </si>
+  <si>
+    <t>Nov 21, 2023</t>
+  </si>
+  <si>
+    <t>R-VN-TTVN-2311012</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>R-VN-TTVN-2311013</t>
+  </si>
+  <si>
+    <t>CR-VN-TTVN-2311011</t>
+  </si>
+  <si>
+    <t>R-SG-TTAP-2311015</t>
+  </si>
+  <si>
+    <t>Nov 26, 2023</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231114001</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231114002</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231114003</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231114004</t>
+  </si>
+  <si>
+    <t>BAFCO2311021</t>
+  </si>
+  <si>
+    <t>BAFCO2311022</t>
+  </si>
+  <si>
+    <t>BAFCO2311023</t>
+  </si>
+  <si>
+    <t>BAFCO2311024</t>
+  </si>
+  <si>
+    <t>BAFCO2311025</t>
+  </si>
+  <si>
+    <t>TTAP2311019</t>
+  </si>
+  <si>
+    <t>TTAP2311020</t>
+  </si>
+  <si>
+    <t>TTAP2311021</t>
+  </si>
+  <si>
+    <t>TTAP2311022</t>
   </si>
 </sst>
 </file>
@@ -3159,7 +3162,7 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
     </row>
   </sheetData>
@@ -3218,7 +3221,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E2" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3242,7 +3245,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E3" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3266,7 +3269,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E4" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3290,7 +3293,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3314,7 +3317,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E6" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3338,7 +3341,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E7" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3760,7 +3763,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>193</v>
@@ -3788,7 +3791,7 @@
       </c>
       <c r="D3" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>194</v>
@@ -3816,7 +3819,7 @@
       </c>
       <c r="D4" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>195</v>
@@ -3844,7 +3847,7 @@
       </c>
       <c r="D5" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>270</v>
@@ -3872,7 +3875,7 @@
       </c>
       <c r="D6" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>195</v>
@@ -3900,7 +3903,7 @@
       </c>
       <c r="D7" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>195</v>
@@ -4023,7 +4026,7 @@
       </c>
       <c r="C2" s="12" t="str">
         <f>"SGBAFCO-SGTTAP-"&amp;'TC7'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>37</v>
@@ -4039,11 +4042,11 @@
       </c>
       <c r="H2" s="12" t="str">
         <f>AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>ABs-01</v>
+        <v>ABs-07</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-ABs-01</v>
+        <v>CD-ABs-07</v>
       </c>
       <c r="J2" s="12" t="str">
         <f>'TC6.1'!B2&amp;"("&amp;'TC6.1'!C2&amp;")"</f>
@@ -4077,7 +4080,7 @@
       </c>
       <c r="S2" s="12" t="str">
         <f>'TC4'!N2</f>
-        <v>RD-AB-01</v>
+        <v>RD-AB-07</v>
       </c>
       <c r="T2" t="s">
         <v>502</v>
@@ -4141,7 +4144,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>22</v>
@@ -4167,7 +4170,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>22</v>
@@ -4193,7 +4196,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>22</v>
@@ -4219,7 +4222,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>22</v>
@@ -4245,7 +4248,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>22</v>
@@ -4271,7 +4274,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>22</v>
@@ -4322,7 +4325,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-AB-01</v>
+        <v>CS-AB-07</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4332,7 +4335,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
     </row>
   </sheetData>
@@ -4371,7 +4374,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-ABs-01</v>
+        <v>CS-ABs-07</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4381,7 +4384,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-01-001</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
     </row>
   </sheetData>
@@ -4397,7 +4400,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4428,7 +4431,7 @@
         <v>500</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="C2" s="66" t="str">
         <f>B2&amp;"s"</f>
@@ -4464,7 +4467,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4604,7 +4607,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4631,11 +4634,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Jan 2024</v>
+        <v>14 Jan 2024</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Feb 2024</v>
+        <v>14 Feb 2024</v>
       </c>
     </row>
   </sheetData>
@@ -4768,7 +4771,7 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>18 Jan 2024</v>
+        <v>24 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -4808,11 +4811,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>cAB01-2311002</v>
+        <v>cAB07-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4840,7 +4843,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
-        <v>Nov 6, 2023 ~ Nov 12, 2023</v>
+        <v>Nov 13, 2023 ~ Nov 19, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -4875,7 +4878,7 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
     </row>
   </sheetData>
@@ -4913,11 +4916,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sAB01-2311002</v>
+        <v>sAB07-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4955,11 +4958,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>pABs01-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>pABs01-2311002</v>
+        <v>pABs07-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -4997,11 +5000,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sABs01-2311001</v>
+        <v>sABs07-2311001</v>
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sABs01-2311002</v>
+        <v>sABs07-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -5306,10 +5309,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>452</v>
@@ -5317,10 +5320,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>453</v>
@@ -5328,37 +5331,37 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="C7" s="12"/>
     </row>
@@ -5480,7 +5483,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>452</v>
@@ -5488,7 +5491,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>453</v>
@@ -5496,25 +5499,25 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="B7" s="12"/>
     </row>
@@ -5567,7 +5570,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rcAB01-2311001-01</v>
+        <v>rcAB07-2311001-01</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5763,7 +5766,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6071,7 +6074,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6101,7 +6104,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6131,7 +6134,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6161,7 +6164,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6191,7 +6194,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6221,7 +6224,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -6299,7 +6302,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -6329,7 +6332,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -6359,7 +6362,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -6389,7 +6392,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -6419,7 +6422,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -6449,7 +6452,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -6734,7 +6737,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6762,7 +6765,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6790,7 +6793,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6818,7 +6821,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6846,7 +6849,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6874,7 +6877,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -6901,7 +6904,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7056,7 +7059,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7078,16 +7081,16 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Jan 2024</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 Jan 2024</v>
       </c>
       <c r="B2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Feb 2024</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+5, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 Apr 2024</v>
       </c>
       <c r="C2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Mar 2024</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+6, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 May 2024</v>
       </c>
     </row>
   </sheetData>
@@ -7099,7 +7102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFE097-22D6-4B00-9E90-9129E84E5DAC}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7115,7 +7120,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-02"</f>
-        <v>rcAB01-2311001-02</v>
+        <v>rcAB07-2311001-02</v>
       </c>
     </row>
   </sheetData>
@@ -7125,10 +7130,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AD534-E497-4569-89C5-81CBABA793F3}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7318,25 +7323,23 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C5</f>
-        <v>scenario1220230504004</v>
+        <f>'TC4-Contract Parts Info'!C4</f>
+        <v>scenario1220230504003</v>
       </c>
       <c r="B4" s="15" t="str">
-        <f>'TC3-Req to Parts Master'!B5</f>
-        <v>VN-TTVN-CUS:20230504-004</v>
+        <f>'TC3-Req to Parts Master'!B4</f>
+        <v>VN-TTVN-CUS:20230504-003</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="H4" s="12">
         <v>5</v>
@@ -7345,11 +7348,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="33" t="n">
-        <f>'TC11-Order Regular'!B5</f>
+        <f>'TC11-Order Regular'!B4</f>
         <v>1000.0</v>
       </c>
       <c r="K4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C5</f>
+        <f>'TC25-Customer Order Change'!C4</f>
         <v>1000.0</v>
       </c>
       <c r="L4" s="12"/>
@@ -7357,55 +7360,58 @@
         <v>196</v>
       </c>
       <c r="N4" s="12"/>
-      <c r="O4" s="33"/>
+      <c r="O4" s="33" t="n">
+        <f>'TC11-Order Regular'!D4</f>
+        <v>500.0</v>
+      </c>
       <c r="P4" s="33" t="n">
-        <f>'TC11-Order Regular'!E5</f>
-        <v>1000.0</v>
+        <f>'TC11-Order Regular'!E4</f>
+        <v>500.0</v>
       </c>
       <c r="Q4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!D5</f>
+        <f>'TC25-Customer Order Change'!D4</f>
         <v>500.0</v>
       </c>
       <c r="R4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!E5</f>
+        <f>'TC25-Customer Order Change'!E4</f>
         <v>500.0</v>
       </c>
-      <c r="S4" s="12"/>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C6</f>
-        <v>scenario1220230504005</v>
+        <f>'TC4-Contract Parts Info'!C5</f>
+        <v>scenario1220230504004</v>
       </c>
       <c r="B5" s="15" t="str">
-        <f>'TC3-Req to Parts Master'!B6</f>
-        <v>VN-TTVN-CUS:20230504-005</v>
+        <f>'TC3-Req to Parts Master'!B5</f>
+        <v>VN-TTVN-CUS:20230504-004</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="H5" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5" s="12">
         <v>10</v>
       </c>
       <c r="J5" s="33" t="n">
-        <f>'TC11-Order Regular'!B6</f>
+        <f>'TC11-Order Regular'!B5</f>
         <v>1000.0</v>
       </c>
       <c r="K5" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C6</f>
+        <f>'TC25-Customer Order Change'!C5</f>
         <v>1000.0</v>
       </c>
       <c r="L5" s="12"/>
@@ -7413,39 +7419,39 @@
         <v>196</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="33" t="n">
-        <f>'TC11-Order Regular'!D6</f>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33" t="n">
+        <f>'TC11-Order Regular'!E5</f>
+        <v>1000.0</v>
+      </c>
+      <c r="Q5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D5</f>
         <v>500.0</v>
       </c>
-      <c r="P5" s="33" t="n">
-        <f>'TC11-Order Regular'!E6</f>
+      <c r="R5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!E5</f>
         <v>500.0</v>
       </c>
-      <c r="Q5" s="33" t="n">
-        <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C7</f>
-        <v>scenario1220230504006</v>
+        <f>'TC4-Contract Parts Info'!C6</f>
+        <v>scenario1220230504005</v>
       </c>
       <c r="B6" s="15" t="str">
-        <f>'TC3-Req to Parts Master'!B7</f>
-        <v>VN-TTVN-CUS:20230504-006</v>
+        <f>'TC3-Req to Parts Master'!B6</f>
+        <v>VN-TTVN-CUS:20230504-005</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>195</v>
@@ -7457,11 +7463,11 @@
         <v>10</v>
       </c>
       <c r="J6" s="33" t="n">
-        <f>'TC11-Order Regular'!B7</f>
+        <f>'TC11-Order Regular'!B6</f>
         <v>1000.0</v>
       </c>
       <c r="K6" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C7</f>
+        <f>'TC25-Customer Order Change'!C6</f>
         <v>1000.0</v>
       </c>
       <c r="L6" s="12"/>
@@ -7470,28 +7476,85 @@
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="33" t="n">
+        <f>'TC11-Order Regular'!D6</f>
+        <v>500.0</v>
+      </c>
+      <c r="P6" s="33" t="n">
+        <f>'TC11-Order Regular'!E6</f>
+        <v>500.0</v>
+      </c>
+      <c r="Q6" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D6</f>
+        <v>1000.0</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="str">
+        <f>'TC4-Contract Parts Info'!C7</f>
+        <v>scenario1220230504006</v>
+      </c>
+      <c r="B7" s="15" t="str">
+        <f>'TC3-Req to Parts Master'!B7</f>
+        <v>VN-TTVN-CUS:20230504-006</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="12">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12">
+        <v>10</v>
+      </c>
+      <c r="J7" s="33" t="n">
+        <f>'TC11-Order Regular'!B7</f>
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="33" t="n">
+        <f>'TC25-Customer Order Change'!C7</f>
+        <v>1000.0</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
         <v>1000.0</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="33" t="n">
+      <c r="P7" s="33"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
         <v>1000.0</v>
       </c>
-      <c r="S6" s="12"/>
+      <c r="S7" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F6C0E8-E3D6-4001-B659-6B8372626CDE}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="O1" sqref="O1:S1"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7671,8 +7734,8 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="19" t="str">
-        <f>'TC4-Contract Parts Info'!B5</f>
-        <v>SG-TTVP:20230504-004</v>
+        <f>'TC4-Contract Parts Info'!B4</f>
+        <v>SG-TTVP:20230504-003</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="12" t="s">
@@ -7681,7 +7744,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="H4" s="12">
         <v>5</v>
@@ -7690,11 +7753,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="33" t="n">
-        <f>'TC11-Order Regular'!B5</f>
+        <f>'TC11-Order Regular'!B4</f>
         <v>1000.0</v>
       </c>
       <c r="K4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C5</f>
+        <f>'TC25-Customer Order Change'!C4</f>
         <v>1000.0</v>
       </c>
       <c r="L4" s="12"/>
@@ -7702,48 +7765,51 @@
         <v>196</v>
       </c>
       <c r="N4" s="12"/>
-      <c r="O4" s="33"/>
+      <c r="O4" s="33" t="n">
+        <f>'TC11-Order Regular'!D4</f>
+        <v>500.0</v>
+      </c>
       <c r="P4" s="33" t="n">
-        <f>'TC11-Order Regular'!E5</f>
-        <v>1000.0</v>
+        <f>'TC11-Order Regular'!E4</f>
+        <v>500.0</v>
       </c>
       <c r="Q4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!D5</f>
+        <f>'TC25-Customer Order Change'!D4</f>
         <v>500.0</v>
       </c>
       <c r="R4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!E5</f>
+        <f>'TC25-Customer Order Change'!E4</f>
         <v>500.0</v>
       </c>
-      <c r="S4" s="12"/>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="19" t="str">
-        <f>'TC4-Contract Parts Info'!B6</f>
-        <v>SG-TTVP:20230504-005</v>
+        <f>'TC4-Contract Parts Info'!B5</f>
+        <v>SG-TTVP:20230504-004</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="H5" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5" s="12">
         <v>10</v>
       </c>
       <c r="J5" s="33" t="n">
-        <f>'TC11-Order Regular'!B6</f>
+        <f>'TC11-Order Regular'!B5</f>
         <v>1000.0</v>
       </c>
       <c r="K5" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C6</f>
+        <f>'TC25-Customer Order Change'!C5</f>
         <v>1000.0</v>
       </c>
       <c r="L5" s="12"/>
@@ -7751,26 +7817,26 @@
         <v>196</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="33" t="n">
-        <f>'TC11-Order Regular'!D6</f>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33" t="n">
+        <f>'TC11-Order Regular'!E5</f>
+        <v>1000.0</v>
+      </c>
+      <c r="Q5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D5</f>
         <v>500.0</v>
       </c>
-      <c r="P5" s="33" t="n">
-        <f>'TC11-Order Regular'!E6</f>
+      <c r="R5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!E5</f>
         <v>500.0</v>
       </c>
-      <c r="Q5" s="33" t="n">
-        <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="19" t="str">
-        <f>'TC4-Contract Parts Info'!B7</f>
-        <v>SG-TTVP:20230504-006</v>
+        <f>'TC4-Contract Parts Info'!B6</f>
+        <v>SG-TTVP:20230504-005</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="12" t="s">
@@ -7788,11 +7854,11 @@
         <v>10</v>
       </c>
       <c r="J6" s="33" t="n">
-        <f>'TC11-Order Regular'!B7</f>
+        <f>'TC11-Order Regular'!B6</f>
         <v>1000.0</v>
       </c>
       <c r="K6" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C7</f>
+        <f>'TC25-Customer Order Change'!C6</f>
         <v>1000.0</v>
       </c>
       <c r="L6" s="12"/>
@@ -7801,16 +7867,65 @@
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="33" t="n">
+        <f>'TC11-Order Regular'!D6</f>
+        <v>500.0</v>
+      </c>
+      <c r="P6" s="33" t="n">
+        <f>'TC11-Order Regular'!E6</f>
+        <v>500.0</v>
+      </c>
+      <c r="Q6" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D6</f>
+        <v>1000.0</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="19" t="str">
+        <f>'TC4-Contract Parts Info'!B7</f>
+        <v>SG-TTVP:20230504-006</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="12">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12">
+        <v>10</v>
+      </c>
+      <c r="J7" s="33" t="n">
+        <f>'TC11-Order Regular'!B7</f>
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="33" t="n">
+        <f>'TC25-Customer Order Change'!C7</f>
+        <v>1000.0</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
         <v>1000.0</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="33" t="n">
+      <c r="P7" s="33"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
         <v>1000.0</v>
       </c>
-      <c r="S6" s="12"/>
+      <c r="S7" s="12"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -7819,10 +7934,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A7952-0ADD-46CB-BCDD-5633F7A7D19C}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7997,18 +8112,18 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C5</f>
-        <v>scenario1220230504004</v>
+        <f>'TC4-Contract Parts Info'!C4</f>
+        <v>scenario1220230504003</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f>'TC7-Contract Parts Info'!B5</f>
-        <v>SG-BAFCO:20230504-004</v>
+        <f>'TC7-Contract Parts Info'!B4</f>
+        <v>SG-BAFCO:20230504-003</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="G4" s="12">
         <v>5</v>
@@ -8017,11 +8132,11 @@
         <v>10</v>
       </c>
       <c r="I4" s="33" t="n">
-        <f>'TC11-Order Regular'!B5</f>
+        <f>'TC11-Order Regular'!B4</f>
         <v>1000.0</v>
       </c>
       <c r="J4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C5</f>
+        <f>'TC25-Customer Order Change'!C4</f>
         <v>1000.0</v>
       </c>
       <c r="K4" s="12"/>
@@ -8029,48 +8144,51 @@
         <v>196</v>
       </c>
       <c r="M4" s="12"/>
-      <c r="N4" s="33"/>
+      <c r="N4" s="33" t="n">
+        <f>'TC11-Order Regular'!D4</f>
+        <v>500.0</v>
+      </c>
       <c r="O4" s="33" t="n">
-        <f>'TC11-Order Regular'!E5</f>
-        <v>1000.0</v>
+        <f>'TC11-Order Regular'!E4</f>
+        <v>500.0</v>
       </c>
       <c r="P4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!D5</f>
+        <f>'TC25-Customer Order Change'!D4</f>
         <v>500.0</v>
       </c>
       <c r="Q4" s="33" t="n">
-        <f>'TC25-Customer Order Change'!E5</f>
+        <f>'TC25-Customer Order Change'!E4</f>
         <v>500.0</v>
       </c>
       <c r="R4" s="33"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C6</f>
-        <v>scenario1220230504005</v>
+        <f>'TC4-Contract Parts Info'!C5</f>
+        <v>scenario1220230504004</v>
       </c>
       <c r="B5" s="19" t="str">
-        <f>'TC7-Contract Parts Info'!B6</f>
-        <v>SG-BAFCO:20230504-005</v>
+        <f>'TC7-Contract Parts Info'!B5</f>
+        <v>SG-BAFCO:20230504-004</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="21"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="G5" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5" s="12">
         <v>10</v>
       </c>
       <c r="I5" s="33" t="n">
-        <f>'TC11-Order Regular'!B6</f>
+        <f>'TC11-Order Regular'!B5</f>
         <v>1000.0</v>
       </c>
       <c r="J5" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C6</f>
+        <f>'TC25-Customer Order Change'!C5</f>
         <v>1000.0</v>
       </c>
       <c r="K5" s="12"/>
@@ -8078,29 +8196,29 @@
         <v>196</v>
       </c>
       <c r="M5" s="12"/>
-      <c r="N5" s="33" t="n">
-        <f>'TC11-Order Regular'!D6</f>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33" t="n">
+        <f>'TC11-Order Regular'!E5</f>
+        <v>1000.0</v>
+      </c>
+      <c r="P5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D5</f>
         <v>500.0</v>
       </c>
-      <c r="O5" s="33" t="n">
-        <f>'TC11-Order Regular'!E6</f>
+      <c r="Q5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!E5</f>
         <v>500.0</v>
       </c>
-      <c r="P5" s="33" t="n">
-        <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000.0</v>
-      </c>
-      <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C7</f>
-        <v>scenario1220230504006</v>
+        <f>'TC4-Contract Parts Info'!C6</f>
+        <v>scenario1220230504005</v>
       </c>
       <c r="B6" s="19" t="str">
-        <f>'TC7-Contract Parts Info'!B7</f>
-        <v>SG-BAFCO:20230504-006</v>
+        <f>'TC7-Contract Parts Info'!B6</f>
+        <v>SG-BAFCO:20230504-005</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="12"/>
@@ -8115,11 +8233,11 @@
         <v>10</v>
       </c>
       <c r="I6" s="33" t="n">
-        <f>'TC11-Order Regular'!B7</f>
+        <f>'TC11-Order Regular'!B6</f>
         <v>1000.0</v>
       </c>
       <c r="J6" s="33" t="n">
-        <f>'TC25-Customer Order Change'!C7</f>
+        <f>'TC25-Customer Order Change'!C6</f>
         <v>1000.0</v>
       </c>
       <c r="K6" s="12"/>
@@ -8128,16 +8246,65 @@
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="33" t="n">
+        <f>'TC11-Order Regular'!D6</f>
+        <v>500.0</v>
+      </c>
+      <c r="O6" s="33" t="n">
+        <f>'TC11-Order Regular'!E6</f>
+        <v>500.0</v>
+      </c>
+      <c r="P6" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D6</f>
+        <v>1000.0</v>
+      </c>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="str">
+        <f>'TC4-Contract Parts Info'!C7</f>
+        <v>scenario1220230504006</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>'TC7-Contract Parts Info'!B7</f>
+        <v>SG-BAFCO:20230504-006</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="12">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12">
+        <v>10</v>
+      </c>
+      <c r="I7" s="33" t="n">
+        <f>'TC11-Order Regular'!B7</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J7" s="33" t="n">
+        <f>'TC25-Customer Order Change'!C7</f>
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
         <v>1000.0</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33" t="n">
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
         <v>1000.0</v>
       </c>
-      <c r="R6" s="33"/>
+      <c r="R7" s="33"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8149,7 +8316,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8230,7 +8397,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -8294,7 +8461,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -8357,7 +8524,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -8420,7 +8587,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -8483,7 +8650,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -8545,7 +8712,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -8606,7 +8773,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="P18" sqref="P18:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8678,16 +8845,16 @@
         <v>328</v>
       </c>
       <c r="U1" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="V1" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="W1" s="51" t="s">
         <v>480</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="X1" s="51" t="s">
         <v>481</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -8702,7 +8869,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -8778,7 +8945,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -8854,7 +9021,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -8930,7 +9097,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -9006,7 +9173,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -9082,7 +9249,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB01-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -9157,7 +9324,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9236,7 +9403,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -9295,7 +9462,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -9354,7 +9521,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -9413,7 +9580,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -9472,7 +9639,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -9531,7 +9698,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB01-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -9615,7 +9782,7 @@
       </c>
       <c r="B2" s="22" t="str">
         <f>"RequestPart-"&amp;'TC4'!H2</f>
-        <v>RequestPart-AB-01</v>
+        <v>RequestPart-AB-07</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -9628,8 +9795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281D8027-9DBB-4FB0-90BC-C2CA75E22329}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9723,7 +9890,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>34</v>
@@ -9797,7 +9964,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>34</v>
@@ -9871,7 +10038,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>34</v>
@@ -9945,7 +10112,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>34</v>
@@ -10019,7 +10186,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>34</v>
@@ -10093,7 +10260,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs01-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>34</v>
@@ -10165,67 +10332,11 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="E1" sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="5" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Dec 2023</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Jan 2024</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Feb 2024</v>
-      </c>
-      <c r="D2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Mar 2024</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85C8B0-8ABC-42B6-BDDD-C373C0238928}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10383,6 +10494,62 @@
       <c r="H7" s="12"/>
     </row>
   </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 Dec 2023</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 Jan 2024</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 Feb 2024</v>
+      </c>
+      <c r="D2" s="12" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>14 Mar 2024</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -10407,7 +10574,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rs"&amp;AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rsABs01-2311001-01</v>
+        <v>rsABs07-2311001-01</v>
       </c>
     </row>
   </sheetData>
@@ -10419,8 +10586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F7D49-70C3-401C-97E6-E9D888543863}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -11960,26 +12127,26 @@
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <v>o-SG-BAFCO-2311-AB-07-001</v>
       </c>
       <c r="B3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="C3" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="D3" s="38">
         <v>1000</v>
       </c>
       <c r="E3" s="37" t="str">
         <f ca="1" ref="E3:E8" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="F3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="28"/>
@@ -11990,7 +12157,7 @@
       <c r="M3" s="40"/>
       <c r="N3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-001</v>
+        <v>OP-231114-01-007</v>
       </c>
       <c r="O3" s="28" t="s">
         <v>222</v>
@@ -12006,7 +12173,7 @@
       </c>
       <c r="S3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231114-01-007</v>
       </c>
       <c r="T3" s="42"/>
       <c r="U3" s="41">
@@ -12022,26 +12189,26 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <v>o-SG-BAFCO-2311-AB-07-001</v>
       </c>
       <c r="B4" s="37" t="str">
         <f ca="1" ref="B4:B8" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="C4" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="D4" s="38">
         <v>800</v>
       </c>
       <c r="E4" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="F4" s="37" t="str">
         <f ca="1" ref="F4:F8" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>240</v>
@@ -12054,7 +12221,7 @@
       <c r="M4" s="40"/>
       <c r="N4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-001</v>
+        <v>OP-231114-01-007</v>
       </c>
       <c r="O4" s="28" t="s">
         <v>223</v>
@@ -12070,7 +12237,7 @@
       </c>
       <c r="S4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-001</v>
+        <v>IP-231114-02-007</v>
       </c>
       <c r="T4" s="42" t="s">
         <v>232</v>
@@ -12088,26 +12255,26 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <v>o-SG-BAFCO-2311-AB-07-001</v>
       </c>
       <c r="B5" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="C5" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="D5" s="38">
         <v>900</v>
       </c>
       <c r="E5" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="F5" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>220</v>
@@ -12130,7 +12297,7 @@
       </c>
       <c r="N5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-001</v>
+        <v>OP-231114-02-007</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>223</v>
@@ -12153,26 +12320,26 @@
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <v>o-SG-BAFCO-2311-AB-07-001</v>
       </c>
       <c r="B6" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="C6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="D6" s="38">
         <v>1200</v>
       </c>
       <c r="E6" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="F6" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>220</v>
@@ -12197,7 +12364,7 @@
       </c>
       <c r="N6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-001</v>
+        <v>OP-231114-02-007</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>223</v>
@@ -12220,26 +12387,26 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <v>o-SG-BAFCO-2311-AB-07-001</v>
       </c>
       <c r="B7" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="C7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="D7" s="38">
         <v>1000</v>
       </c>
       <c r="E7" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="F7" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>221</v>
@@ -12264,7 +12431,7 @@
       </c>
       <c r="N7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-001</v>
+        <v>OP-231114-03-007</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>224</v>
@@ -12280,7 +12447,7 @@
       </c>
       <c r="S7" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231114-01-007</v>
       </c>
       <c r="T7" s="42" t="s">
         <v>232</v>
@@ -12298,26 +12465,26 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <v>o-SG-BAFCO-2311-AB-07-001</v>
       </c>
       <c r="B8" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="C8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="D8" s="38">
         <v>1100</v>
       </c>
       <c r="E8" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="F8" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>221</v>
@@ -12342,7 +12509,7 @@
       </c>
       <c r="N8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-001</v>
+        <v>OP-231114-03-007</v>
       </c>
       <c r="O8" s="28" t="s">
         <v>224</v>
@@ -12358,7 +12525,7 @@
       </c>
       <c r="S8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-001</v>
+        <v>IP-231114-02-007</v>
       </c>
       <c r="T8" s="42" t="s">
         <v>239</v>
@@ -12527,11 +12694,11 @@
       </c>
       <c r="C2" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-002</v>
+        <v>o-SG-BAFCO-2311-AB-07-002</v>
       </c>
       <c r="D2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="21" t="s">
@@ -12557,11 +12724,11 @@
       </c>
       <c r="M2" s="37" t="str">
         <f ca="1" ref="M2:M9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="N2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>252</v>
@@ -12574,7 +12741,7 @@
       <c r="U2" s="44"/>
       <c r="V2" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-001</v>
+        <v>OP-231114-02-007</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>253</v>
@@ -12584,7 +12751,7 @@
       <c r="Z2" s="44"/>
       <c r="AA2" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231114-01-007</v>
       </c>
       <c r="AB2" s="45" t="s">
         <v>254</v>
@@ -12594,7 +12761,7 @@
       <c r="AE2" s="44"/>
       <c r="AF2" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs07-2311002</v>
       </c>
       <c r="AG2" s="37" t="s">
         <v>81</v>
@@ -12625,11 +12792,11 @@
       </c>
       <c r="C3" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-002</v>
+        <v>o-SG-BAFCO-2311-AB-07-002</v>
       </c>
       <c r="D3" s="37" t="str">
         <f ca="1" ref="D3:D9" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="21" t="s">
@@ -12655,11 +12822,11 @@
       </c>
       <c r="M3" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="N3" s="37" t="str">
         <f ca="1" ref="N3:N9" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>252</v>
@@ -12672,7 +12839,7 @@
       <c r="U3" s="44"/>
       <c r="V3" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-001</v>
+        <v>OP-231114-02-007</v>
       </c>
       <c r="W3" s="19" t="s">
         <v>253</v>
@@ -12682,7 +12849,7 @@
       <c r="Z3" s="44"/>
       <c r="AA3" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-001</v>
+        <v>IP-231114-02-007</v>
       </c>
       <c r="AB3" s="45" t="s">
         <v>255</v>
@@ -12692,7 +12859,7 @@
       <c r="AE3" s="44"/>
       <c r="AF3" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs07-2311002</v>
       </c>
       <c r="AG3" s="37" t="s">
         <v>81</v>
@@ -12723,11 +12890,11 @@
       </c>
       <c r="C4" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-002</v>
+        <v>o-SG-BAFCO-2311-AB-07-002</v>
       </c>
       <c r="D4" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="21" t="s">
@@ -12753,11 +12920,11 @@
       </c>
       <c r="M4" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="N4" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="O4" s="39" t="s">
         <v>252</v>
@@ -12770,7 +12937,7 @@
       <c r="U4" s="40"/>
       <c r="V4" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-001</v>
+        <v>OP-231114-01-007</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>256</v>
@@ -12786,7 +12953,7 @@
       </c>
       <c r="AA4" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-02-001</v>
+        <v>IP-231114-02-007</v>
       </c>
       <c r="AB4" s="42" t="s">
         <v>257</v>
@@ -12796,7 +12963,7 @@
       <c r="AE4" s="40"/>
       <c r="AF4" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs07-2311002</v>
       </c>
       <c r="AG4" s="37" t="s">
         <v>81</v>
@@ -12827,11 +12994,11 @@
       </c>
       <c r="C5" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-002</v>
+        <v>o-SG-BAFCO-2311-AB-07-002</v>
       </c>
       <c r="D5" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="21" t="s">
@@ -12857,11 +13024,11 @@
       </c>
       <c r="M5" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="N5" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="O5" s="21" t="s">
         <v>258</v>
@@ -12886,7 +13053,7 @@
       </c>
       <c r="V5" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-001</v>
+        <v>OP-231114-01-007</v>
       </c>
       <c r="W5" s="19" t="s">
         <v>262</v>
@@ -12896,7 +13063,7 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231114-01-007</v>
       </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="44"/>
@@ -12904,7 +13071,7 @@
       <c r="AE5" s="44"/>
       <c r="AF5" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs07-2311002</v>
       </c>
       <c r="AG5" s="37" t="s">
         <v>81</v>
@@ -12935,15 +13102,15 @@
       </c>
       <c r="C6" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-003</v>
+        <v>o-SG-BAFCO-2311-AB-07-003</v>
       </c>
       <c r="D6" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="E6" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-007</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>29</v>
@@ -12968,11 +13135,11 @@
       </c>
       <c r="M6" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="N6" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="O6" s="21" t="s">
         <v>263</v>
@@ -12989,7 +13156,7 @@
       <c r="U6" s="44"/>
       <c r="V6" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-01-001</v>
+        <v>OP-231114-01-007</v>
       </c>
       <c r="W6" s="19" t="s">
         <v>262</v>
@@ -13004,7 +13171,7 @@
       <c r="AE6" s="44"/>
       <c r="AF6" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs07-2311002</v>
       </c>
       <c r="AG6" s="37" t="s">
         <v>81</v>
@@ -13035,15 +13202,15 @@
       </c>
       <c r="C7" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-003</v>
+        <v>o-SG-BAFCO-2311-AB-07-003</v>
       </c>
       <c r="D7" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="E7" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-007</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>152</v>
@@ -13068,11 +13235,11 @@
       </c>
       <c r="M7" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="N7" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>263</v>
@@ -13089,7 +13256,7 @@
       <c r="U7" s="44"/>
       <c r="V7" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-02-001</v>
+        <v>OP-231114-02-007</v>
       </c>
       <c r="W7" s="19" t="s">
         <v>256</v>
@@ -13104,7 +13271,7 @@
       <c r="AE7" s="44"/>
       <c r="AF7" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs07-2311002</v>
       </c>
       <c r="AG7" s="37" t="s">
         <v>81</v>
@@ -13135,15 +13302,15 @@
       </c>
       <c r="C8" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-003"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-003</v>
+        <v>o-SG-BAFCO-2311-AB-07-003</v>
       </c>
       <c r="D8" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="E8" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-02-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-007</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>268</v>
@@ -13168,11 +13335,11 @@
       </c>
       <c r="M8" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="N8" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>265</v>
@@ -13197,7 +13364,7 @@
       </c>
       <c r="V8" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-001</v>
+        <v>OP-231114-03-007</v>
       </c>
       <c r="W8" s="19" t="s">
         <v>256</v>
@@ -13213,7 +13380,7 @@
       </c>
       <c r="AA8" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231114-01-007</v>
       </c>
       <c r="AB8" s="45" t="s">
         <v>257</v>
@@ -13229,7 +13396,7 @@
       </c>
       <c r="AF8" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs07-2311002</v>
       </c>
       <c r="AG8" s="37" t="s">
         <v>81</v>
@@ -13260,15 +13427,15 @@
       </c>
       <c r="C9" s="36" t="str">
         <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-004"]]></f>
-        <v>o-SG-BAFCO-2311-AB-01-004</v>
+        <v>o-SG-BAFCO-2311-AB-07-004</v>
       </c>
       <c r="D9" s="37" t="str">
         <f ca="1" si="1" t="shared"/>
-        <v>07 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="E9" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-03-001</v>
+        <v>B-2311-AB-03-007</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>268</v>
@@ -13293,11 +13460,11 @@
       </c>
       <c r="M9" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>10 Nov 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="N9" s="37" t="str">
         <f ca="1" si="2" t="shared"/>
-        <v>18 Nov 2023</v>
+        <v>24 Nov 2023</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
@@ -13308,7 +13475,7 @@
       <c r="U9" s="44"/>
       <c r="V9" s="37" t="str">
         <f ca="1">"OP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-03-0"&amp;AutoIncrement!A2</f>
-        <v>OP-231108-03-001</v>
+        <v>OP-231114-03-007</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>256</v>
@@ -13324,7 +13491,7 @@
       </c>
       <c r="AA9" s="37" t="str">
         <f ca="1">"IP-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>IP-231108-01-001</v>
+        <v>IP-231114-01-007</v>
       </c>
       <c r="AB9" s="45" t="s">
         <v>257</v>
@@ -13340,7 +13507,7 @@
       </c>
       <c r="AF9" s="37" t="str">
         <f ca="1">'TC16-Supplier SO'!C2</f>
-        <v>sABs01-2311002</v>
+        <v>sABs07-2311002</v>
       </c>
       <c r="AG9" s="37" t="s">
         <v>81</v>
@@ -13399,10 +13566,10 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!A3</f>
-        <v>o-SG-BAFCO-2311-AB-01-001</v>
+        <v>o-SG-BAFCO-2311-AB-07-001</v>
       </c>
       <c r="C2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -13411,10 +13578,10 @@
       </c>
       <c r="B3" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C2</f>
-        <v>o-SG-BAFCO-2311-AB-01-002</v>
+        <v>o-SG-BAFCO-2311-AB-07-002</v>
       </c>
       <c r="C3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -13423,10 +13590,10 @@
       </c>
       <c r="B4" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C6</f>
-        <v>o-SG-BAFCO-2311-AB-01-003</v>
+        <v>o-SG-BAFCO-2311-AB-07-003</v>
       </c>
       <c r="C4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -13435,10 +13602,10 @@
       </c>
       <c r="B5" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!C9</f>
-        <v>o-SG-BAFCO-2311-AB-01-004</v>
+        <v>o-SG-BAFCO-2311-AB-07-004</v>
       </c>
       <c r="C5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -13866,10 +14033,10 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC44-Outbound No'!C2</f>
-        <v>o-SG-BAFCO-231108009</v>
+        <v>o-SG-BAFCO-231114001</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>464</v>
@@ -13881,10 +14048,10 @@
       </c>
       <c r="B3" s="12" t="str">
         <f>'TC44-Outbound No'!C3</f>
-        <v>o-SG-BAFCO-231108010</v>
+        <v>o-SG-BAFCO-231114002</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>465</v>
@@ -13896,10 +14063,10 @@
       </c>
       <c r="B4" s="12" t="str">
         <f>'TC44-Outbound No'!C4</f>
-        <v>o-SG-BAFCO-231108011</v>
+        <v>o-SG-BAFCO-231114003</v>
       </c>
       <c r="C4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13908,15 +14075,15 @@
       </c>
       <c r="B5" s="12" t="str">
         <f>'TC44-Outbound No'!C5</f>
-        <v>o-SG-BAFCO-231108012</v>
+        <v>o-SG-BAFCO-231114004</v>
       </c>
       <c r="C5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>466</v>
@@ -14025,7 +14192,7 @@
     <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48" t="s">
@@ -14104,7 +14271,7 @@
     <row customFormat="1" r="3" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="B3" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G4</f>
@@ -14186,7 +14353,7 @@
     <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G5</f>
@@ -14268,7 +14435,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="B5" s="53" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G7</f>
@@ -14450,7 +14617,7 @@
     <row customFormat="1" r="2" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E6</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-007</v>
       </c>
       <c r="B2" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O8</f>
@@ -14611,7 +14778,7 @@
     <row customFormat="1" r="4" s="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-007</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O6</f>
@@ -14693,7 +14860,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E9</f>
-        <v>B-2311-AB-03-001</v>
+        <v>B-2311-AB-03-007</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="48" t="s">
@@ -14879,14 +15046,14 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C3</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C8</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="B3" s="24" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G8</f>
@@ -14896,7 +15063,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C4</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="B4" s="49" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G4</f>
@@ -14906,7 +15073,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="str">
         <f ca="1">'TC44-Supplier Outbound -Regular'!C6</f>
-        <v>B-2311-AB-01-001</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="B5" s="49" t="str">
         <f>'TC44-Supplier Outbound -Regular'!G6</f>
@@ -14930,7 +15097,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E8</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-007</v>
       </c>
       <c r="B8" s="24" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O8</f>
@@ -14940,7 +15107,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E7</f>
-        <v>B-2311-AB-02-001</v>
+        <v>B-2311-AB-02-007</v>
       </c>
       <c r="B9" s="24" t="str">
         <f>'TC44-Supplier Outbound -Spot'!O7</f>
@@ -14950,7 +15117,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="str">
         <f ca="1">'TC44-Supplier Outbound -Spot'!E9</f>
-        <v>B-2311-AB-03-001</v>
+        <v>B-2311-AB-03-007</v>
       </c>
       <c r="B10" s="12"/>
     </row>
@@ -14989,10 +15156,10 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC44-Outbound No'!C2</f>
-        <v>o-SG-BAFCO-231108009</v>
+        <v>o-SG-BAFCO-231114001</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -15001,10 +15168,10 @@
       </c>
       <c r="B3" s="12" t="str">
         <f>'TC44-Outbound No'!C3</f>
-        <v>o-SG-BAFCO-231108010</v>
+        <v>o-SG-BAFCO-231114002</v>
       </c>
       <c r="C3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -15013,10 +15180,10 @@
       </c>
       <c r="B4" s="12" t="str">
         <f>'TC44-Outbound No'!C4</f>
-        <v>o-SG-BAFCO-231108011</v>
+        <v>o-SG-BAFCO-231114003</v>
       </c>
       <c r="C4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -15025,10 +15192,10 @@
       </c>
       <c r="B5" s="12" t="str">
         <f>'TC44-Outbound No'!C5</f>
-        <v>o-SG-BAFCO-231108012</v>
+        <v>o-SG-BAFCO-231114004</v>
       </c>
       <c r="C5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -15076,11 +15243,11 @@
       </c>
       <c r="B2" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C2" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -15092,11 +15259,11 @@
       </c>
       <c r="B3" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C3" s="37" t="str">
         <f ca="1" ref="C3:C15" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -15108,11 +15275,11 @@
       </c>
       <c r="B4" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C4" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -15124,11 +15291,11 @@
       </c>
       <c r="B5" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C5" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -15140,11 +15307,11 @@
       </c>
       <c r="B6" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C6" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -15156,11 +15323,11 @@
       </c>
       <c r="B7" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C7" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -15172,11 +15339,11 @@
       </c>
       <c r="B8" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C8" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -15188,11 +15355,11 @@
       </c>
       <c r="B9" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C9" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -15204,11 +15371,11 @@
       </c>
       <c r="B10" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C10" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -15220,11 +15387,11 @@
       </c>
       <c r="B11" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C11" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -15236,11 +15403,11 @@
       </c>
       <c r="B12" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C12" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -15252,11 +15419,11 @@
       </c>
       <c r="B13" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-001</v>
+        <v>i-VN-AKIRA-231114-AB-07-001</v>
       </c>
       <c r="C13" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D13" s="50">
         <v>1</v>
@@ -15274,11 +15441,11 @@
       </c>
       <c r="B14" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-002</v>
+        <v>i-VN-AKIRA-231114-AB-07-002</v>
       </c>
       <c r="C14" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D14" s="50">
         <v>1</v>
@@ -15296,11 +15463,11 @@
       </c>
       <c r="B15" s="12" t="str">
         <f ca="1"><![CDATA["i-VN-AKIRA-"&TEXT(TODAY(),"yymmdd")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-002"]]></f>
-        <v>i-VN-AKIRA-231108-AB-01-002</v>
+        <v>i-VN-AKIRA-231114-AB-07-002</v>
       </c>
       <c r="C15" s="37" t="str">
         <f ca="1" si="0" t="shared"/>
-        <v>08 Nov 2023</v>
+        <v>14 Nov 2023</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -15457,7 +15624,7 @@
       </c>
       <c r="E2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>411</v>
@@ -15507,7 +15674,7 @@
       </c>
       <c r="E3" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>411</v>
@@ -15557,7 +15724,7 @@
       </c>
       <c r="E4" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>412</v>
@@ -15607,7 +15774,7 @@
       </c>
       <c r="E5" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>412</v>
@@ -15656,7 +15823,7 @@
       </c>
       <c r="E6" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>413</v>
@@ -15705,7 +15872,7 @@
       </c>
       <c r="E7" s="52" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>413</v>
@@ -15842,7 +16009,7 @@
       </c>
       <c r="C2" s="20" t="str">
         <f>"SGTTAP-VNTTVN-"&amp;'TC4'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>SGTTAP-VNTTVN-AB-01-001</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>20</v>
@@ -15858,11 +16025,11 @@
       </c>
       <c r="H2" s="20" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>AB-01</v>
+        <v>AB-07</v>
       </c>
       <c r="I2" s="20" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-AB-01</v>
+        <v>CD-AB-07</v>
       </c>
       <c r="J2" s="20" t="str">
         <f>'TC3.1'!B2&amp;"("&amp;'TC3.1'!C2&amp;")"</f>
@@ -15879,7 +16046,7 @@
       </c>
       <c r="N2" s="20" t="str">
         <f>"RD-"&amp;H2</f>
-        <v>RD-AB-01</v>
+        <v>RD-AB-07</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>23</v>
@@ -15912,15 +16079,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb25f0482db5a79c3d6b5c0926ca00a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67b0f0bb964429d84d53f322277e62a8" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -16091,15 +16249,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE8E0C0-5F6A-4B9A-ADE6-103C7424D86B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99662FE2-EAA5-4D8B-B946-6554FA1D8F90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16116,4 +16275,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE8E0C0-5F6A-4B9A-ADE6-103C7424D86B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 12/S12_TestCases_Data.xlsx
@@ -1,112 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC6B75E-CBEE-4D34-9DCD-1181F6D1F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9BE44440-7B9D-4406-A0AE-9839D3F0BB58}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" firstSheet="40" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="621" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicator" sheetId="82" r:id="rId1"/>
-    <sheet name="AutoIncrement" sheetId="5" r:id="rId2"/>
-    <sheet name="TC1" sheetId="71" r:id="rId3"/>
-    <sheet name="TC2" sheetId="72" r:id="rId4"/>
-    <sheet name="TC3" sheetId="1" r:id="rId5"/>
-    <sheet name="TC3-Req to Parts Master" sheetId="73" r:id="rId6"/>
-    <sheet name="TC3.1" sheetId="74" r:id="rId7"/>
-    <sheet name="TC4-Contract Parts Info" sheetId="4" r:id="rId8"/>
-    <sheet name="TC4" sheetId="3" r:id="rId9"/>
-    <sheet name="TC5" sheetId="6" r:id="rId10"/>
-    <sheet name="TC6" sheetId="7" r:id="rId11"/>
-    <sheet name="TC6.1" sheetId="75" r:id="rId12"/>
-    <sheet name="TC6.2" sheetId="9" r:id="rId13"/>
-    <sheet name="TC6.2_ETAnWeek" sheetId="10" r:id="rId14"/>
-    <sheet name="TC7-Contract Parts Info" sheetId="76" r:id="rId15"/>
-    <sheet name="TC7" sheetId="11" r:id="rId16"/>
-    <sheet name="TC8" sheetId="53" r:id="rId17"/>
-    <sheet name="TC9" sheetId="12" r:id="rId18"/>
-    <sheet name="TC10" sheetId="13" r:id="rId19"/>
-    <sheet name="TC11-Order Regular" sheetId="15" r:id="rId20"/>
-    <sheet name="TC11-Inbound Dates Regular" sheetId="16" r:id="rId21"/>
-    <sheet name="TC11-Order Spot" sheetId="17" r:id="rId22"/>
-    <sheet name="TC11-Inbound Dates Spot" sheetId="18" r:id="rId23"/>
-    <sheet name="TC11-Customer CO" sheetId="25" r:id="rId24"/>
-    <sheet name="TC11- Period Generator" sheetId="77" r:id="rId25"/>
-    <sheet name="TC12" sheetId="54" r:id="rId26"/>
-    <sheet name="TC14-BU SO" sheetId="19" r:id="rId27"/>
-    <sheet name="TC15-BU PO" sheetId="20" r:id="rId28"/>
-    <sheet name="TC16-Supplier SO" sheetId="21" r:id="rId29"/>
-    <sheet name="TC17.1-Sup SO Delivery Plan" sheetId="78" r:id="rId30"/>
-    <sheet name="TC17.1-Sup SODeliveryPlan(Date)" sheetId="79" r:id="rId31"/>
-    <sheet name="TC17.2-Sup SO Delivery Plan" sheetId="80" r:id="rId32"/>
-    <sheet name="TC17.2-Sup SODeliveryPlan(Date)" sheetId="81" r:id="rId33"/>
-    <sheet name="TC18-Forecast Change" sheetId="26" r:id="rId34"/>
-    <sheet name="TC20-BU Change Request" sheetId="28" r:id="rId35"/>
-    <sheet name="TC19-Customer Change Request" sheetId="27" r:id="rId36"/>
-    <sheet name="TC21-Supplier Approve Change " sheetId="29" r:id="rId37"/>
-    <sheet name="TC22-Customer Forecast CO " sheetId="30" r:id="rId38"/>
-    <sheet name="TC23-BU Forecast SO" sheetId="31" r:id="rId39"/>
-    <sheet name="TC24-BU Forecast PO" sheetId="32" r:id="rId40"/>
-    <sheet name="TC25-Customer Order Change" sheetId="33" r:id="rId41"/>
-    <sheet name="TC25-Change Inbound Date" sheetId="34" r:id="rId42"/>
-    <sheet name="TC25-Change Request No" sheetId="40" r:id="rId43"/>
-    <sheet name="TC26-Customer AutoGen Change" sheetId="35" r:id="rId44"/>
-    <sheet name="TC27-BU AutoGen Change" sheetId="38" r:id="rId45"/>
-    <sheet name="TC28-Supplier Approve Change" sheetId="39" r:id="rId46"/>
-    <sheet name="TC29-Customer Check CO" sheetId="43" r:id="rId47"/>
-    <sheet name="TC30-BU Check SO" sheetId="44" r:id="rId48"/>
-    <sheet name="TC31-BU Check PO" sheetId="45" r:id="rId49"/>
-    <sheet name="TC32-Supplier Check SO" sheetId="46" r:id="rId50"/>
-    <sheet name="TC33-New Outbound Date" sheetId="55" r:id="rId51"/>
-    <sheet name="TC33-New Firm Qty" sheetId="70" r:id="rId52"/>
-    <sheet name="TC33-Change Request No" sheetId="56" r:id="rId53"/>
-    <sheet name="TC34" sheetId="67" r:id="rId54"/>
-    <sheet name="TC35" sheetId="68" r:id="rId55"/>
-    <sheet name="TC36" sheetId="57" r:id="rId56"/>
-    <sheet name="TC44-Supplier Outbound -Regular" sheetId="47" r:id="rId57"/>
-    <sheet name="TC44-Supplier Outbound -Spot" sheetId="49" r:id="rId58"/>
-    <sheet name="TC44-Outbound No" sheetId="50" r:id="rId59"/>
-    <sheet name="TC45-Supplier SellerGI Invoice" sheetId="52" r:id="rId60"/>
-    <sheet name="TC50.1-Customer Cargo -Regular" sheetId="59" r:id="rId61"/>
-    <sheet name="TC50.2-Customer Cargo -Spot" sheetId="60" r:id="rId62"/>
-    <sheet name="TC53-Shipping Detail" sheetId="62" r:id="rId63"/>
-    <sheet name="TC61-BU SellerGI Invoice" sheetId="64" r:id="rId64"/>
-    <sheet name="TC68-DC Inbound" sheetId="65" r:id="rId65"/>
+    <sheet name="Indicator" r:id="rId1" sheetId="82"/>
+    <sheet name="AutoIncrement" r:id="rId2" sheetId="5"/>
+    <sheet name="TC1" r:id="rId3" sheetId="71"/>
+    <sheet name="TC2" r:id="rId4" sheetId="72"/>
+    <sheet name="TC3" r:id="rId5" sheetId="1"/>
+    <sheet name="TC3-Req to Parts Master" r:id="rId6" sheetId="73"/>
+    <sheet name="TC3.1" r:id="rId7" sheetId="74"/>
+    <sheet name="TC4-Contract Parts Info" r:id="rId8" sheetId="4"/>
+    <sheet name="TC4" r:id="rId9" sheetId="3"/>
+    <sheet name="TC5" r:id="rId10" sheetId="6"/>
+    <sheet name="TC6" r:id="rId11" sheetId="7"/>
+    <sheet name="TC6.1" r:id="rId12" sheetId="75"/>
+    <sheet name="TC6.2" r:id="rId13" sheetId="9"/>
+    <sheet name="TC6.2_ETAnWeek" r:id="rId14" sheetId="10"/>
+    <sheet name="TC7-Contract Parts Info" r:id="rId15" sheetId="76"/>
+    <sheet name="TC7" r:id="rId16" sheetId="11"/>
+    <sheet name="TC8" r:id="rId17" sheetId="53"/>
+    <sheet name="TC9" r:id="rId18" sheetId="12"/>
+    <sheet name="TC10" r:id="rId19" sheetId="13"/>
+    <sheet name="TC11-Order Regular" r:id="rId20" sheetId="15"/>
+    <sheet name="TC11-Inbound Dates Regular" r:id="rId21" sheetId="16"/>
+    <sheet name="TC11-Order Spot" r:id="rId22" sheetId="17"/>
+    <sheet name="TC11-Inbound Dates Spot" r:id="rId23" sheetId="18"/>
+    <sheet name="TC11-Customer CO" r:id="rId24" sheetId="25"/>
+    <sheet name="TC11- Period Generator" r:id="rId25" sheetId="77"/>
+    <sheet name="TC12" r:id="rId26" sheetId="54"/>
+    <sheet name="TC14-BU SO" r:id="rId27" sheetId="19"/>
+    <sheet name="TC15-BU PO" r:id="rId28" sheetId="20"/>
+    <sheet name="TC16-Supplier SO" r:id="rId29" sheetId="21"/>
+    <sheet name="TC17.1-Sup SO Delivery Plan" r:id="rId30" sheetId="78"/>
+    <sheet name="TC17.1-Sup SODeliveryPlan(Date)" r:id="rId31" sheetId="79"/>
+    <sheet name="TC17.2-Sup SO Delivery Plan" r:id="rId32" sheetId="80"/>
+    <sheet name="TC17.2-Sup SODeliveryPlan(Date)" r:id="rId33" sheetId="81"/>
+    <sheet name="TC18-Forecast Change" r:id="rId34" sheetId="26"/>
+    <sheet name="TC20-BU Change Request" r:id="rId35" sheetId="28"/>
+    <sheet name="TC19-Customer Change Request" r:id="rId36" sheetId="27"/>
+    <sheet name="TC21-Supplier Approve Change " r:id="rId37" sheetId="29"/>
+    <sheet name="TC22-Customer Forecast CO " r:id="rId38" sheetId="30"/>
+    <sheet name="TC23-BU Forecast SO" r:id="rId39" sheetId="31"/>
+    <sheet name="TC24-BU Forecast PO" r:id="rId40" sheetId="32"/>
+    <sheet name="TC25-Customer Order Change" r:id="rId41" sheetId="33"/>
+    <sheet name="TC25-Change Inbound Date" r:id="rId42" sheetId="34"/>
+    <sheet name="TC25-Change Request No" r:id="rId43" sheetId="40"/>
+    <sheet name="TC26-Customer AutoGen Change" r:id="rId44" sheetId="35"/>
+    <sheet name="TC27-BU AutoGen Change" r:id="rId45" sheetId="38"/>
+    <sheet name="TC28-Supplier Approve Change" r:id="rId46" sheetId="39"/>
+    <sheet name="TC29-Customer Check CO" r:id="rId47" sheetId="43"/>
+    <sheet name="TC30-BU Check SO" r:id="rId48" sheetId="44"/>
+    <sheet name="TC31-BU Check PO" r:id="rId49" sheetId="45"/>
+    <sheet name="TC32-Supplier Check SO" r:id="rId50" sheetId="46"/>
+    <sheet name="TC33-New Firm Qty" r:id="rId51" sheetId="70"/>
+    <sheet name="TC33-New Outbound Date" r:id="rId52" sheetId="55"/>
+    <sheet name="TC33-Change Request No" r:id="rId53" sheetId="56"/>
+    <sheet name="TC34" r:id="rId54" sheetId="67"/>
+    <sheet name="TC35" r:id="rId55" sheetId="68"/>
+    <sheet name="TC36" r:id="rId56" sheetId="57"/>
+    <sheet name="TC44-Supplier Outbound -Regular" r:id="rId57" sheetId="47"/>
+    <sheet name="TC44-Supplier Outbound -Spot" r:id="rId58" sheetId="49"/>
+    <sheet name="TC44-Outbound No" r:id="rId59" sheetId="50"/>
+    <sheet name="TC45-Supplier SellerGI Invoice" r:id="rId60" sheetId="52"/>
+    <sheet name="TC50.1-Customer Cargo -Regular" r:id="rId61" sheetId="59"/>
+    <sheet name="TC50.2-Customer Cargo -Spot" r:id="rId62" sheetId="60"/>
+    <sheet name="TC53-Shipping Detail" r:id="rId63" sheetId="62"/>
+    <sheet name="TC61-BU SellerGI Invoice" r:id="rId64" sheetId="64"/>
+    <sheet name="TC68-DC Inbound" r:id="rId65" sheetId="65"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId66"/>
   </externalReferences>
   <definedNames>
-    <definedName name="activeFlagListArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="activeFlagListArr">#REF!</definedName>
     <definedName name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr">#REF!</definedName>
     <definedName name="cargoStatus0">#REF!</definedName>
     <definedName name="cargoStatus1">#REF!</definedName>
     <definedName name="cargoStatus2">#REF!</definedName>
     <definedName name="CURRENCY_CODE">#REF!</definedName>
-    <definedName name="findAllUomArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="findAllUomArr">#REF!</definedName>
     <definedName name="findAllUomArr">[1]findAllUomArr!$A$1:$A$41</definedName>
     <definedName name="PAIRED_FLAG">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG">#REF!</definedName>
     <definedName name="pairedPartsFlagStrArr">#REF!</definedName>
-    <definedName name="partsTypeArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="partsTypeArr">#REF!</definedName>
     <definedName name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="REPACKING_TYPE">#REF!</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="rolledPartsFlagArr">#REF!</definedName>
     <definedName name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="5" name="rolledPartsUomArr">#REF!</definedName>
     <definedName name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$41</definedName>
     <definedName name="UOM_CODE">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="518">
   <si>
     <t>No</t>
   </si>
@@ -1652,12 +1652,6 @@
     <t>TTAP2311018</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>R-VN-TTVN-2311008</t>
-  </si>
-  <si>
     <t>CR-VN-TTVN-2311007</t>
   </si>
   <si>
@@ -1665,6 +1659,63 @@
   </si>
   <si>
     <t>Nov 21, 2023</t>
+  </si>
+  <si>
+    <t>R-VN-TTVN-2311012</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>R-VN-TTVN-2311013</t>
+  </si>
+  <si>
+    <t>CR-VN-TTVN-2311011</t>
+  </si>
+  <si>
+    <t>R-SG-TTAP-2311015</t>
+  </si>
+  <si>
+    <t>Nov 26, 2023</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231114001</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231114002</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231114003</t>
+  </si>
+  <si>
+    <t>o-SG-BAFCO-231114004</t>
+  </si>
+  <si>
+    <t>BAFCO2311021</t>
+  </si>
+  <si>
+    <t>BAFCO2311022</t>
+  </si>
+  <si>
+    <t>BAFCO2311023</t>
+  </si>
+  <si>
+    <t>BAFCO2311024</t>
+  </si>
+  <si>
+    <t>BAFCO2311025</t>
+  </si>
+  <si>
+    <t>TTAP2311019</t>
+  </si>
+  <si>
+    <t>TTAP2311020</t>
+  </si>
+  <si>
+    <t>TTAP2311021</t>
+  </si>
+  <si>
+    <t>TTAP2311022</t>
   </si>
 </sst>
 </file>
@@ -2011,241 +2062,241 @@
     </border>
   </borders>
   <cellStyleXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="170" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="4" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="3" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="3"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="5">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="166" xfId="4">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="168" xfId="4">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="166" xfId="4">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="169" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="4">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 13" xfId="6" xr:uid="{DAC2F1B6-5F0C-4911-9B5C-B5CAE8654FF7}"/>
     <cellStyle name="Normal 2" xfId="8" xr:uid="{05CD56BC-B259-455F-8B6E-D7A790BD14E2}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{0077DFB7-1F7C-4A43-8985-01F7EAF42D54}"/>
@@ -2257,7 +2308,7 @@
     <cellStyle name="常规 2 2" xfId="10" xr:uid="{A5C60366-A437-4C5C-871D-F407967867C8}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2755,10 +2806,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2793,7 +2844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2828,7 +2879,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2922,21 +2973,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2953,7 +3004,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3005,18 +3056,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB094F-61F9-4F6B-BDA2-7BAD65AE22C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB094F-61F9-4F6B-BDA2-7BAD65AE22C0}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
@@ -3024,13 +3075,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="3.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="2:4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row ht="15" r="2" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="54" t="s">
         <v>468</v>
       </c>
@@ -3068,7 +3119,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="6" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="85"/>
       <c r="C6" s="64" t="s">
         <v>476</v>
@@ -3078,13 +3129,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77CFF02-01BA-40A3-85B4-663177661A71}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77CFF02-01BA-40A3-85B4-663177661A71}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
@@ -3092,9 +3143,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3111,17 +3162,17 @@
       </c>
       <c r="B2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-02-002</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594B606-C3E2-4590-8776-D283BD7DAE77}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3594B606-C3E2-4590-8776-D283BD7DAE77}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -3129,14 +3180,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="7" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>46</v>
       </c>
@@ -3170,7 +3221,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-02-002</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E2" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3194,7 +3245,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-02-002</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E3" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3218,7 +3269,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-02-002</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E4" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3242,7 +3293,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-02-002</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3266,7 +3317,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-02-002</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E6" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3290,7 +3341,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-02-002</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
       <c r="E7" s="12" t="str">
         <f>'TC4'!L2</f>
@@ -3301,13 +3352,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C54E39-7FDB-4E7D-8E4A-1FECA68F69D2}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C54E39-7FDB-4E7D-8E4A-1FECA68F69D2}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -3315,10 +3366,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3368,26 +3419,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB951A2-E1E3-41BE-9E98-AE84703BC5C7}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB951A2-E1E3-41BE-9E98-AE84703BC5C7}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row ht="14.4" r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>52</v>
       </c>
@@ -3535,13 +3586,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12A9C-8FE9-4F99-ACBE-9965D2480768}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12A9C-8FE9-4F99-ACBE-9965D2480768}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -3549,9 +3600,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="15" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="2" max="15" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -3651,13 +3702,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1CC9B-6D5F-4684-8DC1-9ECC6B866CFC}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1CC9B-6D5F-4684-8DC1-9ECC6B866CFC}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -3665,10 +3716,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="11" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="11" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="12" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3712,7 +3763,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>193</v>
@@ -3740,7 +3791,7 @@
       </c>
       <c r="D3" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>194</v>
@@ -3768,7 +3819,7 @@
       </c>
       <c r="D4" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>195</v>
@@ -3796,7 +3847,7 @@
       </c>
       <c r="D5" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>270</v>
@@ -3824,7 +3875,7 @@
       </c>
       <c r="D6" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>195</v>
@@ -3852,7 +3903,7 @@
       </c>
       <c r="D7" s="52" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>195</v>
@@ -3879,14 +3930,14 @@
       <c r="I8" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B734894B-25AB-43FF-8158-1149F870C11B}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B734894B-25AB-43FF-8158-1149F870C11B}">
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -3894,14 +3945,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="20" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="9" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="15" max="20" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="21" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -3971,11 +4022,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C2" s="12" t="str">
         <f>"SGBAFCO-SGTTAP-"&amp;'TC7'!H2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>37</v>
@@ -3991,11 +4042,11 @@
       </c>
       <c r="H2" s="12" t="str">
         <f>AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>ABs-02</v>
+        <v>ABs-07</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-ABs-02</v>
+        <v>CD-ABs-07</v>
       </c>
       <c r="J2" s="12" t="str">
         <f>'TC6.1'!B2&amp;"("&amp;'TC6.1'!C2&amp;")"</f>
@@ -4029,20 +4080,20 @@
       </c>
       <c r="S2" s="12" t="str">
         <f>'TC4'!N2</f>
-        <v>RD-AB-02</v>
+        <v>RD-AB-07</v>
       </c>
       <c r="T2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723AEF1-596F-41E1-B760-C0119527A8CE}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723AEF1-596F-41E1-B760-C0119527A8CE}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
@@ -4050,11 +4101,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4093,7 +4144,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>22</v>
@@ -4119,7 +4170,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>22</v>
@@ -4145,7 +4196,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>22</v>
@@ -4171,7 +4222,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>22</v>
@@ -4197,7 +4248,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>22</v>
@@ -4223,7 +4274,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>22</v>
@@ -4237,14 +4288,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F605A60-7548-455E-B1BD-E501B50E1D8E}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F605A60-7548-455E-B1BD-E501B50E1D8E}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4252,9 +4303,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4274,7 +4325,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-AB-02</v>
+        <v>CS-AB-07</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4284,17 +4335,17 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-02-002</v>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F67513-3B0C-412F-A466-F3B7B2A44CBB}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F67513-3B0C-412F-A466-F3B7B2A44CBB}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4302,8 +4353,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4323,7 +4374,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f>"CS-"&amp;AutoIncrement!C2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CS-ABs-02</v>
+        <v>CS-ABs-07</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -4333,86 +4384,1150 @@
       </c>
       <c r="D2" s="12" t="str">
         <f>'TC7'!C2</f>
-        <v>SGBAFCO-SGTTAP-ABs-02-002</v>
+        <v>SGBAFCO-SGTTAP-ABs-07-007</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB0F19-6308-470D-96AC-F48FFA3E7D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB0F19-6308-470D-96AC-F48FFA3E7D98}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="39.0" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" s="87"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="66" t="str">
+        <f>B2&amp;"s"</f>
+        <v>ABs</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DEE1FD-F115-4FC2-A8A4-08A8E868068A}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="26">
+        <v>500</v>
+      </c>
+      <c r="E2" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="26">
+        <v>500</v>
+      </c>
+      <c r="E3" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="26">
+        <v>500</v>
+      </c>
+      <c r="E4" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="26">
+        <v>500</v>
+      </c>
+      <c r="E6" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0643A5-B7E2-4DA9-B069-8F351003DB03}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="8.88671875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>467</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" s="66" t="str">
-        <f>B2&amp;"s"</f>
-        <v>ABs</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>14 Jan 2024</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>14 Feb 2024</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BF405A-1265-4529-9930-40B4726F6D66}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>100</v>
+      </c>
+      <c r="C2" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>100</v>
+      </c>
+      <c r="C3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>100</v>
+      </c>
+      <c r="C4" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>100</v>
+      </c>
+      <c r="C5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>100</v>
+      </c>
+      <c r="C6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>100</v>
+      </c>
+      <c r="C7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DEE1FD-F115-4FC2-A8A4-08A8E868068A}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+10), "dd MMM yyyy")</f>
+        <v>24 Jan 2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A8B1D-3D68-4DFF-812B-9F06D6FA029B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
+        <v>cAB07-2311001</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
+        <v>cAB07-2311002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30E7E9-63FD-421B-ACB4-C15182195C24}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="30.77734375" collapsed="true"/>
+    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="str">
+        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
+        <v>Nov 13, 2023 ~ Nov 19, 2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8FC041-2817-491D-9A9F-8F7D35CE41E0}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="30.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f>'TC4'!C2</f>
+        <v>SGTTAP-VNTTVN-AB-07-007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FCF16-D645-4ABB-87A9-49E7147946A3}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
+        <v>sAB07-2311001</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
+        <v>sAB07-2311002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB5BAB7-019C-433A-A788-027102F936EA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
+        <v>pABs07-2311001</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
+        <v>pABs07-2311002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65D81D-C87E-4360-A071-AB53568FC756}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
+        <v>sABs07-2311001</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
+        <v>sABs07-2311002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BCBB-72CE-4CBB-B1D3-1C11D7C29537}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410F41C8-F416-4FB2-A3C3-2BAD30EA4977}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>500</v>
+      </c>
+      <c r="B2" s="27">
+        <v>500</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
+        <v>500</v>
+      </c>
+      <c r="B3" s="27">
+        <v>500</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
+        <v>500</v>
+      </c>
+      <c r="B4" s="27">
+        <v>500</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>500</v>
+      </c>
+      <c r="B6" s="12">
+        <v>500</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC0F5A-5783-4133-896F-5E82CA2762D3}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC210D-873E-4EF1-A7F4-1304E8A4787B}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" customWidth="true" style="10" width="20.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="10" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>100</v>
+      </c>
+      <c r="B2" s="15">
+        <v>15</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>100</v>
+      </c>
+      <c r="B3" s="15">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>100</v>
+      </c>
+      <c r="B4" s="15">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>100</v>
+      </c>
+      <c r="B5" s="15">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>100</v>
+      </c>
+      <c r="B6" s="15">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>100</v>
+      </c>
+      <c r="B7" s="15">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC786D-476A-42DB-99D0-5D0B57E43076}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AB56FA-011D-427B-894C-D9B962F8DF72}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4421,1075 +5536,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="26">
-        <v>500</v>
-      </c>
-      <c r="E2" s="26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="26">
-        <v>500</v>
-      </c>
-      <c r="E3" s="26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="26">
-        <v>500</v>
-      </c>
-      <c r="E4" s="26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="26">
-        <v>500</v>
-      </c>
-      <c r="E6" s="26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0643A5-B7E2-4DA9-B069-8F351003DB03}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="2" collapsed="1"/>
-    <col min="2" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Jan 2024</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Feb 2024</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BF405A-1265-4529-9930-40B4726F6D66}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>100</v>
-      </c>
-      <c r="C2" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12">
-        <v>100</v>
-      </c>
-      <c r="C3" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
-        <v>100</v>
-      </c>
-      <c r="C4" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12">
-        <v>100</v>
-      </c>
-      <c r="C5" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12">
-        <v>100</v>
-      </c>
-      <c r="C6" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12">
-        <v>100</v>
-      </c>
-      <c r="C7" s="12">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9BE66-0588-4DEC-A77E-FB3B190C02C0}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>20 Jan 2024</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A8B1D-3D68-4DFF-812B-9F06D6FA029B}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>cAB02-2311001</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">"c" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>cAB02-2311002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30E7E9-63FD-421B-ACB4-C15182195C24}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="str">
-        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "[$-409]mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "[$-409]mmm d, yyyy")</f>
-        <v>Nov 6, 2023 ~ Nov 12, 2023</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8FC041-2817-491D-9A9F-8F7D35CE41E0}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f>'TC4'!C2</f>
-        <v>SGTTAP-VNTTVN-AB-02-002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FCF16-D645-4ABB-87A9-49E7147946A3}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sAB02-2311001</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">"s" &amp; AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sAB02-2311002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB5BAB7-019C-433A-A788-027102F936EA}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>pABs02-2311001</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">"p" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>pABs02-2311002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65D81D-C87E-4360-A071-AB53568FC756}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001"</f>
-        <v>sABs02-2311001</v>
-      </c>
-      <c r="C2" s="12" t="str">
-        <f ca="1">"s" &amp; AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"002"</f>
-        <v>sABs02-2311002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BCBB-72CE-4CBB-B1D3-1C11D7C29537}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410F41C8-F416-4FB2-A3C3-2BAD30EA4977}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>500</v>
-      </c>
-      <c r="B2" s="27">
-        <v>500</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
-        <v>500</v>
-      </c>
-      <c r="B3" s="27">
-        <v>500</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
-        <v>500</v>
-      </c>
-      <c r="B4" s="27">
-        <v>500</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>500</v>
-      </c>
-      <c r="B6" s="12">
-        <v>500</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>1000</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC0F5A-5783-4133-896F-5E82CA2762D3}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B7" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC210D-873E-4EF1-A7F4-1304E8A4787B}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="20.77734375" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="10" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
-        <v>100</v>
-      </c>
-      <c r="B2" s="15">
-        <v>15</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
-        <v>100</v>
-      </c>
-      <c r="B3" s="15">
-        <v>15</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
-        <v>100</v>
-      </c>
-      <c r="B4" s="15">
-        <v>15</v>
-      </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
-        <v>100</v>
-      </c>
-      <c r="B5" s="15">
-        <v>15</v>
-      </c>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
-        <v>100</v>
-      </c>
-      <c r="B6" s="15">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
-        <v>100</v>
-      </c>
-      <c r="B7" s="15">
-        <v>15</v>
-      </c>
-      <c r="C7" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC786D-476A-42DB-99D0-5D0B57E43076}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>500</v>
-      </c>
-      <c r="B7" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AB56FA-011D-427B-894C-D9B962F8DF72}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5519,7 +5570,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rcAB02-2311001-01</v>
+        <v>rcAB07-2311001-01</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,14 +5635,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC82074-409B-4058-BBB4-4A7D9BAEB68A}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC82074-409B-4058-BBB4-4A7D9BAEB68A}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:K1"/>
@@ -5599,10 +5650,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="13" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5706,13 +5757,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942E21B-71C7-4EA8-A0BD-072074C2B2C3}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942E21B-71C7-4EA8-A0BD-072074C2B2C3}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
@@ -5720,11 +5771,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="12" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="7" max="12" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="13" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5799,9 +5850,9 @@
       <c r="K2" s="31">
         <v>1000</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="30" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5838,20 +5889,20 @@
       <c r="K3" s="31">
         <v>1000</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="30" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79406B4-DBD7-428C-B17D-CD86318E0FD8}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79406B4-DBD7-428C-B17D-CD86318E0FD8}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
@@ -5859,9 +5910,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="11" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="11" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="12" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -5926,9 +5977,9 @@
       <c r="J2" s="31">
         <v>1000</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="30" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5958,19 +6009,19 @@
       <c r="J3" s="31">
         <v>1000</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="30" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770ADA-1D66-4294-B397-0B2BF2F89F68}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770ADA-1D66-4294-B397-0B2BF2F89F68}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -5978,9 +6029,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6023,7 +6074,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6034,9 +6085,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="32" t="n">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6053,7 +6104,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6064,9 +6115,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="32" t="n">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6083,7 +6134,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6094,9 +6145,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="32" t="n">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6113,7 +6164,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6124,9 +6175,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="32" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6143,7 +6194,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6154,9 +6205,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="32" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6173,7 +6224,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -6184,21 +6235,21 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="32" t="n">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF76645B-AA5C-4D86-92F7-10E7C2805ED2}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF76645B-AA5C-4D86-92F7-10E7C2805ED2}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
@@ -6206,9 +6257,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="11" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6251,7 +6302,7 @@
       </c>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -6262,9 +6313,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="32" t="n">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6281,7 +6332,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -6292,9 +6343,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="32" t="n">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6311,7 +6362,7 @@
       </c>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -6322,9 +6373,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="32" t="n">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6341,7 +6392,7 @@
       </c>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -6352,9 +6403,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="32" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6371,7 +6422,7 @@
       </c>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -6382,9 +6433,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="32" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6401,7 +6452,7 @@
       </c>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -6412,33 +6463,33 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="32" t="n">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBC8B8-8C7D-4890-B23F-D42A4760DD88}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCBC8B8-8C7D-4890-B23F-D42A4760DD88}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="11" max="16" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="17" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -6629,13 +6680,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F444C-5B70-4EF5-BD9F-454F98A7A869}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59F444C-5B70-4EF5-BD9F-454F98A7A869}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
@@ -6643,9 +6694,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="11" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6686,7 +6737,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -6697,9 +6748,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="32" t="n">
         <f>'TC18-Forecast Change'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6714,7 +6765,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -6725,9 +6776,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="32" t="n">
         <f>'TC18-Forecast Change'!C3</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6742,7 +6793,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -6753,9 +6804,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="32" t="n">
         <f>'TC18-Forecast Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6770,7 +6821,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -6781,9 +6832,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="32" t="n">
         <f>'TC18-Forecast Change'!C5</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6798,7 +6849,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -6809,9 +6860,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="32" t="n">
         <f>'TC18-Forecast Change'!C6</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6826,7 +6877,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -6837,32 +6888,32 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="32" t="n">
         <f>'TC18-Forecast Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513AACE-A996-4FC1-BA95-6FA48F0C2957}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513AACE-A996-4FC1-BA95-6FA48F0C2957}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6998,23 +7049,23 @@
       <c r="F7" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679C6DA-4A25-4D87-9555-75757A39B539}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679C6DA-4A25-4D87-9555-75757A39B539}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7030,33 +7081,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Jan 2024</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 Jan 2024</v>
       </c>
       <c r="B2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Feb 2024</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+5, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 Apr 2024</v>
       </c>
       <c r="C2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Mar 2024</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+6, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 May 2024</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFE097-22D6-4B00-9E90-9129E84E5DAC}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BFE097-22D6-4B00-9E90-9129E84E5DAC}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="23.6640625" collapsed="true"/>
+    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -7067,29 +7120,29 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-02"</f>
-        <v>rcAB02-2311001-02</v>
+        <v>rcAB07-2311001-02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AD534-E497-4569-89C5-81CBABA793F3}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AD534-E497-4569-89C5-81CBABA793F3}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="7" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -7177,38 +7230,38 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="33">
+      <c r="O2" s="33" t="n">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="P2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P2" s="33" t="n">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="Q2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="R2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="S2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="S2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7237,34 +7290,34 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000</v>
-      </c>
-      <c r="K3" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="33">
+      <c r="O3" s="33" t="n">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="P3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P3" s="33" t="n">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500</v>
-      </c>
-      <c r="Q3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="R3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="S3" s="33"/>
     </row>
@@ -7294,34 +7347,34 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="33" t="n">
         <f>'TC11-Order Regular'!B4</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N4" s="12"/>
-      <c r="O4" s="33">
+      <c r="O4" s="33" t="n">
         <f>'TC11-Order Regular'!D4</f>
-        <v>500</v>
-      </c>
-      <c r="P4" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P4" s="33" t="n">
         <f>'TC11-Order Regular'!E4</f>
-        <v>500</v>
-      </c>
-      <c r="Q4" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q4" s="33" t="n">
         <f>'TC25-Customer Order Change'!D4</f>
-        <v>500</v>
-      </c>
-      <c r="R4" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R4" s="33" t="n">
         <f>'TC25-Customer Order Change'!E4</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="S4" s="33"/>
     </row>
@@ -7353,13 +7406,13 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="33" t="n">
         <f>'TC11-Order Regular'!B5</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
@@ -7367,17 +7420,17 @@
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="33">
+      <c r="P5" s="33" t="n">
         <f>'TC11-Order Regular'!E5</f>
-        <v>1000</v>
-      </c>
-      <c r="Q5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="Q5" s="33" t="n">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
-      </c>
-      <c r="R5" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R5" s="33" t="n">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="S5" s="12"/>
     </row>
@@ -7409,30 +7462,30 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="33" t="n">
         <f>'TC11-Order Regular'!B6</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="33">
+      <c r="O6" s="33" t="n">
         <f>'TC11-Order Regular'!D6</f>
-        <v>500</v>
-      </c>
-      <c r="P6" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P6" s="33" t="n">
         <f>'TC11-Order Regular'!E6</f>
-        <v>500</v>
-      </c>
-      <c r="Q6" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q6" s="33" t="n">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
@@ -7465,51 +7518,51 @@
       <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="33" t="n">
         <f>'TC11-Order Regular'!B7</f>
-        <v>1000</v>
-      </c>
-      <c r="K7" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N7" s="12"/>
-      <c r="O7" s="33">
+      <c r="O7" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="P7" s="33"/>
       <c r="Q7" s="12"/>
-      <c r="R7" s="33">
+      <c r="R7" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="S7" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F6C0E8-E3D6-4001-B659-6B8372626CDE}">
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F6C0E8-E3D6-4001-B659-6B8372626CDE}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -7592,38 +7645,38 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="33">
+      <c r="O2" s="33" t="n">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="P2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P2" s="33" t="n">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="Q2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="R2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="S2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="S2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7647,42 +7700,42 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000</v>
-      </c>
-      <c r="K3" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="33">
+      <c r="O3" s="33" t="n">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="P3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P3" s="33" t="n">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500</v>
-      </c>
-      <c r="Q3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="R3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="S3" s="33"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="19" t="str">
-        <f>'TC4-Contract Parts Info'!B5</f>
-        <v>SG-TTVP:20230504-004</v>
+        <f>'TC4-Contract Parts Info'!B4</f>
+        <v>SG-TTVP:20230504-003</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="12" t="s">
@@ -7691,7 +7744,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="H4" s="12">
         <v>5</v>
@@ -7699,88 +7752,91 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
-        <f>'TC11-Order Regular'!B5</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
-        <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+      <c r="J4" s="33" t="n">
+        <f>'TC11-Order Regular'!B4</f>
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
+        <f>'TC25-Customer Order Change'!C4</f>
+        <v>1000.0</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N4" s="12"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33">
-        <f>'TC11-Order Regular'!E5</f>
-        <v>1000</v>
-      </c>
-      <c r="Q4" s="33">
-        <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
-      </c>
-      <c r="R4" s="33">
-        <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
-      </c>
-      <c r="S4" s="12"/>
+      <c r="O4" s="33" t="n">
+        <f>'TC11-Order Regular'!D4</f>
+        <v>500.0</v>
+      </c>
+      <c r="P4" s="33" t="n">
+        <f>'TC11-Order Regular'!E4</f>
+        <v>500.0</v>
+      </c>
+      <c r="Q4" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D4</f>
+        <v>500.0</v>
+      </c>
+      <c r="R4" s="33" t="n">
+        <f>'TC25-Customer Order Change'!E4</f>
+        <v>500.0</v>
+      </c>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="19" t="str">
-        <f>'TC4-Contract Parts Info'!B6</f>
-        <v>SG-TTVP:20230504-005</v>
+        <f>'TC4-Contract Parts Info'!B5</f>
+        <v>SG-TTVP:20230504-004</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="H5" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
-        <f>'TC11-Order Regular'!B6</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
-        <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+      <c r="J5" s="33" t="n">
+        <f>'TC11-Order Regular'!B5</f>
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!C5</f>
+        <v>1000.0</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="33">
-        <f>'TC11-Order Regular'!D6</f>
-        <v>500</v>
-      </c>
-      <c r="P5" s="33">
-        <f>'TC11-Order Regular'!E6</f>
-        <v>500</v>
-      </c>
-      <c r="Q5" s="33">
-        <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
-      </c>
-      <c r="R5" s="12"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33" t="n">
+        <f>'TC11-Order Regular'!E5</f>
+        <v>1000.0</v>
+      </c>
+      <c r="Q5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D5</f>
+        <v>500.0</v>
+      </c>
+      <c r="R5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!E5</f>
+        <v>500.0</v>
+      </c>
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="19" t="str">
-        <f>'TC4-Contract Parts Info'!B7</f>
-        <v>SG-TTVP:20230504-006</v>
+        <f>'TC4-Contract Parts Info'!B6</f>
+        <v>SG-TTVP:20230504-005</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="12" t="s">
@@ -7797,49 +7853,98 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
-        <f>'TC11-Order Regular'!B7</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
-        <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+      <c r="J6" s="33" t="n">
+        <f>'TC11-Order Regular'!B6</f>
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
+        <f>'TC25-Customer Order Change'!C6</f>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="33">
+      <c r="O6" s="33" t="n">
+        <f>'TC11-Order Regular'!D6</f>
+        <v>500.0</v>
+      </c>
+      <c r="P6" s="33" t="n">
+        <f>'TC11-Order Regular'!E6</f>
+        <v>500.0</v>
+      </c>
+      <c r="Q6" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D6</f>
+        <v>1000.0</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="19" t="str">
+        <f>'TC4-Contract Parts Info'!B7</f>
+        <v>SG-TTVP:20230504-006</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="12">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12">
+        <v>10</v>
+      </c>
+      <c r="J7" s="33" t="n">
+        <f>'TC11-Order Regular'!B7</f>
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="33" t="n">
+        <f>'TC25-Customer Order Change'!C7</f>
+        <v>1000.0</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000</v>
-      </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
-      </c>
-      <c r="S6" s="12"/>
+        <v>1000.0</v>
+      </c>
+      <c r="S7" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A7952-0ADD-46CB-BCDD-5633F7A7D19C}">
-  <dimension ref="A1:R6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A7952-0ADD-46CB-BCDD-5633F7A7D19C}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="18" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="18" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="19" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -7919,38 +8024,38 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="33" t="n">
         <f>'TC11-Order Regular'!B2</f>
-        <v>1000</v>
-      </c>
-      <c r="J2" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M2" s="12"/>
-      <c r="N2" s="33">
+      <c r="N2" s="33" t="n">
         <f>'TC11-Order Regular'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="O2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="O2" s="33" t="n">
         <f>'TC11-Order Regular'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="P2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
-      </c>
-      <c r="Q2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
-      </c>
-      <c r="R2" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -7974,51 +8079,51 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="33" t="n">
         <f>'TC11-Order Regular'!B3</f>
-        <v>1000</v>
-      </c>
-      <c r="J3" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M3" s="12"/>
-      <c r="N3" s="33">
+      <c r="N3" s="33" t="n">
         <f>'TC11-Order Regular'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="O3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="O3" s="33" t="n">
         <f>'TC11-Order Regular'!E3</f>
-        <v>500</v>
-      </c>
-      <c r="P3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="P3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
-      </c>
-      <c r="Q3" s="33">
+        <v>500.0</v>
+      </c>
+      <c r="Q3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="R3" s="33"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C5</f>
-        <v>scenario1220230504004</v>
+        <f>'TC4-Contract Parts Info'!C4</f>
+        <v>scenario1220230504003</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f>'TC7-Contract Parts Info'!B5</f>
-        <v>SG-BAFCO:20230504-004</v>
+        <f>'TC7-Contract Parts Info'!B4</f>
+        <v>SG-BAFCO:20230504-003</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="G4" s="12">
         <v>5</v>
@@ -8026,91 +8131,94 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33">
-        <f>'TC11-Order Regular'!B5</f>
-        <v>1000</v>
-      </c>
-      <c r="J4" s="33">
-        <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+      <c r="I4" s="33" t="n">
+        <f>'TC11-Order Regular'!B4</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J4" s="33" t="n">
+        <f>'TC25-Customer Order Change'!C4</f>
+        <v>1000.0</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M4" s="12"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33">
-        <f>'TC11-Order Regular'!E5</f>
-        <v>1000</v>
-      </c>
-      <c r="P4" s="33">
-        <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
-      </c>
-      <c r="Q4" s="33">
-        <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
+      <c r="N4" s="33" t="n">
+        <f>'TC11-Order Regular'!D4</f>
+        <v>500.0</v>
+      </c>
+      <c r="O4" s="33" t="n">
+        <f>'TC11-Order Regular'!E4</f>
+        <v>500.0</v>
+      </c>
+      <c r="P4" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D4</f>
+        <v>500.0</v>
+      </c>
+      <c r="Q4" s="33" t="n">
+        <f>'TC25-Customer Order Change'!E4</f>
+        <v>500.0</v>
       </c>
       <c r="R4" s="33"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C6</f>
-        <v>scenario1220230504005</v>
+        <f>'TC4-Contract Parts Info'!C5</f>
+        <v>scenario1220230504004</v>
       </c>
       <c r="B5" s="19" t="str">
-        <f>'TC7-Contract Parts Info'!B6</f>
-        <v>SG-BAFCO:20230504-005</v>
+        <f>'TC7-Contract Parts Info'!B5</f>
+        <v>SG-BAFCO:20230504-004</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="21"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="G5" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33">
-        <f>'TC11-Order Regular'!B6</f>
-        <v>1000</v>
-      </c>
-      <c r="J5" s="33">
-        <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+      <c r="I5" s="33" t="n">
+        <f>'TC11-Order Regular'!B5</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!C5</f>
+        <v>1000.0</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M5" s="12"/>
-      <c r="N5" s="33">
-        <f>'TC11-Order Regular'!D6</f>
-        <v>500</v>
-      </c>
-      <c r="O5" s="33">
-        <f>'TC11-Order Regular'!E6</f>
-        <v>500</v>
-      </c>
-      <c r="P5" s="33">
-        <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
-      </c>
-      <c r="Q5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33" t="n">
+        <f>'TC11-Order Regular'!E5</f>
+        <v>1000.0</v>
+      </c>
+      <c r="P5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D5</f>
+        <v>500.0</v>
+      </c>
+      <c r="Q5" s="33" t="n">
+        <f>'TC25-Customer Order Change'!E5</f>
+        <v>500.0</v>
+      </c>
       <c r="R5" s="33"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="str">
-        <f>'TC4-Contract Parts Info'!C7</f>
-        <v>scenario1220230504006</v>
+        <f>'TC4-Contract Parts Info'!C6</f>
+        <v>scenario1220230504005</v>
       </c>
       <c r="B6" s="19" t="str">
-        <f>'TC7-Contract Parts Info'!B7</f>
-        <v>SG-BAFCO:20230504-006</v>
+        <f>'TC7-Contract Parts Info'!B6</f>
+        <v>SG-BAFCO:20230504-005</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="12"/>
@@ -8124,49 +8232,98 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33">
-        <f>'TC11-Order Regular'!B7</f>
-        <v>1000</v>
-      </c>
-      <c r="J6" s="33">
-        <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+      <c r="I6" s="33" t="n">
+        <f>'TC11-Order Regular'!B6</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J6" s="33" t="n">
+        <f>'TC25-Customer Order Change'!C6</f>
+        <v>1000.0</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
         <v>196</v>
       </c>
       <c r="M6" s="12"/>
-      <c r="N6" s="33">
+      <c r="N6" s="33" t="n">
+        <f>'TC11-Order Regular'!D6</f>
+        <v>500.0</v>
+      </c>
+      <c r="O6" s="33" t="n">
+        <f>'TC11-Order Regular'!E6</f>
+        <v>500.0</v>
+      </c>
+      <c r="P6" s="33" t="n">
+        <f>'TC25-Customer Order Change'!D6</f>
+        <v>1000.0</v>
+      </c>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="str">
+        <f>'TC4-Contract Parts Info'!C7</f>
+        <v>scenario1220230504006</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>'TC7-Contract Parts Info'!B7</f>
+        <v>SG-BAFCO:20230504-006</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="12">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12">
+        <v>10</v>
+      </c>
+      <c r="I7" s="33" t="n">
+        <f>'TC11-Order Regular'!B7</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J7" s="33" t="n">
+        <f>'TC25-Customer Order Change'!C7</f>
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="33" t="n">
         <f>'TC11-Order Regular'!D7</f>
-        <v>1000</v>
-      </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
-      </c>
-      <c r="R6" s="33"/>
+        <v>1000.0</v>
+      </c>
+      <c r="R7" s="33"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7616B-F775-4E70-AF8C-CF1D4B0931E0}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7616B-F775-4E70-AF8C-CF1D4B0931E0}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -8240,7 +8397,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -8251,9 +8408,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="I2" s="12">
         <v>0</v>
@@ -8270,23 +8427,23 @@
       <c r="M2" s="12">
         <v>0</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="33" t="n">
         <f>'TC25-Customer Order Change'!D2</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="33" t="n">
         <f>'TC25-Customer Order Change'!E2</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="Q2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="33" t="n">
         <f>'TC25-Customer Order Change'!F2</f>
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>138</v>
@@ -8304,7 +8461,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -8315,9 +8472,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="I3" s="12">
         <v>0</v>
@@ -8334,16 +8491,16 @@
       <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="33" t="n">
         <f>'TC25-Customer Order Change'!D3</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O3" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="33" t="n">
         <f>'TC25-Customer Order Change'!E3</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="Q3" s="33" t="s">
         <v>138</v>
@@ -8367,7 +8524,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -8378,9 +8535,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -8397,16 +8554,16 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="33" t="n">
         <f>'TC25-Customer Order Change'!D4</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O4" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="33" t="n">
         <f>'TC25-Customer Order Change'!E4</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="Q4" s="33" t="s">
         <v>138</v>
@@ -8430,7 +8587,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -8441,9 +8598,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -8460,16 +8617,16 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="33" t="n">
         <f>'TC25-Customer Order Change'!D5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="O5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="33" t="n">
         <f>'TC25-Customer Order Change'!E5</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="Q5" s="33" t="s">
         <v>138</v>
@@ -8493,7 +8650,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -8504,9 +8661,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -8523,9 +8680,9 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="33" t="n">
         <f>'TC25-Customer Order Change'!D6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="O6" s="33" t="s">
         <v>138</v>
@@ -8555,7 +8712,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -8566,9 +8723,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -8591,9 +8748,9 @@
       <c r="O7" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="33" t="n">
         <f>'TC25-Customer Order Change'!E7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="Q7" s="33" t="s">
         <v>138</v>
@@ -8607,23 +8764,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681AF69-CF1C-4F30-B068-83994D54CBFD}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681AF69-CF1C-4F30-B068-83994D54CBFD}">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="P18" sqref="P18:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -8712,7 +8869,7 @@
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>34</v>
@@ -8723,9 +8880,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="I2" s="12">
         <v>10.5</v>
@@ -8788,7 +8945,7 @@
       </c>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>34</v>
@@ -8799,9 +8956,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="I3" s="12">
         <v>10.5</v>
@@ -8864,7 +9021,7 @@
       </c>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -8875,9 +9032,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I4" s="12">
         <v>10.5</v>
@@ -8940,7 +9097,7 @@
       </c>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
@@ -8951,9 +9108,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I5" s="12">
         <v>10.5</v>
@@ -9016,7 +9173,7 @@
       </c>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
@@ -9027,9 +9184,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I6" s="12">
         <v>10.5</v>
@@ -9092,7 +9249,7 @@
       </c>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC11-Customer CO'!B2</f>
-        <v>cAB02-2311001</v>
+        <v>cAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>34</v>
@@ -9103,9 +9260,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I7" s="12">
         <v>10.5</v>
@@ -9158,23 +9315,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705F6D6-565D-4C84-AB8E-51ADA624FC86}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="19" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="19" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -9246,7 +9403,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>81</v>
@@ -9260,9 +9417,9 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="J2" s="12">
         <v>2</v>
@@ -9305,7 +9462,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>81</v>
@@ -9319,9 +9476,9 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="J3" s="12">
         <v>2</v>
@@ -9364,7 +9521,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>81</v>
@@ -9378,9 +9535,9 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J4" s="12">
         <v>2</v>
@@ -9423,7 +9580,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>81</v>
@@ -9437,9 +9594,9 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J5" s="12">
         <v>2</v>
@@ -9482,7 +9639,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>81</v>
@@ -9496,9 +9653,9 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J6" s="12">
         <v>2</v>
@@ -9541,7 +9698,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC14-BU SO'!B2</f>
-        <v>sAB02-2311001</v>
+        <v>sAB07-2311001</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>81</v>
@@ -9555,9 +9712,9 @@
       <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J7" s="12">
         <v>2</v>
@@ -9592,13 +9749,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -9606,9 +9763,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -9625,28 +9782,28 @@
       </c>
       <c r="B2" s="22" t="str">
         <f>"RequestPart-"&amp;'TC4'!H2</f>
-        <v>RequestPart-AB-02</v>
+        <v>RequestPart-AB-07</v>
       </c>
       <c r="C2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281D8027-9DBB-4FB0-90BC-C2CA75E22329}">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281D8027-9DBB-4FB0-90BC-C2CA75E22329}">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="24" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="24" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -9733,7 +9890,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs02-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>34</v>
@@ -9744,9 +9901,9 @@
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="I2" s="12">
         <v>2</v>
@@ -9807,7 +9964,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs02-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>34</v>
@@ -9818,9 +9975,9 @@
       <c r="G3" s="12">
         <v>10</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="I3" s="12">
         <v>2</v>
@@ -9881,7 +10038,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs02-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>34</v>
@@ -9892,9 +10049,9 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I4" s="12">
         <v>2</v>
@@ -9955,7 +10112,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs02-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>34</v>
@@ -9966,9 +10123,9 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I5" s="12">
         <v>2</v>
@@ -10029,7 +10186,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs02-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>34</v>
@@ -10040,9 +10197,9 @@
       <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I6" s="12">
         <v>2</v>
@@ -10103,7 +10260,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="str">
         <f ca="1">'TC15-BU PO'!B2</f>
-        <v>pABs02-2311001</v>
+        <v>pABs07-2311001</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>34</v>
@@ -10114,9 +10271,9 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
@@ -10169,23 +10326,190 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85C8B0-8ABC-42B6-BDDD-C373C0238928}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="33">
+        <v>500</v>
+      </c>
+      <c r="E2" s="33">
+        <v>500</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="33">
+        <v>800</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="33">
+        <v>800</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="33">
+        <v>900</v>
+      </c>
+      <c r="D4" s="33">
+        <v>500</v>
+      </c>
+      <c r="E4" s="33">
+        <v>400</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="33">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="33">
+        <v>200</v>
+      </c>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="33">
+        <v>500</v>
+      </c>
+      <c r="E6" s="33">
+        <v>500</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1100</v>
+      </c>
+      <c r="D7" s="33">
+        <v>500</v>
+      </c>
+      <c r="E7" s="33">
+        <v>500</v>
+      </c>
+      <c r="F7" s="33">
+        <v>100</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BFD69A-E4E5-4B06-9AF4-8414F30A27D9}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -10207,206 +10531,39 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Dec 2023</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 Dec 2023</v>
       </c>
       <c r="B2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Jan 2024</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 Jan 2024</v>
       </c>
       <c r="C2" s="12" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Feb 2024</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+3, DAY(TODAY()+2)), "dd MMM yyyy")</f>
+        <v>16 Feb 2024</v>
       </c>
       <c r="D2" s="12" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+4, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 Mar 2024</v>
+        <v>14 Mar 2024</v>
       </c>
       <c r="E2" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85C8B0-8ABC-42B6-BDDD-C373C0238928}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="33">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="33">
-        <v>500</v>
-      </c>
-      <c r="E2" s="33">
-        <v>500</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="33">
-        <v>800</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="33">
-        <v>800</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="33">
-        <v>900</v>
-      </c>
-      <c r="D4" s="33">
-        <v>500</v>
-      </c>
-      <c r="E4" s="33">
-        <v>400</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="33">
-        <v>1200</v>
-      </c>
-      <c r="D5" s="33">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="33">
-        <v>200</v>
-      </c>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="33">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="33">
-        <v>500</v>
-      </c>
-      <c r="E6" s="33">
-        <v>500</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="33">
-        <v>1100</v>
-      </c>
-      <c r="D7" s="33">
-        <v>500</v>
-      </c>
-      <c r="E7" s="33">
-        <v>500</v>
-      </c>
-      <c r="F7" s="33">
-        <v>100</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37060D-3EB1-4D52-AF9A-FDEBDE974A12}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37060D-3EB1-4D52-AF9A-FDEBDE974A12}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -10417,27 +10574,27 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
         <f ca="1">"rs"&amp;AutoIncrement!C2&amp;AutoIncrement!A2&amp;"-23"&amp;TEXT(TODAY(),"mm")&amp;"001-01"</f>
-        <v>rsABs02-2311001-01</v>
+        <v>rsABs07-2311001-01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F7D49-70C3-401C-97E6-E9D888543863}">
-  <dimension ref="A1:V7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46F7D49-70C3-401C-97E6-E9D888543863}">
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -10527,13 +10684,13 @@
       <c r="H2" s="12">
         <v>10</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
-      </c>
-      <c r="J2" s="33">
+        <v>1100.0</v>
+      </c>
+      <c r="J2" s="33" t="n">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K2" s="12">
         <v>0</v>
@@ -10581,13 +10738,13 @@
       <c r="H3" s="12">
         <v>10</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
-      </c>
-      <c r="J3" s="33">
+        <v>900.0</v>
+      </c>
+      <c r="J3" s="33" t="n">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="K3" s="12">
         <v>0</v>
@@ -10631,13 +10788,13 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
-      </c>
-      <c r="J4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J4" s="33" t="n">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="K4" s="12">
         <v>0</v>
@@ -10683,13 +10840,13 @@
       <c r="H5" s="12">
         <v>10</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
-      </c>
-      <c r="J5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J5" s="33" t="n">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200</v>
+        <v>1200.0</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
@@ -10735,13 +10892,13 @@
       <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
-      </c>
-      <c r="J6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J6" s="33" t="n">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="K6" s="12">
         <v>0</v>
@@ -10785,13 +10942,13 @@
       <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
-      </c>
-      <c r="J7" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="J7" s="33" t="n">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="K7" s="12">
         <v>0</v>
@@ -10820,23 +10977,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC42DFF-227A-43C8-9477-ADF9903AD82A}">
-  <dimension ref="A1:W7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC42DFF-227A-43C8-9477-ADF9903AD82A}">
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="23" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="24" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -10934,13 +11091,13 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1100.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -10993,13 +11150,13 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
-      </c>
-      <c r="K3" s="33">
+        <v>900.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -11048,13 +11205,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -11105,13 +11262,13 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200</v>
+        <v>1200.0</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -11162,13 +11319,13 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -11217,13 +11374,13 @@
       <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
-      </c>
-      <c r="K7" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="33" t="n">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -11252,25 +11409,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6AD75-D8FC-4DC9-9657-3CCEA1DADDC8}">
-  <dimension ref="A1:AD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6AD75-D8FC-4DC9-9657-3CCEA1DADDC8}">
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="30" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="31" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="7" max="30" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="31" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -11389,13 +11546,13 @@
       <c r="I2" s="12">
         <v>10</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="33" t="n">
         <f>'TC25-Customer Order Change'!C2</f>
-        <v>1100</v>
-      </c>
-      <c r="K2" s="33">
+        <v>1100.0</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <f>'TC33-New Firm Qty'!C2</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -11465,13 +11622,13 @@
       <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="33" t="n">
         <f>'TC25-Customer Order Change'!C3</f>
-        <v>900</v>
-      </c>
-      <c r="K3" s="33">
+        <v>900.0</v>
+      </c>
+      <c r="K3" s="33" t="n">
         <f>'TC33-New Firm Qty'!C3</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -11535,13 +11692,13 @@
       <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="33" t="n">
         <f>'TC25-Customer Order Change'!C4</f>
-        <v>1000</v>
-      </c>
-      <c r="K4" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" s="33" t="n">
         <f>'TC33-New Firm Qty'!C4</f>
-        <v>900</v>
+        <v>900.0</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -11609,13 +11766,13 @@
       <c r="I5" s="12">
         <v>10</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="33" t="n">
         <f>'TC25-Customer Order Change'!C5</f>
-        <v>1000</v>
-      </c>
-      <c r="K5" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" s="33" t="n">
         <f>'TC33-New Firm Qty'!C5</f>
-        <v>1200</v>
+        <v>1200.0</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -11683,13 +11840,13 @@
       <c r="I6" s="12">
         <v>10</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="33" t="n">
         <f>'TC25-Customer Order Change'!C6</f>
-        <v>1000</v>
-      </c>
-      <c r="K6" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="33" t="n">
         <f>'TC33-New Firm Qty'!C6</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -11753,13 +11910,13 @@
       <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="33" t="n">
         <f>'TC25-Customer Order Change'!C7</f>
-        <v>1000</v>
-      </c>
-      <c r="K7" s="33">
+        <v>1000.0</v>
+      </c>
+      <c r="K7" s="33" t="n">
         <f>'TC33-New Firm Qty'!C7</f>
-        <v>1100</v>
+        <v>1100.0</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -11803,29 +11960,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32F6EF-C79A-4E20-806A-C9305FB64608}">
-  <dimension ref="A1:W8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32F6EF-C79A-4E20-806A-C9305FB64608}">
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="23" width="15.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.77734375" style="8" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="8" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="8" width="25.77734375" collapsed="true"/>
+    <col min="4" max="23" customWidth="true" style="8" width="15.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="8" width="20.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="8" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.8" r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>215</v>
       </c>
@@ -11969,27 +12126,27 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="str">
-        <f ca="1">"o-SG-BAFCO-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-SG-BAFCO-2311-AB-02-001</v>
+        <f ca="1"><![CDATA["o-SG-BAFCO-"&TEXT(TODAY(),"yymm")&"-"&AutoIncrement!B2&"-"&AutoIncrement!A2&"-001"]]></f>
+        <v>o-SG-BAFCO-2311-AB-07-001</v>
       </c>
       <c r="B3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())-1), "dd MMM yyyy")</f>
-        <v>09 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="C3" s="37" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymm")&amp;"-"&amp;AutoIncrement!B2&amp; "-01-0"&amp;AutoIncrement!A2</f>
-        <v>B-2311-AB-01-002</v>
+        <v>B-2311-AB-01-007</v>
       </c>
       <c r="D3" s="38">
         <v>1000</v>
       </c>
       <c r="E3" s="37" t="str">
-        <f t="shared" ref="E3:E8" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <f ca="1" ref="E3:E8" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+2), "dd MMM yyyy")</f>
+        <v>16 Nov 2023</v>
       </c>
       <c r="F3" s="37" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+10), "dd MMM yyyy")</f>
-        <v>20 Nov 2023</v>
+        <v>24 Nov 2023</v>
       